--- a/lo_et_al/Raw_output_and_evaluation.xlsx
+++ b/lo_et_al/Raw_output_and_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rg9/rg9_documents/GPS/trumps/LID_GPSC/Submission/Github/Paper2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE1A1F5-96CF-2344-901E-162972A96D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2449B232-06D2-A446-A84C-DD0AAA7BE9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FigS2-4_postPCV13_IRR'!$A$2:$Q$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FigS2-4_postPCV7_IRR'!$A$2:$Q$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tab2_postPCV13_IRR_NVT_GPSCtype!$A$1:$U$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tab2_postPCV13_IRR_NVT_GPSCtype!$A$1:$Y$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tab3_multiperiod_summary_glmIRR!$A$1:$AC$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tab3_postPCV7_postPCV13_IRR!$A$1:$V$44</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="96">
   <si>
     <t>Country</t>
   </si>
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>Pre</t>
+  </si>
+  <si>
+    <t>IRR_average</t>
+  </si>
+  <si>
+    <t>adj.avg.p</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -1373,15 +1385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B82DB8-1B42-FB4D-A275-F408E811E5D1}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +1436,20 @@
       <c r="N1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1468,8 +1492,20 @@
       <c r="N2">
         <v>8.1555622514315207</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0.26597868501743299</v>
+      </c>
+      <c r="P2">
+        <v>0.23165339590311901</v>
+      </c>
+      <c r="Q2">
+        <v>0.30458016626702999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1512,8 +1548,20 @@
       <c r="N3">
         <v>12.0453383344089</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>8.3456762094971604E-2</v>
+      </c>
+      <c r="P3">
+        <v>6.9911065924602805E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.9043666061653393E-2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1555,6 +1603,18 @@
       </c>
       <c r="N4">
         <v>29.319583482013801</v>
+      </c>
+      <c r="O4">
+        <v>0.42024151655949399</v>
+      </c>
+      <c r="P4">
+        <v>0.34292959279463597</v>
+      </c>
+      <c r="Q4">
+        <v>0.51306661204568704</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1800,15 +1860,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A74A4-F052-EE48-8299-26F7A9C6E537}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="R1" sqref="R1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="50" customHeight="1">
+    <row r="1" spans="1:22" ht="50" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
@@ -1825,7 +1885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1877,8 +1937,23 @@
       <c r="Q2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1930,8 +2005,23 @@
       <c r="Q3">
         <v>1.2620950778291899</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.62291403730192096</v>
+      </c>
+      <c r="S3">
+        <v>0.182448466091961</v>
+      </c>
+      <c r="T3">
+        <v>1.9595854359532401</v>
+      </c>
+      <c r="U3">
+        <v>0.36466447280367498</v>
+      </c>
+      <c r="V3">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1983,8 +2073,23 @@
       <c r="Q4">
         <v>6.7311737484223997</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>0.416846800859766</v>
+      </c>
+      <c r="U4">
+        <v>1.0700464031124801E-3</v>
+      </c>
+      <c r="V4">
+        <v>3.6903830331597499E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2036,8 +2141,23 @@
       <c r="Q5">
         <v>1.2620950778291999</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <v>0.79357179744819295</v>
+      </c>
+      <c r="U5">
+        <v>1.12754067716968E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.6111468313403101E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2089,8 +2209,23 @@
       <c r="Q6">
         <v>2.5241901556583901</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6">
+        <v>0.54738556246521597</v>
+      </c>
+      <c r="U6">
+        <v>3.4328430573733501E-3</v>
+      </c>
+      <c r="V6">
+        <v>9.5568898030902408E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -2142,8 +2277,23 @@
       <c r="Q7">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.75881610532307</v>
+      </c>
+      <c r="S7">
+        <v>0.94797212341522596</v>
+      </c>
+      <c r="T7">
+        <v>3.3769623718421902</v>
+      </c>
+      <c r="U7">
+        <v>5.6596992909847502E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.103761153668054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2195,8 +2345,23 @@
       <c r="Q8">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8">
+        <v>0.473380585883238</v>
+      </c>
+      <c r="U8">
+        <v>1.9121140352708101E-3</v>
+      </c>
+      <c r="V8">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2248,8 +2413,23 @@
       <c r="Q9">
         <v>4.83803113167858</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.50965693961066305</v>
+      </c>
+      <c r="S9">
+        <v>0.22989425389351401</v>
+      </c>
+      <c r="T9">
+        <v>1.0755202087920599</v>
+      </c>
+      <c r="U9">
+        <v>5.5635121041307502E-2</v>
+      </c>
+      <c r="V9">
+        <v>0.103761153668054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2301,8 +2481,23 @@
       <c r="Q10">
         <v>0.63104753891459997</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10">
+        <v>7.9822180507560306E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3.9317438194075302E-12</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3.84437173453181E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2354,8 +2549,23 @@
       <c r="Q11">
         <v>4.8380311316785898</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.70077829196466102</v>
+      </c>
+      <c r="S11">
+        <v>0.102653250831634</v>
+      </c>
+      <c r="T11">
+        <v>4.1423097239688902</v>
+      </c>
+      <c r="U11">
+        <v>0.63978701350407696</v>
+      </c>
+      <c r="V11">
+        <v>0.70376571485448502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -2407,8 +2617,23 @@
       <c r="Q12">
         <v>0.21034917963819999</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.40155658392932</v>
+      </c>
+      <c r="S12">
+        <v>0.332363332383601</v>
+      </c>
+      <c r="T12">
+        <v>6.7526194648795004</v>
+      </c>
+      <c r="U12">
+        <v>0.59925919991353205</v>
+      </c>
+      <c r="V12">
+        <v>0.66752923534671904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2460,8 +2685,23 @@
       <c r="Q13">
         <v>0.63104753891459897</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13">
+        <v>1.4154477470137099</v>
+      </c>
+      <c r="U13">
+        <v>3.8542150189435201E-2</v>
+      </c>
+      <c r="V13">
+        <v>7.3732809058050006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2513,8 +2753,23 @@
       <c r="Q14">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.23359276398821999</v>
+      </c>
+      <c r="S14">
+        <v>7.8097262097688497E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.58657981629839695</v>
+      </c>
+      <c r="U14">
+        <v>5.1255746115108603E-4</v>
+      </c>
+      <c r="V14">
+        <v>2.0502298446043398E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2566,8 +2821,23 @@
       <c r="Q15">
         <v>0.21034917963819999</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.8687421119057599</v>
+      </c>
+      <c r="S15">
+        <v>0.39910184763057699</v>
+      </c>
+      <c r="T15">
+        <v>11.5481038187691</v>
+      </c>
+      <c r="U15">
+        <v>0.36879664225547798</v>
+      </c>
+      <c r="V15">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2619,8 +2889,23 @@
       <c r="Q16">
         <v>0.21034917963819999</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.97684246758710402</v>
+      </c>
+      <c r="S16">
+        <v>0.52044726845266898</v>
+      </c>
+      <c r="T16">
+        <v>1.83796572162088</v>
+      </c>
+      <c r="U16">
+        <v>0.93737729390381996</v>
+      </c>
+      <c r="V16">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2672,8 +2957,23 @@
       <c r="Q17">
         <v>1.2620950778291899</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17">
+        <v>0.212521436001712</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1.13839028472729E-5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>7.7060265427693494E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2725,8 +3025,23 @@
       <c r="Q18">
         <v>4.2069835927639696</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18">
+        <v>0.64827970121759404</v>
+      </c>
+      <c r="U18">
+        <v>6.1987131981785498E-3</v>
+      </c>
+      <c r="V18">
+        <v>1.5585336041134599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2778,8 +3093,23 @@
       <c r="Q19">
         <v>1.2620950778291999</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19">
+        <v>1.0196596098487301</v>
+      </c>
+      <c r="U19">
+        <v>2.07084650053092E-2</v>
+      </c>
+      <c r="V19">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2831,8 +3161,23 @@
       <c r="Q20">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>3.11457018650961</v>
+      </c>
+      <c r="S20">
+        <v>1.2063491420618899</v>
+      </c>
+      <c r="T20">
+        <v>9.4775957528989707</v>
+      </c>
+      <c r="U20">
+        <v>1.00508711944973E-2</v>
+      </c>
+      <c r="V20">
+        <v>2.3904774732858399E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2884,8 +3229,23 @@
       <c r="Q21">
         <v>0.63104753891460097</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21">
+        <v>0.473380585883238</v>
+      </c>
+      <c r="U21">
+        <v>1.9121140352708101E-3</v>
+      </c>
+      <c r="V21">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2937,8 +3297,23 @@
       <c r="Q22">
         <v>1.2620950778291999</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S22">
+        <v>0.12514740569740801</v>
+      </c>
+      <c r="T22">
+        <v>6.9761675468801601</v>
+      </c>
+      <c r="U22">
+        <v>0.93372957699986303</v>
+      </c>
+      <c r="V22">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2990,8 +3365,23 @@
       <c r="Q23">
         <v>1.2620950778291899</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>2.1023348758939799</v>
+      </c>
+      <c r="S23">
+        <v>0.58675766513616301</v>
+      </c>
+      <c r="T23">
+        <v>9.3424327387332298</v>
+      </c>
+      <c r="U23">
+        <v>0.20582052907013099</v>
+      </c>
+      <c r="V23">
+        <v>0.296921418986418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3043,8 +3433,23 @@
       <c r="Q24">
         <v>1.8931426167437999</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S24">
+        <v>0.12514740569740801</v>
+      </c>
+      <c r="T24">
+        <v>6.9761675468801601</v>
+      </c>
+      <c r="U24">
+        <v>0.93372957699986303</v>
+      </c>
+      <c r="V24">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3096,8 +3501,23 @@
       <c r="Q25">
         <v>0.21034917963819999</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>1.8687421119057599</v>
+      </c>
+      <c r="S25">
+        <v>0.39910184763057699</v>
+      </c>
+      <c r="T25">
+        <v>11.5481038187691</v>
+      </c>
+      <c r="U25">
+        <v>0.36879664225547798</v>
+      </c>
+      <c r="V25">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -3149,8 +3569,23 @@
       <c r="Q26">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>5.3726335717290699</v>
+      </c>
+      <c r="S26">
+        <v>1.83568812567408</v>
+      </c>
+      <c r="T26">
+        <v>21.372364015014</v>
+      </c>
+      <c r="U26">
+        <v>4.9728665761439295E-4</v>
+      </c>
+      <c r="V26">
+        <v>2.0502298446043398E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3202,8 +3637,23 @@
       <c r="Q27">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>2.8031131678586498</v>
+      </c>
+      <c r="S27">
+        <v>0.50123275056440297</v>
+      </c>
+      <c r="T27">
+        <v>28.3985317495288</v>
+      </c>
+      <c r="U27">
+        <v>0.18716741282034599</v>
+      </c>
+      <c r="V27">
+        <v>0.28189566412969203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3255,8 +3705,23 @@
       <c r="Q28">
         <v>0.21034917963819899</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S28">
+        <v>0.12514740569740801</v>
+      </c>
+      <c r="T28">
+        <v>6.9761675468801601</v>
+      </c>
+      <c r="U28">
+        <v>0.93372957699986303</v>
+      </c>
+      <c r="V28">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -3308,8 +3773,23 @@
       <c r="Q29">
         <v>0.63104753891460097</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29">
+        <v>1.0196596098487301</v>
+      </c>
+      <c r="U29">
+        <v>2.07084650053092E-2</v>
+      </c>
+      <c r="V29">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -3361,8 +3841,23 @@
       <c r="Q30">
         <v>0.40609420414730601</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>2.2949782489266899</v>
+      </c>
+      <c r="S30">
+        <v>1.3876185508449499</v>
+      </c>
+      <c r="T30">
+        <v>3.9663379101299299</v>
+      </c>
+      <c r="U30">
+        <v>6.7055194193688095E-4</v>
+      </c>
+      <c r="V30">
+        <v>2.45869045376856E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -3414,8 +3909,23 @@
       <c r="Q31">
         <v>0.67077053345232296</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0.181182493336318</v>
+      </c>
+      <c r="S31">
+        <v>3.2041514258235503E-2</v>
+      </c>
+      <c r="T31">
+        <v>0.70366364960015304</v>
+      </c>
+      <c r="U31">
+        <v>3.4752326556691799E-3</v>
+      </c>
+      <c r="V31">
+        <v>9.5568898030902408E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3467,8 +3977,23 @@
       <c r="Q32">
         <v>0.56167698913014497</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0.20131388148479701</v>
+      </c>
+      <c r="S32">
+        <v>7.2295113829205601E-2</v>
+      </c>
+      <c r="T32">
+        <v>0.491575445819603</v>
+      </c>
+      <c r="U32" s="1">
+        <v>4.5301282172505202E-5</v>
+      </c>
+      <c r="V32">
+        <v>2.8475091651289E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3520,8 +4045,23 @@
       <c r="Q33">
         <v>0.40711572436664001</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>1.57024827558142</v>
+      </c>
+      <c r="S33">
+        <v>0.52533925449660202</v>
+      </c>
+      <c r="T33">
+        <v>5.6255225123088302</v>
+      </c>
+      <c r="U33">
+        <v>0.38716738865195199</v>
+      </c>
+      <c r="V33">
+        <v>0.46266805080436402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3573,8 +4113,23 @@
       <c r="Q34">
         <v>6.2433940399758601E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>1.44945994669054</v>
+      </c>
+      <c r="S34">
+        <v>0.47532979158780803</v>
+      </c>
+      <c r="T34">
+        <v>5.2518651369600997</v>
+      </c>
+      <c r="U34">
+        <v>0.483082059174476</v>
+      </c>
+      <c r="V34">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3626,8 +4181,23 @@
       <c r="Q35">
         <v>0.42142897743639801</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0.70459858519679097</v>
+      </c>
+      <c r="S35">
+        <v>0.44065462213075202</v>
+      </c>
+      <c r="T35">
+        <v>1.13188475903014</v>
+      </c>
+      <c r="U35">
+        <v>0.12128785014341301</v>
+      </c>
+      <c r="V35">
+        <v>0.20138360023811999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3679,8 +4249,23 @@
       <c r="Q36">
         <v>0.40626488231111502</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0.60394164445439202</v>
+      </c>
+      <c r="S36">
+        <v>0.22560049687636799</v>
+      </c>
+      <c r="T36">
+        <v>1.6167761815975099</v>
+      </c>
+      <c r="U36">
+        <v>0.25446199421759302</v>
+      </c>
+      <c r="V36">
+        <v>0.34988524204919003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
@@ -3732,8 +4317,23 @@
       <c r="Q37">
         <v>0.905292087809624</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>6.9021902223359105E-2</v>
+      </c>
+      <c r="S37">
+        <v>2.8677213687525901E-2</v>
+      </c>
+      <c r="T37">
+        <v>0.14362881081132001</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3785,8 +4385,23 @@
       <c r="Q38">
         <v>4.6708173728254601E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0.81532122001342899</v>
+      </c>
+      <c r="S38">
+        <v>0.44055111453877899</v>
+      </c>
+      <c r="T38">
+        <v>1.5333071601502199</v>
+      </c>
+      <c r="U38">
+        <v>0.48814741561647501</v>
+      </c>
+      <c r="V38">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="8" t="s">
         <v>18</v>
       </c>
@@ -3838,8 +4453,23 @@
       <c r="Q39">
         <v>0.68711390670518302</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>8.05255525939189E-2</v>
+      </c>
+      <c r="S39">
+        <v>3.3251103673822502E-2</v>
+      </c>
+      <c r="T39">
+        <v>0.169071112981587</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
@@ -3891,8 +4521,23 @@
       <c r="Q40">
         <v>0.84285815071927295</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>1.50985411113598E-2</v>
+      </c>
+      <c r="S40">
+        <v>5.4862001778194702E-3</v>
+      </c>
+      <c r="T40">
+        <v>3.3348515503648701E-2</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3944,8 +4589,23 @@
       <c r="Q41">
         <v>1.9038109409856601</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>2.4157665778175699</v>
+      </c>
+      <c r="S41">
+        <v>0.87980799762006101</v>
+      </c>
+      <c r="T41">
+        <v>8.2370582255531009</v>
+      </c>
+      <c r="U41">
+        <v>6.8490924423822097E-2</v>
+      </c>
+      <c r="V41">
+        <v>0.12300410916931299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3997,8 +4657,23 @@
       <c r="Q42">
         <v>0.40712027061407502</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42">
+        <v>0.55342546337251297</v>
+      </c>
+      <c r="T42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U42">
+        <v>8.2258499294885795E-2</v>
+      </c>
+      <c r="V42">
+        <v>0.14477495875899901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -4050,8 +4725,23 @@
       <c r="Q43">
         <v>0.59449332418291101</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0.120788328890878</v>
+      </c>
+      <c r="S43">
+        <v>2.5537973546603601E-3</v>
+      </c>
+      <c r="T43">
+        <v>1.0794470242949199</v>
+      </c>
+      <c r="U43">
+        <v>2.0924285809798999E-2</v>
+      </c>
+      <c r="V43">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -4103,8 +4793,23 @@
       <c r="Q44">
         <v>0.15608484272579001</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>1.44945994669054</v>
+      </c>
+      <c r="S44">
+        <v>0.47532979158780803</v>
+      </c>
+      <c r="T44">
+        <v>5.2518651369600997</v>
+      </c>
+      <c r="U44">
+        <v>0.483082059174476</v>
+      </c>
+      <c r="V44">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
@@ -4156,8 +4861,23 @@
       <c r="Q45">
         <v>0.29656120117900298</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45">
+        <v>1.5157903459317901</v>
+      </c>
+      <c r="T45" t="s">
+        <v>95</v>
+      </c>
+      <c r="U45">
+        <v>9.9527409044819493E-3</v>
+      </c>
+      <c r="V45">
+        <v>2.3904774732858399E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="8" t="s">
         <v>18</v>
       </c>
@@ -4209,8 +4929,23 @@
       <c r="Q46">
         <v>0.28095271690663898</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0.96630663112702697</v>
+      </c>
+      <c r="S46">
+        <v>0.27872698350421299</v>
+      </c>
+      <c r="T46">
+        <v>3.7541513388948902</v>
+      </c>
+      <c r="U46">
+        <v>0.95205732014469802</v>
+      </c>
+      <c r="V46">
+        <v>0.96300050773256796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4262,8 +4997,23 @@
       <c r="Q47">
         <v>0.20291029468081501</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0.12640639069975601</v>
+      </c>
+      <c r="S47">
+        <v>7.15510179658225E-2</v>
+      </c>
+      <c r="T47">
+        <v>0.21183578245006299</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4315,8 +5065,23 @@
       <c r="Q48">
         <v>0.23412729680819699</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S48">
+        <v>0.39867638579617798</v>
+      </c>
+      <c r="T48" t="s">
+        <v>95</v>
+      </c>
+      <c r="U48">
+        <v>0.120119383299407</v>
+      </c>
+      <c r="V48">
+        <v>0.20138360023811999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -4368,8 +5133,23 @@
       <c r="Q49">
         <v>0.156290383441065</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>8.9472836215465507E-2</v>
+      </c>
+      <c r="S49">
+        <v>4.4403333087612497E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.16496835162147</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4421,8 +5201,23 @@
       <c r="Q50">
         <v>0.56344061799031198</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>95</v>
+      </c>
+      <c r="T50">
+        <v>6.5167004429692005E-2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1.15463194561016E-14</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1.4515373030527699E-13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -4474,8 +5269,23 @@
       <c r="Q51">
         <v>0.187095610343014</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>1.9801365391947299E-2</v>
+      </c>
+      <c r="S51">
+        <v>7.1730346628613197E-3</v>
+      </c>
+      <c r="T51">
+        <v>4.3935114582486799E-2</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -4527,8 +5337,23 @@
       <c r="Q52">
         <v>1.1562620455063799</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0.13176908606277599</v>
+      </c>
+      <c r="S52">
+        <v>6.4223646603978002E-2</v>
+      </c>
+      <c r="T52">
+        <v>0.24903921625968001</v>
+      </c>
+      <c r="U52" s="1">
+        <v>6.0618177144533497E-14</v>
+      </c>
+      <c r="V52" s="1">
+        <v>6.6679994858986801E-13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -4580,8 +5405,23 @@
       <c r="Q53">
         <v>0.109289753907265</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0.362364986672635</v>
+      </c>
+      <c r="S53">
+        <v>5.6272287479725201E-2</v>
+      </c>
+      <c r="T53">
+        <v>1.86250330965547</v>
+      </c>
+      <c r="U53">
+        <v>0.14693697734225</v>
+      </c>
+      <c r="V53">
+        <v>0.236093271339371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4633,8 +5473,23 @@
       <c r="Q54">
         <v>7.7903234193081594E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0.161051105187838</v>
+      </c>
+      <c r="S54">
+        <v>3.8908188985439802E-2</v>
+      </c>
+      <c r="T54">
+        <v>0.50553766802702804</v>
+      </c>
+      <c r="U54">
+        <v>2.0326793961722401E-4</v>
+      </c>
+      <c r="V54">
+        <v>9.9375437146198391E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4686,8 +5541,23 @@
       <c r="Q55">
         <v>0.18730181127104301</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>1.04683218372095</v>
+      </c>
+      <c r="S55">
+        <v>0.53420200186283195</v>
+      </c>
+      <c r="T55">
+        <v>2.1260112594329401</v>
+      </c>
+      <c r="U55">
+        <v>0.88773580716855005</v>
+      </c>
+      <c r="V55">
+        <v>0.95269208574185904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -4739,8 +5609,23 @@
       <c r="Q56">
         <v>0.171693342261654</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0.54124084120157001</v>
+      </c>
+      <c r="S56">
+        <v>0.14249248394094399</v>
+      </c>
+      <c r="T56">
+        <v>1.7983580034815101</v>
+      </c>
+      <c r="U56">
+        <v>0.263578627247186</v>
+      </c>
+      <c r="V56">
+        <v>0.35684491073465202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4792,8 +5677,23 @@
       <c r="Q57">
         <v>0.18711836027100401</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0.487116757081413</v>
+      </c>
+      <c r="S57">
+        <v>7.8826412687206998E-2</v>
+      </c>
+      <c r="T57">
+        <v>2.2808603938501699</v>
+      </c>
+      <c r="U57">
+        <v>0.29869223401671602</v>
+      </c>
+      <c r="V57">
+        <v>0.38654289108045597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
@@ -4845,8 +5745,23 @@
       <c r="Q58">
         <v>4.68254528399785E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0.584540108497696</v>
+      </c>
+      <c r="S58">
+        <v>0.17460464559314601</v>
+      </c>
+      <c r="T58">
+        <v>1.77515057621831</v>
+      </c>
+      <c r="U58">
+        <v>0.292664759168834</v>
+      </c>
+      <c r="V58">
+        <v>0.38439550457996102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
@@ -4898,8 +5813,23 @@
       <c r="Q59">
         <v>6.2498174831446901E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0.64948900944188404</v>
+      </c>
+      <c r="S59">
+        <v>0.33693998325069202</v>
+      </c>
+      <c r="T59">
+        <v>1.2233839433221201</v>
+      </c>
+      <c r="U59">
+        <v>0.15291550403760801</v>
+      </c>
+      <c r="V59">
+        <v>0.24029579205909801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
@@ -4951,8 +5881,23 @@
       <c r="Q60">
         <v>4.6774745307597301E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0.36185816240333601</v>
+      </c>
+      <c r="S60">
+        <v>0.17568700578920299</v>
+      </c>
+      <c r="T60">
+        <v>0.701020853825012</v>
+      </c>
+      <c r="U60">
+        <v>1.0903404416153801E-3</v>
+      </c>
+      <c r="V60">
+        <v>3.6903830331597499E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5004,8 +5949,23 @@
       <c r="Q61">
         <v>0.15625100273949299</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0.81408553923195104</v>
+      </c>
+      <c r="S61">
+        <v>0.56976711711393602</v>
+      </c>
+      <c r="T61">
+        <v>1.15967133456085</v>
+      </c>
+      <c r="U61">
+        <v>0.23490772510326099</v>
+      </c>
+      <c r="V61">
+        <v>0.33341741627559601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5057,8 +6017,23 @@
       <c r="Q62">
         <v>0.218923187986825</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0.61701455896978996</v>
+      </c>
+      <c r="S62">
+        <v>0.32817327778399402</v>
+      </c>
+      <c r="T62">
+        <v>1.1327389866912301</v>
+      </c>
+      <c r="U62">
+        <v>9.6327762514130402E-2</v>
+      </c>
+      <c r="V62">
+        <v>0.16621260982830299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5110,8 +6085,23 @@
       <c r="Q63">
         <v>0.10925939146578301</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" t="s">
+        <v>94</v>
+      </c>
+      <c r="S63">
+        <v>1.6629879554611999</v>
+      </c>
+      <c r="T63" t="s">
+        <v>95</v>
+      </c>
+      <c r="U63">
+        <v>5.2424119956481201E-3</v>
+      </c>
+      <c r="V63">
+        <v>1.35685957534422E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5163,8 +6153,23 @@
       <c r="Q64">
         <v>6.2598663978756394E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0.389693405665131</v>
+      </c>
+      <c r="S64">
+        <v>0.212306698983315</v>
+      </c>
+      <c r="T64">
+        <v>0.68675332012814605</v>
+      </c>
+      <c r="U64">
+        <v>4.5565917337841999E-4</v>
+      </c>
+      <c r="V64">
+        <v>2.0049003628650501E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -5216,8 +6221,23 @@
       <c r="Q65">
         <v>3.4544756294858301</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0.39239960987113798</v>
+      </c>
+      <c r="S65">
+        <v>0.24577732016397399</v>
+      </c>
+      <c r="T65">
+        <v>0.61166387229947305</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1.0329200590963901E-5</v>
+      </c>
+      <c r="V65" s="1">
+        <v>7.5747471000401894E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -5269,8 +6289,23 @@
       <c r="Q66">
         <v>2.1703597018172101</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0.40439881719966397</v>
+      </c>
+      <c r="S66">
+        <v>0.23420698929211101</v>
+      </c>
+      <c r="T66">
+        <v>0.67640360752165396</v>
+      </c>
+      <c r="U66">
+        <v>2.2171785719982099E-4</v>
+      </c>
+      <c r="V66">
+        <v>1.02690375966233E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5322,8 +6357,23 @@
       <c r="Q67">
         <v>6.3844262677071297</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0.750971667167179</v>
+      </c>
+      <c r="S67">
+        <v>0.475523519869129</v>
+      </c>
+      <c r="T67">
+        <v>1.1774681865696901</v>
+      </c>
+      <c r="U67">
+        <v>0.18899822935968</v>
+      </c>
+      <c r="V67">
+        <v>0.28189566412969203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -5375,8 +6425,23 @@
       <c r="Q68">
         <v>0.46338488995313798</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0.31662589210291903</v>
+      </c>
+      <c r="S68">
+        <v>0.15537961364998101</v>
+      </c>
+      <c r="T68">
+        <v>0.60430251639841104</v>
+      </c>
+      <c r="U68">
+        <v>1.4234447986483101E-4</v>
+      </c>
+      <c r="V68">
+        <v>7.3684201341794897E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -5428,8 +6493,23 @@
       <c r="Q69">
         <v>0.71012642181641705</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>3.0444797317588299E-2</v>
+      </c>
+      <c r="S69">
+        <v>7.4772488517123705E-4</v>
+      </c>
+      <c r="T69">
+        <v>0.18225573460352501</v>
+      </c>
+      <c r="U69" s="1">
+        <v>4.4540378496549198E-8</v>
+      </c>
+      <c r="V69" s="1">
+        <v>3.9195533076963301E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
@@ -5481,8 +6561,23 @@
       <c r="Q70">
         <v>2.7129493418046002E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0.33296588458729498</v>
+      </c>
+      <c r="S70">
+        <v>0.20672877452042601</v>
+      </c>
+      <c r="T70">
+        <v>0.521259003555814</v>
+      </c>
+      <c r="U70" s="1">
+        <v>2.1548652517910901E-7</v>
+      </c>
+      <c r="V70" s="1">
+        <v>1.7238922014328699E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5534,8 +6629,23 @@
       <c r="Q71">
         <v>1.0490103853302599</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>1.16908021699539</v>
+      </c>
+      <c r="S71">
+        <v>0.297269192140172</v>
+      </c>
+      <c r="T71">
+        <v>4.8424994280142997</v>
+      </c>
+      <c r="U71">
+        <v>0.79621662496408496</v>
+      </c>
+      <c r="V71">
+        <v>0.86502546909678402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -5587,8 +6697,23 @@
       <c r="Q72">
         <v>4.1949037499559701E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0.38601705278149701</v>
+      </c>
+      <c r="S72">
+        <v>0.221161274885009</v>
+      </c>
+      <c r="T72">
+        <v>0.65089844117600104</v>
+      </c>
+      <c r="U72">
+        <v>1.26847361269222E-4</v>
+      </c>
+      <c r="V72">
+        <v>6.9766048698072095E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -5640,8 +6765,23 @@
       <c r="Q73">
         <v>0.25001559796211098</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0.53140009863426896</v>
+      </c>
+      <c r="S73">
+        <v>0.161365805087094</v>
+      </c>
+      <c r="T73">
+        <v>1.56757456972564</v>
+      </c>
+      <c r="U73">
+        <v>0.20529959143425999</v>
+      </c>
+      <c r="V73">
+        <v>0.296921418986418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -5693,8 +6833,23 @@
       <c r="Q74">
         <v>0.99474734725913405</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>1.4072261871240801</v>
+      </c>
+      <c r="S74">
+        <v>0.55648981588924895</v>
+      </c>
+      <c r="T74">
+        <v>3.73009225032061</v>
+      </c>
+      <c r="U74">
+        <v>0.42856333161425098</v>
+      </c>
+      <c r="V74">
+        <v>0.502847642427388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -5746,8 +6901,23 @@
       <c r="Q75">
         <v>1.67297808063811</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>1.94846702832565</v>
+      </c>
+      <c r="S75">
+        <v>0.41612846743148801</v>
+      </c>
+      <c r="T75">
+        <v>12.040772981568001</v>
+      </c>
+      <c r="U75">
+        <v>0.33658887105069801</v>
+      </c>
+      <c r="V75">
+        <v>0.42927276307915102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -5799,8 +6969,23 @@
       <c r="Q76">
         <v>1.06855170447465</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0.41752864892692598</v>
+      </c>
+      <c r="S76">
+        <v>0.16835490115334201</v>
+      </c>
+      <c r="T76">
+        <v>0.95097332478267105</v>
+      </c>
+      <c r="U76">
+        <v>2.3662646890871299E-2</v>
+      </c>
+      <c r="V76">
+        <v>4.9578879199920801E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -5852,8 +7037,23 @@
       <c r="Q77">
         <v>0.61455628149498798</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>8.1186126180235504E-2</v>
+      </c>
+      <c r="S77">
+        <v>1.8991916095429499E-3</v>
+      </c>
+      <c r="T77">
+        <v>0.54871413037380201</v>
+      </c>
+      <c r="U77">
+        <v>1.9472025445862501E-3</v>
+      </c>
+      <c r="V77">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5905,8 +7105,23 @@
       <c r="Q78">
         <v>2.1432299142261599</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0.974233514162826</v>
+      </c>
+      <c r="S78">
+        <v>0.22421250627168199</v>
+      </c>
+      <c r="T78">
+        <v>4.2331757309200801</v>
+      </c>
+      <c r="U78">
+        <v>0.96707619059757799</v>
+      </c>
+      <c r="V78">
+        <v>0.96707619059757799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -5958,8 +7173,23 @@
       <c r="Q79">
         <v>0.73369348552811997</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0.30890330936870097</v>
+      </c>
+      <c r="S79">
+        <v>0.15187019953721101</v>
+      </c>
+      <c r="T79">
+        <v>0.58805274250363304</v>
+      </c>
+      <c r="U79" s="1">
+        <v>9.3626794783530101E-5</v>
+      </c>
+      <c r="V79">
+        <v>5.4927719606337705E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -6011,8 +7241,23 @@
       <c r="Q80">
         <v>0.64206919239286198</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0.60309693733889302</v>
+      </c>
+      <c r="S80">
+        <v>0.27745637890644398</v>
+      </c>
+      <c r="T80">
+        <v>1.2620950110797799</v>
+      </c>
+      <c r="U80">
+        <v>0.14755829458710701</v>
+      </c>
+      <c r="V80">
+        <v>0.236093271339371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -6064,8 +7309,23 @@
       <c r="Q81">
         <v>1.50116570211333</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0.52458727685690698</v>
+      </c>
+      <c r="S81">
+        <v>0.17721916641471799</v>
+      </c>
+      <c r="T81">
+        <v>1.41469763824307</v>
+      </c>
+      <c r="U81">
+        <v>0.161475774577232</v>
+      </c>
+      <c r="V81">
+        <v>0.24929593268063899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -6117,8 +7377,23 @@
       <c r="Q82">
         <v>1.01283442953279</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>2.4355837854070699</v>
+      </c>
+      <c r="S82">
+        <v>0.39874021684919297</v>
+      </c>
+      <c r="T82">
+        <v>25.577016934975401</v>
+      </c>
+      <c r="U82">
+        <v>0.27156933082407297</v>
+      </c>
+      <c r="V82">
+        <v>0.36209244109876398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -6170,8 +7445,23 @@
       <c r="Q83">
         <v>0.44503911181477501</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0.21649633648062799</v>
+      </c>
+      <c r="S83">
+        <v>2.2762616360265199E-2</v>
+      </c>
+      <c r="T83">
+        <v>1.0459745462788901</v>
+      </c>
+      <c r="U83">
+        <v>3.12364448763994E-2</v>
+      </c>
+      <c r="V83">
+        <v>6.2472889752798799E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6223,8 +7513,23 @@
       <c r="Q84">
         <v>0.56067720004499699</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0.139176216308975</v>
+      </c>
+      <c r="S84">
+        <v>1.53520382008272E-2</v>
+      </c>
+      <c r="T84">
+        <v>0.60597080624166</v>
+      </c>
+      <c r="U84">
+        <v>2.2697277104575301E-3</v>
+      </c>
+      <c r="V84">
+        <v>6.6578679506754199E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -6276,8 +7581,23 @@
       <c r="Q85">
         <v>0.92276721633598802</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>0.389693405665131</v>
+      </c>
+      <c r="S85">
+        <v>3.7108742686100898E-2</v>
+      </c>
+      <c r="T85">
+        <v>2.3803240807210102</v>
+      </c>
+      <c r="U85">
+        <v>0.242595860820561</v>
+      </c>
+      <c r="V85">
+        <v>0.33886405955887899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -6329,8 +7649,23 @@
       <c r="Q86">
         <v>0.61455084659828896</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>1.7049086497849499</v>
+      </c>
+      <c r="S86">
+        <v>0.433424557339949</v>
+      </c>
+      <c r="T86">
+        <v>7.9421385139403302</v>
+      </c>
+      <c r="U86">
+        <v>0.38906176999457898</v>
+      </c>
+      <c r="V86">
+        <v>0.46266805080436402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6382,8 +7717,23 @@
       <c r="Q87">
         <v>1.1444712878316301</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>6.9588108154487599E-2</v>
+      </c>
+      <c r="S87">
+        <v>1.6457523068836701E-3</v>
+      </c>
+      <c r="T87">
+        <v>0.45737768275637802</v>
+      </c>
+      <c r="U87">
+        <v>6.55802598865884E-4</v>
+      </c>
+      <c r="V87">
+        <v>2.45869045376856E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -6435,8 +7785,23 @@
       <c r="Q88">
         <v>0.33459639076072301</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0.194846702832565</v>
+      </c>
+      <c r="S88">
+        <v>3.6156905139994103E-2</v>
+      </c>
+      <c r="T88">
+        <v>0.68878472063044105</v>
+      </c>
+      <c r="U88">
+        <v>3.9260771330410496E-3</v>
+      </c>
+      <c r="V88">
+        <v>1.0469539021442801E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -6488,8 +7853,23 @@
       <c r="Q89">
         <v>0.82293270666982998</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0.26570004931713498</v>
+      </c>
+      <c r="S89">
+        <v>4.7596095565947301E-2</v>
+      </c>
+      <c r="T89">
+        <v>1.0058180172709199</v>
+      </c>
+      <c r="U89">
+        <v>2.87346714799325E-2</v>
+      </c>
+      <c r="V89">
+        <v>5.8805839307768802E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -6541,12 +7921,27 @@
       <c r="Q90">
         <v>0.26225133434388098</v>
       </c>
+      <c r="R90">
+        <v>0.34794054077243802</v>
+      </c>
+      <c r="S90">
+        <v>9.8079996962140897E-2</v>
+      </c>
+      <c r="T90">
+        <v>1.0222666951650501</v>
+      </c>
+      <c r="U90">
+        <v>3.3853799417329397E-2</v>
+      </c>
+      <c r="V90">
+        <v>6.6202985527221897E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q91" xr:uid="{57100EA2-0164-3A4B-AB8B-251518AECA56}"/>
-  <sortState ref="A3:Q90">
-    <sortCondition ref="A3:A90"/>
-    <sortCondition ref="B3:B90"/>
+  <sortState ref="A5:Q92">
+    <sortCondition ref="A5:A92"/>
+    <sortCondition ref="B5:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6554,10 +7949,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC5DB66-3C6C-C842-A918-C50FD211FD50}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6566,7 +7961,7 @@
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50" customHeight="1">
+    <row r="1" spans="1:22" ht="50" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
@@ -6583,7 +7978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6635,8 +8030,23 @@
       <c r="Q2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6688,8 +8098,23 @@
       <c r="Q3">
         <v>9.8974164850586396E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3">
+        <v>1.3381800913399999</v>
+      </c>
+      <c r="U3">
+        <v>3.3342249846294303E-2</v>
+      </c>
+      <c r="V3">
+        <v>0.66752923534671904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -6741,8 +8166,23 @@
       <c r="Q4">
         <v>0.45476712476918302</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.103925273002708</v>
+      </c>
+      <c r="S4">
+        <v>1.16460282791377E-2</v>
+      </c>
+      <c r="T4">
+        <v>0.43780477312467297</v>
+      </c>
+      <c r="U4">
+        <v>2.0058800777522599E-4</v>
+      </c>
+      <c r="V4">
+        <v>0.103761153668054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -6794,8 +8234,23 @@
       <c r="Q5">
         <v>1.39206522819928</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.68706152707345902</v>
+      </c>
+      <c r="S5">
+        <v>0.21744814254731901</v>
+      </c>
+      <c r="T5">
+        <v>2.0732386626568999</v>
+      </c>
+      <c r="U5">
+        <v>0.45376795597610697</v>
+      </c>
+      <c r="V5">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -6847,8 +8302,23 @@
       <c r="Q6">
         <v>1.2429153823207699</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.24091767832446001</v>
+      </c>
+      <c r="S6">
+        <v>7.9914219020725194E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.61267453154589702</v>
+      </c>
+      <c r="U6">
+        <v>7.8563805552156495E-4</v>
+      </c>
+      <c r="V6">
+        <v>0.103761153668054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -6900,8 +8370,23 @@
       <c r="Q7">
         <v>0.39734402903881499</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>3.9260658689911902E-2</v>
+      </c>
+      <c r="S7">
+        <v>4.6135655640661402E-3</v>
+      </c>
+      <c r="T7">
+        <v>0.150300335809082</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.9535706385909199E-11</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3.84437173453181E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -6953,8 +8438,23 @@
       <c r="Q8">
         <v>0.546164917259086</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.29445494017433999</v>
+      </c>
+      <c r="S8">
+        <v>5.1274939644265799E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.1798893649928299</v>
+      </c>
+      <c r="U8">
+        <v>5.1139181156316098E-2</v>
+      </c>
+      <c r="V8">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7006,8 +8506,23 @@
       <c r="Q9">
         <v>3.0387398844576499</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.60229419581114896</v>
+      </c>
+      <c r="S9">
+        <v>0.29060802911963501</v>
+      </c>
+      <c r="T9">
+        <v>1.2149026190823</v>
+      </c>
+      <c r="U9">
+        <v>0.12591775530646299</v>
+      </c>
+      <c r="V9">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7059,8 +8574,23 @@
       <c r="Q10">
         <v>0.54410117008824699</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.32504723078453</v>
+      </c>
+      <c r="S10">
+        <v>0.15178724548660799</v>
+      </c>
+      <c r="T10">
+        <v>15.864490883356501</v>
+      </c>
+      <c r="U10">
+        <v>0.75707146291920102</v>
+      </c>
+      <c r="V10">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7112,8 +8642,23 @@
       <c r="Q11">
         <v>0.54350265240078799</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.66252361539226401</v>
+      </c>
+      <c r="S11">
+        <v>9.7049528577824395E-2</v>
+      </c>
+      <c r="T11">
+        <v>3.91618582633948</v>
+      </c>
+      <c r="U11">
+        <v>0.58723065590141399</v>
+      </c>
+      <c r="V11">
+        <v>0.70376571485448502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -7165,8 +8710,23 @@
       <c r="Q12">
         <v>2.92783424702673</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>3.31261807696132</v>
+      </c>
+      <c r="S12">
+        <v>1.0553136513881101</v>
+      </c>
+      <c r="T12">
+        <v>13.711787062602101</v>
+      </c>
+      <c r="U12">
+        <v>2.3949211258901801E-2</v>
+      </c>
+      <c r="V12">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -7218,8 +8778,23 @@
       <c r="Q13">
         <v>9.9433230585673202E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>4.90758233623899E-2</v>
+      </c>
+      <c r="S13">
+        <v>1.1778825419280299E-3</v>
+      </c>
+      <c r="T13">
+        <v>0.31082433450300301</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2.9410562025766798E-5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>7.7060265427693494E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7271,8 +8846,23 @@
       <c r="Q14">
         <v>0.79899557896351403</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.1778197606973599</v>
+      </c>
+      <c r="S14">
+        <v>0.19925852366077701</v>
+      </c>
+      <c r="T14">
+        <v>8.0405687443593603</v>
+      </c>
+      <c r="U14">
+        <v>0.83013663100144497</v>
+      </c>
+      <c r="V14">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -7324,8 +8914,23 @@
       <c r="Q15">
         <v>0.19886646117132301</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15">
+        <v>0.96399757089009996</v>
+      </c>
+      <c r="U15">
+        <v>1.7354720176697501E-2</v>
+      </c>
+      <c r="V15">
+        <v>0.34988524204919003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7377,8 +8982,23 @@
       <c r="Q16">
         <v>0.10122626321084401</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.12619497436043101</v>
+      </c>
+      <c r="S16">
+        <v>2.8000359495650102E-3</v>
+      </c>
+      <c r="T16">
+        <v>0.98228008537367395</v>
+      </c>
+      <c r="U16">
+        <v>2.1397951700234199E-2</v>
+      </c>
+      <c r="V16">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7430,8 +9050,23 @@
       <c r="Q17">
         <v>0.34792647462625897</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.35334592820920802</v>
+      </c>
+      <c r="S17">
+        <v>3.36475365979493E-2</v>
+      </c>
+      <c r="T17">
+        <v>2.1583065289635499</v>
+      </c>
+      <c r="U17">
+        <v>0.193521058012979</v>
+      </c>
+      <c r="V17">
+        <v>2.3904774732858399E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -7483,8 +9118,23 @@
       <c r="Q18">
         <v>9.9794690958026497E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18">
+        <v>4.7035248549141597</v>
+      </c>
+      <c r="U18">
+        <v>0.13240611753051801</v>
+      </c>
+      <c r="V18">
+        <v>9.5568898030902408E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -7536,8 +9186,23 @@
       <c r="Q19">
         <v>0.10082725888474001</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.29445494017433999</v>
+      </c>
+      <c r="S19">
+        <v>5.6089472823651499E-3</v>
+      </c>
+      <c r="T19">
+        <v>3.6672367362138001</v>
+      </c>
+      <c r="U19">
+        <v>0.26015828423328502</v>
+      </c>
+      <c r="V19">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -7589,8 +9254,23 @@
       <c r="Q20">
         <v>0.91575807430235401</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.73613735043584905</v>
+      </c>
+      <c r="S20">
+        <v>0.17771888797906399</v>
+      </c>
+      <c r="T20">
+        <v>2.8950312919751</v>
+      </c>
+      <c r="U20">
+        <v>0.61153824288953096</v>
+      </c>
+      <c r="V20">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -7642,8 +9322,23 @@
       <c r="Q21">
         <v>0.59660023042396204</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>2.65009446156906</v>
+      </c>
+      <c r="S21">
+        <v>0.21278511922394</v>
+      </c>
+      <c r="T21">
+        <v>139.12297029267401</v>
+      </c>
+      <c r="U21">
+        <v>0.38003875147413502</v>
+      </c>
+      <c r="V21">
+        <v>2.45869045376856E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -7695,8 +9390,23 @@
       <c r="Q22">
         <v>0.696032615088642</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22">
+        <v>0.16590396143487701</v>
+      </c>
+      <c r="T22" t="s">
+        <v>95</v>
+      </c>
+      <c r="U22">
+        <v>0.18378773903349199</v>
+      </c>
+      <c r="V22">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -7748,8 +9458,23 @@
       <c r="Q23">
         <v>0.74998393756703396</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.76672964104604</v>
+      </c>
+      <c r="S23">
+        <v>0.25320224663303897</v>
+      </c>
+      <c r="T23">
+        <v>19.530933322254199</v>
+      </c>
+      <c r="U23">
+        <v>0.50536109393550199</v>
+      </c>
+      <c r="V23">
+        <v>2.8475091651289E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
@@ -7801,8 +9526,23 @@
       <c r="Q24">
         <v>0.19886646117132301</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24">
+        <v>0.44753928712119201</v>
+      </c>
+      <c r="U24">
+        <v>1.4134172415188901E-3</v>
+      </c>
+      <c r="V24">
+        <v>0.296921418986418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -7854,8 +9594,23 @@
       <c r="Q25">
         <v>0.24858307654442699</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0.29445494017433999</v>
+      </c>
+      <c r="S25">
+        <v>5.6089472823651499E-3</v>
+      </c>
+      <c r="T25">
+        <v>3.6672367362138001</v>
+      </c>
+      <c r="U25">
+        <v>0.26015828423328502</v>
+      </c>
+      <c r="V25">
+        <v>0.28189566412969203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
@@ -7907,8 +9662,23 @@
       <c r="Q26">
         <v>9.9897744456634893E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>3.6806867521792401E-2</v>
+      </c>
+      <c r="S26">
+        <v>8.9504757259902402E-4</v>
+      </c>
+      <c r="T26">
+        <v>0.225716886250312</v>
+      </c>
+      <c r="U26" s="1">
+        <v>8.6980873870157204E-7</v>
+      </c>
+      <c r="V26">
+        <v>2.0502298446043398E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -7960,8 +9730,23 @@
       <c r="Q27">
         <v>0.14832627879420801</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0.29445494017433999</v>
+      </c>
+      <c r="S27">
+        <v>5.6089472823651499E-3</v>
+      </c>
+      <c r="T27">
+        <v>3.6672367362138001</v>
+      </c>
+      <c r="U27">
+        <v>0.26015828423328502</v>
+      </c>
+      <c r="V27">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
@@ -8013,8 +9798,23 @@
       <c r="Q28">
         <v>6.5307939987431096</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>7.2877597693149001</v>
+      </c>
+      <c r="S28">
+        <v>2.5920421521250501</v>
+      </c>
+      <c r="T28">
+        <v>28.316881130955199</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1.08632450099844E-5</v>
+      </c>
+      <c r="V28">
+        <v>2.0502298446043398E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -8066,8 +9866,23 @@
       <c r="Q29">
         <v>0.198866461171324</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29">
+        <v>0.51750441761154098</v>
+      </c>
+      <c r="U29">
+        <v>2.6180632925713E-3</v>
+      </c>
+      <c r="V29">
+        <v>9.5568898030902408E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -8119,8 +9934,23 @@
       <c r="Q30">
         <v>0.101077421034068</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0.14722747008716999</v>
+      </c>
+      <c r="S30">
+        <v>3.2007649511062398E-3</v>
+      </c>
+      <c r="T30">
+        <v>1.21351023721329</v>
+      </c>
+      <c r="U30">
+        <v>3.9627330692486799E-2</v>
+      </c>
+      <c r="V30">
+        <v>2.6111468313403101E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
@@ -8172,8 +10002,23 @@
       <c r="Q31">
         <v>0.198866461171324</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>95</v>
+      </c>
+      <c r="T31">
+        <v>0.39409161604600401</v>
+      </c>
+      <c r="U31">
+        <v>7.6667799382779101E-4</v>
+      </c>
+      <c r="V31">
+        <v>3.6903830331597499E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="13" t="s">
         <v>14</v>
       </c>
@@ -8225,8 +10070,23 @@
       <c r="Q32">
         <v>0.89489907527095902</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>3.53345928209208</v>
+      </c>
+      <c r="S32">
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="T32">
+        <v>174.01392379806401</v>
+      </c>
+      <c r="U32">
+        <v>0.228020413118356</v>
+      </c>
+      <c r="V32">
+        <v>0.46266805080436402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="13" t="s">
         <v>14</v>
       </c>
@@ -8278,8 +10138,23 @@
       <c r="Q33">
         <v>0.74574922939246702</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33">
+        <v>0.36503404177135002</v>
+      </c>
+      <c r="T33" t="s">
+        <v>95</v>
+      </c>
+      <c r="U33">
+        <v>0.103544226183458</v>
+      </c>
+      <c r="V33">
+        <v>0.20138360023811999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="13" t="s">
         <v>14</v>
       </c>
@@ -8331,8 +10206,23 @@
       <c r="Q34">
         <v>0.198889192168236</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>95</v>
+      </c>
+      <c r="T34">
+        <v>1.3381800913399999</v>
+      </c>
+      <c r="U34">
+        <v>3.3342249846294303E-2</v>
+      </c>
+      <c r="V34">
+        <v>7.3732809058050006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -8384,8 +10274,23 @@
       <c r="Q35">
         <v>0.34801630704981701</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>1.76672964104604</v>
+      </c>
+      <c r="S35">
+        <v>9.1973769786287393E-2</v>
+      </c>
+      <c r="T35">
+        <v>104.23207891161999</v>
+      </c>
+      <c r="U35">
+        <v>0.63764847644752698</v>
+      </c>
+      <c r="V35">
+        <v>1.5585336041134599E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -8437,8 +10342,23 @@
       <c r="Q36">
         <v>0.24858305876005701</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0.29445494017433999</v>
+      </c>
+      <c r="S36">
+        <v>5.6089472823651499E-3</v>
+      </c>
+      <c r="T36">
+        <v>3.6672367362138001</v>
+      </c>
+      <c r="U36">
+        <v>0.26015828423328502</v>
+      </c>
+      <c r="V36">
+        <v>0.95917676585507206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
@@ -8490,8 +10410,23 @@
       <c r="Q37">
         <v>0.13487297957300001</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0.13319811698675199</v>
+      </c>
+      <c r="S37">
+        <v>4.0734494360926202E-2</v>
+      </c>
+      <c r="T37">
+        <v>0.341422947983615</v>
+      </c>
+      <c r="U37" s="1">
+        <v>6.7739465592353596E-7</v>
+      </c>
+      <c r="V37">
+        <v>0.24029579205909801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="13" t="s">
         <v>18</v>
       </c>
@@ -8543,8 +10478,23 @@
       <c r="Q38">
         <v>0.13437543461860599</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>8.7961020651628696E-2</v>
+      </c>
+      <c r="S38">
+        <v>2.7437583923201801E-2</v>
+      </c>
+      <c r="T38">
+        <v>0.21846074112755201</v>
+      </c>
+      <c r="U38" s="1">
+        <v>4.92537122198655E-11</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1.7238922014328699E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -8596,8 +10546,23 @@
       <c r="Q39">
         <v>1.07502475667276</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>1.2431824252096899</v>
+      </c>
+      <c r="S39">
+        <v>0.73399109068780799</v>
+      </c>
+      <c r="T39">
+        <v>2.1290925134338301</v>
+      </c>
+      <c r="U39">
+        <v>0.39161425162633501</v>
+      </c>
+      <c r="V39">
+        <v>0.35684491073465202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="13" t="s">
         <v>18</v>
       </c>
@@ -8649,8 +10614,23 @@
       <c r="Q40">
         <v>0.59752174867130003</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="S40">
+        <v>0.258202430187493</v>
+      </c>
+      <c r="T40">
+        <v>0.81651400597073298</v>
+      </c>
+      <c r="U40">
+        <v>4.3070640708030598E-3</v>
+      </c>
+      <c r="V40">
+        <v>9.9375437146198391E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8702,8 +10682,23 @@
       <c r="Q41">
         <v>8.9628310342229706E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0.55943209134435801</v>
+      </c>
+      <c r="S41">
+        <v>8.6875180073491806E-2</v>
+      </c>
+      <c r="T41">
+        <v>2.8753995556354699</v>
+      </c>
+      <c r="U41">
+        <v>0.41991697237103898</v>
+      </c>
+      <c r="V41">
+        <v>0.46266805080436402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -8755,8 +10750,23 @@
       <c r="Q42">
         <v>2.9876083781762899E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0.10359853543413999</v>
+      </c>
+      <c r="S42">
+        <v>2.3635898279547999E-3</v>
+      </c>
+      <c r="T42">
+        <v>0.74763821878312398</v>
+      </c>
+      <c r="U42">
+        <v>8.2397576294640507E-3</v>
+      </c>
+      <c r="V42">
+        <v>0.296921418986418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="13" t="s">
         <v>18</v>
       </c>
@@ -8808,8 +10818,23 @@
       <c r="Q43">
         <v>5.97842259543254E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>8.8798744657834702E-2</v>
+      </c>
+      <c r="S43">
+        <v>1.00939368858963E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.36327750180197399</v>
+      </c>
+      <c r="U43" s="1">
+        <v>3.5946423660004903E-5</v>
+      </c>
+      <c r="V43">
+        <v>6.2472889752798799E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="13" t="s">
         <v>18</v>
       </c>
@@ -8861,8 +10886,23 @@
       <c r="Q44">
         <v>0.16431848088460699</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>6.4749084646337801E-2</v>
+      </c>
+      <c r="S44">
+        <v>2.0407587403492699E-2</v>
+      </c>
+      <c r="T44">
+        <v>0.158209105117809</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1.8873791418627701E-15</v>
+      </c>
+      <c r="V44">
+        <v>7.3684201341794897E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -8914,8 +10954,23 @@
       <c r="Q45">
         <v>0.196027050184441</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="S45">
+        <v>0.15924372606954501</v>
+      </c>
+      <c r="T45">
+        <v>1.23431942688056</v>
+      </c>
+      <c r="U45">
+        <v>9.12388947929373E-2</v>
+      </c>
+      <c r="V45">
+        <v>0.38439550457996102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="13" t="s">
         <v>18</v>
       </c>
@@ -8967,8 +11022,23 @@
       <c r="Q46">
         <v>0.22337938382271699</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0.12314542891228</v>
+      </c>
+      <c r="S46">
+        <v>4.7232174879596599E-2</v>
+      </c>
+      <c r="T46">
+        <v>0.271805703893296</v>
+      </c>
+      <c r="U46" s="1">
+        <v>5.1858206617794198E-10</v>
+      </c>
+      <c r="V46" s="1">
+        <v>3.9195533076963301E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="13" t="s">
         <v>18</v>
       </c>
@@ -9020,8 +11090,23 @@
       <c r="Q47">
         <v>0.34357500548600001</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0.129826012759239</v>
+      </c>
+      <c r="S47">
+        <v>6.2287086085779202E-2</v>
+      </c>
+      <c r="T47">
+        <v>0.24512826631043899</v>
+      </c>
+      <c r="U47" s="1">
+        <v>6.1728400169158704E-14</v>
+      </c>
+      <c r="V47">
+        <v>0.236093271339371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -9073,8 +11158,23 @@
       <c r="Q48">
         <v>9.0884300484488006E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0.93238681890726405</v>
+      </c>
+      <c r="S48">
+        <v>0.12488164177314499</v>
+      </c>
+      <c r="T48">
+        <v>6.9613529076693599</v>
+      </c>
+      <c r="U48">
+        <v>0.93165815251334005</v>
+      </c>
+      <c r="V48">
+        <v>4.9578879199920801E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="13" t="s">
         <v>18</v>
       </c>
@@ -9126,8 +11226,23 @@
       <c r="Q49">
         <v>0.387445743496242</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0.166041488298554</v>
+      </c>
+      <c r="S49">
+        <v>8.4411483579352201E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.30192933525018101</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1.05669917260798E-11</v>
+      </c>
+      <c r="V49">
+        <v>0.95269208574185904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="13" t="s">
         <v>18</v>
       </c>
@@ -9179,8 +11294,23 @@
       <c r="Q50">
         <v>2.9876087433564999E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>95</v>
+      </c>
+      <c r="T50">
+        <v>8.7778978899228796E-2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>3.32959215754158E-11</v>
+      </c>
+      <c r="V50">
+        <v>0.103761153668054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="13" t="s">
         <v>18</v>
       </c>
@@ -9232,8 +11362,23 @@
       <c r="Q51">
         <v>0.104793180084001</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0.124318242520969</v>
+      </c>
+      <c r="S51">
+        <v>3.1820460410129703E-2</v>
+      </c>
+      <c r="T51">
+        <v>0.35278382269196801</v>
+      </c>
+      <c r="U51" s="1">
+        <v>3.0737504943534299E-6</v>
+      </c>
+      <c r="V51">
+        <v>6.6578679506754199E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -9285,8 +11430,23 @@
       <c r="Q52">
         <v>0.19684075072284199</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>1.3053415464701701</v>
+      </c>
+      <c r="S52">
+        <v>0.35663259649842299</v>
+      </c>
+      <c r="T52">
+        <v>5.2158038149203598</v>
+      </c>
+      <c r="U52">
+        <v>0.64808635918226698</v>
+      </c>
+      <c r="V52">
+        <v>0.24929593268063899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="8" t="s">
         <v>18</v>
       </c>
@@ -9338,8 +11498,23 @@
       <c r="Q53">
         <v>5.9752174867129901E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>8.8798744657834702E-2</v>
+      </c>
+      <c r="S53">
+        <v>1.00939368858963E-2</v>
+      </c>
+      <c r="T53">
+        <v>0.36327750180197399</v>
+      </c>
+      <c r="U53" s="1">
+        <v>3.5946423660004903E-5</v>
+      </c>
+      <c r="V53">
+        <v>2.0049003628650501E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="13" t="s">
         <v>18</v>
       </c>
@@ -9391,8 +11566,23 @@
       <c r="Q54">
         <v>0.35851304920281402</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" t="s">
+        <v>94</v>
+      </c>
+      <c r="S54">
+        <v>2.3401316199191302</v>
+      </c>
+      <c r="T54" t="s">
+        <v>95</v>
+      </c>
+      <c r="U54">
+        <v>1.36223131283419E-3</v>
+      </c>
+      <c r="V54">
+        <v>3.6903830331597499E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -9444,8 +11634,23 @@
       <c r="Q55">
         <v>0.28478049774437503</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>1.67829627403308</v>
+      </c>
+      <c r="S55">
+        <v>0.50510659467391295</v>
+      </c>
+      <c r="T55">
+        <v>6.3748098287036399</v>
+      </c>
+      <c r="U55">
+        <v>0.34788470946389699</v>
+      </c>
+      <c r="V55">
+        <v>0.86502546909678402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -9497,8 +11702,23 @@
       <c r="Q56">
         <v>0.22685175163771601</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>1.8647736378145301</v>
+      </c>
+      <c r="S56">
+        <v>0.49957715741181902</v>
+      </c>
+      <c r="T56">
+        <v>8.4623088119964809</v>
+      </c>
+      <c r="U56">
+        <v>0.30107737883042501</v>
+      </c>
+      <c r="V56">
+        <v>5.8805839307768802E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -9550,8 +11770,23 @@
       <c r="Q57">
         <v>5.9831135643227201E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="S57">
+        <v>4.2170934760376498E-2</v>
+      </c>
+      <c r="T57">
+        <v>3.25288470341152</v>
+      </c>
+      <c r="U57">
+        <v>0.36665580014978</v>
+      </c>
+      <c r="V57">
+        <v>0.502847642427388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -9603,8 +11838,23 @@
       <c r="Q58">
         <v>0.26818062484516397</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>4.1957406850826899</v>
+      </c>
+      <c r="S58">
+        <v>0.86843651250851805</v>
+      </c>
+      <c r="T58">
+        <v>39.905890991018502</v>
+      </c>
+      <c r="U58">
+        <v>4.5960826164191698E-2</v>
+      </c>
+      <c r="V58">
+        <v>1.35685957534422E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -9656,8 +11906,23 @@
       <c r="Q59">
         <v>0.121645599222686</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0.74590945512581097</v>
+      </c>
+      <c r="S59">
+        <v>0.14800962655503999</v>
+      </c>
+      <c r="T59">
+        <v>3.4654877431723299</v>
+      </c>
+      <c r="U59">
+        <v>0.66097316392460903</v>
+      </c>
+      <c r="V59">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -9709,8 +11974,23 @@
       <c r="Q60">
         <v>0.167404702903555</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>5.5943209134435801</v>
+      </c>
+      <c r="S60">
+        <v>0.67872333473959601</v>
+      </c>
+      <c r="T60">
+        <v>257.32527302804903</v>
+      </c>
+      <c r="U60">
+        <v>7.2121690971277894E-2</v>
+      </c>
+      <c r="V60">
+        <v>2.45869045376856E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="13" t="s">
         <v>18</v>
       </c>
@@ -9762,8 +12042,23 @@
       <c r="Q61">
         <v>7.4546207465981507E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>6.2159121260484299E-2</v>
+      </c>
+      <c r="S61">
+        <v>1.2356529153586799E-2</v>
+      </c>
+      <c r="T61">
+        <v>0.193629727366226</v>
+      </c>
+      <c r="U61" s="1">
+        <v>2.8188051892641402E-10</v>
+      </c>
+      <c r="V61">
+        <v>1.0469539021442801E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="13" t="s">
         <v>18</v>
       </c>
@@ -9815,8 +12110,23 @@
       <c r="Q62">
         <v>2.9878812741217699E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>95</v>
+      </c>
+      <c r="T62">
+        <v>7.4480802426013196E-2</v>
+      </c>
+      <c r="U62" s="1">
+        <v>7.2319927824082697E-13</v>
+      </c>
+      <c r="V62">
+        <v>2.6111468313403101E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -9868,8 +12178,23 @@
       <c r="Q63">
         <v>0.195588012795333</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0.43511384882338999</v>
+      </c>
+      <c r="S63">
+        <v>0.150080300850816</v>
+      </c>
+      <c r="T63">
+        <v>1.1337272716347899</v>
+      </c>
+      <c r="U63">
+        <v>6.1364049708431803E-2</v>
+      </c>
+      <c r="V63">
+        <v>0.236093271339371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -9921,8 +12246,23 @@
       <c r="Q64">
         <v>0.105264319784814</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>3.7295472756290602</v>
+      </c>
+      <c r="S64">
+        <v>0.36906973585098501</v>
+      </c>
+      <c r="T64">
+        <v>183.670761033459</v>
+      </c>
+      <c r="U64">
+        <v>0.20616701603660101</v>
+      </c>
+      <c r="V64">
+        <v>5.4927719606337705E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="13" t="s">
         <v>18</v>
       </c>
@@ -9974,8 +12314,23 @@
       <c r="Q65">
         <v>3.01677555970087E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>8.4762438082478603E-2</v>
+      </c>
+      <c r="S65">
+        <v>1.96924251119307E-3</v>
+      </c>
+      <c r="T65">
+        <v>0.58318698946477099</v>
+      </c>
+      <c r="U65">
+        <v>2.6142114082859901E-3</v>
+      </c>
+      <c r="V65">
+        <v>3.6903830331597499E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="8" t="s">
         <v>18</v>
       </c>
@@ -10027,8 +12382,23 @@
       <c r="Q66">
         <v>0.10456630601813301</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0.37295472756290599</v>
+      </c>
+      <c r="S66">
+        <v>8.5379743080982895E-2</v>
+      </c>
+      <c r="T66">
+        <v>1.2930673151080001</v>
+      </c>
+      <c r="U66">
+        <v>8.2643997531147304E-2</v>
+      </c>
+      <c r="V66" s="1">
+        <v>7.5747471000401894E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -10080,8 +12450,23 @@
       <c r="Q67">
         <v>6.1454722853484203E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0.13319811698675199</v>
+      </c>
+      <c r="S67">
+        <v>1.4692615121244699E-2</v>
+      </c>
+      <c r="T67">
+        <v>0.57994226658055803</v>
+      </c>
+      <c r="U67">
+        <v>1.6786819983543001E-3</v>
+      </c>
+      <c r="V67">
+        <v>9.5568898030902408E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -10133,8 +12518,23 @@
       <c r="Q68">
         <v>0.32805472031903898</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0.93238681890726405</v>
+      </c>
+      <c r="S68">
+        <v>0.36658292933398701</v>
+      </c>
+      <c r="T68">
+        <v>2.3714829865412601</v>
+      </c>
+      <c r="U68">
+        <v>0.86956156976103305</v>
+      </c>
+      <c r="V68">
+        <v>0.38654289108045597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="13" t="s">
         <v>18</v>
       </c>
@@ -10186,8 +12586,23 @@
       <c r="Q69">
         <v>0.11950434988439</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0.31079560630242098</v>
+      </c>
+      <c r="S69">
+        <v>7.3057644026868498E-2</v>
+      </c>
+      <c r="T69">
+        <v>1.02546636997943</v>
+      </c>
+      <c r="U69">
+        <v>3.2252573018526E-2</v>
+      </c>
+      <c r="V69">
+        <v>6.9766048698072095E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="13" t="s">
         <v>18</v>
       </c>
@@ -10239,8 +12654,23 @@
       <c r="Q70">
         <v>5.9772871882820697E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0.13319811698675199</v>
+      </c>
+      <c r="S70">
+        <v>1.4692615121244699E-2</v>
+      </c>
+      <c r="T70">
+        <v>0.57994226658055803</v>
+      </c>
+      <c r="U70">
+        <v>1.6786819983543001E-3</v>
+      </c>
+      <c r="V70">
+        <v>0.42927276307915102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -10292,8 +12722,23 @@
       <c r="Q71">
         <v>5.9831135643227201E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="S71">
+        <v>4.2170934760376498E-2</v>
+      </c>
+      <c r="T71">
+        <v>3.25288470341152</v>
+      </c>
+      <c r="U71">
+        <v>0.36665580014978</v>
+      </c>
+      <c r="V71">
+        <v>0.16621260982830299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="13" t="s">
         <v>18</v>
       </c>
@@ -10345,8 +12790,23 @@
       <c r="Q72">
         <v>9.0181605486631802E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>8.7411264272555994E-2</v>
+      </c>
+      <c r="S72">
+        <v>1.7126988048494499E-2</v>
+      </c>
+      <c r="T72">
+        <v>0.27941009634507902</v>
+      </c>
+      <c r="U72" s="1">
+        <v>3.1874782602248102E-7</v>
+      </c>
+      <c r="V72">
+        <v>0.36209244109876398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="13" t="s">
         <v>18</v>
       </c>
@@ -10398,8 +12858,23 @@
       <c r="Q73">
         <v>2.9888427438324001E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>95</v>
+      </c>
+      <c r="T73">
+        <v>0.47237531149122702</v>
+      </c>
+      <c r="U73">
+        <v>1.8908050454650199E-3</v>
+      </c>
+      <c r="V73">
+        <v>6.6202985527221897E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="13" t="s">
         <v>18</v>
       </c>
@@ -10451,8 +12926,23 @@
       <c r="Q74">
         <v>2.92608720674758E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>7.17220629928665E-2</v>
+      </c>
+      <c r="S74">
+        <v>1.6876677166145599E-3</v>
+      </c>
+      <c r="T74">
+        <v>0.47751027969721099</v>
+      </c>
+      <c r="U74">
+        <v>8.3749778648123396E-4</v>
+      </c>
+      <c r="V74">
+        <v>0.96707619059757799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -10504,8 +12994,23 @@
       <c r="Q75">
         <v>7.4690201083064706E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0.93238681890726405</v>
+      </c>
+      <c r="S75">
+        <v>0.12488164177314499</v>
+      </c>
+      <c r="T75">
+        <v>6.9613529076693599</v>
+      </c>
+      <c r="U75">
+        <v>0.93165815251334005</v>
+      </c>
+      <c r="V75">
+        <v>1.02690375966233E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -10557,8 +13062,23 @@
       <c r="Q76">
         <v>0.105216369161442</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>1.2431824252096899</v>
+      </c>
+      <c r="S76">
+        <v>0.21031630046828201</v>
+      </c>
+      <c r="T76">
+        <v>8.4867770818852097</v>
+      </c>
+      <c r="U76">
+        <v>0.77521073600485702</v>
+      </c>
+      <c r="V76">
+        <v>0.33341741627559601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -10610,8 +13130,23 @@
       <c r="Q77">
         <v>4.481410150153E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="S77">
+        <v>4.2170934760376498E-2</v>
+      </c>
+      <c r="T77">
+        <v>3.25288470341152</v>
+      </c>
+      <c r="U77">
+        <v>0.36665580014978</v>
+      </c>
+      <c r="V77">
+        <v>0.33886405955887899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -10663,8 +13198,23 @@
       <c r="Q78">
         <v>2.9876098202455501E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0.15539780315121099</v>
+      </c>
+      <c r="S78">
+        <v>3.3783901979080998E-3</v>
+      </c>
+      <c r="T78">
+        <v>1.28085353129276</v>
+      </c>
+      <c r="U78">
+        <v>4.7299416074530101E-2</v>
+      </c>
+      <c r="V78">
+        <v>0.450751451645584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="13" t="s">
         <v>18</v>
       </c>
@@ -10716,8 +13266,23 @@
       <c r="Q79">
         <v>0.16431848088464199</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" t="s">
+        <v>94</v>
+      </c>
+      <c r="S79">
+        <v>0.85439812278940097</v>
+      </c>
+      <c r="T79" t="s">
+        <v>95</v>
+      </c>
+      <c r="U79">
+        <v>3.08384955255224E-2</v>
+      </c>
+      <c r="V79">
+        <v>0.28189566412969203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="13" t="s">
         <v>18</v>
       </c>
@@ -10769,8 +13334,23 @@
       <c r="Q80">
         <v>2.9893635130538099E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>95</v>
+      </c>
+      <c r="T80">
+        <v>0.47237531149122702</v>
+      </c>
+      <c r="U80">
+        <v>1.8908050454650199E-3</v>
+      </c>
+      <c r="V80">
+        <v>5.9087525490893102E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="13" t="s">
         <v>19</v>
       </c>
@@ -10822,8 +13402,23 @@
       <c r="Q81">
         <v>0.55839316782028203</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0.115098481498529</v>
+      </c>
+      <c r="S81">
+        <v>4.32238964669538E-2</v>
+      </c>
+      <c r="T81">
+        <v>0.26224148133460901</v>
+      </c>
+      <c r="U81" s="1">
+        <v>2.71542566210314E-10</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -10875,8 +13470,23 @@
       <c r="Q82">
         <v>1.6751795034608401</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0.621531800092055</v>
+      </c>
+      <c r="S82">
+        <v>0.32061888223224699</v>
+      </c>
+      <c r="T82">
+        <v>1.2084688202531499</v>
+      </c>
+      <c r="U82">
+        <v>0.12442200504890299</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -10928,8 +13538,23 @@
       <c r="Q83">
         <v>1.3560976932778199</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0.50314479055071104</v>
+      </c>
+      <c r="S83">
+        <v>0.24753806189086799</v>
+      </c>
+      <c r="T83">
+        <v>1.01127099994648</v>
+      </c>
+      <c r="U83">
+        <v>3.3726336702839803E-2</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="13" t="s">
         <v>19</v>
       </c>
@@ -10981,8 +13606,23 @@
       <c r="Q84">
         <v>0.47862271527452599</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>5.0737289803433103E-2</v>
+      </c>
+      <c r="S84">
+        <v>1.80078213155032E-2</v>
+      </c>
+      <c r="T84">
+        <v>0.116083884742414</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="13" t="s">
         <v>19</v>
       </c>
@@ -11034,8 +13674,23 @@
       <c r="Q85">
         <v>0.15954090509150901</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>3.2885280428151101E-2</v>
+      </c>
+      <c r="S85">
+        <v>3.8360010097384799E-3</v>
+      </c>
+      <c r="T85">
+        <v>0.12773458860407499</v>
+      </c>
+      <c r="U85" s="1">
+        <v>2.1227464230833001E-13</v>
+      </c>
+      <c r="V85">
+        <v>4.49106622259101E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="8" t="s">
         <v>19</v>
       </c>
@@ -11087,8 +13742,23 @@
       <c r="Q86">
         <v>0.15954090509150801</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>2.1524910825698899E-2</v>
+      </c>
+      <c r="S86">
+        <v>2.5431151250346101E-3</v>
+      </c>
+      <c r="T86">
+        <v>8.1537804911073694E-2</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0.96300050773256796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="13" t="s">
         <v>19</v>
       </c>
@@ -11140,8 +13810,23 @@
       <c r="Q87">
         <v>7.9770452545754197E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>2.4663960321113301E-3</v>
+      </c>
+      <c r="S87" s="1">
+        <v>6.2187904954121601E-5</v>
+      </c>
+      <c r="T87">
+        <v>1.38734777754571E-2</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0.12300410916931299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -11193,8 +13878,23 @@
       <c r="Q88">
         <v>1.59540905091508</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0.78924673027562597</v>
+      </c>
+      <c r="S88">
+        <v>0.38409998681352803</v>
+      </c>
+      <c r="T88">
+        <v>1.6568255949192101</v>
+      </c>
+      <c r="U88">
+        <v>0.487350419572256</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="13" t="s">
         <v>19</v>
       </c>
@@ -11246,8 +13946,23 @@
       <c r="Q89">
         <v>7.97704525457541E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89" t="s">
+        <v>95</v>
+      </c>
+      <c r="T89">
+        <v>3.7534978044931298E-2</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="13" t="s">
         <v>19</v>
       </c>
@@ -11299,8 +14014,23 @@
       <c r="Q90">
         <v>7.9770452549484602E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>6.8829656710083604E-3</v>
+      </c>
+      <c r="S90">
+        <v>1.72283663144625E-4</v>
+      </c>
+      <c r="T90">
+        <v>3.9384436911093501E-2</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0.55073041761858699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -11352,8 +14082,23 @@
       <c r="Q91">
         <v>0.95724543054905198</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>1.4206441144961299</v>
+      </c>
+      <c r="S91">
+        <v>0.46588004891456303</v>
+      </c>
+      <c r="T91">
+        <v>5.1474559983427302</v>
+      </c>
+      <c r="U91">
+        <v>0.50732262205953904</v>
+      </c>
+      <c r="V91">
+        <v>0.20138360023811999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -11405,8 +14150,23 @@
       <c r="Q92">
         <v>0.71793407291178901</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" t="s">
+        <v>94</v>
+      </c>
+      <c r="S92">
+        <v>1.01041571701372</v>
+      </c>
+      <c r="T92" t="s">
+        <v>95</v>
+      </c>
+      <c r="U92">
+        <v>2.9546788793777101E-2</v>
+      </c>
+      <c r="V92" s="1">
+        <v>6.6679994858986801E-13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="13" t="s">
         <v>19</v>
       </c>
@@ -11458,8 +14218,23 @@
       <c r="Q93">
         <v>7.9770452545754406E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93" t="s">
+        <v>95</v>
+      </c>
+      <c r="T93">
+        <v>1.2053189775337E-2</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>2.3904774732858399E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="13" t="s">
         <v>19</v>
       </c>
@@ -11511,8 +14286,23 @@
       <c r="Q94">
         <v>7.97704525494842E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94" t="s">
+        <v>95</v>
+      </c>
+      <c r="T94">
+        <v>2.7581017833770399E-2</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0.14477495875899901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="13" t="s">
         <v>19</v>
       </c>
@@ -11564,8 +14354,23 @@
       <c r="Q95">
         <v>1.1167863356405701</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" t="s">
+        <v>94</v>
+      </c>
+      <c r="S95">
+        <v>1.8040525138816399</v>
+      </c>
+      <c r="T95" t="s">
+        <v>95</v>
+      </c>
+      <c r="U95">
+        <v>5.5370145872070103E-3</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -11616,6 +14421,21 @@
       </c>
       <c r="Q96">
         <v>0.55839316782027903</v>
+      </c>
+      <c r="R96" t="s">
+        <v>94</v>
+      </c>
+      <c r="S96">
+        <v>0.69695896119261203</v>
+      </c>
+      <c r="T96" t="s">
+        <v>95</v>
+      </c>
+      <c r="U96">
+        <v>5.9487920077744498E-2</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1.4515373030527699E-13</v>
       </c>
     </row>
   </sheetData>
@@ -11626,15 +14446,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F34BB3-4645-EC42-9B7B-4CECB005AF38}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11677,8 +14497,20 @@
       <c r="N1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -11721,8 +14553,20 @@
       <c r="N2">
         <v>5.8553182117666802</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.1883361417445499</v>
+      </c>
+      <c r="P2">
+        <v>0.95669229175828396</v>
+      </c>
+      <c r="Q2">
+        <v>1.4782577169559701</v>
+      </c>
+      <c r="R2">
+        <v>0.109675569266551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -11765,8 +14609,20 @@
       <c r="N3">
         <v>10.051077020765</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.0654830858720901</v>
+      </c>
+      <c r="P3">
+        <v>0.78934357608026795</v>
+      </c>
+      <c r="Q3">
+        <v>1.4482448118314899</v>
+      </c>
+      <c r="R3">
+        <v>0.67044253816280497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -11808,6 +14664,18 @@
       </c>
       <c r="N4">
         <v>19.907489543020301</v>
+      </c>
+      <c r="O4">
+        <v>2.10324957267385</v>
+      </c>
+      <c r="P4">
+        <v>1.45302081334689</v>
+      </c>
+      <c r="Q4">
+        <v>3.0922336305476299</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.5199057690671298E-5</v>
       </c>
     </row>
   </sheetData>
@@ -11817,15 +14685,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCCABA9-0641-D34E-8CD0-6F36D461AB8A}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11889,8 +14760,20 @@
       <c r="U1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -11904,7 +14787,7 @@
         <v>87.5</v>
       </c>
       <c r="E2">
-        <v>78.46153846</v>
+        <v>78.461538461538495</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -11913,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.19346866800000001</v>
+        <v>0.19346866826141099</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -11922,40 +14805,52 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>1.9286994159999999</v>
+        <v>1.9286994161651601</v>
       </c>
       <c r="L2">
-        <v>1.4281428519999999</v>
+        <v>1.42814285211598</v>
       </c>
       <c r="M2">
-        <v>2.611106945</v>
+        <v>2.61110694467874</v>
       </c>
       <c r="N2" s="1">
-        <v>1.9700000000000001E-5</v>
+        <v>1.9733050739942201E-5</v>
       </c>
       <c r="O2">
         <v>49</v>
       </c>
       <c r="P2">
-        <v>182.26529170000001</v>
+        <v>182.26529171215901</v>
       </c>
       <c r="Q2">
         <v>153</v>
       </c>
       <c r="R2">
-        <v>317.23184950000001</v>
+        <v>317.23184946738502</v>
       </c>
       <c r="S2">
-        <v>8.1676200199999993</v>
+        <v>8.1676200202164004</v>
       </c>
       <c r="T2">
-        <v>15.75288396</v>
+        <v>15.7528839644502</v>
       </c>
       <c r="U2">
-        <v>7.5852639440000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>7.5852639442338203</v>
+      </c>
+      <c r="V2">
+        <v>1.9384950228144</v>
+      </c>
+      <c r="W2">
+        <v>1.2914445636323499</v>
+      </c>
+      <c r="X2">
+        <v>2.9605274470257501</v>
+      </c>
+      <c r="Y2">
+        <v>8.0261000356929302E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11969,7 +14864,7 @@
         <v>12.5</v>
       </c>
       <c r="E3">
-        <v>21.53846154</v>
+        <v>21.538461538461501</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -11978,49 +14873,61 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>6.3326920999999994E-2</v>
+        <v>6.3326920545535806E-2</v>
       </c>
       <c r="I3">
-        <v>0.21517546400000001</v>
+        <v>0.215175464431137</v>
       </c>
       <c r="J3">
-        <v>0.99836753600000006</v>
+        <v>0.99836753615547402</v>
       </c>
       <c r="K3">
-        <v>3.3489225440000001</v>
+        <v>3.3489225438927299</v>
       </c>
       <c r="L3">
-        <v>1.815602926</v>
+        <v>1.81560292631862</v>
       </c>
       <c r="M3">
-        <v>6.2928882770000003</v>
+        <v>6.2928882769826604</v>
       </c>
       <c r="N3">
-        <v>1.3505200000000001E-4</v>
+        <v>1.3505239947822801E-4</v>
       </c>
       <c r="O3">
         <v>7</v>
       </c>
       <c r="P3">
-        <v>27.777623439999999</v>
+        <v>27.777623443643702</v>
       </c>
       <c r="Q3">
         <v>42</v>
       </c>
       <c r="R3">
-        <v>84.455816780000006</v>
+        <v>84.455816779906897</v>
       </c>
       <c r="S3">
-        <v>1.2565162299999999</v>
+        <v>1.2565162297497801</v>
       </c>
       <c r="T3">
-        <v>4.2079755289999996</v>
+        <v>4.2079755285761404</v>
       </c>
       <c r="U3">
-        <v>2.9514592990000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>2.9514592988263599</v>
+      </c>
+      <c r="V3">
+        <v>3.0917768718305698</v>
+      </c>
+      <c r="W3">
+        <v>1.2070285341709699</v>
+      </c>
+      <c r="X3">
+        <v>9.3624734226371</v>
+      </c>
+      <c r="Y3">
+        <v>1.01740664240352E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -12031,10 +14938,10 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>63.636363639999999</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="E4">
-        <v>59.433962260000001</v>
+        <v>59.4339622641509</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -12043,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.17575842</v>
+        <v>0.175758419614474</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -12052,40 +14959,52 @@
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.87911086500000002</v>
+        <v>0.87911086463533095</v>
       </c>
       <c r="L4">
-        <v>0.65027095499999998</v>
+        <v>0.65027095538504098</v>
       </c>
       <c r="M4">
-        <v>1.1832511569999999</v>
+        <v>1.18325115744436</v>
       </c>
       <c r="N4">
-        <v>0.39795509200000001</v>
+        <v>0.39795509167079801</v>
       </c>
       <c r="O4">
         <v>7</v>
       </c>
       <c r="P4">
-        <v>100.5950005</v>
+        <v>100.59500048698899</v>
       </c>
       <c r="Q4">
         <v>63</v>
       </c>
       <c r="R4">
-        <v>74.905511779999998</v>
+        <v>74.905511779763799</v>
       </c>
       <c r="S4">
-        <v>6.8054942570000003</v>
+        <v>6.8054942574430797</v>
       </c>
       <c r="T4">
-        <v>5.9827839410000001</v>
+        <v>5.9827839409315597</v>
       </c>
       <c r="U4">
-        <v>-0.82271031699999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>-0.82271031651151605</v>
+      </c>
+      <c r="V4">
+        <v>0.88790257156007901</v>
+      </c>
+      <c r="W4">
+        <v>0.61263542697643503</v>
+      </c>
+      <c r="X4">
+        <v>1.29655134041443</v>
+      </c>
+      <c r="Y4">
+        <v>0.51468003993264499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -12096,10 +15015,10 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>36.363636360000001</v>
+        <v>36.363636363636402</v>
       </c>
       <c r="E5">
-        <v>40.566037739999999</v>
+        <v>40.5660377358491</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -12108,49 +15027,61 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>7.35E-13</v>
+        <v>7.34745597696929E-13</v>
       </c>
       <c r="I5">
-        <v>0.99999999699999997</v>
+        <v>0.99999999657024696</v>
       </c>
       <c r="J5">
-        <v>0.99911950699999996</v>
+        <v>0.99911950726393794</v>
       </c>
       <c r="K5">
-        <v>1.5481395410000001</v>
+        <v>1.5481395411404999</v>
       </c>
       <c r="L5">
-        <v>1.0159120800000001</v>
+        <v>1.01591208041798</v>
       </c>
       <c r="M5">
-        <v>2.3915246520000002</v>
+        <v>2.3915246523053999</v>
       </c>
       <c r="N5">
-        <v>3.9925057E-2</v>
+        <v>3.9925056657098702E-2</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <v>39.250000010000001</v>
+        <v>39.250000009812503</v>
       </c>
       <c r="Q5">
         <v>43</v>
       </c>
       <c r="R5">
-        <v>51.12598423</v>
+        <v>51.125984230632497</v>
       </c>
       <c r="S5">
-        <v>2.6278594219999998</v>
+        <v>2.6278594220495002</v>
       </c>
       <c r="T5">
-        <v>4.0682930800000001</v>
+        <v>4.0682930798334596</v>
       </c>
       <c r="U5">
-        <v>1.4404336579999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>1.44043365778396</v>
+      </c>
+      <c r="V5">
+        <v>1.5094343716521299</v>
+      </c>
+      <c r="W5">
+        <v>0.88422556305828104</v>
+      </c>
+      <c r="X5">
+        <v>2.67294370314512</v>
+      </c>
+      <c r="Y5">
+        <v>0.116040779995392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -12161,10 +15092,10 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>90.983606559999998</v>
+        <v>90.983606557377001</v>
       </c>
       <c r="E6">
-        <v>80.382775120000005</v>
+        <v>80.382775119617193</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
@@ -12173,7 +15104,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.212141095</v>
+        <v>0.212141095321663</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -12182,40 +15113,52 @@
         <v>17</v>
       </c>
       <c r="K6">
-        <v>1.0572640310000001</v>
+        <v>1.05726403107241</v>
       </c>
       <c r="L6">
-        <v>0.7254313</v>
+        <v>0.72543129956643204</v>
       </c>
       <c r="M6">
-        <v>1.5659435100000001</v>
+        <v>1.56594351009462</v>
       </c>
       <c r="N6">
-        <v>0.77609130800000004</v>
+        <v>0.77609130755342703</v>
       </c>
       <c r="O6">
         <v>111</v>
       </c>
       <c r="P6">
-        <v>696.96861569999999</v>
+        <v>696.96861565518498</v>
       </c>
       <c r="Q6">
         <v>168</v>
       </c>
       <c r="R6">
-        <v>315.72468090000001</v>
+        <v>315.72468089077103</v>
       </c>
       <c r="S6">
-        <v>4.4717138519999997</v>
+        <v>4.4717138519170998</v>
       </c>
       <c r="T6">
-        <v>4.7277822130000002</v>
+        <v>4.7277822128802001</v>
       </c>
       <c r="U6">
-        <v>0.25606836100000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0.25606836096310598</v>
+      </c>
+      <c r="V6">
+        <v>1.05983537688739</v>
+      </c>
+      <c r="W6">
+        <v>0.83845925281274603</v>
+      </c>
+      <c r="X6">
+        <v>1.3408913241345</v>
+      </c>
+      <c r="Y6">
+        <v>0.61722373799333496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -12226,10 +15169,10 @@
         <v>53</v>
       </c>
       <c r="D7">
-        <v>9.0163934430000001</v>
+        <v>9.0163934426229506</v>
       </c>
       <c r="E7">
-        <v>19.617224879999998</v>
+        <v>19.6172248803828</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -12238,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1.1896571E-2</v>
+        <v>1.18965709191572E-2</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -12247,13 +15190,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>2.4974641599999998</v>
+        <v>2.4974641603523602</v>
       </c>
       <c r="L7">
-        <v>1.592145216</v>
+        <v>1.5921452163279299</v>
       </c>
       <c r="M7">
-        <v>3.9175617699999998</v>
+        <v>3.9175617702951002</v>
       </c>
       <c r="N7" s="1">
         <v>6.7531082176054306E-5</v>
@@ -12262,26 +15205,38 @@
         <v>11</v>
       </c>
       <c r="P7">
-        <v>69.983222029999993</v>
+        <v>69.983222032967404</v>
       </c>
       <c r="Q7">
         <v>41</v>
       </c>
       <c r="R7">
-        <v>75.01716313</v>
+        <v>75.017163133091401</v>
       </c>
       <c r="S7">
-        <v>0.44859633900000001</v>
+        <v>0.44859633885621802</v>
       </c>
       <c r="T7">
-        <v>1.1203532789999999</v>
+        <v>1.1203532787586901</v>
       </c>
       <c r="U7">
-        <v>0.67175693999999997</v>
+        <v>0.67175693990246998</v>
+      </c>
+      <c r="V7">
+        <v>2.53076422274829</v>
+      </c>
+      <c r="W7">
+        <v>1.34038059001293</v>
+      </c>
+      <c r="X7">
+        <v>5.05663519603217</v>
+      </c>
+      <c r="Y7">
+        <v>2.0856201841251698E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U7" xr:uid="{B15E7A12-94FA-E345-8516-23CA6FFA8BAC}"/>
+  <autoFilter ref="A1:Y7" xr:uid="{7BE50ADC-5591-F543-BC11-D405D2F6DC2E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18739,15 +21694,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1055346C-FAA6-6843-8287-16719F05438F}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18814,8 +21769,23 @@
       <c r="V1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -18882,8 +21852,23 @@
       <c r="V2">
         <v>0.53096231428535201</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.62291403730192096</v>
+      </c>
+      <c r="X2">
+        <v>0.182448466091961</v>
+      </c>
+      <c r="Y2">
+        <v>1.9595854359532401</v>
+      </c>
+      <c r="Z2">
+        <v>0.36466447280367498</v>
+      </c>
+      <c r="AA2">
+        <v>0.47982167474167797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -18950,8 +21935,23 @@
       <c r="V3">
         <v>0.39324507021719801</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3">
+        <v>1.0196596098487301</v>
+      </c>
+      <c r="Z3">
+        <v>2.07084650053092E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.3958803590390004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -19018,8 +22018,23 @@
       <c r="V4">
         <v>0.58983289375710402</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>2.1023348758939799</v>
+      </c>
+      <c r="X4">
+        <v>0.58675766513616301</v>
+      </c>
+      <c r="Y4">
+        <v>9.3424327387332298</v>
+      </c>
+      <c r="Z4">
+        <v>0.20582052907013099</v>
+      </c>
+      <c r="AA4">
+        <v>0.34303421511688498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -19086,8 +22101,23 @@
       <c r="V5">
         <v>0.47312714532238798</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>11.212452671434599</v>
+      </c>
+      <c r="X5">
+        <v>1.6589614646024899</v>
+      </c>
+      <c r="Y5">
+        <v>479.30687604083602</v>
+      </c>
+      <c r="Z5">
+        <v>3.3875473151671102E-3</v>
+      </c>
+      <c r="AA5">
+        <v>4.2344341439588901E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -19154,8 +22184,23 @@
       <c r="V6">
         <v>0.58983289375710402</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>2.8031131678586498</v>
+      </c>
+      <c r="X6">
+        <v>0.50123275056440297</v>
+      </c>
+      <c r="Y6">
+        <v>28.3985317495288</v>
+      </c>
+      <c r="Z6">
+        <v>0.18716741282034599</v>
+      </c>
+      <c r="AA6">
+        <v>0.34303421511688498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -19222,8 +22267,23 @@
       <c r="V7">
         <v>5.6236378642224499E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>2.2949782489266899</v>
+      </c>
+      <c r="X7">
+        <v>0.82885371058853696</v>
+      </c>
+      <c r="Y7">
+        <v>7.8642770084286102</v>
+      </c>
+      <c r="Z7">
+        <v>8.8999717372319001E-2</v>
+      </c>
+      <c r="AA7">
+        <v>0.27812411678849702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -19290,8 +22350,23 @@
       <c r="V8" s="1">
         <v>1.37240723354322E-14</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.20131388148479701</v>
+      </c>
+      <c r="X8">
+        <v>7.2295113829205601E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0.491575445819603</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4.5301282172505202E-5</v>
+      </c>
+      <c r="AA8">
+        <v>1.13253205431263E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -19358,8 +22433,23 @@
       <c r="V9">
         <v>0.58983289375710402</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>0.24956762409747499</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9">
+        <v>0.17828966648296299</v>
+      </c>
+      <c r="AA9">
+        <v>0.34303421511688498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -19426,8 +22516,23 @@
       <c r="V10">
         <v>2.4160510597084702E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>3.26128488005372</v>
+      </c>
+      <c r="X10">
+        <v>1.2380246786714599</v>
+      </c>
+      <c r="Y10">
+        <v>10.845066556677899</v>
+      </c>
+      <c r="Z10">
+        <v>1.0114899048147601E-2</v>
+      </c>
+      <c r="AA10">
+        <v>5.0574495240738003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -19494,8 +22599,23 @@
       <c r="V11">
         <v>0.58983289375710402</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>1.32867161779966</v>
+      </c>
+      <c r="X11">
+        <v>0.42558511769262902</v>
+      </c>
+      <c r="Y11">
+        <v>4.8779671573158296</v>
+      </c>
+      <c r="Z11">
+        <v>0.597044175328728</v>
+      </c>
+      <c r="AA11">
+        <v>0.67845929014628203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -19562,8 +22682,23 @@
       <c r="V12">
         <v>0.31691394144073098</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12">
+        <v>1.5157903459317901</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12">
+        <v>9.9527409044819493E-3</v>
+      </c>
+      <c r="AA12">
+        <v>5.0574495240738003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -19630,8 +22765,23 @@
       <c r="V13">
         <v>0.57332958555936797</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13">
+        <v>0.39867638579617798</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13">
+        <v>0.120119383299407</v>
+      </c>
+      <c r="AA13">
+        <v>0.30029845824851698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -19698,8 +22848,23 @@
       <c r="V14">
         <v>0.57332958555936797</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="s">
+        <v>94</v>
+      </c>
+      <c r="X14">
+        <v>0.39867638579617798</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14">
+        <v>0.120119383299407</v>
+      </c>
+      <c r="AA14">
+        <v>0.30029845824851698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -19766,8 +22931,23 @@
       <c r="V15">
         <v>5.6236378642224499E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.362364986672635</v>
+      </c>
+      <c r="X15">
+        <v>5.6272287479725201E-2</v>
+      </c>
+      <c r="Y15">
+        <v>1.86250330965547</v>
+      </c>
+      <c r="Z15">
+        <v>0.14693697734225</v>
+      </c>
+      <c r="AA15">
+        <v>0.33394767577784101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -19834,8 +23014,23 @@
       <c r="V16">
         <v>0.69407959454515</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>1.12160591112959</v>
+      </c>
+      <c r="X16">
+        <v>0.56457557613389797</v>
+      </c>
+      <c r="Y16">
+        <v>2.3237990566832201</v>
+      </c>
+      <c r="Z16">
+        <v>0.72905826522787098</v>
+      </c>
+      <c r="AA16">
+        <v>0.79245463611725098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -19902,8 +23097,23 @@
       <c r="V17">
         <v>0.364748719805911</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0.64948900944188404</v>
+      </c>
+      <c r="X17">
+        <v>0.13480629289233201</v>
+      </c>
+      <c r="Y17">
+        <v>2.73885687342423</v>
+      </c>
+      <c r="Z17">
+        <v>0.50044833403927402</v>
+      </c>
+      <c r="AA17">
+        <v>0.59577182623723102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -19970,8 +23180,23 @@
       <c r="V18">
         <v>0.47312714532238798</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.67446935595888002</v>
+      </c>
+      <c r="X18">
+        <v>0.34833816973339998</v>
+      </c>
+      <c r="Y18">
+        <v>1.27834813223952</v>
+      </c>
+      <c r="Z18">
+        <v>0.196106509066408</v>
+      </c>
+      <c r="AA18">
+        <v>0.34303421511688498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -20038,8 +23263,23 @@
       <c r="V19">
         <v>2.18579884189608E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="s">
+        <v>94</v>
+      </c>
+      <c r="X19">
+        <v>1.6629879554611999</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19">
+        <v>5.2424119956481201E-3</v>
+      </c>
+      <c r="AA19">
+        <v>4.3686766630400997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -20106,8 +23346,23 @@
       <c r="V20">
         <v>0.63848764014368398</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1.16908021699539</v>
+      </c>
+      <c r="X20">
+        <v>0.297269192140172</v>
+      </c>
+      <c r="Y20">
+        <v>4.8424994280142997</v>
+      </c>
+      <c r="Z20">
+        <v>0.79621662496408496</v>
+      </c>
+      <c r="AA20">
+        <v>0.82939231767092203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -20174,8 +23429,23 @@
       <c r="V21">
         <v>0.74767480192774405</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.64948900944188404</v>
+      </c>
+      <c r="X21">
+        <v>0.190232145079793</v>
+      </c>
+      <c r="Y21">
+        <v>2.0431859413968101</v>
+      </c>
+      <c r="Z21">
+        <v>0.40925023363667601</v>
+      </c>
+      <c r="AA21">
+        <v>0.51156279204584498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -20242,8 +23512,23 @@
       <c r="V22">
         <v>0.58983289375710402</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>1.94846702832565</v>
+      </c>
+      <c r="X22">
+        <v>0.41612846743148801</v>
+      </c>
+      <c r="Y22">
+        <v>12.040772981568001</v>
+      </c>
+      <c r="Z22">
+        <v>0.33658887105069801</v>
+      </c>
+      <c r="AA22">
+        <v>0.46748454312596899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -20310,8 +23595,23 @@
       <c r="V23">
         <v>0.61056480451276895</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>2.4355837854070699</v>
+      </c>
+      <c r="X23">
+        <v>0.39874021684919297</v>
+      </c>
+      <c r="Y23">
+        <v>25.577016934975401</v>
+      </c>
+      <c r="Z23">
+        <v>0.27156933082407297</v>
+      </c>
+      <c r="AA23">
+        <v>0.39936666297657802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -20378,8 +23678,23 @@
       <c r="V24">
         <v>0.91507318183366004</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.974233514162826</v>
+      </c>
+      <c r="X24">
+        <v>0.18145838727406199</v>
+      </c>
+      <c r="Y24">
+        <v>5.2305707902305496</v>
+      </c>
+      <c r="Z24">
+        <v>0.97055037295334701</v>
+      </c>
+      <c r="AA24">
+        <v>0.97055037295334701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -20446,8 +23761,23 @@
       <c r="V25">
         <v>0.208484237361062</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>1.94846702832565</v>
+      </c>
+      <c r="X25">
+        <v>0.52199880971204504</v>
+      </c>
+      <c r="Y25">
+        <v>8.8421078941296898</v>
+      </c>
+      <c r="Z25">
+        <v>0.26717890250376097</v>
+      </c>
+      <c r="AA25">
+        <v>0.39936666297657802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -20513,6 +23843,21 @@
       </c>
       <c r="V26">
         <v>0.115817148246376</v>
+      </c>
+      <c r="W26">
+        <v>0.27835243261795001</v>
+      </c>
+      <c r="X26">
+        <v>6.6716626058795803E-2</v>
+      </c>
+      <c r="Y26">
+        <v>0.886314315311862</v>
+      </c>
+      <c r="Z26">
+        <v>1.5839324126773399E-2</v>
+      </c>
+      <c r="AA26">
+        <v>6.59971838615558E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20522,15 +23867,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB42479-CD39-374A-B9E0-4289CEF577FC}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20597,8 +23942,23 @@
       <c r="V1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -20665,8 +24025,23 @@
       <c r="V2" s="1">
         <v>5.3825470918450798E-18</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>3.1198568161479598</v>
+      </c>
+      <c r="X2">
+        <v>0.83014765511696498</v>
+      </c>
+      <c r="Y2">
+        <v>26.299131107016802</v>
+      </c>
+      <c r="Z2">
+        <v>9.4501526619716003E-2</v>
+      </c>
+      <c r="AA2">
+        <v>0.79223209676408202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -20733,8 +24108,23 @@
       <c r="V3">
         <v>0.98667855019293305</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0.56724669384508297</v>
+      </c>
+      <c r="X3">
+        <v>6.8820429436100394E-2</v>
+      </c>
+      <c r="Y3">
+        <v>26.0919801753193</v>
+      </c>
+      <c r="Z3">
+        <v>0.59475383788277403</v>
+      </c>
+      <c r="AA3">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -20801,8 +24191,23 @@
       <c r="V4">
         <v>0.63059373982172995</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.37816446256338898</v>
+      </c>
+      <c r="X4">
+        <v>3.7422520212713702E-2</v>
+      </c>
+      <c r="Y4">
+        <v>18.623642362359199</v>
+      </c>
+      <c r="Z4">
+        <v>0.36576406569119302</v>
+      </c>
+      <c r="AA4">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -20869,8 +24274,23 @@
       <c r="V5">
         <v>0.93998853337520405</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>1.3235756189718599</v>
+      </c>
+      <c r="X5">
+        <v>0.20137651397546699</v>
+      </c>
+      <c r="Y5">
+        <v>55.965361821709898</v>
+      </c>
+      <c r="Z5">
+        <v>0.78583932041165006</v>
+      </c>
+      <c r="AA5">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20937,8 +24357,23 @@
       <c r="V6">
         <v>0.93998853337520405</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>1.1344933876901699</v>
+      </c>
+      <c r="X6">
+        <v>0.28166269800389698</v>
+      </c>
+      <c r="Y6">
+        <v>9.9041057519213709</v>
+      </c>
+      <c r="Z6">
+        <v>0.86377934585748795</v>
+      </c>
+      <c r="AA6">
+        <v>0.90591492370419502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -21005,8 +24440,23 @@
       <c r="V7">
         <v>0.43783457787582503</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.75632892512677696</v>
+      </c>
+      <c r="X7">
+        <v>0.10140043568215901</v>
+      </c>
+      <c r="Y7">
+        <v>33.5603230540383</v>
+      </c>
+      <c r="Z7">
+        <v>0.79165519256424999</v>
+      </c>
+      <c r="AA7">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -21073,8 +24523,23 @@
       <c r="V8">
         <v>0.72097329249386699</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0.75632892512677696</v>
+      </c>
+      <c r="X8">
+        <v>0.10140043568215901</v>
+      </c>
+      <c r="Y8">
+        <v>33.5603230540383</v>
+      </c>
+      <c r="Z8">
+        <v>0.79165519256424999</v>
+      </c>
+      <c r="AA8">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -21141,8 +24606,23 @@
       <c r="V9">
         <v>0.50711129848101</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9">
+        <v>8.6633305074628603E-2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9">
+        <v>0.49174519523361299</v>
+      </c>
+      <c r="AA9">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -21209,8 +24689,23 @@
       <c r="V10">
         <v>0.419934459963693</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10">
+        <v>0.186607741607068</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10">
+        <v>0.35630650982689599</v>
+      </c>
+      <c r="AA10">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -21277,8 +24772,23 @@
       <c r="V11">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11">
+        <v>0.11131504715308201</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11">
+        <v>0.45135520246920402</v>
+      </c>
+      <c r="AA11">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -21345,8 +24855,23 @@
       <c r="V12">
         <v>0.52234066031891502</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12">
+        <v>6.2408861251623399E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12">
+        <v>0.53858729535445105</v>
+      </c>
+      <c r="AA12">
+        <v>0.85775013704597802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -21413,8 +24938,23 @@
       <c r="V13">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13">
+        <v>0.11131504715308201</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13">
+        <v>0.45135520246920402</v>
+      </c>
+      <c r="AA13">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -21481,8 +25021,23 @@
       <c r="V14">
         <v>0.257074297246697</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.51888726511571504</v>
+      </c>
+      <c r="X14">
+        <v>0.15841789098748599</v>
+      </c>
+      <c r="Y14">
+        <v>1.3336728894915</v>
+      </c>
+      <c r="Z14">
+        <v>0.16318420950343901</v>
+      </c>
+      <c r="AA14">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -21549,8 +25104,23 @@
       <c r="V15">
         <v>0.98100035774888095</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.58807223379781004</v>
+      </c>
+      <c r="X15">
+        <v>1.27848491422445E-2</v>
+      </c>
+      <c r="Y15">
+        <v>4.8471367164837398</v>
+      </c>
+      <c r="Z15">
+        <v>0.61896663192117896</v>
+      </c>
+      <c r="AA15">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -21617,8 +25187,23 @@
       <c r="V16">
         <v>0.52234066031891502</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0.58807223379781004</v>
+      </c>
+      <c r="X16">
+        <v>6.3924264125025707E-2</v>
+      </c>
+      <c r="Y16">
+        <v>2.6415496801059302</v>
+      </c>
+      <c r="Z16">
+        <v>0.48186284234089399</v>
+      </c>
+      <c r="AA16">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -21685,8 +25270,23 @@
       <c r="V17">
         <v>0.70503643208464395</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>1.4113733611147501</v>
+      </c>
+      <c r="X17">
+        <v>0.13439870967852699</v>
+      </c>
+      <c r="Y17">
+        <v>8.6209464915515408</v>
+      </c>
+      <c r="Z17">
+        <v>0.67896820465338803</v>
+      </c>
+      <c r="AA17">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -21753,8 +25353,23 @@
       <c r="V18">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0.73509029224726297</v>
+      </c>
+      <c r="X18">
+        <v>0.331591566983026</v>
+      </c>
+      <c r="Y18">
+        <v>1.4714651824225</v>
+      </c>
+      <c r="Z18">
+        <v>0.374081571488593</v>
+      </c>
+      <c r="AA18">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -21821,8 +25436,23 @@
       <c r="V19">
         <v>0.98667855019293305</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1.11424212719585</v>
+      </c>
+      <c r="X19">
+        <v>0.364213306909273</v>
+      </c>
+      <c r="Y19">
+        <v>2.9019590751526598</v>
+      </c>
+      <c r="Z19">
+        <v>0.81723011289651304</v>
+      </c>
+      <c r="AA19">
+        <v>0.878522371363751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -21889,8 +25519,23 @@
       <c r="V20">
         <v>0.63059373982172995</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0.70568668055737305</v>
+      </c>
+      <c r="X20">
+        <v>0.17538944411145099</v>
+      </c>
+      <c r="Y20">
+        <v>2.1066168373780698</v>
+      </c>
+      <c r="Z20">
+        <v>0.52240073180711299</v>
+      </c>
+      <c r="AA20">
+        <v>0.85775013704597802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -21957,8 +25602,23 @@
       <c r="V21">
         <v>0.72709535328090202</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>5.2926501041802902</v>
+      </c>
+      <c r="X21">
+        <v>1.2550922637986699</v>
+      </c>
+      <c r="Y21">
+        <v>25.4996855097265</v>
+      </c>
+      <c r="Z21">
+        <v>3.8446797695522702E-3</v>
+      </c>
+      <c r="AA21">
+        <v>0.15376997847221699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -22025,8 +25685,23 @@
       <c r="V22">
         <v>0.93998853337520405</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0.441054175348358</v>
+      </c>
+      <c r="X22">
+        <v>9.9397741144140392E-3</v>
+      </c>
+      <c r="Y22">
+        <v>3.2897494780941301</v>
+      </c>
+      <c r="Z22">
+        <v>0.42748645043646</v>
+      </c>
+      <c r="AA22">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -22093,8 +25768,23 @@
       <c r="V23">
         <v>0.93998853337520405</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0.441054175348358</v>
+      </c>
+      <c r="X23">
+        <v>9.9397741144140392E-3</v>
+      </c>
+      <c r="Y23">
+        <v>3.2897494780941301</v>
+      </c>
+      <c r="Z23">
+        <v>0.42748645043646</v>
+      </c>
+      <c r="AA23">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -22161,8 +25851,23 @@
       <c r="V24">
         <v>0.98667855019293305</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0.882108350696716</v>
+      </c>
+      <c r="X24">
+        <v>1.7911750229810501E-2</v>
+      </c>
+      <c r="Y24">
+        <v>8.9139381438712295</v>
+      </c>
+      <c r="Z24">
+        <v>0.91060871486894301</v>
+      </c>
+      <c r="AA24">
+        <v>0.93228987474677505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -22229,8 +25934,23 @@
       <c r="V25">
         <v>0.63059373982172995</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25">
+        <v>2.9967379873194799</v>
+      </c>
+      <c r="Z25">
+        <v>0.192226476261914</v>
+      </c>
+      <c r="AA25">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -22297,8 +26017,23 @@
       <c r="V26">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0.75073051123124701</v>
+      </c>
+      <c r="X26">
+        <v>0.33822948775671302</v>
+      </c>
+      <c r="Y26">
+        <v>1.50540918125871</v>
+      </c>
+      <c r="Z26">
+        <v>0.40874493989302002</v>
+      </c>
+      <c r="AA26">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -22365,8 +26100,23 @@
       <c r="V27">
         <v>1.0585419429761701E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>10.5853002083606</v>
+      </c>
+      <c r="X27">
+        <v>0.84992984194367704</v>
+      </c>
+      <c r="Y27">
+        <v>555.7003449435</v>
+      </c>
+      <c r="Z27">
+        <v>1.07281380329454E-2</v>
+      </c>
+      <c r="AA27">
+        <v>0.15376997847221699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -22433,8 +26183,23 @@
       <c r="V28">
         <v>4.8031047071304303E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>10.5853002083606</v>
+      </c>
+      <c r="X28">
+        <v>0.84992984194367704</v>
+      </c>
+      <c r="Y28">
+        <v>555.7003449435</v>
+      </c>
+      <c r="Z28">
+        <v>1.07281380329454E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0.15376997847221699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -22501,8 +26266,23 @@
       <c r="V29">
         <v>3.85489057306002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>6.8907329740633703</v>
+      </c>
+      <c r="X29">
+        <v>1.0879727123465099</v>
+      </c>
+      <c r="Y29">
+        <v>287.09857072757001</v>
+      </c>
+      <c r="Z29">
+        <v>2.8946361858728498E-2</v>
+      </c>
+      <c r="AA29">
+        <v>0.31117338998133098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -22569,8 +26349,23 @@
       <c r="V30">
         <v>3.5257815550710697E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>1.91409249279538</v>
+      </c>
+      <c r="X30">
+        <v>0.837744696430193</v>
+      </c>
+      <c r="Y30">
+        <v>5.1063535065875199</v>
+      </c>
+      <c r="Z30">
+        <v>0.11054401350196499</v>
+      </c>
+      <c r="AA30">
+        <v>0.79223209676408202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -22637,8 +26432,23 @@
       <c r="V31">
         <v>0.419934459963693</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>2.10550174207492</v>
+      </c>
+      <c r="X31">
+        <v>0.45952007015171997</v>
+      </c>
+      <c r="Y31">
+        <v>19.5487187769934</v>
+      </c>
+      <c r="Z31">
+        <v>0.32163299337934198</v>
+      </c>
+      <c r="AA31">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -22705,8 +26515,23 @@
       <c r="V32">
         <v>0.11541497751829299</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" t="s">
+        <v>94</v>
+      </c>
+      <c r="X32">
+        <v>0.45073996566806201</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z32">
+        <v>0.12963167151899699</v>
+      </c>
+      <c r="AA32">
+        <v>0.79630883933098195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -22773,8 +26598,23 @@
       <c r="V33">
         <v>0.63059373982172995</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>1.4036678280499499</v>
+      </c>
+      <c r="X33">
+        <v>0.37079730600738298</v>
+      </c>
+      <c r="Y33">
+        <v>7.8358236469416704</v>
+      </c>
+      <c r="Z33">
+        <v>0.60090497415855304</v>
+      </c>
+      <c r="AA33">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -22841,8 +26681,23 @@
       <c r="V34">
         <v>0.63059373982172995</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>1.5312739942363001</v>
+      </c>
+      <c r="X34">
+        <v>0.15153230319971001</v>
+      </c>
+      <c r="Y34">
+        <v>75.411367409115002</v>
+      </c>
+      <c r="Z34">
+        <v>0.70097472574960396</v>
+      </c>
+      <c r="AA34">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -22909,8 +26764,23 @@
       <c r="V35">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>1.7226832435158399</v>
+      </c>
+      <c r="X35">
+        <v>0.35656184222125697</v>
+      </c>
+      <c r="Y35">
+        <v>16.384522993093999</v>
+      </c>
+      <c r="Z35">
+        <v>0.48121861746111699</v>
+      </c>
+      <c r="AA35">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -22977,8 +26847,23 @@
       <c r="V36">
         <v>0.72709970493380705</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0.76563699711815203</v>
+      </c>
+      <c r="X36">
+        <v>0.10972873453400001</v>
+      </c>
+      <c r="Y36">
+        <v>8.4640030892966092</v>
+      </c>
+      <c r="Z36">
+        <v>0.75711135299968402</v>
+      </c>
+      <c r="AA36">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -23045,8 +26930,23 @@
       <c r="V37">
         <v>0.419934459963693</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>1.5312739942363001</v>
+      </c>
+      <c r="X37">
+        <v>0.15153230319971001</v>
+      </c>
+      <c r="Y37">
+        <v>75.411367409115002</v>
+      </c>
+      <c r="Z37">
+        <v>0.70097472574960396</v>
+      </c>
+      <c r="AA37">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -23113,8 +27013,23 @@
       <c r="V38">
         <v>0.91318858360369903</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>1.27606166186359</v>
+      </c>
+      <c r="X38">
+        <v>0.32856611774490002</v>
+      </c>
+      <c r="Y38">
+        <v>7.2156400500923699</v>
+      </c>
+      <c r="Z38">
+        <v>0.71045629504669205</v>
+      </c>
+      <c r="AA38">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -23181,8 +27096,23 @@
       <c r="V39">
         <v>0.257074297246697</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0.38281849855907601</v>
+      </c>
+      <c r="X39">
+        <v>2.7748581098368599E-2</v>
+      </c>
+      <c r="Y39">
+        <v>5.2813512272755903</v>
+      </c>
+      <c r="Z39">
+        <v>0.31851824398851902</v>
+      </c>
+      <c r="AA39">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -23249,8 +27179,23 @@
       <c r="V40">
         <v>0.72709970493380705</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0.76563699711815203</v>
+      </c>
+      <c r="X40">
+        <v>0.10972873453400001</v>
+      </c>
+      <c r="Y40">
+        <v>8.4640030892966092</v>
+      </c>
+      <c r="Z40">
+        <v>0.75711135299968402</v>
+      </c>
+      <c r="AA40">
+        <v>0.87285059692981404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -23317,8 +27262,23 @@
       <c r="V41">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>2.2969109913544599</v>
+      </c>
+      <c r="X41">
+        <v>0.27866958506184503</v>
+      </c>
+      <c r="Y41">
+        <v>105.652367305398</v>
+      </c>
+      <c r="Z41">
+        <v>0.42821256404494401</v>
+      </c>
+      <c r="AA41">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -23385,8 +27345,23 @@
       <c r="V42">
         <v>0.38622736602479601</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>2.2969109913544599</v>
+      </c>
+      <c r="X42">
+        <v>0.27866958506184503</v>
+      </c>
+      <c r="Y42">
+        <v>105.652367305398</v>
+      </c>
+      <c r="Z42">
+        <v>0.42821256404494401</v>
+      </c>
+      <c r="AA42">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -23453,8 +27428,23 @@
       <c r="V43">
         <v>0.47597408823194998</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>2.2969109913544599</v>
+      </c>
+      <c r="X43">
+        <v>0.27866958506184503</v>
+      </c>
+      <c r="Y43">
+        <v>105.652367305398</v>
+      </c>
+      <c r="Z43">
+        <v>0.42821256404494401</v>
+      </c>
+      <c r="AA43">
+        <v>0.84580173580181395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -23520,6 +27510,21 @@
       </c>
       <c r="V44">
         <v>0.98667855019293305</v>
+      </c>
+      <c r="W44">
+        <v>1.02084932949087</v>
+      </c>
+      <c r="X44">
+        <v>0.245017778487954</v>
+      </c>
+      <c r="Y44">
+        <v>5.97442000961638</v>
+      </c>
+      <c r="Z44">
+        <v>0.97568395970718902</v>
+      </c>
+      <c r="AA44">
+        <v>0.97568395970718902</v>
       </c>
     </row>
   </sheetData>
@@ -23530,19 +27535,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F791E0-BD9C-AB40-B780-ED98BFFCCD1B}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23609,8 +27610,23 @@
       <c r="V1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -23677,8 +27693,23 @@
       <c r="V2">
         <v>0.28680103675340102</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0.68706152707345902</v>
+      </c>
+      <c r="X2">
+        <v>0.21744814254731901</v>
+      </c>
+      <c r="Y2">
+        <v>2.0732386626568999</v>
+      </c>
+      <c r="Z2">
+        <v>0.45376795597610697</v>
+      </c>
+      <c r="AA2">
+        <v>0.68905504426001396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -23745,8 +27776,23 @@
       <c r="V3">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1.76672964104604</v>
+      </c>
+      <c r="X3">
+        <v>9.1973769786287393E-2</v>
+      </c>
+      <c r="Y3">
+        <v>104.23207891161999</v>
+      </c>
+      <c r="Z3">
+        <v>0.63764847644752698</v>
+      </c>
+      <c r="AA3">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -23813,8 +27859,23 @@
       <c r="V4">
         <v>0.338104142531505</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.35334592820920802</v>
+      </c>
+      <c r="X4">
+        <v>3.36475365979493E-2</v>
+      </c>
+      <c r="Y4">
+        <v>2.1583065289635499</v>
+      </c>
+      <c r="Z4">
+        <v>0.193521058012979</v>
+      </c>
+      <c r="AA4">
+        <v>0.41759807255432302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -23881,8 +27942,23 @@
       <c r="V5">
         <v>0.78505547434793399</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>1.76672964104604</v>
+      </c>
+      <c r="X5">
+        <v>0.25320224663303897</v>
+      </c>
+      <c r="Y5">
+        <v>19.530933322254199</v>
+      </c>
+      <c r="Z5">
+        <v>0.50536109393550199</v>
+      </c>
+      <c r="AA5">
+        <v>0.71447602935708898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -23949,8 +28025,23 @@
       <c r="V6" s="1">
         <v>1.8649635154938299E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>7.2877597693149001</v>
+      </c>
+      <c r="X6">
+        <v>2.5920421521250501</v>
+      </c>
+      <c r="Y6">
+        <v>28.316881130955199</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.08632450099844E-5</v>
+      </c>
+      <c r="AA6">
+        <v>4.4539304540936001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24017,8 +28108,23 @@
       <c r="V7" s="1">
         <v>1.8649635154938299E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>10.600377846276199</v>
+      </c>
+      <c r="X7">
+        <v>1.5684006766869301</v>
+      </c>
+      <c r="Y7">
+        <v>453.14206795229899</v>
+      </c>
+      <c r="Z7">
+        <v>4.6115893428084797E-3</v>
+      </c>
+      <c r="AA7">
+        <v>4.5403519615097497E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -24085,8 +28191,23 @@
       <c r="V8">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>1.76672964104604</v>
+      </c>
+      <c r="X8">
+        <v>0.25320224663303897</v>
+      </c>
+      <c r="Y8">
+        <v>19.530933322254199</v>
+      </c>
+      <c r="Z8">
+        <v>0.50536109393550199</v>
+      </c>
+      <c r="AA8">
+        <v>0.71447602935708898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -24153,8 +28274,23 @@
       <c r="V9">
         <v>1.99943882940831E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>3.53345928209208</v>
+      </c>
+      <c r="X9">
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="Y9">
+        <v>174.01392379806401</v>
+      </c>
+      <c r="Z9">
+        <v>0.228020413118356</v>
+      </c>
+      <c r="AA9">
+        <v>0.44518271132631398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -24221,8 +28357,23 @@
       <c r="V10">
         <v>0.108008236778456</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10">
+        <v>0.16590396143487701</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10">
+        <v>0.18378773903349199</v>
+      </c>
+      <c r="AA10">
+        <v>0.41759807255432302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -24289,8 +28440,23 @@
       <c r="V11">
         <v>8.3528260174254895E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11">
+        <v>0.36503404177135002</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11">
+        <v>0.103544226183458</v>
+      </c>
+      <c r="AA11">
+        <v>0.24972431020716301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -24357,8 +28523,23 @@
       <c r="V12">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0.88336482052301901</v>
+      </c>
+      <c r="X12">
+        <v>6.4030658011543604E-2</v>
+      </c>
+      <c r="Y12">
+        <v>12.186871576378101</v>
+      </c>
+      <c r="Z12">
+        <v>0.90123908313058498</v>
+      </c>
+      <c r="AA12">
+        <v>0.92111784407115005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -24425,8 +28606,23 @@
       <c r="V13">
         <v>8.3528260174254895E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13">
+        <v>0.36503404177135002</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13">
+        <v>0.103544226183458</v>
+      </c>
+      <c r="AA13">
+        <v>0.24972431020716301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -24493,8 +28689,23 @@
       <c r="V14">
         <v>8.3528260174254895E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="s">
+        <v>94</v>
+      </c>
+      <c r="X14">
+        <v>0.36503404177135002</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14">
+        <v>0.103544226183458</v>
+      </c>
+      <c r="AA14">
+        <v>0.24972431020716301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -24561,8 +28772,23 @@
       <c r="V15">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>2.36774019082688</v>
+      </c>
+      <c r="X15">
+        <v>0.862317069581236</v>
+      </c>
+      <c r="Y15">
+        <v>8.0733022775911696</v>
+      </c>
+      <c r="Z15">
+        <v>7.5449170024469006E-2</v>
+      </c>
+      <c r="AA15">
+        <v>0.220958283643088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -24629,8 +28855,23 @@
       <c r="V16">
         <v>0.208361056326238</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="s">
+        <v>94</v>
+      </c>
+      <c r="X16">
+        <v>0.69695896119261203</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16">
+        <v>5.9487920077744498E-2</v>
+      </c>
+      <c r="AA16">
+        <v>0.20325039359895999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -24697,8 +28938,23 @@
       <c r="V17">
         <v>3.5191719943889303E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="s">
+        <v>94</v>
+      </c>
+      <c r="X17">
+        <v>1.8040525138816399</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17">
+        <v>5.5370145872070103E-3</v>
+      </c>
+      <c r="AA17">
+        <v>4.5403519615097497E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -24765,8 +29021,23 @@
       <c r="V18">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1.30225710495478</v>
+      </c>
+      <c r="X18">
+        <v>0.41712431864545901</v>
+      </c>
+      <c r="Y18">
+        <v>4.7809912571703803</v>
+      </c>
+      <c r="Z18">
+        <v>0.62337336188083403</v>
+      </c>
+      <c r="AA18">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -24833,8 +29104,23 @@
       <c r="V19">
         <v>0.87698406236401905</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>1.18387009541344</v>
+      </c>
+      <c r="X19">
+        <v>0.368692400018373</v>
+      </c>
+      <c r="Y19">
+        <v>4.4142348107565503</v>
+      </c>
+      <c r="Z19">
+        <v>0.75767935371225803</v>
+      </c>
+      <c r="AA19">
+        <v>0.81496513272305504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -24901,8 +29187,23 @@
       <c r="V20">
         <v>0.208361056326238</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20">
+        <v>0.69695896119261203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z20">
+        <v>5.9487920077744498E-2</v>
+      </c>
+      <c r="AA20">
+        <v>0.20325039359895999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -24969,8 +29270,23 @@
       <c r="V21">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0.84562149672388398</v>
+      </c>
+      <c r="X21">
+        <v>0.40621762875999201</v>
+      </c>
+      <c r="Y21">
+        <v>1.8097092975808799</v>
+      </c>
+      <c r="Z21">
+        <v>0.62997347170512796</v>
+      </c>
+      <c r="AA21">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -25037,8 +29353,23 @@
       <c r="V22">
         <v>0.108008236778456</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22">
+        <v>1.01041571701372</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22">
+        <v>2.9546788793777101E-2</v>
+      </c>
+      <c r="AA22">
+        <v>0.201903056757477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -25105,8 +29436,23 @@
       <c r="V23">
         <v>0.108008236778456</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>16.782962740330799</v>
+      </c>
+      <c r="X23">
+        <v>2.64984952435919</v>
+      </c>
+      <c r="Y23">
+        <v>699.25284196315295</v>
+      </c>
+      <c r="Z23">
+        <v>1.76945416775487E-4</v>
+      </c>
+      <c r="AA23">
+        <v>3.6273810438974801E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -25173,8 +29519,23 @@
       <c r="V24">
         <v>0.700196018653654</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>1.2551361023751599</v>
+      </c>
+      <c r="X24">
+        <v>0.73423098707114998</v>
+      </c>
+      <c r="Y24">
+        <v>2.1712559197218599</v>
+      </c>
+      <c r="Z24">
+        <v>0.37908149157898302</v>
+      </c>
+      <c r="AA24">
+        <v>0.59778235210531905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -25241,8 +29602,23 @@
       <c r="V25">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>1.1395838897755499</v>
+      </c>
+      <c r="X25">
+        <v>0.42931471845940999</v>
+      </c>
+      <c r="Y25">
+        <v>3.1113087475127799</v>
+      </c>
+      <c r="Z25">
+        <v>0.771117372755181</v>
+      </c>
+      <c r="AA25">
+        <v>0.81496513272305504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -25309,8 +29685,23 @@
       <c r="V26">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>1.8647736378145301</v>
+      </c>
+      <c r="X26">
+        <v>0.39825431209745199</v>
+      </c>
+      <c r="Y26">
+        <v>11.5235801830488</v>
+      </c>
+      <c r="Z26">
+        <v>0.37047745516223102</v>
+      </c>
+      <c r="AA26">
+        <v>0.59778235210531905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -25377,8 +29768,23 @@
       <c r="V27" s="1">
         <v>1.8649635154938299E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" t="s">
+        <v>94</v>
+      </c>
+      <c r="X27">
+        <v>2.3401316199191302</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27">
+        <v>1.36223131283419E-3</v>
+      </c>
+      <c r="AA27">
+        <v>1.8617161275400598E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -25445,8 +29851,23 @@
       <c r="V28">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>1.2431824252096899</v>
+      </c>
+      <c r="X28">
+        <v>0.21031630046828201</v>
+      </c>
+      <c r="Y28">
+        <v>8.4867770818852097</v>
+      </c>
+      <c r="Z28">
+        <v>0.77521073600485702</v>
+      </c>
+      <c r="AA28">
+        <v>0.81496513272305504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -25513,8 +29934,23 @@
       <c r="V29">
         <v>0.42677341890616899</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>4.1957406850826899</v>
+      </c>
+      <c r="X29">
+        <v>0.86843651250851805</v>
+      </c>
+      <c r="Y29">
+        <v>39.905890991018502</v>
+      </c>
+      <c r="Z29">
+        <v>4.5960826164191698E-2</v>
+      </c>
+      <c r="AA29">
+        <v>0.20325039359895999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -25581,8 +30017,23 @@
       <c r="V30">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0.93238681890726405</v>
+      </c>
+      <c r="X30">
+        <v>0.173664122630694</v>
+      </c>
+      <c r="Y30">
+        <v>5.00589970399768</v>
+      </c>
+      <c r="Z30">
+        <v>0.92111784407115005</v>
+      </c>
+      <c r="AA30">
+        <v>0.92111784407115005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -25649,8 +30100,23 @@
       <c r="V31">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0.62159121260484296</v>
+      </c>
+      <c r="X31">
+        <v>5.1917059362184E-2</v>
+      </c>
+      <c r="Y31">
+        <v>5.4262643234718597</v>
+      </c>
+      <c r="Z31">
+        <v>0.599045135197248</v>
+      </c>
+      <c r="AA31">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -25717,8 +30183,23 @@
       <c r="V32">
         <v>1.99943882940831E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" t="s">
+        <v>94</v>
+      </c>
+      <c r="X32">
+        <v>0.61549093449543502</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z32">
+        <v>5.3457950029002797E-2</v>
+      </c>
+      <c r="AA32">
+        <v>0.20325039359895999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -25785,8 +30266,23 @@
       <c r="V33">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>1.8647736378145301</v>
+      </c>
+      <c r="X33">
+        <v>0.58074603850579298</v>
+      </c>
+      <c r="Y33">
+        <v>6.9530844119745598</v>
+      </c>
+      <c r="Z33">
+        <v>0.247604481115416</v>
+      </c>
+      <c r="AA33">
+        <v>0.46144471480600302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -25853,8 +30349,23 @@
       <c r="V34">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0.74590945512581097</v>
+      </c>
+      <c r="X34">
+        <v>0.14800962655503999</v>
+      </c>
+      <c r="Y34">
+        <v>3.4654877431723299</v>
+      </c>
+      <c r="Z34">
+        <v>0.66097316392460903</v>
+      </c>
+      <c r="AA34">
+        <v>0.75277499224747102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -25921,8 +30432,23 @@
       <c r="V35">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>3.7295472756290602</v>
+      </c>
+      <c r="X35">
+        <v>0.36906973585098501</v>
+      </c>
+      <c r="Y35">
+        <v>183.670761033459</v>
+      </c>
+      <c r="Z35">
+        <v>0.20616701603660101</v>
+      </c>
+      <c r="AA35">
+        <v>0.42264238287503197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -25989,8 +30515,23 @@
       <c r="V36">
         <v>0.338104142531505</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0.39959435096025597</v>
+      </c>
+      <c r="X36">
+        <v>0.125858839153072</v>
+      </c>
+      <c r="Y36">
+        <v>1.1069061784659899</v>
+      </c>
+      <c r="Z36">
+        <v>5.15922096371315E-2</v>
+      </c>
+      <c r="AA36">
+        <v>0.20325039359895999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -26057,8 +30598,23 @@
       <c r="V37">
         <v>0.73714762890181496</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>1.3985802283608999</v>
+      </c>
+      <c r="X37">
+        <v>0.331657523237953</v>
+      </c>
+      <c r="Y37">
+        <v>6.7382795539717097</v>
+      </c>
+      <c r="Z37">
+        <v>0.60158090698938704</v>
+      </c>
+      <c r="AA37">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -26125,8 +30681,23 @@
       <c r="V38">
         <v>0.27583381985146399</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0.46619340945363202</v>
+      </c>
+      <c r="X38">
+        <v>4.2170934760376498E-2</v>
+      </c>
+      <c r="Y38">
+        <v>3.25288470341152</v>
+      </c>
+      <c r="Z38">
+        <v>0.36665580014978</v>
+      </c>
+      <c r="AA38">
+        <v>0.59778235210531905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -26193,8 +30764,23 @@
       <c r="V39">
         <v>0.89652964516803502</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0.69929011418044795</v>
+      </c>
+      <c r="X39">
+        <v>0.102435255655247</v>
+      </c>
+      <c r="Y39">
+        <v>4.1335130854639202</v>
+      </c>
+      <c r="Z39">
+        <v>0.63776504316868199</v>
+      </c>
+      <c r="AA39">
+        <v>0.74709619342616995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -26261,8 +30847,23 @@
       <c r="V40">
         <v>0.700196018653654</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>5.5943209134435801</v>
+      </c>
+      <c r="X40">
+        <v>0.67872333473959601</v>
+      </c>
+      <c r="Y40">
+        <v>257.32527302804903</v>
+      </c>
+      <c r="Z40">
+        <v>7.2121690971277894E-2</v>
+      </c>
+      <c r="AA40">
+        <v>0.220958283643088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -26329,8 +30930,23 @@
       <c r="V41">
         <v>0.70907560350843502</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>1.8647736378145301</v>
+      </c>
+      <c r="X41">
+        <v>0.49957715741181902</v>
+      </c>
+      <c r="Y41">
+        <v>8.4623088119964809</v>
+      </c>
+      <c r="Z41">
+        <v>0.30107737883042501</v>
+      </c>
+      <c r="AA41">
+        <v>0.53670315356727905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -26396,6 +31012,21 @@
       </c>
       <c r="V42">
         <v>4.8151794746182697E-2</v>
+      </c>
+      <c r="W42">
+        <v>0.15539780315121099</v>
+      </c>
+      <c r="X42">
+        <v>3.3783901979080998E-3</v>
+      </c>
+      <c r="Y42">
+        <v>1.28085353129276</v>
+      </c>
+      <c r="Z42">
+        <v>4.7299416074530101E-2</v>
+      </c>
+      <c r="AA42">
+        <v>0.20325039359895999</v>
       </c>
     </row>
   </sheetData>

--- a/lo_et_al/Raw_output_and_evaluation.xlsx
+++ b/lo_et_al/Raw_output_and_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rg9/rg9_documents/GPS/trumps/LID_GPSC/Submission/Github/Paper2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2449B232-06D2-A446-A84C-DD0AAA7BE9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F932C48-1342-2443-A375-7455969831CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_postPCV13_IRR" sheetId="6" r:id="rId1"/>
@@ -27,18 +27,20 @@
     <sheet name="FigS2-4_postPCV13_IRR" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FigS2-4_postPCV13_IRR'!$A$2:$Q$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FigS2-4_postPCV7_IRR'!$A$2:$Q$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FigS2-4_postPCV13_IRR'!$A$2:$W$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FigS2-4_postPCV7_IRR'!$A$2:$W$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tab2_postPCV13_IRR_NVT_GPSCtype!$A$1:$Y$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tab3_multiperiod_summary_glmIRR!$A$1:$AC$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tab3_postPCV7_postPCV13_IRR!$A$1:$V$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tab3_postPCV7_postPCV13_IRR!$A$1:$AB$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Tab3_prePCV_postPCV13_IRR!$A$1:$AB$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tab3_prePCV_postPCV7_IRR!$A$1:$AB$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="102">
   <si>
     <t>Country</t>
   </si>
@@ -429,6 +431,24 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Average only</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>Poisson only</t>
+  </si>
+  <si>
+    <t>IRR_average_period_2x2</t>
   </si>
 </sst>
 </file>
@@ -1385,15 +1405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B82DB8-1B42-FB4D-A275-F408E811E5D1}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -1448,8 +1468,11 @@
       <c r="R1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1504,8 +1527,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1560,8 +1586,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1615,6 +1644,9 @@
       </c>
       <c r="R4">
         <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1860,15 +1892,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A74A4-F052-EE48-8299-26F7A9C6E537}">
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="50" customHeight="1">
+    <row r="1" spans="1:23" ht="50" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
@@ -1885,7 +1920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1952,8 +1987,11 @@
       <c r="V2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2006,22 +2044,25 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R3">
-        <v>0.62291403730192096</v>
+        <v>1.40155658392932</v>
       </c>
       <c r="S3">
-        <v>0.182448466091961</v>
+        <v>0.332363332383601</v>
       </c>
       <c r="T3">
-        <v>1.9595854359532401</v>
+        <v>6.7526194648795004</v>
       </c>
       <c r="U3">
-        <v>0.36466447280367498</v>
+        <v>0.59925919991353205</v>
       </c>
       <c r="V3">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>0.86235243468805101</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2074,22 +2115,25 @@
         <v>6.7311737484223997</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>95</v>
+        <v>1.75881610532307</v>
+      </c>
+      <c r="S4">
+        <v>0.94797212341522596</v>
       </c>
       <c r="T4">
-        <v>0.416846800859766</v>
+        <v>3.3769623718421902</v>
       </c>
       <c r="U4">
-        <v>1.0700464031124801E-3</v>
+        <v>5.6596992909847502E-2</v>
       </c>
       <c r="V4">
-        <v>3.6903830331597499E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>3.70095230255316E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2142,22 +2186,25 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
+        <v>0.62291403730192096</v>
+      </c>
+      <c r="S5">
+        <v>0.182448466091961</v>
       </c>
       <c r="T5">
-        <v>0.79357179744819295</v>
+        <v>1.9595854359532401</v>
       </c>
       <c r="U5">
-        <v>1.12754067716968E-2</v>
+        <v>0.36466447280367498</v>
       </c>
       <c r="V5">
-        <v>2.6111468313403101E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>0.385664055582503</v>
+      </c>
+      <c r="W5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2210,22 +2257,25 @@
         <v>2.5241901556583901</v>
       </c>
       <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>95</v>
+        <v>0.50965693961066305</v>
+      </c>
+      <c r="S6">
+        <v>0.22989425389351401</v>
       </c>
       <c r="T6">
-        <v>0.54738556246521597</v>
+        <v>1.0755202087920599</v>
       </c>
       <c r="U6">
-        <v>3.4328430573733501E-3</v>
+        <v>5.5635121041307502E-2</v>
       </c>
       <c r="V6">
-        <v>9.5568898030902408E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>9.7999691111379197E-2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -2278,22 +2328,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R7">
-        <v>1.75881610532307</v>
-      </c>
-      <c r="S7">
-        <v>0.94797212341522596</v>
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
       </c>
       <c r="T7">
-        <v>3.3769623718421902</v>
-      </c>
-      <c r="U7">
-        <v>5.6596992909847502E-2</v>
+        <v>7.9822180507560306E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3.9317438194075302E-12</v>
       </c>
       <c r="V7">
-        <v>0.103761153668054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>1.67963051352995E-3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2358,10 +2411,13 @@
         <v>1.9121140352708101E-3</v>
       </c>
       <c r="V8">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>0.14855220990258999</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2414,22 +2470,25 @@
         <v>4.83803113167858</v>
       </c>
       <c r="R9">
-        <v>0.50965693961066305</v>
+        <v>0.97684246758710402</v>
       </c>
       <c r="S9">
-        <v>0.22989425389351401</v>
+        <v>0.52044726845266898</v>
       </c>
       <c r="T9">
-        <v>1.0755202087920599</v>
+        <v>1.83796572162088</v>
       </c>
       <c r="U9">
-        <v>5.5635121041307502E-2</v>
+        <v>0.93737729390381996</v>
       </c>
       <c r="V9">
-        <v>0.103761153668054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.96257513236626002</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2482,22 +2541,25 @@
         <v>0.63104753891459997</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>95</v>
+        <v>0.70077829196466102</v>
+      </c>
+      <c r="S10">
+        <v>0.102653250831634</v>
       </c>
       <c r="T10">
-        <v>7.9822180507560306E-2</v>
-      </c>
-      <c r="U10" s="1">
-        <v>3.9317438194075302E-12</v>
-      </c>
-      <c r="V10" s="1">
-        <v>3.84437173453181E-11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>4.1423097239688902</v>
+      </c>
+      <c r="U10">
+        <v>0.63978701350407696</v>
+      </c>
+      <c r="V10">
+        <v>0.21491923012691699</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2550,22 +2612,25 @@
         <v>4.8380311316785898</v>
       </c>
       <c r="R11">
-        <v>0.70077829196466102</v>
+        <v>5.3726335717290699</v>
       </c>
       <c r="S11">
-        <v>0.102653250831634</v>
+        <v>1.83568812567408</v>
       </c>
       <c r="T11">
-        <v>4.1423097239688902</v>
+        <v>21.372364015014</v>
       </c>
       <c r="U11">
-        <v>0.63978701350407696</v>
-      </c>
-      <c r="V11">
-        <v>0.70376571485448502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>4.9728665761439295E-4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.5073385566875399E-7</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -2618,22 +2683,25 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R12">
-        <v>1.40155658392932</v>
-      </c>
-      <c r="S12">
-        <v>0.332363332383601</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
       </c>
       <c r="T12">
-        <v>6.7526194648795004</v>
-      </c>
-      <c r="U12">
-        <v>0.59925919991353205</v>
+        <v>0.212521436001712</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.13839028472729E-5</v>
       </c>
       <c r="V12">
-        <v>0.66752923534671904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>1.41326593328297E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2686,22 +2754,25 @@
         <v>0.63104753891459897</v>
       </c>
       <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>95</v>
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S13">
+        <v>0.12514740569740801</v>
       </c>
       <c r="T13">
-        <v>1.4154477470137099</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U13">
-        <v>3.8542150189435201E-2</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V13">
-        <v>7.3732809058050006E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.96257513236626002</v>
+      </c>
+      <c r="W13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2754,22 +2825,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R14">
-        <v>0.23359276398821999</v>
-      </c>
-      <c r="S14">
-        <v>7.8097262097688497E-2</v>
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>95</v>
       </c>
       <c r="T14">
-        <v>0.58657981629839695</v>
+        <v>1.0196596098487301</v>
       </c>
       <c r="U14">
-        <v>5.1255746115108603E-4</v>
+        <v>2.07084650053092E-2</v>
       </c>
       <c r="V14">
-        <v>2.0502298446043398E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.23496477351248199</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2822,22 +2896,25 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R15">
-        <v>1.8687421119057599</v>
-      </c>
-      <c r="S15">
-        <v>0.39910184763057699</v>
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>95</v>
       </c>
       <c r="T15">
-        <v>11.5481038187691</v>
+        <v>0.64827970121759404</v>
       </c>
       <c r="U15">
-        <v>0.36879664225547798</v>
+        <v>6.1987131981785498E-3</v>
       </c>
       <c r="V15">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.262287919267019</v>
+      </c>
+      <c r="W15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2890,22 +2967,25 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R16">
-        <v>0.97684246758710402</v>
-      </c>
-      <c r="S16">
-        <v>0.52044726845266898</v>
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>95</v>
       </c>
       <c r="T16">
-        <v>1.83796572162088</v>
+        <v>1.0196596098487301</v>
       </c>
       <c r="U16">
-        <v>0.93737729390381996</v>
+        <v>2.07084650053092E-2</v>
       </c>
       <c r="V16">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>0.28249441778868101</v>
+      </c>
+      <c r="W16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2958,22 +3038,25 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>95</v>
+        <v>1.8687421119057599</v>
+      </c>
+      <c r="S17">
+        <v>0.39910184763057699</v>
       </c>
       <c r="T17">
-        <v>0.212521436001712</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1.13839028472729E-5</v>
-      </c>
-      <c r="V17" s="1">
-        <v>7.7060265427693494E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>11.5481038187691</v>
+      </c>
+      <c r="U17">
+        <v>0.36879664225547798</v>
+      </c>
+      <c r="V17">
+        <v>0.73227632994376601</v>
+      </c>
+      <c r="W17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3026,22 +3109,25 @@
         <v>4.2069835927639696</v>
       </c>
       <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>95</v>
+        <v>3.11457018650961</v>
+      </c>
+      <c r="S18">
+        <v>1.2063491420618899</v>
       </c>
       <c r="T18">
-        <v>0.64827970121759404</v>
+        <v>9.4775957528989707</v>
       </c>
       <c r="U18">
-        <v>6.1987131981785498E-3</v>
+        <v>1.00508711944973E-2</v>
       </c>
       <c r="V18">
-        <v>1.5585336041134599E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>0.265648179024213</v>
+      </c>
+      <c r="W18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -3094,22 +3180,25 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>95</v>
+        <v>2.8031131678586498</v>
+      </c>
+      <c r="S19">
+        <v>0.50123275056440297</v>
       </c>
       <c r="T19">
-        <v>1.0196596098487301</v>
+        <v>28.3985317495288</v>
       </c>
       <c r="U19">
-        <v>2.07084650053092E-2</v>
+        <v>0.18716741282034599</v>
       </c>
       <c r="V19">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>0.51544198594340596</v>
+      </c>
+      <c r="W19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3162,22 +3251,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R20">
-        <v>3.11457018650961</v>
-      </c>
-      <c r="S20">
-        <v>1.2063491420618899</v>
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>95</v>
       </c>
       <c r="T20">
-        <v>9.4775957528989707</v>
+        <v>0.473380585883238</v>
       </c>
       <c r="U20">
-        <v>1.00508711944973E-2</v>
+        <v>1.9121140352708101E-3</v>
       </c>
       <c r="V20">
-        <v>2.3904774732858399E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>6.7639116225526805E-2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3230,22 +3322,25 @@
         <v>0.63104753891460097</v>
       </c>
       <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>95</v>
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S21">
+        <v>0.12514740569740801</v>
       </c>
       <c r="T21">
-        <v>0.473380585883238</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U21">
-        <v>1.9121140352708101E-3</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V21">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>0.80353389744305603</v>
+      </c>
+      <c r="W21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3298,22 +3393,25 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R22">
-        <v>0.93437105595288195</v>
+        <v>0.23359276398821999</v>
       </c>
       <c r="S22">
-        <v>0.12514740569740801</v>
+        <v>7.8097262097688497E-2</v>
       </c>
       <c r="T22">
-        <v>6.9761675468801601</v>
+        <v>0.58657981629839695</v>
       </c>
       <c r="U22">
-        <v>0.93372957699986303</v>
+        <v>5.1255746115108603E-4</v>
       </c>
       <c r="V22">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>0.138050796704248</v>
+      </c>
+      <c r="W22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3366,22 +3464,25 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R23">
-        <v>2.1023348758939799</v>
+        <v>1.8687421119057599</v>
       </c>
       <c r="S23">
-        <v>0.58675766513616301</v>
+        <v>0.39910184763057699</v>
       </c>
       <c r="T23">
-        <v>9.3424327387332298</v>
+        <v>11.5481038187691</v>
       </c>
       <c r="U23">
-        <v>0.20582052907013099</v>
+        <v>0.36879664225547798</v>
       </c>
       <c r="V23">
-        <v>0.296921418986418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>0.63767985564713703</v>
+      </c>
+      <c r="W23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3434,22 +3535,25 @@
         <v>1.8931426167437999</v>
       </c>
       <c r="R24">
-        <v>0.93437105595288195</v>
+        <v>2.1023348758939799</v>
       </c>
       <c r="S24">
-        <v>0.12514740569740801</v>
+        <v>0.58675766513616301</v>
       </c>
       <c r="T24">
-        <v>6.9761675468801601</v>
+        <v>9.3424327387332298</v>
       </c>
       <c r="U24">
-        <v>0.93372957699986303</v>
+        <v>0.20582052907013099</v>
       </c>
       <c r="V24">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>0.54113542615749599</v>
+      </c>
+      <c r="W24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3502,22 +3606,25 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R25">
-        <v>1.8687421119057599</v>
-      </c>
-      <c r="S25">
-        <v>0.39910184763057699</v>
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>95</v>
       </c>
       <c r="T25">
-        <v>11.5481038187691</v>
+        <v>0.54738556246521597</v>
       </c>
       <c r="U25">
-        <v>0.36879664225547798</v>
-      </c>
-      <c r="V25">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>3.4328430573733501E-3</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3.5540616599028202E-21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -3570,22 +3677,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R26">
-        <v>5.3726335717290699</v>
-      </c>
-      <c r="S26">
-        <v>1.83568812567408</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>95</v>
       </c>
       <c r="T26">
-        <v>21.372364015014</v>
+        <v>0.79357179744819295</v>
       </c>
       <c r="U26">
-        <v>4.9728665761439295E-4</v>
+        <v>1.12754067716968E-2</v>
       </c>
       <c r="V26">
-        <v>2.0502298446043398E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>0.262287919267019</v>
+      </c>
+      <c r="W26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3638,22 +3748,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R27">
-        <v>2.8031131678586498</v>
-      </c>
-      <c r="S27">
-        <v>0.50123275056440297</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>95</v>
       </c>
       <c r="T27">
-        <v>28.3985317495288</v>
+        <v>0.416846800859766</v>
       </c>
       <c r="U27">
-        <v>0.18716741282034599</v>
+        <v>1.0700464031124801E-3</v>
       </c>
       <c r="V27">
-        <v>0.28189566412969203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>5.1177429368095703E-2</v>
+      </c>
+      <c r="W27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3706,22 +3819,25 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R28">
-        <v>0.93437105595288195</v>
-      </c>
-      <c r="S28">
-        <v>0.12514740569740801</v>
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>95</v>
       </c>
       <c r="T28">
-        <v>6.9761675468801601</v>
+        <v>1.4154477470137099</v>
       </c>
       <c r="U28">
-        <v>0.93372957699986303</v>
+        <v>3.8542150189435201E-2</v>
       </c>
       <c r="V28">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>0.302812897368892</v>
+      </c>
+      <c r="W28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -3774,22 +3890,25 @@
         <v>0.63104753891460097</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>95</v>
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S29">
+        <v>0.12514740569740801</v>
       </c>
       <c r="T29">
-        <v>1.0196596098487301</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U29">
-        <v>2.07084650053092E-2</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V29">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>0.80353389744305603</v>
+      </c>
+      <c r="W29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -3842,22 +3961,25 @@
         <v>0.40609420414730601</v>
       </c>
       <c r="R30">
-        <v>2.2949782489266899</v>
+        <v>0.36185816240333601</v>
       </c>
       <c r="S30">
-        <v>1.3876185508449499</v>
+        <v>0.17568700578920299</v>
       </c>
       <c r="T30">
-        <v>3.9663379101299299</v>
+        <v>0.701020853825012</v>
       </c>
       <c r="U30">
-        <v>6.7055194193688095E-4</v>
+        <v>1.0903404416153801E-3</v>
       </c>
       <c r="V30">
-        <v>2.45869045376856E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>3.8856759524980499E-3</v>
+      </c>
+      <c r="W30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -3910,22 +4032,25 @@
         <v>0.67077053345232296</v>
       </c>
       <c r="R31">
-        <v>0.181182493336318</v>
+        <v>0.38601705278149701</v>
       </c>
       <c r="S31">
-        <v>3.2041514258235503E-2</v>
+        <v>0.221161274885009</v>
       </c>
       <c r="T31">
-        <v>0.70366364960015304</v>
+        <v>0.65089844117600104</v>
       </c>
       <c r="U31">
-        <v>3.4752326556691799E-3</v>
+        <v>1.26847361269222E-4</v>
       </c>
       <c r="V31">
-        <v>9.5568898030902408E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>1.66676373498317E-3</v>
+      </c>
+      <c r="W31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3978,22 +4103,25 @@
         <v>0.56167698913014497</v>
       </c>
       <c r="R32">
-        <v>0.20131388148479701</v>
+        <v>0.64948900944188404</v>
       </c>
       <c r="S32">
-        <v>7.2295113829205601E-2</v>
+        <v>0.33693998325069202</v>
       </c>
       <c r="T32">
-        <v>0.491575445819603</v>
-      </c>
-      <c r="U32" s="1">
-        <v>4.5301282172505202E-5</v>
+        <v>1.2233839433221201</v>
+      </c>
+      <c r="U32">
+        <v>0.15291550403760801</v>
       </c>
       <c r="V32">
-        <v>2.8475091651289E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>0.325425584734929</v>
+      </c>
+      <c r="W32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4046,22 +4174,25 @@
         <v>0.40711572436664001</v>
       </c>
       <c r="R33">
-        <v>1.57024827558142</v>
+        <v>0.31662589210291903</v>
       </c>
       <c r="S33">
-        <v>0.52533925449660202</v>
+        <v>0.15537961364998101</v>
       </c>
       <c r="T33">
-        <v>5.6255225123088302</v>
+        <v>0.60430251639841104</v>
       </c>
       <c r="U33">
-        <v>0.38716738865195199</v>
+        <v>1.4234447986483101E-4</v>
       </c>
       <c r="V33">
-        <v>0.46266805080436402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>0.143230613019425</v>
+      </c>
+      <c r="W33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -4114,22 +4245,25 @@
         <v>6.2433940399758601E-2</v>
       </c>
       <c r="R34">
-        <v>1.44945994669054</v>
+        <v>0.389693405665131</v>
       </c>
       <c r="S34">
-        <v>0.47532979158780803</v>
+        <v>3.7108742686100898E-2</v>
       </c>
       <c r="T34">
-        <v>5.2518651369600997</v>
+        <v>2.3803240807210102</v>
       </c>
       <c r="U34">
-        <v>0.483082059174476</v>
+        <v>0.242595860820561</v>
       </c>
       <c r="V34">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>0.21491923012691699</v>
+      </c>
+      <c r="W34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -4182,22 +4316,25 @@
         <v>0.42142897743639801</v>
       </c>
       <c r="R35">
-        <v>0.70459858519679097</v>
+        <v>1.4072261871240801</v>
       </c>
       <c r="S35">
-        <v>0.44065462213075202</v>
+        <v>0.55648981588924895</v>
       </c>
       <c r="T35">
-        <v>1.13188475903014</v>
+        <v>3.73009225032061</v>
       </c>
       <c r="U35">
-        <v>0.12128785014341301</v>
+        <v>0.42856333161425098</v>
       </c>
       <c r="V35">
-        <v>0.20138360023811999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>0.217665770511488</v>
+      </c>
+      <c r="W35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -4250,22 +4387,25 @@
         <v>0.40626488231111502</v>
       </c>
       <c r="R36">
-        <v>0.60394164445439202</v>
+        <v>0.60309693733889302</v>
       </c>
       <c r="S36">
-        <v>0.22560049687636799</v>
+        <v>0.27745637890644398</v>
       </c>
       <c r="T36">
-        <v>1.6167761815975099</v>
+        <v>1.2620950110797799</v>
       </c>
       <c r="U36">
-        <v>0.25446199421759302</v>
+        <v>0.14755829458710701</v>
       </c>
       <c r="V36">
-        <v>0.34988524204919003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>0.38051935852046198</v>
+      </c>
+      <c r="W36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
@@ -4318,22 +4458,25 @@
         <v>0.905292087809624</v>
       </c>
       <c r="R37">
-        <v>6.9021902223359105E-2</v>
+        <v>0.39239960987113798</v>
       </c>
       <c r="S37">
-        <v>2.8677213687525901E-2</v>
+        <v>0.24577732016397399</v>
       </c>
       <c r="T37">
-        <v>0.14362881081132001</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>0.61166387229947305</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1.0329200590963901E-5</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5.5030105433143995E-10</v>
+      </c>
+      <c r="W37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -4386,22 +4529,25 @@
         <v>4.6708173728254601E-2</v>
       </c>
       <c r="R38">
-        <v>0.81532122001342899</v>
+        <v>6.9588108154487599E-2</v>
       </c>
       <c r="S38">
-        <v>0.44055111453877899</v>
+        <v>1.6457523068836701E-3</v>
       </c>
       <c r="T38">
-        <v>1.5333071601502199</v>
+        <v>0.45737768275637802</v>
       </c>
       <c r="U38">
-        <v>0.48814741561647501</v>
+        <v>6.55802598865884E-4</v>
       </c>
       <c r="V38">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>0.138050796704248</v>
+      </c>
+      <c r="W38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="8" t="s">
         <v>18</v>
       </c>
@@ -4454,22 +4600,25 @@
         <v>0.68711390670518302</v>
       </c>
       <c r="R39">
-        <v>8.05255525939189E-2</v>
+        <v>0.40439881719966397</v>
       </c>
       <c r="S39">
-        <v>3.3251103673822502E-2</v>
+        <v>0.23420698929211101</v>
       </c>
       <c r="T39">
-        <v>0.169071112981587</v>
+        <v>0.67640360752165396</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>2.2171785719982099E-4</v>
       </c>
       <c r="V39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>2.3135318737894699E-2</v>
+      </c>
+      <c r="W39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
@@ -4522,22 +4671,25 @@
         <v>0.84285815071927295</v>
       </c>
       <c r="R40">
-        <v>1.50985411113598E-2</v>
+        <v>0.33296588458729498</v>
       </c>
       <c r="S40">
-        <v>5.4862001778194702E-3</v>
+        <v>0.20672877452042601</v>
       </c>
       <c r="T40">
-        <v>3.3348515503648701E-2</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>0.521259003555814</v>
+      </c>
+      <c r="U40" s="1">
+        <v>2.1548652517910901E-7</v>
+      </c>
+      <c r="V40" s="1">
+        <v>9.3715457244793992E-13</v>
+      </c>
+      <c r="W40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -4590,22 +4742,25 @@
         <v>1.9038109409856601</v>
       </c>
       <c r="R41">
-        <v>2.4157665778175699</v>
+        <v>0.81408553923195104</v>
       </c>
       <c r="S41">
-        <v>0.87980799762006101</v>
+        <v>0.56976711711393602</v>
       </c>
       <c r="T41">
-        <v>8.2370582255531009</v>
+        <v>1.15967133456085</v>
       </c>
       <c r="U41">
-        <v>6.8490924423822097E-2</v>
+        <v>0.23490772510326099</v>
       </c>
       <c r="V41">
-        <v>0.12300410916931299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>0.36642029462567999</v>
+      </c>
+      <c r="W41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -4657,23 +4812,26 @@
       <c r="Q42">
         <v>0.40712027061407502</v>
       </c>
-      <c r="R42" t="s">
-        <v>94</v>
+      <c r="R42">
+        <v>0.30890330936870097</v>
       </c>
       <c r="S42">
-        <v>0.55342546337251297</v>
-      </c>
-      <c r="T42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U42">
-        <v>8.2258499294885795E-2</v>
+        <v>0.15187019953721101</v>
+      </c>
+      <c r="T42">
+        <v>0.58805274250363304</v>
+      </c>
+      <c r="U42" s="1">
+        <v>9.3626794783530101E-5</v>
       </c>
       <c r="V42">
-        <v>0.14477495875899901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>0.14019590206047999</v>
+      </c>
+      <c r="W42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -4726,22 +4884,25 @@
         <v>0.59449332418291101</v>
       </c>
       <c r="R43">
-        <v>0.120788328890878</v>
+        <v>0.61701455896978996</v>
       </c>
       <c r="S43">
-        <v>2.5537973546603601E-3</v>
+        <v>0.32817327778399402</v>
       </c>
       <c r="T43">
-        <v>1.0794470242949199</v>
+        <v>1.1327389866912301</v>
       </c>
       <c r="U43">
-        <v>2.0924285809798999E-2</v>
+        <v>9.6327762514130402E-2</v>
       </c>
       <c r="V43">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>0.42106866795132503</v>
+      </c>
+      <c r="W43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -4794,22 +4955,25 @@
         <v>0.15608484272579001</v>
       </c>
       <c r="R44">
-        <v>1.44945994669054</v>
+        <v>0.974233514162826</v>
       </c>
       <c r="S44">
-        <v>0.47532979158780803</v>
+        <v>0.22421250627168199</v>
       </c>
       <c r="T44">
-        <v>5.2518651369600997</v>
+        <v>4.2331757309200801</v>
       </c>
       <c r="U44">
-        <v>0.483082059174476</v>
+        <v>0.96707619059757799</v>
       </c>
       <c r="V44">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>0.88876007023729797</v>
+      </c>
+      <c r="W44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
@@ -4861,23 +5025,26 @@
       <c r="Q45">
         <v>0.29656120117900298</v>
       </c>
-      <c r="R45" t="s">
-        <v>94</v>
+      <c r="R45">
+        <v>0.41752864892692598</v>
       </c>
       <c r="S45">
-        <v>1.5157903459317901</v>
-      </c>
-      <c r="T45" t="s">
-        <v>95</v>
+        <v>0.16835490115334201</v>
+      </c>
+      <c r="T45">
+        <v>0.95097332478267105</v>
       </c>
       <c r="U45">
-        <v>9.9527409044819493E-3</v>
-      </c>
-      <c r="V45">
-        <v>2.3904774732858399E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>2.3662646890871299E-2</v>
+      </c>
+      <c r="V45" s="1">
+        <v>9.0776411439832304E-5</v>
+      </c>
+      <c r="W45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="8" t="s">
         <v>18</v>
       </c>
@@ -4929,23 +5096,26 @@
       <c r="Q46">
         <v>0.28095271690663898</v>
       </c>
-      <c r="R46">
-        <v>0.96630663112702697</v>
+      <c r="R46" t="s">
+        <v>94</v>
       </c>
       <c r="S46">
-        <v>0.27872698350421299</v>
-      </c>
-      <c r="T46">
-        <v>3.7541513388948902</v>
+        <v>1.6629879554611999</v>
+      </c>
+      <c r="T46" t="s">
+        <v>95</v>
       </c>
       <c r="U46">
-        <v>0.95205732014469802</v>
+        <v>5.2424119956481201E-3</v>
       </c>
       <c r="V46">
-        <v>0.96300050773256796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>1.53880238469484E-4</v>
+      </c>
+      <c r="W46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4998,22 +5168,25 @@
         <v>0.20291029468081501</v>
       </c>
       <c r="R47">
-        <v>0.12640639069975601</v>
+        <v>1.16908021699539</v>
       </c>
       <c r="S47">
-        <v>7.15510179658225E-2</v>
+        <v>0.297269192140172</v>
       </c>
       <c r="T47">
-        <v>0.21183578245006299</v>
+        <v>4.8424994280142997</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>0.79621662496408496</v>
       </c>
       <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>0.63390362631701103</v>
+      </c>
+      <c r="W47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -5065,23 +5238,26 @@
       <c r="Q48">
         <v>0.23412729680819699</v>
       </c>
-      <c r="R48" t="s">
-        <v>94</v>
+      <c r="R48">
+        <v>1.7049086497849499</v>
       </c>
       <c r="S48">
-        <v>0.39867638579617798</v>
-      </c>
-      <c r="T48" t="s">
-        <v>95</v>
+        <v>0.433424557339949</v>
+      </c>
+      <c r="T48">
+        <v>7.9421385139403302</v>
       </c>
       <c r="U48">
-        <v>0.120119383299407</v>
+        <v>0.38906176999457898</v>
       </c>
       <c r="V48">
-        <v>0.20138360023811999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>0.14855220990258999</v>
+      </c>
+      <c r="W48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -5134,22 +5310,25 @@
         <v>0.156290383441065</v>
       </c>
       <c r="R49">
-        <v>8.9472836215465507E-2</v>
+        <v>2.4355837854070699</v>
       </c>
       <c r="S49">
-        <v>4.4403333087612497E-2</v>
+        <v>0.39874021684919297</v>
       </c>
       <c r="T49">
-        <v>0.16496835162147</v>
+        <v>25.577016934975401</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>0.27156933082407297</v>
       </c>
       <c r="V49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>0.59385460986294603</v>
+      </c>
+      <c r="W49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -5202,22 +5381,25 @@
         <v>0.56344061799031198</v>
       </c>
       <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50" t="s">
-        <v>95</v>
+        <v>0.389693405665131</v>
+      </c>
+      <c r="S50">
+        <v>0.212306698983315</v>
       </c>
       <c r="T50">
-        <v>6.5167004429692005E-2</v>
-      </c>
-      <c r="U50" s="1">
-        <v>1.15463194561016E-14</v>
-      </c>
-      <c r="V50" s="1">
-        <v>1.4515373030527699E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>0.68675332012814605</v>
+      </c>
+      <c r="U50">
+        <v>4.5565917337841999E-4</v>
+      </c>
+      <c r="V50">
+        <v>0.21491923012691699</v>
+      </c>
+      <c r="W50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -5270,22 +5452,25 @@
         <v>0.187095610343014</v>
       </c>
       <c r="R51">
-        <v>1.9801365391947299E-2</v>
+        <v>1.94846702832565</v>
       </c>
       <c r="S51">
-        <v>7.1730346628613197E-3</v>
+        <v>0.41612846743148801</v>
       </c>
       <c r="T51">
-        <v>4.3935114582486799E-2</v>
+        <v>12.040772981568001</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>0.33658887105069801</v>
       </c>
       <c r="V51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>0.54113542615749599</v>
+      </c>
+      <c r="W51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -5338,22 +5523,25 @@
         <v>1.1562620455063799</v>
       </c>
       <c r="R52">
-        <v>0.13176908606277599</v>
+        <v>0.750971667167179</v>
       </c>
       <c r="S52">
-        <v>6.4223646603978002E-2</v>
+        <v>0.475523519869129</v>
       </c>
       <c r="T52">
-        <v>0.24903921625968001</v>
-      </c>
-      <c r="U52" s="1">
-        <v>6.0618177144533497E-14</v>
-      </c>
-      <c r="V52" s="1">
-        <v>6.6679994858986801E-13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>1.1774681865696901</v>
+      </c>
+      <c r="U52">
+        <v>0.18899822935968</v>
+      </c>
+      <c r="V52">
+        <v>0.39980335889874302</v>
+      </c>
+      <c r="W52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -5406,22 +5594,25 @@
         <v>0.109289753907265</v>
       </c>
       <c r="R53">
-        <v>0.362364986672635</v>
+        <v>0.194846702832565</v>
       </c>
       <c r="S53">
-        <v>5.6272287479725201E-2</v>
+        <v>3.6156905139994103E-2</v>
       </c>
       <c r="T53">
-        <v>1.86250330965547</v>
+        <v>0.68878472063044105</v>
       </c>
       <c r="U53">
-        <v>0.14693697734225</v>
+        <v>3.9260771330410496E-3</v>
       </c>
       <c r="V53">
-        <v>0.236093271339371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>5.1177429368095703E-2</v>
+      </c>
+      <c r="W53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -5474,22 +5665,25 @@
         <v>7.7903234193081594E-2</v>
       </c>
       <c r="R54">
-        <v>0.161051105187838</v>
+        <v>0.26570004931713498</v>
       </c>
       <c r="S54">
-        <v>3.8908188985439802E-2</v>
+        <v>4.7596095565947301E-2</v>
       </c>
       <c r="T54">
-        <v>0.50553766802702804</v>
+        <v>1.0058180172709199</v>
       </c>
       <c r="U54">
-        <v>2.0326793961722401E-4</v>
+        <v>2.87346714799325E-2</v>
       </c>
       <c r="V54">
-        <v>9.9375437146198391E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>7.6625151601117394E-2</v>
+      </c>
+      <c r="W54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -5542,22 +5736,25 @@
         <v>0.18730181127104301</v>
       </c>
       <c r="R55">
-        <v>1.04683218372095</v>
+        <v>0.584540108497696</v>
       </c>
       <c r="S55">
-        <v>0.53420200186283195</v>
+        <v>0.17460464559314601</v>
       </c>
       <c r="T55">
-        <v>2.1260112594329401</v>
+        <v>1.77515057621831</v>
       </c>
       <c r="U55">
-        <v>0.88773580716855005</v>
+        <v>0.292664759168834</v>
       </c>
       <c r="V55">
-        <v>0.95269208574185904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>0.21491923012691699</v>
+      </c>
+      <c r="W55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -5610,22 +5807,25 @@
         <v>0.171693342261654</v>
       </c>
       <c r="R56">
-        <v>0.54124084120157001</v>
+        <v>0.34794054077243802</v>
       </c>
       <c r="S56">
-        <v>0.14249248394094399</v>
+        <v>9.8079996962140897E-2</v>
       </c>
       <c r="T56">
-        <v>1.7983580034815101</v>
+        <v>1.0222666951650501</v>
       </c>
       <c r="U56">
-        <v>0.263578627247186</v>
+        <v>3.3853799417329397E-2</v>
       </c>
       <c r="V56">
-        <v>0.35684491073465202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>1.49859249579424E-2</v>
+      </c>
+      <c r="W56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5678,22 +5878,25 @@
         <v>0.18711836027100401</v>
       </c>
       <c r="R57">
-        <v>0.487116757081413</v>
+        <v>0.53140009863426896</v>
       </c>
       <c r="S57">
-        <v>7.8826412687206998E-2</v>
+        <v>0.161365805087094</v>
       </c>
       <c r="T57">
-        <v>2.2808603938501699</v>
+        <v>1.56757456972564</v>
       </c>
       <c r="U57">
-        <v>0.29869223401671602</v>
+        <v>0.20529959143425999</v>
       </c>
       <c r="V57">
-        <v>0.38654289108045597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>0.48453249341251697</v>
+      </c>
+      <c r="W57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
@@ -5746,22 +5949,25 @@
         <v>4.68254528399785E-2</v>
       </c>
       <c r="R58">
-        <v>0.584540108497696</v>
+        <v>8.1186126180235504E-2</v>
       </c>
       <c r="S58">
-        <v>0.17460464559314601</v>
+        <v>1.8991916095429499E-3</v>
       </c>
       <c r="T58">
-        <v>1.77515057621831</v>
+        <v>0.54871413037380201</v>
       </c>
       <c r="U58">
-        <v>0.292664759168834</v>
+        <v>1.9472025445862501E-3</v>
       </c>
       <c r="V58">
-        <v>0.38439550457996102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>1.8713565956233801E-3</v>
+      </c>
+      <c r="W58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
@@ -5814,22 +6020,25 @@
         <v>6.2498174831446901E-2</v>
       </c>
       <c r="R59">
-        <v>0.64948900944188404</v>
+        <v>0.139176216308975</v>
       </c>
       <c r="S59">
-        <v>0.33693998325069202</v>
+        <v>1.53520382008272E-2</v>
       </c>
       <c r="T59">
-        <v>1.2233839433221201</v>
+        <v>0.60597080624166</v>
       </c>
       <c r="U59">
-        <v>0.15291550403760801</v>
+        <v>2.2697277104575301E-3</v>
       </c>
       <c r="V59">
-        <v>0.24029579205909801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>1.1306268385234399E-2</v>
+      </c>
+      <c r="W59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
@@ -5882,22 +6091,25 @@
         <v>4.6774745307597301E-2</v>
       </c>
       <c r="R60">
-        <v>0.36185816240333601</v>
+        <v>3.0444797317588299E-2</v>
       </c>
       <c r="S60">
-        <v>0.17568700578920299</v>
+        <v>7.4772488517123705E-4</v>
       </c>
       <c r="T60">
-        <v>0.701020853825012</v>
-      </c>
-      <c r="U60">
-        <v>1.0903404416153801E-3</v>
+        <v>0.18225573460352501</v>
+      </c>
+      <c r="U60" s="1">
+        <v>4.4540378496549198E-8</v>
       </c>
       <c r="V60">
-        <v>3.6903830331597499E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>1.76258563107813E-4</v>
+      </c>
+      <c r="W60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5950,22 +6162,25 @@
         <v>0.15625100273949299</v>
       </c>
       <c r="R61">
-        <v>0.81408553923195104</v>
+        <v>0.54124084120157001</v>
       </c>
       <c r="S61">
-        <v>0.56976711711393602</v>
+        <v>0.14249248394094399</v>
       </c>
       <c r="T61">
-        <v>1.15967133456085</v>
+        <v>1.7983580034815101</v>
       </c>
       <c r="U61">
-        <v>0.23490772510326099</v>
+        <v>0.263578627247186</v>
       </c>
       <c r="V61">
-        <v>0.33341741627559601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>0.48453249341251697</v>
+      </c>
+      <c r="W61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -6018,22 +6233,25 @@
         <v>0.218923187986825</v>
       </c>
       <c r="R62">
-        <v>0.61701455896978996</v>
+        <v>0.52458727685690698</v>
       </c>
       <c r="S62">
-        <v>0.32817327778399402</v>
+        <v>0.17721916641471799</v>
       </c>
       <c r="T62">
-        <v>1.1327389866912301</v>
+        <v>1.41469763824307</v>
       </c>
       <c r="U62">
-        <v>9.6327762514130402E-2</v>
+        <v>0.161475774577232</v>
       </c>
       <c r="V62">
-        <v>0.16621260982830299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>0.548249883025964</v>
+      </c>
+      <c r="W62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -6085,23 +6303,26 @@
       <c r="Q63">
         <v>0.10925939146578301</v>
       </c>
-      <c r="R63" t="s">
-        <v>94</v>
+      <c r="R63">
+        <v>0.487116757081413</v>
       </c>
       <c r="S63">
-        <v>1.6629879554611999</v>
-      </c>
-      <c r="T63" t="s">
-        <v>95</v>
+        <v>7.8826412687206998E-2</v>
+      </c>
+      <c r="T63">
+        <v>2.2808603938501699</v>
       </c>
       <c r="U63">
-        <v>5.2424119956481201E-3</v>
+        <v>0.29869223401671602</v>
       </c>
       <c r="V63">
-        <v>1.35685957534422E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>0.262287919267019</v>
+      </c>
+      <c r="W63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -6154,22 +6375,25 @@
         <v>6.2598663978756394E-2</v>
       </c>
       <c r="R64">
-        <v>0.389693405665131</v>
+        <v>0.21649633648062799</v>
       </c>
       <c r="S64">
-        <v>0.212306698983315</v>
+        <v>2.2762616360265199E-2</v>
       </c>
       <c r="T64">
-        <v>0.68675332012814605</v>
+        <v>1.0459745462788901</v>
       </c>
       <c r="U64">
-        <v>4.5565917337841999E-4</v>
+        <v>3.12364448763994E-2</v>
       </c>
       <c r="V64">
-        <v>2.0049003628650501E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>0.262287919267019</v>
+      </c>
+      <c r="W64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -6222,22 +6446,25 @@
         <v>3.4544756294858301</v>
       </c>
       <c r="R65">
-        <v>0.39239960987113798</v>
+        <v>0.70459858519679097</v>
       </c>
       <c r="S65">
-        <v>0.24577732016397399</v>
+        <v>0.44065462213075202</v>
       </c>
       <c r="T65">
-        <v>0.61166387229947305</v>
-      </c>
-      <c r="U65" s="1">
-        <v>1.0329200590963901E-5</v>
-      </c>
-      <c r="V65" s="1">
-        <v>7.5747471000401894E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>1.13188475903014</v>
+      </c>
+      <c r="U65">
+        <v>0.12128785014341301</v>
+      </c>
+      <c r="V65">
+        <v>4.4969539037138101E-2</v>
+      </c>
+      <c r="W65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -6290,22 +6517,25 @@
         <v>2.1703597018172101</v>
       </c>
       <c r="R66">
-        <v>0.40439881719966397</v>
+        <v>0.81532122001342899</v>
       </c>
       <c r="S66">
-        <v>0.23420698929211101</v>
+        <v>0.44055111453877899</v>
       </c>
       <c r="T66">
-        <v>0.67640360752165396</v>
+        <v>1.5333071601502199</v>
       </c>
       <c r="U66">
-        <v>2.2171785719982099E-4</v>
+        <v>0.48814741561647501</v>
       </c>
       <c r="V66">
-        <v>1.02690375966233E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>0.38052941212976898</v>
+      </c>
+      <c r="W66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -6358,22 +6588,25 @@
         <v>6.3844262677071297</v>
       </c>
       <c r="R67">
-        <v>0.750971667167179</v>
+        <v>2.2949782489266899</v>
       </c>
       <c r="S67">
-        <v>0.475523519869129</v>
+        <v>1.3876185508449499</v>
       </c>
       <c r="T67">
-        <v>1.1774681865696901</v>
+        <v>3.9663379101299299</v>
       </c>
       <c r="U67">
-        <v>0.18899822935968</v>
+        <v>6.7055194193688095E-4</v>
       </c>
       <c r="V67">
-        <v>0.28189566412969203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>0.262287919267019</v>
+      </c>
+      <c r="W67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -6425,23 +6658,26 @@
       <c r="Q68">
         <v>0.46338488995313798</v>
       </c>
-      <c r="R68">
-        <v>0.31662589210291903</v>
+      <c r="R68" t="s">
+        <v>94</v>
       </c>
       <c r="S68">
-        <v>0.15537961364998101</v>
-      </c>
-      <c r="T68">
-        <v>0.60430251639841104</v>
+        <v>0.55342546337251297</v>
+      </c>
+      <c r="T68" t="s">
+        <v>95</v>
       </c>
       <c r="U68">
-        <v>1.4234447986483101E-4</v>
+        <v>8.2258499294885795E-2</v>
       </c>
       <c r="V68">
-        <v>7.3684201341794897E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>0.40800524563281498</v>
+      </c>
+      <c r="W68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6494,22 +6730,25 @@
         <v>0.71012642181641705</v>
       </c>
       <c r="R69">
-        <v>3.0444797317588299E-2</v>
+        <v>6.9021902223359105E-2</v>
       </c>
       <c r="S69">
-        <v>7.4772488517123705E-4</v>
+        <v>2.8677213687525901E-2</v>
       </c>
       <c r="T69">
-        <v>0.18225573460352501</v>
-      </c>
-      <c r="U69" s="1">
-        <v>4.4540378496549198E-8</v>
-      </c>
-      <c r="V69" s="1">
-        <v>3.9195533076963301E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>0.14362881081132001</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0.295363879109658</v>
+      </c>
+      <c r="W69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
@@ -6562,22 +6801,25 @@
         <v>2.7129493418046002E-2</v>
       </c>
       <c r="R70">
-        <v>0.33296588458729498</v>
-      </c>
-      <c r="S70">
-        <v>0.20672877452042601</v>
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>95</v>
       </c>
       <c r="T70">
-        <v>0.521259003555814</v>
+        <v>6.5167004429692005E-2</v>
       </c>
       <c r="U70" s="1">
-        <v>2.1548652517910901E-7</v>
+        <v>1.15463194561016E-14</v>
       </c>
       <c r="V70" s="1">
-        <v>1.7238922014328699E-6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>4.9907316369452698E-17</v>
+      </c>
+      <c r="W70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6630,22 +6872,25 @@
         <v>1.0490103853302599</v>
       </c>
       <c r="R71">
-        <v>1.16908021699539</v>
+        <v>1.57024827558142</v>
       </c>
       <c r="S71">
-        <v>0.297269192140172</v>
+        <v>0.52533925449660202</v>
       </c>
       <c r="T71">
-        <v>4.8424994280142997</v>
+        <v>5.6255225123088302</v>
       </c>
       <c r="U71">
-        <v>0.79621662496408496</v>
+        <v>0.38716738865195199</v>
       </c>
       <c r="V71">
-        <v>0.86502546909678402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>0.302812897368892</v>
+      </c>
+      <c r="W71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -6698,22 +6943,25 @@
         <v>4.1949037499559701E-2</v>
       </c>
       <c r="R72">
-        <v>0.38601705278149701</v>
+        <v>0.120788328890878</v>
       </c>
       <c r="S72">
-        <v>0.221161274885009</v>
+        <v>2.5537973546603601E-3</v>
       </c>
       <c r="T72">
-        <v>0.65089844117600104</v>
+        <v>1.0794470242949199</v>
       </c>
       <c r="U72">
-        <v>1.26847361269222E-4</v>
+        <v>2.0924285809798999E-2</v>
       </c>
       <c r="V72">
-        <v>6.9766048698072095E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>0.38052941212976898</v>
+      </c>
+      <c r="W72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6766,22 +7014,25 @@
         <v>0.25001559796211098</v>
       </c>
       <c r="R73">
-        <v>0.53140009863426896</v>
+        <v>0.181182493336318</v>
       </c>
       <c r="S73">
-        <v>0.161365805087094</v>
+        <v>3.2041514258235503E-2</v>
       </c>
       <c r="T73">
-        <v>1.56757456972564</v>
+        <v>0.70366364960015304</v>
       </c>
       <c r="U73">
-        <v>0.20529959143425999</v>
+        <v>3.4752326556691799E-3</v>
       </c>
       <c r="V73">
-        <v>0.296921418986418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>0.59729076610472298</v>
+      </c>
+      <c r="W73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -6834,22 +7085,25 @@
         <v>0.99474734725913405</v>
       </c>
       <c r="R74">
-        <v>1.4072261871240801</v>
+        <v>1.44945994669054</v>
       </c>
       <c r="S74">
-        <v>0.55648981588924895</v>
+        <v>0.47532979158780803</v>
       </c>
       <c r="T74">
-        <v>3.73009225032061</v>
+        <v>5.2518651369600997</v>
       </c>
       <c r="U74">
-        <v>0.42856333161425098</v>
+        <v>0.483082059174476</v>
       </c>
       <c r="V74">
-        <v>0.502847642427388</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>0.36405771760672201</v>
+      </c>
+      <c r="W74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6902,22 +7156,25 @@
         <v>1.67297808063811</v>
       </c>
       <c r="R75">
-        <v>1.94846702832565</v>
+        <v>2.4157665778175699</v>
       </c>
       <c r="S75">
-        <v>0.41612846743148801</v>
+        <v>0.87980799762006101</v>
       </c>
       <c r="T75">
-        <v>12.040772981568001</v>
+        <v>8.2370582255531009</v>
       </c>
       <c r="U75">
-        <v>0.33658887105069801</v>
+        <v>6.8490924423822097E-2</v>
       </c>
       <c r="V75">
-        <v>0.42927276307915102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>2.3135318737894699E-2</v>
+      </c>
+      <c r="W75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -6970,22 +7227,25 @@
         <v>1.06855170447465</v>
       </c>
       <c r="R76">
-        <v>0.41752864892692598</v>
+        <v>0.13176908606277599</v>
       </c>
       <c r="S76">
-        <v>0.16835490115334201</v>
+        <v>6.4223646603978002E-2</v>
       </c>
       <c r="T76">
-        <v>0.95097332478267105</v>
-      </c>
-      <c r="U76">
-        <v>2.3662646890871299E-2</v>
+        <v>0.24903921625968001</v>
+      </c>
+      <c r="U76" s="1">
+        <v>6.0618177144533497E-14</v>
       </c>
       <c r="V76">
-        <v>4.9578879199920801E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>0.36405771760672201</v>
+      </c>
+      <c r="W76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -7038,22 +7298,25 @@
         <v>0.61455628149498798</v>
       </c>
       <c r="R77">
-        <v>8.1186126180235504E-2</v>
+        <v>1.50985411113598E-2</v>
       </c>
       <c r="S77">
-        <v>1.8991916095429499E-3</v>
+        <v>5.4862001778194702E-3</v>
       </c>
       <c r="T77">
-        <v>0.54871413037380201</v>
+        <v>3.3348515503648701E-2</v>
       </c>
       <c r="U77">
-        <v>1.9472025445862501E-3</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>0.300856513709995</v>
+      </c>
+      <c r="W77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -7106,22 +7369,25 @@
         <v>2.1432299142261599</v>
       </c>
       <c r="R78">
-        <v>0.974233514162826</v>
+        <v>1.04683218372095</v>
       </c>
       <c r="S78">
-        <v>0.22421250627168199</v>
+        <v>0.53420200186283195</v>
       </c>
       <c r="T78">
-        <v>4.2331757309200801</v>
+        <v>2.1260112594329401</v>
       </c>
       <c r="U78">
-        <v>0.96707619059757799</v>
+        <v>0.88773580716855005</v>
       </c>
       <c r="V78">
-        <v>0.96707619059757799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>0.70240854967969202</v>
+      </c>
+      <c r="W78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -7174,22 +7440,25 @@
         <v>0.73369348552811997</v>
       </c>
       <c r="R79">
-        <v>0.30890330936870097</v>
+        <v>8.05255525939189E-2</v>
       </c>
       <c r="S79">
-        <v>0.15187019953721101</v>
+        <v>3.3251103673822502E-2</v>
       </c>
       <c r="T79">
-        <v>0.58805274250363304</v>
-      </c>
-      <c r="U79" s="1">
-        <v>9.3626794783530101E-5</v>
+        <v>0.169071112981587</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>5.4927719606337705E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>0.51544198594340596</v>
+      </c>
+      <c r="W79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -7242,22 +7511,25 @@
         <v>0.64206919239286198</v>
       </c>
       <c r="R80">
-        <v>0.60309693733889302</v>
+        <v>0.96630663112702697</v>
       </c>
       <c r="S80">
-        <v>0.27745637890644398</v>
+        <v>0.27872698350421299</v>
       </c>
       <c r="T80">
-        <v>1.2620950110797799</v>
+        <v>3.7541513388948902</v>
       </c>
       <c r="U80">
-        <v>0.14755829458710701</v>
+        <v>0.95205732014469802</v>
       </c>
       <c r="V80">
-        <v>0.236093271339371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>0.90701789991653203</v>
+      </c>
+      <c r="W80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -7310,22 +7582,25 @@
         <v>1.50116570211333</v>
       </c>
       <c r="R81">
-        <v>0.52458727685690698</v>
+        <v>0.12640639069975601</v>
       </c>
       <c r="S81">
-        <v>0.17721916641471799</v>
+        <v>7.15510179658225E-2</v>
       </c>
       <c r="T81">
-        <v>1.41469763824307</v>
+        <v>0.21183578245006299</v>
       </c>
       <c r="U81">
-        <v>0.161475774577232</v>
-      </c>
-      <c r="V81">
-        <v>0.24929593268063899</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>4.16112096684634E-76</v>
+      </c>
+      <c r="W81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -7378,22 +7653,25 @@
         <v>1.01283442953279</v>
       </c>
       <c r="R82">
-        <v>2.4355837854070699</v>
+        <v>1.44945994669054</v>
       </c>
       <c r="S82">
-        <v>0.39874021684919297</v>
+        <v>0.47532979158780803</v>
       </c>
       <c r="T82">
-        <v>25.577016934975401</v>
+        <v>5.2518651369600997</v>
       </c>
       <c r="U82">
-        <v>0.27156933082407297</v>
+        <v>0.483082059174476</v>
       </c>
       <c r="V82">
-        <v>0.36209244109876398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>0.34081517518858501</v>
+      </c>
+      <c r="W82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -7445,23 +7723,26 @@
       <c r="Q83">
         <v>0.44503911181477501</v>
       </c>
-      <c r="R83">
-        <v>0.21649633648062799</v>
+      <c r="R83" t="s">
+        <v>94</v>
       </c>
       <c r="S83">
-        <v>2.2762616360265199E-2</v>
-      </c>
-      <c r="T83">
-        <v>1.0459745462788901</v>
+        <v>0.39867638579617798</v>
+      </c>
+      <c r="T83" t="s">
+        <v>95</v>
       </c>
       <c r="U83">
-        <v>3.12364448763994E-2</v>
+        <v>0.120119383299407</v>
       </c>
       <c r="V83">
-        <v>6.2472889752798799E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>0.42641174809898602</v>
+      </c>
+      <c r="W83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -7514,22 +7795,25 @@
         <v>0.56067720004499699</v>
       </c>
       <c r="R84">
-        <v>0.139176216308975</v>
+        <v>0.20131388148479701</v>
       </c>
       <c r="S84">
-        <v>1.53520382008272E-2</v>
+        <v>7.2295113829205601E-2</v>
       </c>
       <c r="T84">
-        <v>0.60597080624166</v>
-      </c>
-      <c r="U84">
-        <v>2.2697277104575301E-3</v>
-      </c>
-      <c r="V84">
-        <v>6.6578679506754199E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>0.491575445819603</v>
+      </c>
+      <c r="U84" s="1">
+        <v>4.5301282172505202E-5</v>
+      </c>
+      <c r="V84" s="1">
+        <v>1.20771836551804E-14</v>
+      </c>
+      <c r="W84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -7581,23 +7865,26 @@
       <c r="Q85">
         <v>0.92276721633598802</v>
       </c>
-      <c r="R85">
-        <v>0.389693405665131</v>
+      <c r="R85" t="s">
+        <v>94</v>
       </c>
       <c r="S85">
-        <v>3.7108742686100898E-2</v>
-      </c>
-      <c r="T85">
-        <v>2.3803240807210102</v>
+        <v>1.5157903459317901</v>
+      </c>
+      <c r="T85" t="s">
+        <v>95</v>
       </c>
       <c r="U85">
-        <v>0.242595860820561</v>
+        <v>9.9527409044819493E-3</v>
       </c>
       <c r="V85">
-        <v>0.33886405955887899</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>0.217665770511488</v>
+      </c>
+      <c r="W85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -7650,22 +7937,25 @@
         <v>0.61455084659828896</v>
       </c>
       <c r="R86">
-        <v>1.7049086497849499</v>
+        <v>1.9801365391947299E-2</v>
       </c>
       <c r="S86">
-        <v>0.433424557339949</v>
+        <v>7.1730346628613197E-3</v>
       </c>
       <c r="T86">
-        <v>7.9421385139403302</v>
+        <v>4.3935114582486799E-2</v>
       </c>
       <c r="U86">
-        <v>0.38906176999457898</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>0.46266805080436402</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>0.32917372799293898</v>
+      </c>
+      <c r="W86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7718,22 +8008,25 @@
         <v>1.1444712878316301</v>
       </c>
       <c r="R87">
-        <v>6.9588108154487599E-2</v>
+        <v>8.9472836215465507E-2</v>
       </c>
       <c r="S87">
-        <v>1.6457523068836701E-3</v>
+        <v>4.4403333087612497E-2</v>
       </c>
       <c r="T87">
-        <v>0.45737768275637802</v>
+        <v>0.16496835162147</v>
       </c>
       <c r="U87">
-        <v>6.55802598865884E-4</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>2.45869045376856E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>0.46667955635428199</v>
+      </c>
+      <c r="W87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -7786,22 +8079,25 @@
         <v>0.33459639076072301</v>
       </c>
       <c r="R88">
-        <v>0.194846702832565</v>
+        <v>0.161051105187838</v>
       </c>
       <c r="S88">
-        <v>3.6156905139994103E-2</v>
+        <v>3.8908188985439802E-2</v>
       </c>
       <c r="T88">
-        <v>0.68878472063044105</v>
+        <v>0.50553766802702804</v>
       </c>
       <c r="U88">
-        <v>3.9260771330410496E-3</v>
-      </c>
-      <c r="V88">
-        <v>1.0469539021442801E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>2.0326793961722401E-4</v>
+      </c>
+      <c r="V88" s="1">
+        <v>1.6400420005745299E-11</v>
+      </c>
+      <c r="W88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -7854,22 +8150,25 @@
         <v>0.82293270666982998</v>
       </c>
       <c r="R89">
-        <v>0.26570004931713498</v>
+        <v>0.60394164445439202</v>
       </c>
       <c r="S89">
-        <v>4.7596095565947301E-2</v>
+        <v>0.22560049687636799</v>
       </c>
       <c r="T89">
-        <v>1.0058180172709199</v>
+        <v>1.6167761815975099</v>
       </c>
       <c r="U89">
-        <v>2.87346714799325E-2</v>
+        <v>0.25446199421759302</v>
       </c>
       <c r="V89">
-        <v>5.8805839307768802E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>0.138050796704248</v>
+      </c>
+      <c r="W89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -7922,26 +8221,29 @@
         <v>0.26225133434388098</v>
       </c>
       <c r="R90">
-        <v>0.34794054077243802</v>
+        <v>0.362364986672635</v>
       </c>
       <c r="S90">
-        <v>9.8079996962140897E-2</v>
+        <v>5.6272287479725201E-2</v>
       </c>
       <c r="T90">
-        <v>1.0222666951650501</v>
+        <v>1.86250330965547</v>
       </c>
       <c r="U90">
-        <v>3.3853799417329397E-2</v>
+        <v>0.14693697734225</v>
       </c>
       <c r="V90">
-        <v>6.6202985527221897E-2</v>
+        <v>4.0313617690574802E-2</v>
+      </c>
+      <c r="W90" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q91" xr:uid="{57100EA2-0164-3A4B-AB8B-251518AECA56}"/>
-  <sortState ref="A5:Q92">
-    <sortCondition ref="A5:A92"/>
-    <sortCondition ref="B5:B92"/>
+  <autoFilter ref="A2:W90" xr:uid="{6527F2AC-62B8-B44C-986B-8E62215A8E5B}"/>
+  <sortState ref="A7:Q94">
+    <sortCondition ref="A7:A94"/>
+    <sortCondition ref="B7:B94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7949,10 +8251,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC5DB66-3C6C-C842-A918-C50FD211FD50}">
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7961,7 +8263,7 @@
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="50" customHeight="1">
+    <row r="1" spans="1:23" ht="50" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
@@ -7978,7 +8280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8045,8 +8347,11 @@
       <c r="V2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8111,10 +8416,13 @@
         <v>3.3342249846294303E-2</v>
       </c>
       <c r="V3">
-        <v>0.66752923534671904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>9.5205444091040495E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -8179,10 +8487,13 @@
         <v>2.0058800777522599E-4</v>
       </c>
       <c r="V4">
-        <v>0.103761153668054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>2.3797591432196199E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -8247,10 +8558,13 @@
         <v>0.45376795597610697</v>
       </c>
       <c r="V5">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>0.16936735282037499</v>
+      </c>
+      <c r="W5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -8314,11 +8628,14 @@
       <c r="U6">
         <v>7.8563805552156495E-4</v>
       </c>
-      <c r="V6">
-        <v>0.103761153668054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="V6" s="1">
+        <v>5.8385176504959097E-5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -8383,10 +8700,13 @@
         <v>1.9535706385909199E-11</v>
       </c>
       <c r="V7" s="1">
-        <v>3.84437173453181E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>3.57076271240406E-13</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -8451,10 +8771,13 @@
         <v>5.1139181156316098E-2</v>
       </c>
       <c r="V8">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>3.4664782885591001E-2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8519,10 +8842,13 @@
         <v>0.12591775530646299</v>
       </c>
       <c r="V9">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.49198377881426097</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8587,10 +8913,13 @@
         <v>0.75707146291920102</v>
       </c>
       <c r="V10">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>0.83909845405165695</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8655,10 +8984,13 @@
         <v>0.58723065590141399</v>
       </c>
       <c r="V11">
-        <v>0.70376571485448502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>0.32962085632879201</v>
+      </c>
+      <c r="W11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -8723,10 +9055,13 @@
         <v>2.3949211258901801E-2</v>
       </c>
       <c r="V12">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>9.82502054184341E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -8791,10 +9126,13 @@
         <v>2.9410562025766798E-5</v>
       </c>
       <c r="V13" s="1">
-        <v>7.7060265427693494E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>8.3698008619607399E-5</v>
+      </c>
+      <c r="W13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8859,10 +9197,13 @@
         <v>0.83013663100144497</v>
       </c>
       <c r="V14">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.80732911155073905</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -8926,11 +9267,14 @@
       <c r="U15">
         <v>1.7354720176697501E-2</v>
       </c>
-      <c r="V15">
-        <v>0.34988524204919003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="V15" s="1">
+        <v>4.2089930934876998E-9</v>
+      </c>
+      <c r="W15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8995,10 +9339,13 @@
         <v>2.1397951700234199E-2</v>
       </c>
       <c r="V16">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>5.9805882519845102E-2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -9063,10 +9410,13 @@
         <v>0.193521058012979</v>
       </c>
       <c r="V17">
-        <v>2.3904774732858399E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>0.21842087188148901</v>
+      </c>
+      <c r="W17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -9131,10 +9481,13 @@
         <v>0.13240611753051801</v>
       </c>
       <c r="V18">
-        <v>9.5568898030902408E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>0.34060363958509199</v>
+      </c>
+      <c r="W18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -9199,10 +9552,13 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V19">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>0.11557399269079301</v>
+      </c>
+      <c r="W19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -9267,10 +9623,13 @@
         <v>0.61153824288953096</v>
       </c>
       <c r="V20">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>0.73704404473648699</v>
+      </c>
+      <c r="W20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9335,10 +9694,13 @@
         <v>0.38003875147413502</v>
       </c>
       <c r="V21">
-        <v>2.45869045376856E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>4.1016687275972699E-2</v>
+      </c>
+      <c r="W21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -9403,10 +9765,13 @@
         <v>0.18378773903349199</v>
       </c>
       <c r="V22">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>5.4715469694322998E-2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -9471,10 +9836,13 @@
         <v>0.50536109393550199</v>
       </c>
       <c r="V23">
-        <v>2.8475091651289E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>0.56218251479399495</v>
+      </c>
+      <c r="W23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
@@ -9538,11 +9906,14 @@
       <c r="U24">
         <v>1.4134172415188901E-3</v>
       </c>
-      <c r="V24">
-        <v>0.296921418986418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="V24" s="1">
+        <v>1.39077901029179E-5</v>
+      </c>
+      <c r="W24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -9607,10 +9978,13 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V25">
-        <v>0.28189566412969203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>8.3319774158650495E-2</v>
+      </c>
+      <c r="W25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
@@ -9674,11 +10048,14 @@
       <c r="U26" s="1">
         <v>8.6980873870157204E-7</v>
       </c>
-      <c r="V26">
-        <v>2.0502298446043398E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="V26" s="1">
+        <v>5.0579090010654403E-6</v>
+      </c>
+      <c r="W26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9743,10 +10120,13 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V27">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>0.24190608255093399</v>
+      </c>
+      <c r="W27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
@@ -9810,11 +10190,14 @@
       <c r="U28" s="1">
         <v>1.08632450099844E-5</v>
       </c>
-      <c r="V28">
-        <v>2.0502298446043398E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="V28" s="1">
+        <v>5.1503228906362398E-6</v>
+      </c>
+      <c r="W28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="13" t="s">
         <v>14</v>
       </c>
@@ -9878,11 +10261,14 @@
       <c r="U29">
         <v>2.6180632925713E-3</v>
       </c>
-      <c r="V29">
-        <v>9.5568898030902408E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="V29" s="1">
+        <v>2.9607811681109701E-5</v>
+      </c>
+      <c r="W29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -9947,10 +10333,13 @@
         <v>3.9627330692486799E-2</v>
       </c>
       <c r="V30">
-        <v>2.6111468313403101E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>6.2450766116090101E-2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
@@ -10014,11 +10403,14 @@
       <c r="U31">
         <v>7.6667799382779101E-4</v>
       </c>
-      <c r="V31">
-        <v>3.6903830331597499E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="V31" s="1">
+        <v>4.9992070870286199E-6</v>
+      </c>
+      <c r="W31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="13" t="s">
         <v>14</v>
       </c>
@@ -10083,10 +10475,13 @@
         <v>0.228020413118356</v>
       </c>
       <c r="V32">
-        <v>0.46266805080436402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>5.8770247018255402E-3</v>
+      </c>
+      <c r="W32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="13" t="s">
         <v>14</v>
       </c>
@@ -10151,10 +10546,13 @@
         <v>0.103544226183458</v>
       </c>
       <c r="V33">
-        <v>0.20138360023811999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>3.9896628335264001E-2</v>
+      </c>
+      <c r="W33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="13" t="s">
         <v>14</v>
       </c>
@@ -10219,10 +10617,13 @@
         <v>3.3342249846294303E-2</v>
       </c>
       <c r="V34">
-        <v>7.3732809058050006E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>1.84937752423463E-2</v>
+      </c>
+      <c r="W34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -10287,10 +10688,13 @@
         <v>0.63764847644752698</v>
       </c>
       <c r="V35">
-        <v>1.5585336041134599E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>0.895905730273441</v>
+      </c>
+      <c r="W35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -10355,10 +10759,13 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V36">
-        <v>0.95917676585507206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>0.11557399269079301</v>
+      </c>
+      <c r="W36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
@@ -10422,11 +10829,14 @@
       <c r="U37" s="1">
         <v>6.7739465592353596E-7</v>
       </c>
-      <c r="V37">
-        <v>0.24029579205909801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="V37" s="1">
+        <v>5.7480915431838301E-7</v>
+      </c>
+      <c r="W37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="13" t="s">
         <v>18</v>
       </c>
@@ -10491,10 +10901,13 @@
         <v>4.92537122198655E-11</v>
       </c>
       <c r="V38" s="1">
-        <v>1.7238922014328699E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>5.5902488882845496E-10</v>
+      </c>
+      <c r="W38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -10559,10 +10972,13 @@
         <v>0.39161425162633501</v>
       </c>
       <c r="V39">
-        <v>0.35684491073465202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>0.56218251479399495</v>
+      </c>
+      <c r="W39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="13" t="s">
         <v>18</v>
       </c>
@@ -10626,11 +11042,14 @@
       <c r="U40">
         <v>4.3070640708030598E-3</v>
       </c>
-      <c r="V40">
-        <v>9.9375437146198391E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="V40" s="1">
+        <v>2.9607811681109701E-5</v>
+      </c>
+      <c r="W40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -10695,10 +11114,13 @@
         <v>0.41991697237103898</v>
       </c>
       <c r="V41">
-        <v>0.46266805080436402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>0.31795762072379102</v>
+      </c>
+      <c r="W41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -10763,10 +11185,13 @@
         <v>8.2397576294640507E-3</v>
       </c>
       <c r="V42">
-        <v>0.296921418986418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>4.8376501441346597E-3</v>
+      </c>
+      <c r="W42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="13" t="s">
         <v>18</v>
       </c>
@@ -10831,10 +11256,13 @@
         <v>3.5946423660004903E-5</v>
       </c>
       <c r="V43">
-        <v>6.2472889752798799E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>5.7138222691605902E-4</v>
+      </c>
+      <c r="W43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="13" t="s">
         <v>18</v>
       </c>
@@ -10898,11 +11326,14 @@
       <c r="U44" s="1">
         <v>1.8873791418627701E-15</v>
       </c>
-      <c r="V44">
-        <v>7.3684201341794897E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="V44" s="1">
+        <v>1.54676746620448E-16</v>
+      </c>
+      <c r="W44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -10967,10 +11398,13 @@
         <v>9.12388947929373E-2</v>
       </c>
       <c r="V45">
-        <v>0.38439550457996102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>0.42562950604292499</v>
+      </c>
+      <c r="W45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="13" t="s">
         <v>18</v>
       </c>
@@ -11035,10 +11469,13 @@
         <v>5.1858206617794198E-10</v>
       </c>
       <c r="V46" s="1">
-        <v>3.9195533076963301E-7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>1.42498241116045E-6</v>
+      </c>
+      <c r="W46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="13" t="s">
         <v>18</v>
       </c>
@@ -11102,11 +11539,14 @@
       <c r="U47" s="1">
         <v>6.1728400169158704E-14</v>
       </c>
-      <c r="V47">
-        <v>0.236093271339371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="V47" s="1">
+        <v>5.6670844849727796E-19</v>
+      </c>
+      <c r="W47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -11171,10 +11611,13 @@
         <v>0.93165815251334005</v>
       </c>
       <c r="V48">
-        <v>4.9578879199920801E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>0.96490395580479005</v>
+      </c>
+      <c r="W48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="13" t="s">
         <v>18</v>
       </c>
@@ -11238,11 +11681,14 @@
       <c r="U49" s="1">
         <v>1.05669917260798E-11</v>
       </c>
-      <c r="V49">
-        <v>0.95269208574185904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="V49" s="1">
+        <v>4.73700180022247E-11</v>
+      </c>
+      <c r="W49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="13" t="s">
         <v>18</v>
       </c>
@@ -11306,11 +11752,14 @@
       <c r="U50" s="1">
         <v>3.32959215754158E-11</v>
       </c>
-      <c r="V50">
-        <v>0.103761153668054</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="V50" s="1">
+        <v>5.7480915431838301E-7</v>
+      </c>
+      <c r="W50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="13" t="s">
         <v>18</v>
       </c>
@@ -11374,11 +11823,14 @@
       <c r="U51" s="1">
         <v>3.0737504943534299E-6</v>
       </c>
-      <c r="V51">
-        <v>6.6578679506754199E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="V51" s="1">
+        <v>1.6253568583669102E-5</v>
+      </c>
+      <c r="W51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -11443,10 +11895,13 @@
         <v>0.64808635918226698</v>
       </c>
       <c r="V52">
-        <v>0.24929593268063899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>0.80732911155073905</v>
+      </c>
+      <c r="W52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="8" t="s">
         <v>18</v>
       </c>
@@ -11510,11 +11965,14 @@
       <c r="U53" s="1">
         <v>3.5946423660004903E-5</v>
       </c>
-      <c r="V53">
-        <v>2.0049003628650501E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="V53" s="1">
+        <v>1.8158602241680401E-58</v>
+      </c>
+      <c r="W53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="13" t="s">
         <v>18</v>
       </c>
@@ -11578,11 +12036,14 @@
       <c r="U54">
         <v>1.36223131283419E-3</v>
       </c>
-      <c r="V54">
-        <v>3.6903830331597499E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="V54" s="1">
+        <v>4.2288416588239303E-6</v>
+      </c>
+      <c r="W54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -11647,10 +12108,13 @@
         <v>0.34788470946389699</v>
       </c>
       <c r="V55">
-        <v>0.86502546909678402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>0.61482333005768497</v>
+      </c>
+      <c r="W55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -11715,10 +12179,13 @@
         <v>0.30107737883042501</v>
       </c>
       <c r="V56">
-        <v>5.8805839307768802E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>0.49198377881426097</v>
+      </c>
+      <c r="W56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -11783,10 +12250,13 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V57">
-        <v>0.502847642427388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>0.70007327148610499</v>
+      </c>
+      <c r="W57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -11851,10 +12321,13 @@
         <v>4.5960826164191698E-2</v>
       </c>
       <c r="V58">
-        <v>1.35685957534422E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>0.283610472797313</v>
+      </c>
+      <c r="W58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -11919,10 +12392,13 @@
         <v>0.66097316392460903</v>
       </c>
       <c r="V59">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>0.82721243150068802</v>
+      </c>
+      <c r="W59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -11987,10 +12463,13 @@
         <v>7.2121690971277894E-2</v>
       </c>
       <c r="V60">
-        <v>2.45869045376856E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>0.46707491885316099</v>
+      </c>
+      <c r="W60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="13" t="s">
         <v>18</v>
       </c>
@@ -12054,11 +12533,14 @@
       <c r="U61" s="1">
         <v>2.8188051892641402E-10</v>
       </c>
-      <c r="V61">
-        <v>1.0469539021442801E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="V61" s="1">
+        <v>1.3592403133055299E-6</v>
+      </c>
+      <c r="W61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="13" t="s">
         <v>18</v>
       </c>
@@ -12122,11 +12604,14 @@
       <c r="U62" s="1">
         <v>7.2319927824082697E-13</v>
       </c>
-      <c r="V62">
-        <v>2.6111468313403101E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="V62" s="1">
+        <v>5.7480915431838301E-7</v>
+      </c>
+      <c r="W62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -12191,10 +12676,13 @@
         <v>6.1364049708431803E-2</v>
       </c>
       <c r="V63">
-        <v>0.236093271339371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>0.14132956745168601</v>
+      </c>
+      <c r="W63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -12259,10 +12747,13 @@
         <v>0.20616701603660101</v>
       </c>
       <c r="V64">
-        <v>5.4927719606337705E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>0.63891974735868196</v>
+      </c>
+      <c r="W64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="13" t="s">
         <v>18</v>
       </c>
@@ -12327,10 +12818,13 @@
         <v>2.6142114082859901E-3</v>
       </c>
       <c r="V65">
-        <v>3.6903830331597499E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>7.2933159004982401E-3</v>
+      </c>
+      <c r="W65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="8" t="s">
         <v>18</v>
       </c>
@@ -12394,11 +12888,14 @@
       <c r="U66">
         <v>8.2643997531147304E-2</v>
       </c>
-      <c r="V66" s="1">
-        <v>7.5747471000401894E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="V66">
+        <v>4.47748640954091E-3</v>
+      </c>
+      <c r="W66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -12463,10 +12960,13 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V67">
-        <v>9.5568898030902408E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>7.3251105160921703E-2</v>
+      </c>
+      <c r="W67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -12531,10 +13031,13 @@
         <v>0.86956156976103305</v>
       </c>
       <c r="V68">
-        <v>0.38654289108045597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>0.907218165591959</v>
+      </c>
+      <c r="W68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="13" t="s">
         <v>18</v>
       </c>
@@ -12599,10 +13102,13 @@
         <v>3.2252573018526E-2</v>
       </c>
       <c r="V69">
-        <v>6.9766048698072095E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>3.7152599930123601E-3</v>
+      </c>
+      <c r="W69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="13" t="s">
         <v>18</v>
       </c>
@@ -12667,10 +13173,13 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V70">
-        <v>0.42927276307915102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>2.5180796161609498E-3</v>
+      </c>
+      <c r="W70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -12735,10 +13244,13 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V71">
-        <v>0.16621260982830299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>0.70007327148610499</v>
+      </c>
+      <c r="W71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="13" t="s">
         <v>18</v>
       </c>
@@ -12802,11 +13314,14 @@
       <c r="U72" s="1">
         <v>3.1874782602248102E-7</v>
       </c>
-      <c r="V72">
-        <v>0.36209244109876398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="V72" s="1">
+        <v>6.9956705811307504E-5</v>
+      </c>
+      <c r="W72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="13" t="s">
         <v>18</v>
       </c>
@@ -12871,10 +13386,13 @@
         <v>1.8908050454650199E-3</v>
       </c>
       <c r="V73">
-        <v>6.6202985527221897E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>1.53937419197032E-2</v>
+      </c>
+      <c r="W73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="13" t="s">
         <v>18</v>
       </c>
@@ -12939,10 +13457,13 @@
         <v>8.3749778648123396E-4</v>
       </c>
       <c r="V74">
-        <v>0.96707619059757799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>4.2120554190051798E-2</v>
+      </c>
+      <c r="W74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -13007,10 +13528,13 @@
         <v>0.93165815251334005</v>
       </c>
       <c r="V75">
-        <v>1.02690375966233E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>0.86311430138909295</v>
+      </c>
+      <c r="W75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -13075,10 +13599,13 @@
         <v>0.77521073600485702</v>
       </c>
       <c r="V76">
-        <v>0.33341741627559601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>0.86311430138909295</v>
+      </c>
+      <c r="W76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -13143,10 +13670,13 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V77">
-        <v>0.33886405955887899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>0.15566756662536599</v>
+      </c>
+      <c r="W77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -13211,10 +13741,13 @@
         <v>4.7299416074530101E-2</v>
       </c>
       <c r="V78">
-        <v>0.450751451645584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>1.7971571720356301E-2</v>
+      </c>
+      <c r="W78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="13" t="s">
         <v>18</v>
       </c>
@@ -13279,10 +13812,13 @@
         <v>3.08384955255224E-2</v>
       </c>
       <c r="V79">
-        <v>0.28189566412969203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>5.8770247018255402E-3</v>
+      </c>
+      <c r="W79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="13" t="s">
         <v>18</v>
       </c>
@@ -13347,10 +13883,13 @@
         <v>1.8908050454650199E-3</v>
       </c>
       <c r="V80">
-        <v>5.9087525490893102E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>2.4869850824582599E-2</v>
+      </c>
+      <c r="W80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="13" t="s">
         <v>19</v>
       </c>
@@ -13414,11 +13953,14 @@
       <c r="U81" s="1">
         <v>2.71542566210314E-10</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="V81" s="1">
+        <v>5.5392241441134704E-7</v>
+      </c>
+      <c r="W81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -13483,10 +14025,13 @@
         <v>0.12442200504890299</v>
       </c>
       <c r="V82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>0.14132956745168601</v>
+      </c>
+      <c r="W82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -13551,10 +14096,13 @@
         <v>3.3726336702839803E-2</v>
       </c>
       <c r="V83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>4.2120554190051798E-2</v>
+      </c>
+      <c r="W83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="13" t="s">
         <v>19</v>
       </c>
@@ -13618,11 +14166,14 @@
       <c r="U84">
         <v>0</v>
       </c>
-      <c r="V84">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="V84" s="1">
+        <v>1.3592403133055299E-6</v>
+      </c>
+      <c r="W84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="13" t="s">
         <v>19</v>
       </c>
@@ -13686,11 +14237,14 @@
       <c r="U85" s="1">
         <v>2.1227464230833001E-13</v>
       </c>
-      <c r="V85">
-        <v>4.49106622259101E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="V85" s="1">
+        <v>8.2459563889430298E-6</v>
+      </c>
+      <c r="W85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="8" t="s">
         <v>19</v>
       </c>
@@ -13754,11 +14308,14 @@
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86">
-        <v>0.96300050773256796</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="V86" s="1">
+        <v>3.1250936175906298E-147</v>
+      </c>
+      <c r="W86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="13" t="s">
         <v>19</v>
       </c>
@@ -13822,11 +14379,14 @@
       <c r="U87">
         <v>0</v>
       </c>
-      <c r="V87">
-        <v>0.12300410916931299</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="V87" s="1">
+        <v>5.7480915431838301E-7</v>
+      </c>
+      <c r="W87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -13891,10 +14451,13 @@
         <v>0.487350419572256</v>
       </c>
       <c r="V88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>0.57036503133037397</v>
+      </c>
+      <c r="W88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="13" t="s">
         <v>19</v>
       </c>
@@ -13958,11 +14521,14 @@
       <c r="U89">
         <v>0</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="V89" s="1">
+        <v>2.9607811681109701E-5</v>
+      </c>
+      <c r="W89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="13" t="s">
         <v>19</v>
       </c>
@@ -14026,11 +14592,14 @@
       <c r="U90">
         <v>0</v>
       </c>
-      <c r="V90">
-        <v>0.55073041761858699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="V90" s="1">
+        <v>3.7113292634784202E-6</v>
+      </c>
+      <c r="W90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -14095,10 +14664,13 @@
         <v>0.50732262205953904</v>
       </c>
       <c r="V91">
-        <v>0.20138360023811999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <v>0.50324554234299901</v>
+      </c>
+      <c r="W91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -14162,11 +14734,14 @@
       <c r="U92">
         <v>2.9546788793777101E-2</v>
       </c>
-      <c r="V92" s="1">
-        <v>6.6679994858986801E-13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="V92">
+        <v>5.7391432297415099E-2</v>
+      </c>
+      <c r="W92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="13" t="s">
         <v>19</v>
       </c>
@@ -14230,11 +14805,14 @@
       <c r="U93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>2.3904774732858399E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="V93" s="1">
+        <v>1.8570904915180999E-7</v>
+      </c>
+      <c r="W93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="13" t="s">
         <v>19</v>
       </c>
@@ -14298,11 +14876,14 @@
       <c r="U94">
         <v>0</v>
       </c>
-      <c r="V94">
-        <v>0.14477495875899901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="V94" s="1">
+        <v>4.2288416588239303E-6</v>
+      </c>
+      <c r="W94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="13" t="s">
         <v>19</v>
       </c>
@@ -14367,10 +14948,13 @@
         <v>5.5370145872070103E-3</v>
       </c>
       <c r="V95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <v>1.18073349484554E-2</v>
+      </c>
+      <c r="W95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -14434,27 +15018,30 @@
       <c r="U96">
         <v>5.9487920077744498E-2</v>
       </c>
-      <c r="V96" s="1">
-        <v>1.4515373030527699E-13</v>
+      <c r="V96">
+        <v>0.11557399269079301</v>
+      </c>
+      <c r="W96" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q96" xr:uid="{F71796FA-0C00-E940-86E1-7E3001DFAB50}"/>
+  <autoFilter ref="A2:W96" xr:uid="{93314421-6B74-CA4B-9E36-E4447700ECAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F34BB3-4645-EC42-9B7B-4CECB005AF38}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14498,7 +15085,7 @@
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P1" t="s">
         <v>7</v>
@@ -14509,8 +15096,11 @@
       <c r="R1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14565,8 +15155,11 @@
       <c r="R2">
         <v>0.109675569266551</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -14621,8 +15214,11 @@
       <c r="R3">
         <v>0.67044253816280497</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -14676,6 +15272,9 @@
       </c>
       <c r="R4" s="1">
         <v>3.5199057690671298E-5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -14685,10 +15284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCCABA9-0641-D34E-8CD0-6F36D461AB8A}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14696,7 +15295,7 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14761,7 +15360,7 @@
         <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="W1" t="s">
         <v>7</v>
@@ -14772,8 +15371,11 @@
       <c r="Y1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -14849,8 +15451,11 @@
       <c r="Y2">
         <v>8.0261000356929302E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14926,8 +15531,11 @@
       <c r="Y3">
         <v>1.01740664240352E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -15003,8 +15611,11 @@
       <c r="Y4">
         <v>0.51468003993264499</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -15080,8 +15691,11 @@
       <c r="Y5">
         <v>0.116040779995392</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -15157,8 +15771,11 @@
       <c r="Y6">
         <v>0.61722373799333496</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -15233,6 +15850,9 @@
       </c>
       <c r="Y7">
         <v>2.0856201841251698E-3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -16986,9 +17606,9 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4360" topLeftCell="T1" activePane="topRight"/>
+      <pane xSplit="4360" activePane="topRight"/>
       <selection activeCell="A6" sqref="A6:XFD6"/>
-      <selection pane="topRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="topRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21396,7 +22016,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21694,15 +22314,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1055346C-FAA6-6843-8287-16719F05438F}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21784,8 +22404,11 @@
       <c r="AA1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -21867,8 +22490,11 @@
       <c r="AA2">
         <v>0.47982167474167797</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -21950,8 +22576,11 @@
       <c r="AA3">
         <v>7.3958803590390004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -22033,8 +22662,11 @@
       <c r="AA4">
         <v>0.34303421511688498</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -22116,8 +22748,11 @@
       <c r="AA5">
         <v>4.2344341439588901E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -22199,8 +22834,11 @@
       <c r="AA6">
         <v>0.34303421511688498</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -22282,8 +22920,11 @@
       <c r="AA7">
         <v>0.27812411678849702</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -22365,8 +23006,11 @@
       <c r="AA8">
         <v>1.13253205431263E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -22448,8 +23092,11 @@
       <c r="AA9">
         <v>0.34303421511688498</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -22531,8 +23178,11 @@
       <c r="AA10">
         <v>5.0574495240738003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -22614,8 +23264,11 @@
       <c r="AA11">
         <v>0.67845929014628203</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -22697,8 +23350,11 @@
       <c r="AA12">
         <v>5.0574495240738003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -22780,8 +23436,11 @@
       <c r="AA13">
         <v>0.30029845824851698</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -22863,8 +23522,11 @@
       <c r="AA14">
         <v>0.30029845824851698</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -22946,8 +23608,11 @@
       <c r="AA15">
         <v>0.33394767577784101</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -23029,8 +23694,11 @@
       <c r="AA16">
         <v>0.79245463611725098</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -23112,8 +23780,11 @@
       <c r="AA17">
         <v>0.59577182623723102</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -23195,8 +23866,11 @@
       <c r="AA18">
         <v>0.34303421511688498</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -23278,8 +23952,11 @@
       <c r="AA19">
         <v>4.3686766630400997E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -23361,8 +24038,11 @@
       <c r="AA20">
         <v>0.82939231767092203</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -23444,8 +24124,11 @@
       <c r="AA21">
         <v>0.51156279204584498</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -23527,8 +24210,11 @@
       <c r="AA22">
         <v>0.46748454312596899</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -23610,8 +24296,11 @@
       <c r="AA23">
         <v>0.39936666297657802</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -23693,8 +24382,11 @@
       <c r="AA24">
         <v>0.97055037295334701</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -23776,8 +24468,11 @@
       <c r="AA25">
         <v>0.39936666297657802</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -23859,23 +24554,27 @@
       <c r="AA26">
         <v>6.59971838615558E-2</v>
       </c>
+      <c r="AB26" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB26" xr:uid="{E00D97AE-A5C9-AD43-AD80-05C4C09837FB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB42479-CD39-374A-B9E0-4289CEF577FC}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23957,8 +24656,11 @@
       <c r="AA1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -24040,8 +24742,11 @@
       <c r="AA2">
         <v>0.79223209676408202</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -24123,8 +24828,11 @@
       <c r="AA3">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -24206,8 +24914,11 @@
       <c r="AA4">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -24289,8 +25000,11 @@
       <c r="AA5">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -24372,8 +25086,11 @@
       <c r="AA6">
         <v>0.90591492370419502</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24455,8 +25172,11 @@
       <c r="AA7">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -24538,8 +25258,11 @@
       <c r="AA8">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -24621,8 +25344,11 @@
       <c r="AA9">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -24704,8 +25430,11 @@
       <c r="AA10">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -24787,8 +25516,11 @@
       <c r="AA11">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -24870,8 +25602,11 @@
       <c r="AA12">
         <v>0.85775013704597802</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -24953,8 +25688,11 @@
       <c r="AA13">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -25036,8 +25774,11 @@
       <c r="AA14">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -25119,8 +25860,11 @@
       <c r="AA15">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -25202,8 +25946,11 @@
       <c r="AA16">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -25285,8 +26032,11 @@
       <c r="AA17">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -25368,8 +26118,11 @@
       <c r="AA18">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -25451,8 +26204,11 @@
       <c r="AA19">
         <v>0.878522371363751</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -25534,8 +26290,11 @@
       <c r="AA20">
         <v>0.85775013704597802</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -25617,8 +26376,11 @@
       <c r="AA21">
         <v>0.15376997847221699</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -25700,8 +26462,11 @@
       <c r="AA22">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -25783,8 +26548,11 @@
       <c r="AA23">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -25866,8 +26634,11 @@
       <c r="AA24">
         <v>0.93228987474677505</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -25949,8 +26720,11 @@
       <c r="AA25">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -26032,8 +26806,11 @@
       <c r="AA26">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -26115,8 +26892,11 @@
       <c r="AA27">
         <v>0.15376997847221699</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -26198,8 +26978,11 @@
       <c r="AA28">
         <v>0.15376997847221699</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -26281,8 +27064,11 @@
       <c r="AA29">
         <v>0.31117338998133098</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -26364,8 +27150,11 @@
       <c r="AA30">
         <v>0.79223209676408202</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -26447,8 +27236,11 @@
       <c r="AA31">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -26530,8 +27322,11 @@
       <c r="AA32">
         <v>0.79630883933098195</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -26613,8 +27408,11 @@
       <c r="AA33">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -26696,8 +27494,11 @@
       <c r="AA34">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -26779,8 +27580,11 @@
       <c r="AA35">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -26862,8 +27666,11 @@
       <c r="AA36">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -26945,8 +27752,11 @@
       <c r="AA37">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -27028,8 +27838,11 @@
       <c r="AA38">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -27111,8 +27924,11 @@
       <c r="AA39">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -27194,8 +28010,11 @@
       <c r="AA40">
         <v>0.87285059692981404</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -27277,8 +28096,11 @@
       <c r="AA41">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -27360,8 +28182,11 @@
       <c r="AA42">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -27443,8 +28268,11 @@
       <c r="AA43">
         <v>0.84580173580181395</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -27526,24 +28354,27 @@
       <c r="AA44">
         <v>0.97568395970718902</v>
       </c>
+      <c r="AB44" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V44" xr:uid="{5F2D8721-6562-1A49-ADC1-0C34A8AB6076}"/>
+  <autoFilter ref="A1:AB44" xr:uid="{91A3F3DF-3AF6-3B44-9A98-185D0D5EC62D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F791E0-BD9C-AB40-B780-ED98BFFCCD1B}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27625,8 +28456,11 @@
       <c r="AA1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -27708,8 +28542,11 @@
       <c r="AA2">
         <v>0.68905504426001396</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -27791,8 +28628,11 @@
       <c r="AA3">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -27874,8 +28714,11 @@
       <c r="AA4">
         <v>0.41759807255432302</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -27957,8 +28800,11 @@
       <c r="AA5">
         <v>0.71447602935708898</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -28040,8 +28886,11 @@
       <c r="AA6">
         <v>4.4539304540936001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -28123,8 +28972,11 @@
       <c r="AA7">
         <v>4.5403519615097497E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -28206,8 +29058,11 @@
       <c r="AA8">
         <v>0.71447602935708898</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -28289,8 +29144,11 @@
       <c r="AA9">
         <v>0.44518271132631398</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -28372,8 +29230,11 @@
       <c r="AA10">
         <v>0.41759807255432302</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -28455,8 +29316,11 @@
       <c r="AA11">
         <v>0.24972431020716301</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -28538,8 +29402,11 @@
       <c r="AA12">
         <v>0.92111784407115005</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -28621,8 +29488,11 @@
       <c r="AA13">
         <v>0.24972431020716301</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -28704,8 +29574,11 @@
       <c r="AA14">
         <v>0.24972431020716301</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -28787,8 +29660,11 @@
       <c r="AA15">
         <v>0.220958283643088</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -28870,8 +29746,11 @@
       <c r="AA16">
         <v>0.20325039359895999</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -28953,8 +29832,11 @@
       <c r="AA17">
         <v>4.5403519615097497E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -29036,8 +29918,11 @@
       <c r="AA18">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -29119,8 +30004,11 @@
       <c r="AA19">
         <v>0.81496513272305504</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -29202,8 +30090,11 @@
       <c r="AA20">
         <v>0.20325039359895999</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -29285,8 +30176,11 @@
       <c r="AA21">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -29368,8 +30262,11 @@
       <c r="AA22">
         <v>0.201903056757477</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -29451,8 +30348,11 @@
       <c r="AA23">
         <v>3.6273810438974801E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -29534,8 +30434,11 @@
       <c r="AA24">
         <v>0.59778235210531905</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -29617,8 +30520,11 @@
       <c r="AA25">
         <v>0.81496513272305504</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -29700,8 +30606,11 @@
       <c r="AA26">
         <v>0.59778235210531905</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -29783,8 +30692,11 @@
       <c r="AA27">
         <v>1.8617161275400598E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -29866,8 +30778,11 @@
       <c r="AA28">
         <v>0.81496513272305504</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -29949,8 +30864,11 @@
       <c r="AA29">
         <v>0.20325039359895999</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -30032,8 +30950,11 @@
       <c r="AA30">
         <v>0.92111784407115005</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -30115,8 +31036,11 @@
       <c r="AA31">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -30198,8 +31122,11 @@
       <c r="AA32">
         <v>0.20325039359895999</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -30281,8 +31208,11 @@
       <c r="AA33">
         <v>0.46144471480600302</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -30364,8 +31294,11 @@
       <c r="AA34">
         <v>0.75277499224747102</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -30447,8 +31380,11 @@
       <c r="AA35">
         <v>0.42264238287503197</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -30530,8 +31466,11 @@
       <c r="AA36">
         <v>0.20325039359895999</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -30613,8 +31552,11 @@
       <c r="AA37">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -30696,8 +31638,11 @@
       <c r="AA38">
         <v>0.59778235210531905</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -30779,8 +31724,11 @@
       <c r="AA39">
         <v>0.74709619342616995</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -30862,8 +31810,11 @@
       <c r="AA40">
         <v>0.220958283643088</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -30945,8 +31896,11 @@
       <c r="AA41">
         <v>0.53670315356727905</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -31028,8 +31982,12 @@
       <c r="AA42">
         <v>0.20325039359895999</v>
       </c>
+      <c r="AB42" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB42" xr:uid="{42D6BAF9-8E89-744A-A29A-BBED8DDCAA4E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lo_et_al/Raw_output_and_evaluation.xlsx
+++ b/lo_et_al/Raw_output_and_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rg9/rg9_documents/GPS/trumps/LID_GPSC/Submission/Github/Paper2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F932C48-1342-2443-A375-7455969831CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E38700-D891-D04B-BA18-878341942D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_postPCV13_IRR" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="103">
   <si>
     <t>Country</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>IRR_average_period_2x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1407,9 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B82DB8-1B42-FB4D-A275-F408E811E5D1}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1658,9 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91965B4-6F7E-0A4F-8F55-7AA2A31A4D59}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1894,9 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A74A4-F052-EE48-8299-26F7A9C6E537}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2056,7 +2053,7 @@
         <v>0.59925919991353205</v>
       </c>
       <c r="V3">
-        <v>0.86235243468805101</v>
+        <v>0.66752923534671904</v>
       </c>
       <c r="W3" t="s">
         <v>99</v>
@@ -2127,10 +2124,10 @@
         <v>5.6596992909847502E-2</v>
       </c>
       <c r="V4">
-        <v>3.70095230255316E-2</v>
+        <v>0.103761153668054</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2198,7 +2195,7 @@
         <v>0.36466447280367498</v>
       </c>
       <c r="V5">
-        <v>0.385664055582503</v>
+        <v>0.450751451645584</v>
       </c>
       <c r="W5" t="s">
         <v>99</v>
@@ -2269,7 +2266,7 @@
         <v>5.5635121041307502E-2</v>
       </c>
       <c r="V6">
-        <v>9.7999691111379197E-2</v>
+        <v>0.103761153668054</v>
       </c>
       <c r="W6" t="s">
         <v>99</v>
@@ -2339,8 +2336,8 @@
       <c r="U7" s="1">
         <v>3.9317438194075302E-12</v>
       </c>
-      <c r="V7">
-        <v>1.67963051352995E-3</v>
+      <c r="V7" s="1">
+        <v>3.84437173453181E-11</v>
       </c>
       <c r="W7" t="s">
         <v>96</v>
@@ -2411,10 +2408,10 @@
         <v>1.9121140352708101E-3</v>
       </c>
       <c r="V8">
-        <v>0.14855220990258999</v>
+        <v>5.9087525490893102E-3</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2482,7 +2479,7 @@
         <v>0.93737729390381996</v>
       </c>
       <c r="V9">
-        <v>0.96257513236626002</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W9" t="s">
         <v>99</v>
@@ -2553,7 +2550,7 @@
         <v>0.63978701350407696</v>
       </c>
       <c r="V10">
-        <v>0.21491923012691699</v>
+        <v>0.70376571485448502</v>
       </c>
       <c r="W10" t="s">
         <v>99</v>
@@ -2623,8 +2620,8 @@
       <c r="U11">
         <v>4.9728665761439295E-4</v>
       </c>
-      <c r="V11" s="1">
-        <v>1.5073385566875399E-7</v>
+      <c r="V11">
+        <v>2.0502298446043398E-3</v>
       </c>
       <c r="W11" t="s">
         <v>97</v>
@@ -2694,8 +2691,8 @@
       <c r="U12" s="1">
         <v>1.13839028472729E-5</v>
       </c>
-      <c r="V12">
-        <v>1.41326593328297E-2</v>
+      <c r="V12" s="1">
+        <v>7.7060265427693494E-5</v>
       </c>
       <c r="W12" t="s">
         <v>96</v>
@@ -2766,7 +2763,7 @@
         <v>0.93372957699986303</v>
       </c>
       <c r="V13">
-        <v>0.96257513236626002</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W13" t="s">
         <v>99</v>
@@ -2837,10 +2834,10 @@
         <v>2.07084650053092E-2</v>
       </c>
       <c r="V14">
-        <v>0.23496477351248199</v>
+        <v>4.49106622259101E-2</v>
       </c>
       <c r="W14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2908,10 +2905,10 @@
         <v>6.1987131981785498E-3</v>
       </c>
       <c r="V15">
-        <v>0.262287919267019</v>
+        <v>1.5585336041134599E-2</v>
       </c>
       <c r="W15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2979,10 +2976,10 @@
         <v>2.07084650053092E-2</v>
       </c>
       <c r="V16">
-        <v>0.28249441778868101</v>
+        <v>4.49106622259101E-2</v>
       </c>
       <c r="W16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3050,7 +3047,7 @@
         <v>0.36879664225547798</v>
       </c>
       <c r="V17">
-        <v>0.73227632994376601</v>
+        <v>0.450751451645584</v>
       </c>
       <c r="W17" t="s">
         <v>99</v>
@@ -3121,10 +3118,10 @@
         <v>1.00508711944973E-2</v>
       </c>
       <c r="V18">
-        <v>0.265648179024213</v>
+        <v>2.3904774732858399E-2</v>
       </c>
       <c r="W18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3192,7 +3189,7 @@
         <v>0.18716741282034599</v>
       </c>
       <c r="V19">
-        <v>0.51544198594340596</v>
+        <v>0.28189566412969203</v>
       </c>
       <c r="W19" t="s">
         <v>99</v>
@@ -3263,10 +3260,10 @@
         <v>1.9121140352708101E-3</v>
       </c>
       <c r="V20">
-        <v>6.7639116225526805E-2</v>
+        <v>5.9087525490893102E-3</v>
       </c>
       <c r="W20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3334,7 +3331,7 @@
         <v>0.93372957699986303</v>
       </c>
       <c r="V21">
-        <v>0.80353389744305603</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W21" t="s">
         <v>99</v>
@@ -3405,10 +3402,10 @@
         <v>5.1255746115108603E-4</v>
       </c>
       <c r="V22">
-        <v>0.138050796704248</v>
+        <v>2.0502298446043398E-3</v>
       </c>
       <c r="W22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3476,7 +3473,7 @@
         <v>0.36879664225547798</v>
       </c>
       <c r="V23">
-        <v>0.63767985564713703</v>
+        <v>0.450751451645584</v>
       </c>
       <c r="W23" t="s">
         <v>99</v>
@@ -3547,7 +3544,7 @@
         <v>0.20582052907013099</v>
       </c>
       <c r="V24">
-        <v>0.54113542615749599</v>
+        <v>0.296921418986418</v>
       </c>
       <c r="W24" t="s">
         <v>99</v>
@@ -3617,8 +3614,8 @@
       <c r="U25">
         <v>3.4328430573733501E-3</v>
       </c>
-      <c r="V25" s="1">
-        <v>3.5540616599028202E-21</v>
+      <c r="V25">
+        <v>9.5568898030902408E-3</v>
       </c>
       <c r="W25" t="s">
         <v>96</v>
@@ -3689,10 +3686,10 @@
         <v>1.12754067716968E-2</v>
       </c>
       <c r="V26">
-        <v>0.262287919267019</v>
+        <v>2.6111468313403101E-2</v>
       </c>
       <c r="W26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3760,10 +3757,10 @@
         <v>1.0700464031124801E-3</v>
       </c>
       <c r="V27">
-        <v>5.1177429368095703E-2</v>
+        <v>3.6903830331597499E-3</v>
       </c>
       <c r="W27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3831,7 +3828,7 @@
         <v>3.8542150189435201E-2</v>
       </c>
       <c r="V28">
-        <v>0.302812897368892</v>
+        <v>7.3732809058050006E-2</v>
       </c>
       <c r="W28" t="s">
         <v>99</v>
@@ -3902,7 +3899,7 @@
         <v>0.93372957699986303</v>
       </c>
       <c r="V29">
-        <v>0.80353389744305603</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W29" t="s">
         <v>99</v>
@@ -3973,7 +3970,7 @@
         <v>1.0903404416153801E-3</v>
       </c>
       <c r="V30">
-        <v>3.8856759524980499E-3</v>
+        <v>3.6903830331597499E-3</v>
       </c>
       <c r="W30" t="s">
         <v>96</v>
@@ -4044,7 +4041,7 @@
         <v>1.26847361269222E-4</v>
       </c>
       <c r="V31">
-        <v>1.66676373498317E-3</v>
+        <v>6.9766048698072095E-4</v>
       </c>
       <c r="W31" t="s">
         <v>96</v>
@@ -4115,7 +4112,7 @@
         <v>0.15291550403760801</v>
       </c>
       <c r="V32">
-        <v>0.325425584734929</v>
+        <v>0.24029579205909801</v>
       </c>
       <c r="W32" t="s">
         <v>99</v>
@@ -4186,10 +4183,10 @@
         <v>1.4234447986483101E-4</v>
       </c>
       <c r="V33">
-        <v>0.143230613019425</v>
+        <v>7.3684201341794897E-4</v>
       </c>
       <c r="W33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4257,7 +4254,7 @@
         <v>0.242595860820561</v>
       </c>
       <c r="V34">
-        <v>0.21491923012691699</v>
+        <v>0.33886405955887899</v>
       </c>
       <c r="W34" t="s">
         <v>99</v>
@@ -4328,7 +4325,7 @@
         <v>0.42856333161425098</v>
       </c>
       <c r="V35">
-        <v>0.217665770511488</v>
+        <v>0.502847642427388</v>
       </c>
       <c r="W35" t="s">
         <v>99</v>
@@ -4399,7 +4396,7 @@
         <v>0.14755829458710701</v>
       </c>
       <c r="V36">
-        <v>0.38051935852046198</v>
+        <v>0.236093271339371</v>
       </c>
       <c r="W36" t="s">
         <v>99</v>
@@ -4470,7 +4467,7 @@
         <v>1.0329200590963901E-5</v>
       </c>
       <c r="V37" s="1">
-        <v>5.5030105433143995E-10</v>
+        <v>7.5747471000401894E-5</v>
       </c>
       <c r="W37" t="s">
         <v>96</v>
@@ -4541,10 +4538,10 @@
         <v>6.55802598865884E-4</v>
       </c>
       <c r="V38">
-        <v>0.138050796704248</v>
+        <v>2.45869045376856E-3</v>
       </c>
       <c r="W38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4612,7 +4609,7 @@
         <v>2.2171785719982099E-4</v>
       </c>
       <c r="V39">
-        <v>2.3135318737894699E-2</v>
+        <v>1.02690375966233E-3</v>
       </c>
       <c r="W39" t="s">
         <v>96</v>
@@ -4683,7 +4680,7 @@
         <v>2.1548652517910901E-7</v>
       </c>
       <c r="V40" s="1">
-        <v>9.3715457244793992E-13</v>
+        <v>1.7238922014328699E-6</v>
       </c>
       <c r="W40" t="s">
         <v>96</v>
@@ -4754,7 +4751,7 @@
         <v>0.23490772510326099</v>
       </c>
       <c r="V41">
-        <v>0.36642029462567999</v>
+        <v>0.33341741627559601</v>
       </c>
       <c r="W41" t="s">
         <v>99</v>
@@ -4825,10 +4822,10 @@
         <v>9.3626794783530101E-5</v>
       </c>
       <c r="V42">
-        <v>0.14019590206047999</v>
+        <v>5.4927719606337705E-4</v>
       </c>
       <c r="W42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4896,7 +4893,7 @@
         <v>9.6327762514130402E-2</v>
       </c>
       <c r="V43">
-        <v>0.42106866795132503</v>
+        <v>0.16621260982830299</v>
       </c>
       <c r="W43" t="s">
         <v>99</v>
@@ -4967,7 +4964,7 @@
         <v>0.96707619059757799</v>
       </c>
       <c r="V44">
-        <v>0.88876007023729797</v>
+        <v>0.96707619059757799</v>
       </c>
       <c r="W44" t="s">
         <v>99</v>
@@ -5037,8 +5034,8 @@
       <c r="U45">
         <v>2.3662646890871299E-2</v>
       </c>
-      <c r="V45" s="1">
-        <v>9.0776411439832304E-5</v>
+      <c r="V45">
+        <v>4.9578879199920801E-2</v>
       </c>
       <c r="W45" t="s">
         <v>96</v>
@@ -5109,7 +5106,7 @@
         <v>5.2424119956481201E-3</v>
       </c>
       <c r="V46">
-        <v>1.53880238469484E-4</v>
+        <v>1.35685957534422E-2</v>
       </c>
       <c r="W46" t="s">
         <v>96</v>
@@ -5180,7 +5177,7 @@
         <v>0.79621662496408496</v>
       </c>
       <c r="V47">
-        <v>0.63390362631701103</v>
+        <v>0.86502546909678402</v>
       </c>
       <c r="W47" t="s">
         <v>99</v>
@@ -5251,7 +5248,7 @@
         <v>0.38906176999457898</v>
       </c>
       <c r="V48">
-        <v>0.14855220990258999</v>
+        <v>0.46266805080436402</v>
       </c>
       <c r="W48" t="s">
         <v>99</v>
@@ -5322,7 +5319,7 @@
         <v>0.27156933082407297</v>
       </c>
       <c r="V49">
-        <v>0.59385460986294603</v>
+        <v>0.36209244109876398</v>
       </c>
       <c r="W49" t="s">
         <v>99</v>
@@ -5393,10 +5390,10 @@
         <v>4.5565917337841999E-4</v>
       </c>
       <c r="V50">
-        <v>0.21491923012691699</v>
+        <v>2.0049003628650501E-3</v>
       </c>
       <c r="W50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5464,7 +5461,7 @@
         <v>0.33658887105069801</v>
       </c>
       <c r="V51">
-        <v>0.54113542615749599</v>
+        <v>0.42927276307915102</v>
       </c>
       <c r="W51" t="s">
         <v>99</v>
@@ -5535,7 +5532,7 @@
         <v>0.18899822935968</v>
       </c>
       <c r="V52">
-        <v>0.39980335889874302</v>
+        <v>0.28189566412969203</v>
       </c>
       <c r="W52" t="s">
         <v>99</v>
@@ -5606,10 +5603,10 @@
         <v>3.9260771330410496E-3</v>
       </c>
       <c r="V53">
-        <v>5.1177429368095703E-2</v>
+        <v>1.0469539021442801E-2</v>
       </c>
       <c r="W53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5677,7 +5674,7 @@
         <v>2.87346714799325E-2</v>
       </c>
       <c r="V54">
-        <v>7.6625151601117394E-2</v>
+        <v>5.8805839307768802E-2</v>
       </c>
       <c r="W54" t="s">
         <v>99</v>
@@ -5748,7 +5745,7 @@
         <v>0.292664759168834</v>
       </c>
       <c r="V55">
-        <v>0.21491923012691699</v>
+        <v>0.38439550457996102</v>
       </c>
       <c r="W55" t="s">
         <v>99</v>
@@ -5819,10 +5816,10 @@
         <v>3.3853799417329397E-2</v>
       </c>
       <c r="V56">
-        <v>1.49859249579424E-2</v>
+        <v>6.6202985527221897E-2</v>
       </c>
       <c r="W56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5890,7 +5887,7 @@
         <v>0.20529959143425999</v>
       </c>
       <c r="V57">
-        <v>0.48453249341251697</v>
+        <v>0.296921418986418</v>
       </c>
       <c r="W57" t="s">
         <v>99</v>
@@ -5961,7 +5958,7 @@
         <v>1.9472025445862501E-3</v>
       </c>
       <c r="V58">
-        <v>1.8713565956233801E-3</v>
+        <v>5.9087525490893102E-3</v>
       </c>
       <c r="W58" t="s">
         <v>96</v>
@@ -6032,7 +6029,7 @@
         <v>2.2697277104575301E-3</v>
       </c>
       <c r="V59">
-        <v>1.1306268385234399E-2</v>
+        <v>6.6578679506754199E-3</v>
       </c>
       <c r="W59" t="s">
         <v>96</v>
@@ -6102,8 +6099,8 @@
       <c r="U60" s="1">
         <v>4.4540378496549198E-8</v>
       </c>
-      <c r="V60">
-        <v>1.76258563107813E-4</v>
+      <c r="V60" s="1">
+        <v>3.9195533076963301E-7</v>
       </c>
       <c r="W60" t="s">
         <v>96</v>
@@ -6174,7 +6171,7 @@
         <v>0.263578627247186</v>
       </c>
       <c r="V61">
-        <v>0.48453249341251697</v>
+        <v>0.35684491073465202</v>
       </c>
       <c r="W61" t="s">
         <v>99</v>
@@ -6245,7 +6242,7 @@
         <v>0.161475774577232</v>
       </c>
       <c r="V62">
-        <v>0.548249883025964</v>
+        <v>0.24929593268063899</v>
       </c>
       <c r="W62" t="s">
         <v>99</v>
@@ -6316,7 +6313,7 @@
         <v>0.29869223401671602</v>
       </c>
       <c r="V63">
-        <v>0.262287919267019</v>
+        <v>0.38654289108045597</v>
       </c>
       <c r="W63" t="s">
         <v>99</v>
@@ -6387,7 +6384,7 @@
         <v>3.12364448763994E-2</v>
       </c>
       <c r="V64">
-        <v>0.262287919267019</v>
+        <v>6.2472889752798799E-2</v>
       </c>
       <c r="W64" t="s">
         <v>99</v>
@@ -6458,10 +6455,10 @@
         <v>0.12128785014341301</v>
       </c>
       <c r="V65">
-        <v>4.4969539037138101E-2</v>
+        <v>0.20138360023811999</v>
       </c>
       <c r="W65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6529,7 +6526,7 @@
         <v>0.48814741561647501</v>
       </c>
       <c r="V66">
-        <v>0.38052941212976898</v>
+        <v>0.55073041761858699</v>
       </c>
       <c r="W66" t="s">
         <v>99</v>
@@ -6600,10 +6597,10 @@
         <v>6.7055194193688095E-4</v>
       </c>
       <c r="V67">
-        <v>0.262287919267019</v>
+        <v>2.45869045376856E-3</v>
       </c>
       <c r="W67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6671,7 +6668,7 @@
         <v>8.2258499294885795E-2</v>
       </c>
       <c r="V68">
-        <v>0.40800524563281498</v>
+        <v>0.14477495875899901</v>
       </c>
       <c r="W68" t="s">
         <v>99</v>
@@ -6742,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>0.295363879109658</v>
+        <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6813,7 +6810,7 @@
         <v>1.15463194561016E-14</v>
       </c>
       <c r="V70" s="1">
-        <v>4.9907316369452698E-17</v>
+        <v>1.4515373030527699E-13</v>
       </c>
       <c r="W70" t="s">
         <v>96</v>
@@ -6884,7 +6881,7 @@
         <v>0.38716738865195199</v>
       </c>
       <c r="V71">
-        <v>0.302812897368892</v>
+        <v>0.46266805080436402</v>
       </c>
       <c r="W71" t="s">
         <v>99</v>
@@ -6955,10 +6952,10 @@
         <v>2.0924285809798999E-2</v>
       </c>
       <c r="V72">
-        <v>0.38052941212976898</v>
+        <v>4.49106622259101E-2</v>
       </c>
       <c r="W72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -7026,10 +7023,10 @@
         <v>3.4752326556691799E-3</v>
       </c>
       <c r="V73">
-        <v>0.59729076610472298</v>
+        <v>9.5568898030902408E-3</v>
       </c>
       <c r="W73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -7097,7 +7094,7 @@
         <v>0.483082059174476</v>
       </c>
       <c r="V74">
-        <v>0.36405771760672201</v>
+        <v>0.55073041761858699</v>
       </c>
       <c r="W74" t="s">
         <v>99</v>
@@ -7168,10 +7165,10 @@
         <v>6.8490924423822097E-2</v>
       </c>
       <c r="V75">
-        <v>2.3135318737894699E-2</v>
+        <v>0.12300410916931299</v>
       </c>
       <c r="W75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -7238,11 +7235,11 @@
       <c r="U76" s="1">
         <v>6.0618177144533497E-14</v>
       </c>
-      <c r="V76">
-        <v>0.36405771760672201</v>
+      <c r="V76" s="1">
+        <v>6.6679994858986801E-13</v>
       </c>
       <c r="W76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7310,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="V77">
-        <v>0.300856513709995</v>
+        <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7381,7 +7378,7 @@
         <v>0.88773580716855005</v>
       </c>
       <c r="V78">
-        <v>0.70240854967969202</v>
+        <v>0.95269208574185904</v>
       </c>
       <c r="W78" t="s">
         <v>99</v>
@@ -7452,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>0.51544198594340596</v>
+        <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7523,7 +7520,7 @@
         <v>0.95205732014469802</v>
       </c>
       <c r="V80">
-        <v>0.90701789991653203</v>
+        <v>0.96300050773256796</v>
       </c>
       <c r="W80" t="s">
         <v>99</v>
@@ -7593,8 +7590,8 @@
       <c r="U81">
         <v>0</v>
       </c>
-      <c r="V81" s="1">
-        <v>4.16112096684634E-76</v>
+      <c r="V81">
+        <v>0</v>
       </c>
       <c r="W81" t="s">
         <v>97</v>
@@ -7665,7 +7662,7 @@
         <v>0.483082059174476</v>
       </c>
       <c r="V82">
-        <v>0.34081517518858501</v>
+        <v>0.55073041761858699</v>
       </c>
       <c r="W82" t="s">
         <v>99</v>
@@ -7736,7 +7733,7 @@
         <v>0.120119383299407</v>
       </c>
       <c r="V83">
-        <v>0.42641174809898602</v>
+        <v>0.20138360023811999</v>
       </c>
       <c r="W83" t="s">
         <v>99</v>
@@ -7806,8 +7803,8 @@
       <c r="U84" s="1">
         <v>4.5301282172505202E-5</v>
       </c>
-      <c r="V84" s="1">
-        <v>1.20771836551804E-14</v>
+      <c r="V84">
+        <v>2.8475091651289E-4</v>
       </c>
       <c r="W84" t="s">
         <v>97</v>
@@ -7878,10 +7875,10 @@
         <v>9.9527409044819493E-3</v>
       </c>
       <c r="V85">
-        <v>0.217665770511488</v>
+        <v>2.3904774732858399E-2</v>
       </c>
       <c r="W85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7949,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>0.32917372799293898</v>
+        <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -8020,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="V87">
-        <v>0.46667955635428199</v>
+        <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -8090,8 +8087,8 @@
       <c r="U88">
         <v>2.0326793961722401E-4</v>
       </c>
-      <c r="V88" s="1">
-        <v>1.6400420005745299E-11</v>
+      <c r="V88">
+        <v>9.9375437146198391E-4</v>
       </c>
       <c r="W88" t="s">
         <v>97</v>
@@ -8162,7 +8159,7 @@
         <v>0.25446199421759302</v>
       </c>
       <c r="V89">
-        <v>0.138050796704248</v>
+        <v>0.34988524204919003</v>
       </c>
       <c r="W89" t="s">
         <v>99</v>
@@ -8233,17 +8230,17 @@
         <v>0.14693697734225</v>
       </c>
       <c r="V90">
-        <v>4.0313617690574802E-2</v>
+        <v>0.236093271339371</v>
       </c>
       <c r="W90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W90" xr:uid="{6527F2AC-62B8-B44C-986B-8E62215A8E5B}"/>
-  <sortState ref="A7:Q94">
-    <sortCondition ref="A7:A94"/>
-    <sortCondition ref="B7:B94"/>
+  <autoFilter ref="A2:W90" xr:uid="{FFCC4BE3-BBDE-BB48-960C-B6F1BF2B39DB}"/>
+  <sortState ref="A8:Q95">
+    <sortCondition ref="A8:A95"/>
+    <sortCondition ref="B8:B95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8253,9 +8250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC5DB66-3C6C-C842-A918-C50FD211FD50}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -8416,7 +8411,7 @@
         <v>3.3342249846294303E-2</v>
       </c>
       <c r="V3">
-        <v>9.5205444091040495E-2</v>
+        <v>6.3405513001338801E-2</v>
       </c>
       <c r="W3" t="s">
         <v>99</v>
@@ -8487,7 +8482,7 @@
         <v>2.0058800777522599E-4</v>
       </c>
       <c r="V4">
-        <v>2.3797591432196199E-2</v>
+        <v>6.9834343447671299E-4</v>
       </c>
       <c r="W4" t="s">
         <v>96</v>
@@ -8558,7 +8553,7 @@
         <v>0.45376795597610697</v>
       </c>
       <c r="V5">
-        <v>0.16936735282037499</v>
+        <v>0.53317734827192598</v>
       </c>
       <c r="W5" t="s">
         <v>99</v>
@@ -8628,8 +8623,8 @@
       <c r="U6">
         <v>7.8563805552156495E-4</v>
       </c>
-      <c r="V6" s="1">
-        <v>5.8385176504959097E-5</v>
+      <c r="V6">
+        <v>2.5465509385871402E-3</v>
       </c>
       <c r="W6" t="s">
         <v>96</v>
@@ -8700,7 +8695,7 @@
         <v>1.9535706385909199E-11</v>
       </c>
       <c r="V7" s="1">
-        <v>3.57076271240406E-13</v>
+        <v>1.41258184636574E-10</v>
       </c>
       <c r="W7" t="s">
         <v>96</v>
@@ -8771,10 +8766,10 @@
         <v>5.1139181156316098E-2</v>
       </c>
       <c r="V8">
-        <v>3.4664782885591001E-2</v>
+        <v>8.9020056086920596E-2</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -8842,7 +8837,7 @@
         <v>0.12591775530646299</v>
       </c>
       <c r="V9">
-        <v>0.49198377881426097</v>
+        <v>0.190907564496895</v>
       </c>
       <c r="W9" t="s">
         <v>99</v>
@@ -8913,7 +8908,7 @@
         <v>0.75707146291920102</v>
       </c>
       <c r="V10">
-        <v>0.83909845405165695</v>
+        <v>0.799603567577583</v>
       </c>
       <c r="W10" t="s">
         <v>99</v>
@@ -8984,7 +8979,7 @@
         <v>0.58723065590141399</v>
       </c>
       <c r="V11">
-        <v>0.32962085632879201</v>
+        <v>0.657139067318249</v>
       </c>
       <c r="W11" t="s">
         <v>99</v>
@@ -9055,7 +9050,7 @@
         <v>2.3949211258901801E-2</v>
       </c>
       <c r="V12">
-        <v>9.82502054184341E-2</v>
+        <v>5.1164224053108401E-2</v>
       </c>
       <c r="W12" t="s">
         <v>99</v>
@@ -9125,8 +9120,8 @@
       <c r="U13" s="1">
         <v>2.9410562025766798E-5</v>
       </c>
-      <c r="V13" s="1">
-        <v>8.3698008619607399E-5</v>
+      <c r="V13">
+        <v>1.15191367934253E-4</v>
       </c>
       <c r="W13" t="s">
         <v>96</v>
@@ -9197,7 +9192,7 @@
         <v>0.83013663100144497</v>
       </c>
       <c r="V14">
-        <v>0.80732911155073905</v>
+        <v>0.85750377268281097</v>
       </c>
       <c r="W14" t="s">
         <v>99</v>
@@ -9267,8 +9262,8 @@
       <c r="U15">
         <v>1.7354720176697501E-2</v>
       </c>
-      <c r="V15" s="1">
-        <v>4.2089930934876998E-9</v>
+      <c r="V15">
+        <v>3.8841516585942003E-2</v>
       </c>
       <c r="W15" t="s">
         <v>96</v>
@@ -9339,10 +9334,10 @@
         <v>2.1397951700234199E-2</v>
       </c>
       <c r="V16">
-        <v>5.9805882519845102E-2</v>
+        <v>4.6776917670279403E-2</v>
       </c>
       <c r="W16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -9410,7 +9405,7 @@
         <v>0.193521058012979</v>
       </c>
       <c r="V17">
-        <v>0.21842087188148901</v>
+        <v>0.27986122235723099</v>
       </c>
       <c r="W17" t="s">
         <v>99</v>
@@ -9481,7 +9476,7 @@
         <v>0.13240611753051801</v>
       </c>
       <c r="V18">
-        <v>0.34060363958509199</v>
+        <v>0.19755833409315399</v>
       </c>
       <c r="W18" t="s">
         <v>99</v>
@@ -9552,7 +9547,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V19">
-        <v>0.11557399269079301</v>
+        <v>0.34443491152012401</v>
       </c>
       <c r="W19" t="s">
         <v>99</v>
@@ -9623,7 +9618,7 @@
         <v>0.61153824288953096</v>
       </c>
       <c r="V20">
-        <v>0.73704404473648699</v>
+        <v>0.67628935096018705</v>
       </c>
       <c r="W20" t="s">
         <v>99</v>
@@ -9694,10 +9689,10 @@
         <v>0.38003875147413502</v>
       </c>
       <c r="V21">
-        <v>4.1016687275972699E-2</v>
+        <v>0.46394341089050201</v>
       </c>
       <c r="W21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -9765,7 +9760,7 @@
         <v>0.18378773903349199</v>
       </c>
       <c r="V22">
-        <v>5.4715469694322998E-2</v>
+        <v>0.26993824170544101</v>
       </c>
       <c r="W22" t="s">
         <v>99</v>
@@ -9836,7 +9831,7 @@
         <v>0.50536109393550199</v>
       </c>
       <c r="V23">
-        <v>0.56218251479399495</v>
+        <v>0.57455815028429702</v>
       </c>
       <c r="W23" t="s">
         <v>99</v>
@@ -9906,8 +9901,8 @@
       <c r="U24">
         <v>1.4134172415188901E-3</v>
       </c>
-      <c r="V24" s="1">
-        <v>1.39077901029179E-5</v>
+      <c r="V24">
+        <v>4.1519131469617398E-3</v>
       </c>
       <c r="W24" t="s">
         <v>96</v>
@@ -9978,7 +9973,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V25">
-        <v>8.3319774158650495E-2</v>
+        <v>0.34443491152012401</v>
       </c>
       <c r="W25" t="s">
         <v>99</v>
@@ -10049,7 +10044,7 @@
         <v>8.6980873870157204E-7</v>
       </c>
       <c r="V26" s="1">
-        <v>5.0579090010654403E-6</v>
+        <v>3.8934295922832297E-6</v>
       </c>
       <c r="W26" t="s">
         <v>96</v>
@@ -10120,7 +10115,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V27">
-        <v>0.24190608255093399</v>
+        <v>0.34443491152012401</v>
       </c>
       <c r="W27" t="s">
         <v>99</v>
@@ -10191,7 +10186,7 @@
         <v>1.08632450099844E-5</v>
       </c>
       <c r="V28" s="1">
-        <v>5.1503228906362398E-6</v>
+        <v>4.4397610040805803E-5</v>
       </c>
       <c r="W28" t="s">
         <v>97</v>
@@ -10261,8 +10256,8 @@
       <c r="U29">
         <v>2.6180632925713E-3</v>
       </c>
-      <c r="V29" s="1">
-        <v>2.9607811681109701E-5</v>
+      <c r="V29">
+        <v>6.4762618289921602E-3</v>
       </c>
       <c r="W29" t="s">
         <v>96</v>
@@ -10333,7 +10328,7 @@
         <v>3.9627330692486799E-2</v>
       </c>
       <c r="V30">
-        <v>6.2450766116090101E-2</v>
+        <v>7.3038609511642302E-2</v>
       </c>
       <c r="W30" t="s">
         <v>99</v>
@@ -10403,8 +10398,8 @@
       <c r="U31">
         <v>7.6667799382779101E-4</v>
       </c>
-      <c r="V31" s="1">
-        <v>4.9992070870286199E-6</v>
+      <c r="V31">
+        <v>2.5465509385871402E-3</v>
       </c>
       <c r="W31" t="s">
         <v>96</v>
@@ -10475,10 +10470,10 @@
         <v>0.228020413118356</v>
       </c>
       <c r="V32">
-        <v>5.8770247018255402E-3</v>
+        <v>0.31990923631530499</v>
       </c>
       <c r="W32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -10546,10 +10541,10 @@
         <v>0.103544226183458</v>
       </c>
       <c r="V33">
-        <v>3.9896628335264001E-2</v>
+        <v>0.162219287687418</v>
       </c>
       <c r="W33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -10617,10 +10612,10 @@
         <v>3.3342249846294303E-2</v>
       </c>
       <c r="V34">
-        <v>1.84937752423463E-2</v>
+        <v>6.3405513001338801E-2</v>
       </c>
       <c r="W34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -10688,7 +10683,7 @@
         <v>0.63764847644752698</v>
       </c>
       <c r="V35">
-        <v>0.895905730273441</v>
+        <v>0.696964613791483</v>
       </c>
       <c r="W35" t="s">
         <v>99</v>
@@ -10759,7 +10754,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V36">
-        <v>0.11557399269079301</v>
+        <v>0.34443491152012401</v>
       </c>
       <c r="W36" t="s">
         <v>99</v>
@@ -10830,7 +10825,7 @@
         <v>6.7739465592353596E-7</v>
       </c>
       <c r="V37" s="1">
-        <v>5.7480915431838301E-7</v>
+        <v>3.18375488284062E-6</v>
       </c>
       <c r="W37" t="s">
         <v>96</v>
@@ -10901,7 +10896,7 @@
         <v>4.92537122198655E-11</v>
       </c>
       <c r="V38" s="1">
-        <v>5.5902488882845496E-10</v>
+        <v>3.0865659657782399E-10</v>
       </c>
       <c r="W38" t="s">
         <v>96</v>
@@ -10972,7 +10967,7 @@
         <v>0.39161425162633501</v>
       </c>
       <c r="V39">
-        <v>0.56218251479399495</v>
+        <v>0.47194538016506998</v>
       </c>
       <c r="W39" t="s">
         <v>99</v>
@@ -11042,8 +11037,8 @@
       <c r="U40">
         <v>4.3070640708030598E-3</v>
       </c>
-      <c r="V40" s="1">
-        <v>2.9607811681109701E-5</v>
+      <c r="V40">
+        <v>1.0381128786038101E-2</v>
       </c>
       <c r="W40" t="s">
         <v>96</v>
@@ -11114,7 +11109,7 @@
         <v>0.41991697237103898</v>
       </c>
       <c r="V41">
-        <v>0.31795762072379102</v>
+        <v>0.49964804307440103</v>
       </c>
       <c r="W41" t="s">
         <v>99</v>
@@ -11185,7 +11180,7 @@
         <v>8.2397576294640507E-3</v>
       </c>
       <c r="V42">
-        <v>4.8376501441346597E-3</v>
+        <v>1.88911516382834E-2</v>
       </c>
       <c r="W42" t="s">
         <v>97</v>
@@ -11256,7 +11251,7 @@
         <v>3.5946423660004903E-5</v>
       </c>
       <c r="V43">
-        <v>5.7138222691605902E-4</v>
+        <v>1.2996014707847899E-4</v>
       </c>
       <c r="W43" t="s">
         <v>96</v>
@@ -11327,7 +11322,7 @@
         <v>1.8873791418627701E-15</v>
       </c>
       <c r="V44" s="1">
-        <v>1.54676746620448E-16</v>
+        <v>2.2176704916887499E-14</v>
       </c>
       <c r="W44" t="s">
         <v>96</v>
@@ -11398,7 +11393,7 @@
         <v>9.12388947929373E-2</v>
       </c>
       <c r="V45">
-        <v>0.42562950604292499</v>
+        <v>0.145363662890442</v>
       </c>
       <c r="W45" t="s">
         <v>99</v>
@@ -11469,7 +11464,7 @@
         <v>5.1858206617794198E-10</v>
       </c>
       <c r="V46" s="1">
-        <v>1.42498241116045E-6</v>
+        <v>2.7081507900403598E-9</v>
       </c>
       <c r="W46" t="s">
         <v>96</v>
@@ -11540,7 +11535,7 @@
         <v>6.1728400169158704E-14</v>
       </c>
       <c r="V47" s="1">
-        <v>5.6670844849727796E-19</v>
+        <v>6.4471884621121305E-13</v>
       </c>
       <c r="W47" t="s">
         <v>96</v>
@@ -11611,7 +11606,7 @@
         <v>0.93165815251334005</v>
       </c>
       <c r="V48">
-        <v>0.96490395580479005</v>
+        <v>0.93165815251334005</v>
       </c>
       <c r="W48" t="s">
         <v>99</v>
@@ -11682,7 +11677,7 @@
         <v>1.05669917260798E-11</v>
       </c>
       <c r="V49" s="1">
-        <v>4.73700180022247E-11</v>
+        <v>8.2774768520958403E-11</v>
       </c>
       <c r="W49" t="s">
         <v>96</v>
@@ -11753,7 +11748,7 @@
         <v>3.32959215754158E-11</v>
       </c>
       <c r="V50" s="1">
-        <v>5.7480915431838301E-7</v>
+        <v>2.23558330577792E-10</v>
       </c>
       <c r="W50" t="s">
         <v>96</v>
@@ -11824,7 +11819,7 @@
         <v>3.0737504943534299E-6</v>
       </c>
       <c r="V51" s="1">
-        <v>1.6253568583669102E-5</v>
+        <v>1.31332975667828E-5</v>
       </c>
       <c r="W51" t="s">
         <v>96</v>
@@ -11895,7 +11890,7 @@
         <v>0.64808635918226698</v>
       </c>
       <c r="V52">
-        <v>0.80732911155073905</v>
+        <v>0.700231238656702</v>
       </c>
       <c r="W52" t="s">
         <v>99</v>
@@ -11965,8 +11960,8 @@
       <c r="U53" s="1">
         <v>3.5946423660004903E-5</v>
       </c>
-      <c r="V53" s="1">
-        <v>1.8158602241680401E-58</v>
+      <c r="V53">
+        <v>1.2996014707847899E-4</v>
       </c>
       <c r="W53" t="s">
         <v>96</v>
@@ -12036,8 +12031,8 @@
       <c r="U54">
         <v>1.36223131283419E-3</v>
       </c>
-      <c r="V54" s="1">
-        <v>4.2288416588239303E-6</v>
+      <c r="V54">
+        <v>4.13063688407787E-3</v>
       </c>
       <c r="W54" t="s">
         <v>96</v>
@@ -12108,7 +12103,7 @@
         <v>0.34788470946389699</v>
       </c>
       <c r="V55">
-        <v>0.61482333005768497</v>
+        <v>0.44796113273433302</v>
       </c>
       <c r="W55" t="s">
         <v>99</v>
@@ -12179,7 +12174,7 @@
         <v>0.30107737883042501</v>
       </c>
       <c r="V56">
-        <v>0.49198377881426097</v>
+        <v>0.39307324458416598</v>
       </c>
       <c r="W56" t="s">
         <v>99</v>
@@ -12250,7 +12245,7 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V57">
-        <v>0.70007327148610499</v>
+        <v>0.45349533176420198</v>
       </c>
       <c r="W57" t="s">
         <v>99</v>
@@ -12321,7 +12316,7 @@
         <v>4.5960826164191698E-2</v>
       </c>
       <c r="V58">
-        <v>0.283610472797313</v>
+        <v>8.3083031912192698E-2</v>
       </c>
       <c r="W58" t="s">
         <v>99</v>
@@ -12392,7 +12387,7 @@
         <v>0.66097316392460903</v>
       </c>
       <c r="V59">
-        <v>0.82721243150068802</v>
+        <v>0.70603951601037795</v>
       </c>
       <c r="W59" t="s">
         <v>99</v>
@@ -12463,7 +12458,7 @@
         <v>7.2121690971277894E-2</v>
       </c>
       <c r="V60">
-        <v>0.46707491885316099</v>
+        <v>0.118937525461406</v>
       </c>
       <c r="W60" t="s">
         <v>99</v>
@@ -12534,7 +12529,7 @@
         <v>2.8188051892641402E-10</v>
       </c>
       <c r="V61" s="1">
-        <v>1.3592403133055299E-6</v>
+        <v>1.5586334575931099E-9</v>
       </c>
       <c r="W61" t="s">
         <v>96</v>
@@ -12605,7 +12600,7 @@
         <v>7.2319927824082697E-13</v>
       </c>
       <c r="V62" s="1">
-        <v>5.7480915431838301E-7</v>
+        <v>6.1800665595125201E-12</v>
       </c>
       <c r="W62" t="s">
         <v>96</v>
@@ -12676,7 +12671,7 @@
         <v>6.1364049708431803E-2</v>
       </c>
       <c r="V63">
-        <v>0.14132956745168601</v>
+        <v>0.103003940582011</v>
       </c>
       <c r="W63" t="s">
         <v>99</v>
@@ -12747,7 +12742,7 @@
         <v>0.20616701603660101</v>
       </c>
       <c r="V64">
-        <v>0.63891974735868196</v>
+        <v>0.29363181071879502</v>
       </c>
       <c r="W64" t="s">
         <v>99</v>
@@ -12818,7 +12813,7 @@
         <v>2.6142114082859901E-3</v>
       </c>
       <c r="V65">
-        <v>7.2933159004982401E-3</v>
+        <v>6.4762618289921602E-3</v>
       </c>
       <c r="W65" t="s">
         <v>96</v>
@@ -12889,10 +12884,10 @@
         <v>8.2643997531147304E-2</v>
       </c>
       <c r="V66">
-        <v>4.47748640954091E-3</v>
+        <v>0.13394027186082499</v>
       </c>
       <c r="W66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -12960,10 +12955,10 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V67">
-        <v>7.3251105160921703E-2</v>
+        <v>4.64106199545012E-3</v>
       </c>
       <c r="W67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -13031,7 +13026,7 @@
         <v>0.86956156976103305</v>
       </c>
       <c r="V68">
-        <v>0.907218165591959</v>
+        <v>0.88846508214714304</v>
       </c>
       <c r="W68" t="s">
         <v>99</v>
@@ -13102,10 +13097,10 @@
         <v>3.2252573018526E-2</v>
       </c>
       <c r="V69">
-        <v>3.7152599930123601E-3</v>
+        <v>6.3405513001338801E-2</v>
       </c>
       <c r="W69" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -13173,7 +13168,7 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V70">
-        <v>2.5180796161609498E-3</v>
+        <v>4.64106199545012E-3</v>
       </c>
       <c r="W70" t="s">
         <v>96</v>
@@ -13244,7 +13239,7 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V71">
-        <v>0.70007327148610499</v>
+        <v>0.45349533176420198</v>
       </c>
       <c r="W71" t="s">
         <v>99</v>
@@ -13315,7 +13310,7 @@
         <v>3.1874782602248102E-7</v>
       </c>
       <c r="V72" s="1">
-        <v>6.9956705811307504E-5</v>
+        <v>1.5769629287427999E-6</v>
       </c>
       <c r="W72" t="s">
         <v>96</v>
@@ -13386,7 +13381,7 @@
         <v>1.8908050454650199E-3</v>
       </c>
       <c r="V73">
-        <v>1.53937419197032E-2</v>
+        <v>4.9371020631586602E-3</v>
       </c>
       <c r="W73" t="s">
         <v>96</v>
@@ -13457,7 +13452,7 @@
         <v>8.3749778648123396E-4</v>
       </c>
       <c r="V74">
-        <v>4.2120554190051798E-2</v>
+        <v>2.6241597309745301E-3</v>
       </c>
       <c r="W74" t="s">
         <v>96</v>
@@ -13528,7 +13523,7 @@
         <v>0.93165815251334005</v>
       </c>
       <c r="V75">
-        <v>0.86311430138909295</v>
+        <v>0.93165815251334005</v>
       </c>
       <c r="W75" t="s">
         <v>99</v>
@@ -13599,7 +13594,7 @@
         <v>0.77521073600485702</v>
       </c>
       <c r="V76">
-        <v>0.86311430138909295</v>
+        <v>0.80966454649396202</v>
       </c>
       <c r="W76" t="s">
         <v>99</v>
@@ -13670,7 +13665,7 @@
         <v>0.36665580014978</v>
       </c>
       <c r="V77">
-        <v>0.15566756662536599</v>
+        <v>0.45349533176420198</v>
       </c>
       <c r="W77" t="s">
         <v>99</v>
@@ -13741,10 +13736,10 @@
         <v>4.7299416074530101E-2</v>
       </c>
       <c r="V78">
-        <v>1.7971571720356301E-2</v>
+        <v>8.3889530396336398E-2</v>
       </c>
       <c r="W78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -13812,10 +13807,10 @@
         <v>3.08384955255224E-2</v>
       </c>
       <c r="V79">
-        <v>5.8770247018255402E-3</v>
+        <v>6.3017795204328403E-2</v>
       </c>
       <c r="W79" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -13883,7 +13878,7 @@
         <v>1.8908050454650199E-3</v>
       </c>
       <c r="V80">
-        <v>2.4869850824582599E-2</v>
+        <v>4.9371020631586602E-3</v>
       </c>
       <c r="W80" t="s">
         <v>96</v>
@@ -13954,7 +13949,7 @@
         <v>2.71542566210314E-10</v>
       </c>
       <c r="V81" s="1">
-        <v>5.5392241441134704E-7</v>
+        <v>1.5586334575931099E-9</v>
       </c>
       <c r="W81" t="s">
         <v>96</v>
@@ -14025,7 +14020,7 @@
         <v>0.12442200504890299</v>
       </c>
       <c r="V82">
-        <v>0.14132956745168601</v>
+        <v>0.190907564496895</v>
       </c>
       <c r="W82" t="s">
         <v>99</v>
@@ -14096,10 +14091,10 @@
         <v>3.3726336702839803E-2</v>
       </c>
       <c r="V83">
-        <v>4.2120554190051798E-2</v>
+        <v>6.3405513001338801E-2</v>
       </c>
       <c r="W83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -14166,8 +14161,8 @@
       <c r="U84">
         <v>0</v>
       </c>
-      <c r="V84" s="1">
-        <v>1.3592403133055299E-6</v>
+      <c r="V84">
+        <v>0</v>
       </c>
       <c r="W84" t="s">
         <v>96</v>
@@ -14238,7 +14233,7 @@
         <v>2.1227464230833001E-13</v>
       </c>
       <c r="V85" s="1">
-        <v>8.2459563889430298E-6</v>
+        <v>1.9953816376983001E-12</v>
       </c>
       <c r="W85" t="s">
         <v>96</v>
@@ -14308,8 +14303,8 @@
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86" s="1">
-        <v>3.1250936175906298E-147</v>
+      <c r="V86">
+        <v>0</v>
       </c>
       <c r="W86" t="s">
         <v>96</v>
@@ -14379,8 +14374,8 @@
       <c r="U87">
         <v>0</v>
       </c>
-      <c r="V87" s="1">
-        <v>5.7480915431838301E-7</v>
+      <c r="V87">
+        <v>0</v>
       </c>
       <c r="W87" t="s">
         <v>96</v>
@@ -14451,7 +14446,7 @@
         <v>0.487350419572256</v>
       </c>
       <c r="V88">
-        <v>0.57036503133037397</v>
+        <v>0.56556715357767995</v>
       </c>
       <c r="W88" t="s">
         <v>99</v>
@@ -14521,8 +14516,8 @@
       <c r="U89">
         <v>0</v>
       </c>
-      <c r="V89" s="1">
-        <v>2.9607811681109701E-5</v>
+      <c r="V89">
+        <v>0</v>
       </c>
       <c r="W89" t="s">
         <v>96</v>
@@ -14592,8 +14587,8 @@
       <c r="U90">
         <v>0</v>
       </c>
-      <c r="V90" s="1">
-        <v>3.7113292634784202E-6</v>
+      <c r="V90">
+        <v>0</v>
       </c>
       <c r="W90" t="s">
         <v>96</v>
@@ -14664,7 +14659,7 @@
         <v>0.50732262205953904</v>
       </c>
       <c r="V91">
-        <v>0.50324554234299901</v>
+        <v>0.57455815028429702</v>
       </c>
       <c r="W91" t="s">
         <v>99</v>
@@ -14735,7 +14730,7 @@
         <v>2.9546788793777101E-2</v>
       </c>
       <c r="V92">
-        <v>5.7391432297415099E-2</v>
+        <v>6.1719958813667701E-2</v>
       </c>
       <c r="W92" t="s">
         <v>99</v>
@@ -14805,8 +14800,8 @@
       <c r="U93">
         <v>0</v>
       </c>
-      <c r="V93" s="1">
-        <v>1.8570904915180999E-7</v>
+      <c r="V93">
+        <v>0</v>
       </c>
       <c r="W93" t="s">
         <v>96</v>
@@ -14876,8 +14871,8 @@
       <c r="U94">
         <v>0</v>
       </c>
-      <c r="V94" s="1">
-        <v>4.2288416588239303E-6</v>
+      <c r="V94">
+        <v>0</v>
       </c>
       <c r="W94" t="s">
         <v>96</v>
@@ -14948,7 +14943,7 @@
         <v>5.5370145872070103E-3</v>
       </c>
       <c r="V95">
-        <v>1.18073349484554E-2</v>
+        <v>1.30119842799365E-2</v>
       </c>
       <c r="W95" t="s">
         <v>96</v>
@@ -15019,14 +15014,14 @@
         <v>5.9487920077744498E-2</v>
       </c>
       <c r="V96">
-        <v>0.11557399269079301</v>
+        <v>0.10167026340559999</v>
       </c>
       <c r="W96" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W96" xr:uid="{93314421-6B74-CA4B-9E36-E4447700ECAA}"/>
+  <autoFilter ref="A2:W96" xr:uid="{CCA65FDB-1D36-244F-87BF-DCDEA8529E14}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15035,9 +15030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F34BB3-4645-EC42-9B7B-4CECB005AF38}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -15286,9 +15279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCCABA9-0641-D34E-8CD0-6F36D461AB8A}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -15865,9 +15856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB844F6-A734-F648-BB7C-ACDDB276A897}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -17606,9 +17595,9 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4360" activePane="topRight"/>
+      <pane xSplit="4360" topLeftCell="D1" activePane="topRight"/>
       <selection activeCell="A6" sqref="A6:XFD6"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+      <selection pane="topRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22314,15 +22303,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1055346C-FAA6-6843-8287-16719F05438F}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22408,7 +22395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -22494,7 +22481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -22580,7 +22567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -22666,7 +22653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -22752,7 +22739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -22838,7 +22825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -22924,7 +22911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -23010,7 +22997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -23095,8 +23082,11 @@
       <c r="AB9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AF9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -23182,7 +23172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -23268,7 +23258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -23354,7 +23344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -23440,7 +23430,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -23526,7 +23516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -23612,7 +23602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -24568,9 +24558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB42479-CD39-374A-B9E0-4289CEF577FC}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -28368,9 +28356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F791E0-BD9C-AB40-B780-ED98BFFCCD1B}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/lo_et_al/Raw_output_and_evaluation.xlsx
+++ b/lo_et_al/Raw_output_and_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rg9/rg9_documents/GPS/trumps/LID_GPSC/Submission/Github/Paper2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E38700-D891-D04B-BA18-878341942D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5FE795-CD7B-C34A-BE94-7A351C876D69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="103">
   <si>
     <t>Country</t>
   </si>
@@ -866,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -981,6 +981,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1026,7 +1035,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1053,6 +1062,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2041,19 +2051,19 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R3">
-        <v>1.40155658392932</v>
+        <v>0.62291403730192096</v>
       </c>
       <c r="S3">
-        <v>0.332363332383601</v>
+        <v>0.182448466091961</v>
       </c>
       <c r="T3">
-        <v>6.7526194648795004</v>
+        <v>1.9595854359532401</v>
       </c>
       <c r="U3">
-        <v>0.59925919991353205</v>
+        <v>0.36466447280367498</v>
       </c>
       <c r="V3">
-        <v>0.66752923534671904</v>
+        <v>0.44457677422578201</v>
       </c>
       <c r="W3" t="s">
         <v>99</v>
@@ -2112,22 +2122,22 @@
         <v>6.7311737484223997</v>
       </c>
       <c r="R4">
-        <v>1.75881610532307</v>
+        <v>8.4942823268443796E-2</v>
       </c>
       <c r="S4">
-        <v>0.94797212341522596</v>
+        <v>1.9734333082563498E-3</v>
       </c>
       <c r="T4">
-        <v>3.3769623718421902</v>
+        <v>0.58442808511901301</v>
       </c>
       <c r="U4">
-        <v>5.6596992909847502E-2</v>
+        <v>2.6471726186782E-3</v>
       </c>
       <c r="V4">
-        <v>0.103761153668054</v>
+        <v>8.6278218682845007E-3</v>
       </c>
       <c r="W4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2183,19 +2193,19 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R5">
-        <v>0.62291403730192096</v>
+        <v>0.13348157942184</v>
       </c>
       <c r="S5">
-        <v>0.182448466091961</v>
+        <v>2.9617124047933599E-3</v>
       </c>
       <c r="T5">
-        <v>1.9595854359532401</v>
+        <v>1.0389977722552599</v>
       </c>
       <c r="U5">
-        <v>0.36466447280367498</v>
+        <v>2.65173728390562E-2</v>
       </c>
       <c r="V5">
-        <v>0.450751451645584</v>
+        <v>5.8338220245923597E-2</v>
       </c>
       <c r="W5" t="s">
         <v>99</v>
@@ -2254,22 +2264,22 @@
         <v>2.5241901556583901</v>
       </c>
       <c r="R6">
-        <v>0.50965693961066305</v>
+        <v>0.103819006216987</v>
       </c>
       <c r="S6">
-        <v>0.22989425389351401</v>
+        <v>2.3686198459711102E-3</v>
       </c>
       <c r="T6">
-        <v>1.0755202087920599</v>
+        <v>0.74922928744727302</v>
       </c>
       <c r="U6">
-        <v>5.5635121041307502E-2</v>
+        <v>8.3245418602315695E-3</v>
       </c>
       <c r="V6">
-        <v>0.103761153668054</v>
+        <v>2.15458730500111E-2</v>
       </c>
       <c r="W6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2325,19 +2335,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>95</v>
+        <v>1.75881610532307</v>
+      </c>
+      <c r="S7">
+        <v>0.94797212341522596</v>
       </c>
       <c r="T7">
-        <v>7.9822180507560306E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3.9317438194075302E-12</v>
-      </c>
-      <c r="V7" s="1">
-        <v>3.84437173453181E-11</v>
+        <v>3.3769623718421902</v>
+      </c>
+      <c r="U7">
+        <v>5.6596992909847502E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.105968837788651</v>
       </c>
       <c r="W7" t="s">
         <v>96</v>
@@ -2396,19 +2406,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>95</v>
+        <v>9.34371055952882E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.1530428807860201E-3</v>
       </c>
       <c r="T8">
-        <v>0.473380585883238</v>
+        <v>0.656805886022375</v>
       </c>
       <c r="U8">
-        <v>1.9121140352708101E-3</v>
+        <v>4.6878162138219697E-3</v>
       </c>
       <c r="V8">
-        <v>5.9087525490893102E-3</v>
+        <v>1.37509275605444E-2</v>
       </c>
       <c r="W8" t="s">
         <v>97</v>
@@ -2467,19 +2477,19 @@
         <v>4.83803113167858</v>
       </c>
       <c r="R9">
-        <v>0.97684246758710402</v>
+        <v>0.50965693961066305</v>
       </c>
       <c r="S9">
-        <v>0.52044726845266898</v>
+        <v>0.22989425389351401</v>
       </c>
       <c r="T9">
-        <v>1.83796572162088</v>
+        <v>1.0755202087920599</v>
       </c>
       <c r="U9">
-        <v>0.93737729390381996</v>
+        <v>5.5635121041307502E-2</v>
       </c>
       <c r="V9">
-        <v>0.95917676585507206</v>
+        <v>0.105968837788651</v>
       </c>
       <c r="W9" t="s">
         <v>99</v>
@@ -2538,22 +2548,22 @@
         <v>0.63104753891459997</v>
       </c>
       <c r="R10">
-        <v>0.70077829196466102</v>
+        <v>2.0312414259845299E-2</v>
       </c>
       <c r="S10">
-        <v>0.102653250831634</v>
+        <v>5.0345956712404103E-4</v>
       </c>
       <c r="T10">
-        <v>4.1423097239688902</v>
-      </c>
-      <c r="U10">
-        <v>0.63978701350407696</v>
-      </c>
-      <c r="V10">
-        <v>0.70376571485448502</v>
+        <v>0.11896090733056899</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.04436459480439E-11</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.0211564926976301E-10</v>
       </c>
       <c r="W10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2609,19 +2619,19 @@
         <v>4.8380311316785898</v>
       </c>
       <c r="R11">
-        <v>5.3726335717290699</v>
+        <v>0.70077829196466102</v>
       </c>
       <c r="S11">
-        <v>1.83568812567408</v>
+        <v>0.102653250831634</v>
       </c>
       <c r="T11">
-        <v>21.372364015014</v>
+        <v>4.1423097239688902</v>
       </c>
       <c r="U11">
-        <v>4.9728665761439295E-4</v>
+        <v>0.63978701350407696</v>
       </c>
       <c r="V11">
-        <v>2.0502298446043398E-3</v>
+        <v>0.70376571485448502</v>
       </c>
       <c r="W11" t="s">
         <v>97</v>
@@ -2680,19 +2690,19 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>95</v>
+        <v>1.40155658392932</v>
+      </c>
+      <c r="S12">
+        <v>0.332363332383601</v>
       </c>
       <c r="T12">
-        <v>0.212521436001712</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1.13839028472729E-5</v>
-      </c>
-      <c r="V12" s="1">
-        <v>7.7060265427693494E-5</v>
+        <v>6.7526194648795004</v>
+      </c>
+      <c r="U12">
+        <v>0.59925919991353205</v>
+      </c>
+      <c r="V12">
+        <v>0.66752923534671904</v>
       </c>
       <c r="W12" t="s">
         <v>96</v>
@@ -2751,19 +2761,19 @@
         <v>0.63104753891459897</v>
       </c>
       <c r="R13">
-        <v>0.93437105595288195</v>
+        <v>0.18687421119057601</v>
       </c>
       <c r="S13">
-        <v>0.12514740569740801</v>
+        <v>3.9510345956013599E-3</v>
       </c>
       <c r="T13">
-        <v>6.9761675468801601</v>
+        <v>1.6700356155218099</v>
       </c>
       <c r="U13">
-        <v>0.93372957699986303</v>
+        <v>8.5964258320908093E-2</v>
       </c>
       <c r="V13">
-        <v>0.95917676585507206</v>
+        <v>0.15438479045387599</v>
       </c>
       <c r="W13" t="s">
         <v>99</v>
@@ -2822,19 +2832,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>95</v>
+        <v>0.23359276398821999</v>
+      </c>
+      <c r="S14">
+        <v>7.8097262097688497E-2</v>
       </c>
       <c r="T14">
-        <v>1.0196596098487301</v>
+        <v>0.58657981629839695</v>
       </c>
       <c r="U14">
-        <v>2.07084650053092E-2</v>
+        <v>5.1255746115108603E-4</v>
       </c>
       <c r="V14">
-        <v>4.49106622259101E-2</v>
+        <v>2.1478598372045498E-3</v>
       </c>
       <c r="W14" t="s">
         <v>97</v>
@@ -2893,19 +2903,19 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>95</v>
+        <v>1.8687421119057599</v>
+      </c>
+      <c r="S15">
+        <v>0.39910184763057699</v>
       </c>
       <c r="T15">
-        <v>0.64827970121759404</v>
+        <v>11.5481038187691</v>
       </c>
       <c r="U15">
-        <v>6.1987131981785498E-3</v>
+        <v>0.36879664225547798</v>
       </c>
       <c r="V15">
-        <v>1.5585336041134599E-2</v>
+        <v>0.44457677422578201</v>
       </c>
       <c r="W15" t="s">
         <v>97</v>
@@ -2964,19 +2974,19 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>95</v>
+        <v>0.97684246758710402</v>
+      </c>
+      <c r="S16">
+        <v>0.52044726845266898</v>
       </c>
       <c r="T16">
-        <v>1.0196596098487301</v>
+        <v>1.83796572162088</v>
       </c>
       <c r="U16">
-        <v>2.07084650053092E-2</v>
+        <v>0.93737729390381996</v>
       </c>
       <c r="V16">
-        <v>4.49106622259101E-2</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W16" t="s">
         <v>97</v>
@@ -3035,22 +3045,22 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R17">
-        <v>1.8687421119057599</v>
+        <v>4.9177423997520099E-2</v>
       </c>
       <c r="S17">
-        <v>0.39910184763057699</v>
+        <v>1.18356031980504E-3</v>
       </c>
       <c r="T17">
-        <v>11.5481038187691</v>
-      </c>
-      <c r="U17">
-        <v>0.36879664225547798</v>
+        <v>0.30935555643145002</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.9278122047338198E-5</v>
       </c>
       <c r="V17">
-        <v>0.450751451645584</v>
+        <v>1.98190364628135E-4</v>
       </c>
       <c r="W17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3106,19 +3116,19 @@
         <v>4.2069835927639696</v>
       </c>
       <c r="R18">
-        <v>3.11457018650961</v>
+        <v>0.103819006216987</v>
       </c>
       <c r="S18">
-        <v>1.2063491420618899</v>
+        <v>2.3686198459711102E-3</v>
       </c>
       <c r="T18">
-        <v>9.4775957528989707</v>
+        <v>0.74922928744727302</v>
       </c>
       <c r="U18">
-        <v>1.00508711944973E-2</v>
+        <v>8.3245418602315695E-3</v>
       </c>
       <c r="V18">
-        <v>2.3904774732858399E-2</v>
+        <v>2.15458730500111E-2</v>
       </c>
       <c r="W18" t="s">
         <v>97</v>
@@ -3177,19 +3187,19 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R19">
-        <v>2.8031131678586498</v>
+        <v>0.15572850932547999</v>
       </c>
       <c r="S19">
-        <v>0.50123275056440297</v>
+        <v>3.3855798394273702E-3</v>
       </c>
       <c r="T19">
-        <v>28.3985317495288</v>
+        <v>1.28357934956395</v>
       </c>
       <c r="U19">
-        <v>0.18716741282034599</v>
+        <v>4.7622763207034097E-2</v>
       </c>
       <c r="V19">
-        <v>0.28189566412969203</v>
+        <v>9.5245526414068193E-2</v>
       </c>
       <c r="W19" t="s">
         <v>99</v>
@@ -3248,19 +3258,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>95</v>
+        <v>3.11457018650961</v>
+      </c>
+      <c r="S20">
+        <v>1.2063491420618899</v>
       </c>
       <c r="T20">
-        <v>0.473380585883238</v>
+        <v>9.4775957528989707</v>
       </c>
       <c r="U20">
-        <v>1.9121140352708101E-3</v>
+        <v>1.00508711944973E-2</v>
       </c>
       <c r="V20">
-        <v>5.9087525490893102E-3</v>
+        <v>2.4568796253215602E-2</v>
       </c>
       <c r="W20" t="s">
         <v>97</v>
@@ -3319,22 +3329,22 @@
         <v>0.63104753891460097</v>
       </c>
       <c r="R21">
-        <v>0.93437105595288195</v>
+        <v>9.34371055952882E-2</v>
       </c>
       <c r="S21">
-        <v>0.12514740569740801</v>
+        <v>2.1530428807860201E-3</v>
       </c>
       <c r="T21">
-        <v>6.9761675468801601</v>
+        <v>0.656805886022375</v>
       </c>
       <c r="U21">
-        <v>0.93372957699986303</v>
+        <v>4.6878162138219697E-3</v>
       </c>
       <c r="V21">
-        <v>0.95917676585507206</v>
+        <v>1.37509275605444E-2</v>
       </c>
       <c r="W21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3390,19 +3400,19 @@
         <v>1.2620950778291999</v>
       </c>
       <c r="R22">
-        <v>0.23359276398821999</v>
+        <v>0.93437105595288195</v>
       </c>
       <c r="S22">
-        <v>7.8097262097688497E-2</v>
+        <v>0.12514740569740801</v>
       </c>
       <c r="T22">
-        <v>0.58657981629839695</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U22">
-        <v>5.1255746115108603E-4</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V22">
-        <v>2.0502298446043398E-3</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W22" t="s">
         <v>97</v>
@@ -3461,19 +3471,19 @@
         <v>1.2620950778291899</v>
       </c>
       <c r="R23">
-        <v>1.8687421119057599</v>
+        <v>2.1023348758939799</v>
       </c>
       <c r="S23">
-        <v>0.39910184763057699</v>
+        <v>0.58675766513616301</v>
       </c>
       <c r="T23">
-        <v>11.5481038187691</v>
+        <v>9.3424327387332298</v>
       </c>
       <c r="U23">
-        <v>0.36879664225547798</v>
+        <v>0.20582052907013099</v>
       </c>
       <c r="V23">
-        <v>0.450751451645584</v>
+        <v>0.30187010930285901</v>
       </c>
       <c r="W23" t="s">
         <v>99</v>
@@ -3532,19 +3542,19 @@
         <v>1.8931426167437999</v>
       </c>
       <c r="R24">
-        <v>2.1023348758939799</v>
+        <v>0.93437105595288195</v>
       </c>
       <c r="S24">
-        <v>0.58675766513616301</v>
+        <v>0.12514740569740801</v>
       </c>
       <c r="T24">
-        <v>9.3424327387332298</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U24">
-        <v>0.20582052907013099</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V24">
-        <v>0.296921418986418</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W24" t="s">
         <v>99</v>
@@ -3603,19 +3613,19 @@
         <v>0.21034917963819999</v>
       </c>
       <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>95</v>
+        <v>1.8687421119057599</v>
+      </c>
+      <c r="S25">
+        <v>0.39910184763057699</v>
       </c>
       <c r="T25">
-        <v>0.54738556246521597</v>
+        <v>11.5481038187691</v>
       </c>
       <c r="U25">
-        <v>3.4328430573733501E-3</v>
+        <v>0.36879664225547798</v>
       </c>
       <c r="V25">
-        <v>9.5568898030902408E-3</v>
+        <v>0.44457677422578201</v>
       </c>
       <c r="W25" t="s">
         <v>96</v>
@@ -3674,19 +3684,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>95</v>
+        <v>5.3726335717290699</v>
+      </c>
+      <c r="S26">
+        <v>1.83568812567408</v>
       </c>
       <c r="T26">
-        <v>0.79357179744819295</v>
+        <v>21.372364015014</v>
       </c>
       <c r="U26">
-        <v>1.12754067716968E-2</v>
+        <v>4.9728665761439295E-4</v>
       </c>
       <c r="V26">
-        <v>2.6111468313403101E-2</v>
+        <v>2.1478598372045498E-3</v>
       </c>
       <c r="W26" t="s">
         <v>97</v>
@@ -3745,19 +3755,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>95</v>
+        <v>2.8031131678586498</v>
+      </c>
+      <c r="S27">
+        <v>0.50123275056440297</v>
       </c>
       <c r="T27">
-        <v>0.416846800859766</v>
+        <v>28.3985317495288</v>
       </c>
       <c r="U27">
-        <v>1.0700464031124801E-3</v>
+        <v>0.18716741282034599</v>
       </c>
       <c r="V27">
-        <v>3.6903830331597499E-3</v>
+        <v>0.29178674006406702</v>
       </c>
       <c r="W27" t="s">
         <v>97</v>
@@ -3816,19 +3826,19 @@
         <v>0.21034917963819899</v>
       </c>
       <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>95</v>
+        <v>0.93437105595288195</v>
+      </c>
+      <c r="S28">
+        <v>0.12514740569740801</v>
       </c>
       <c r="T28">
-        <v>1.4154477470137099</v>
+        <v>6.9761675468801601</v>
       </c>
       <c r="U28">
-        <v>3.8542150189435201E-2</v>
+        <v>0.93372957699986303</v>
       </c>
       <c r="V28">
-        <v>7.3732809058050006E-2</v>
+        <v>0.95917676585507206</v>
       </c>
       <c r="W28" t="s">
         <v>99</v>
@@ -3887,19 +3897,19 @@
         <v>0.63104753891460097</v>
       </c>
       <c r="R29">
-        <v>0.93437105595288195</v>
+        <v>0.15572850932547999</v>
       </c>
       <c r="S29">
-        <v>0.12514740569740801</v>
+        <v>3.3855798394273702E-3</v>
       </c>
       <c r="T29">
-        <v>6.9761675468801601</v>
+        <v>1.28357934956395</v>
       </c>
       <c r="U29">
-        <v>0.93372957699986303</v>
+        <v>4.7622763207034097E-2</v>
       </c>
       <c r="V29">
-        <v>0.95917676585507206</v>
+        <v>9.5245526414068193E-2</v>
       </c>
       <c r="W29" t="s">
         <v>99</v>
@@ -3958,19 +3968,19 @@
         <v>0.40609420414730601</v>
       </c>
       <c r="R30">
-        <v>0.36185816240333601</v>
+        <v>2.2949782489266899</v>
       </c>
       <c r="S30">
-        <v>0.17568700578920299</v>
+        <v>1.3876185508449499</v>
       </c>
       <c r="T30">
-        <v>0.701020853825012</v>
+        <v>3.9663379101299299</v>
       </c>
       <c r="U30">
-        <v>1.0903404416153801E-3</v>
+        <v>6.7055194193688095E-4</v>
       </c>
       <c r="V30">
-        <v>3.6903830331597499E-3</v>
+        <v>2.5655900387150199E-3</v>
       </c>
       <c r="W30" t="s">
         <v>96</v>
@@ -4029,19 +4039,19 @@
         <v>0.67077053345232296</v>
       </c>
       <c r="R31">
-        <v>0.38601705278149701</v>
+        <v>0.181182493336318</v>
       </c>
       <c r="S31">
-        <v>0.221161274885009</v>
+        <v>3.2041514258235503E-2</v>
       </c>
       <c r="T31">
-        <v>0.65089844117600104</v>
+        <v>0.70366364960015304</v>
       </c>
       <c r="U31">
-        <v>1.26847361269222E-4</v>
+        <v>3.4752326556691799E-3</v>
       </c>
       <c r="V31">
-        <v>6.9766048698072095E-4</v>
+        <v>1.09221597749603E-2</v>
       </c>
       <c r="W31" t="s">
         <v>96</v>
@@ -4100,22 +4110,22 @@
         <v>0.56167698913014497</v>
       </c>
       <c r="R32">
-        <v>0.64948900944188404</v>
+        <v>0.20131388148479701</v>
       </c>
       <c r="S32">
-        <v>0.33693998325069202</v>
+        <v>7.2295113829205601E-2</v>
       </c>
       <c r="T32">
-        <v>1.2233839433221201</v>
-      </c>
-      <c r="U32">
-        <v>0.15291550403760801</v>
+        <v>0.491575445819603</v>
+      </c>
+      <c r="U32" s="1">
+        <v>4.5301282172505202E-5</v>
       </c>
       <c r="V32">
-        <v>0.24029579205909801</v>
+        <v>2.8475091651289E-4</v>
       </c>
       <c r="W32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -4171,19 +4181,19 @@
         <v>0.40711572436664001</v>
       </c>
       <c r="R33">
-        <v>0.31662589210291903</v>
+        <v>1.57024827558142</v>
       </c>
       <c r="S33">
-        <v>0.15537961364998101</v>
+        <v>0.52533925449660202</v>
       </c>
       <c r="T33">
-        <v>0.60430251639841104</v>
+        <v>5.6255225123088302</v>
       </c>
       <c r="U33">
-        <v>1.4234447986483101E-4</v>
+        <v>0.38716738865195199</v>
       </c>
       <c r="V33">
-        <v>7.3684201341794897E-4</v>
+        <v>0.46041527299151103</v>
       </c>
       <c r="W33" t="s">
         <v>97</v>
@@ -4242,19 +4252,19 @@
         <v>6.2433940399758601E-2</v>
       </c>
       <c r="R34">
-        <v>0.389693405665131</v>
+        <v>1.44945994669054</v>
       </c>
       <c r="S34">
-        <v>3.7108742686100898E-2</v>
+        <v>0.47532979158780803</v>
       </c>
       <c r="T34">
-        <v>2.3803240807210102</v>
+        <v>5.2518651369600997</v>
       </c>
       <c r="U34">
-        <v>0.242595860820561</v>
+        <v>0.483082059174476</v>
       </c>
       <c r="V34">
-        <v>0.33886405955887899</v>
+        <v>0.55788276070454301</v>
       </c>
       <c r="W34" t="s">
         <v>99</v>
@@ -4313,19 +4323,19 @@
         <v>0.42142897743639801</v>
       </c>
       <c r="R35">
-        <v>1.4072261871240801</v>
+        <v>0.70459858519679097</v>
       </c>
       <c r="S35">
-        <v>0.55648981588924895</v>
+        <v>0.44065462213075202</v>
       </c>
       <c r="T35">
-        <v>3.73009225032061</v>
+        <v>1.13188475903014</v>
       </c>
       <c r="U35">
-        <v>0.42856333161425098</v>
+        <v>0.12128785014341301</v>
       </c>
       <c r="V35">
-        <v>0.502847642427388</v>
+        <v>0.20928099632588901</v>
       </c>
       <c r="W35" t="s">
         <v>99</v>
@@ -4384,19 +4394,19 @@
         <v>0.40626488231111502</v>
       </c>
       <c r="R36">
-        <v>0.60309693733889302</v>
+        <v>0.60394164445439202</v>
       </c>
       <c r="S36">
-        <v>0.27745637890644398</v>
+        <v>0.22560049687636799</v>
       </c>
       <c r="T36">
-        <v>1.2620950110797799</v>
+        <v>1.6167761815975099</v>
       </c>
       <c r="U36">
-        <v>0.14755829458710701</v>
+        <v>0.25446199421759302</v>
       </c>
       <c r="V36">
-        <v>0.236093271339371</v>
+        <v>0.35543897604997099</v>
       </c>
       <c r="W36" t="s">
         <v>99</v>
@@ -4455,19 +4465,19 @@
         <v>0.905292087809624</v>
       </c>
       <c r="R37">
-        <v>0.39239960987113798</v>
+        <v>6.9021902223359105E-2</v>
       </c>
       <c r="S37">
-        <v>0.24577732016397399</v>
+        <v>2.8677213687525901E-2</v>
       </c>
       <c r="T37">
-        <v>0.61166387229947305</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1.0329200590963901E-5</v>
-      </c>
-      <c r="V37" s="1">
-        <v>7.5747471000401894E-5</v>
+        <v>0.14362881081132001</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
       </c>
       <c r="W37" t="s">
         <v>96</v>
@@ -4526,19 +4536,19 @@
         <v>4.6708173728254601E-2</v>
       </c>
       <c r="R38">
-        <v>6.9588108154487599E-2</v>
+        <v>0.81532122001342899</v>
       </c>
       <c r="S38">
-        <v>1.6457523068836701E-3</v>
+        <v>0.44055111453877899</v>
       </c>
       <c r="T38">
-        <v>0.45737768275637802</v>
+        <v>1.5333071601502199</v>
       </c>
       <c r="U38">
-        <v>6.55802598865884E-4</v>
+        <v>0.48814741561647501</v>
       </c>
       <c r="V38">
-        <v>2.45869045376856E-3</v>
+        <v>0.55788276070454301</v>
       </c>
       <c r="W38" t="s">
         <v>97</v>
@@ -4597,19 +4607,19 @@
         <v>0.68711390670518302</v>
       </c>
       <c r="R39">
-        <v>0.40439881719966397</v>
+        <v>8.05255525939189E-2</v>
       </c>
       <c r="S39">
-        <v>0.23420698929211101</v>
+        <v>3.3251103673822502E-2</v>
       </c>
       <c r="T39">
-        <v>0.67640360752165396</v>
+        <v>0.169071112981587</v>
       </c>
       <c r="U39">
-        <v>2.2171785719982099E-4</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1.02690375966233E-3</v>
+        <v>0</v>
       </c>
       <c r="W39" t="s">
         <v>96</v>
@@ -4668,19 +4678,19 @@
         <v>0.84285815071927295</v>
       </c>
       <c r="R40">
-        <v>0.33296588458729498</v>
+        <v>1.50985411113598E-2</v>
       </c>
       <c r="S40">
-        <v>0.20672877452042601</v>
+        <v>5.4862001778194702E-3</v>
       </c>
       <c r="T40">
-        <v>0.521259003555814</v>
-      </c>
-      <c r="U40" s="1">
-        <v>2.1548652517910901E-7</v>
-      </c>
-      <c r="V40" s="1">
-        <v>1.7238922014328699E-6</v>
+        <v>3.3348515503648701E-2</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
       </c>
       <c r="W40" t="s">
         <v>96</v>
@@ -4739,19 +4749,19 @@
         <v>1.9038109409856601</v>
       </c>
       <c r="R41">
-        <v>0.81408553923195104</v>
+        <v>2.5365549067084499</v>
       </c>
       <c r="S41">
-        <v>0.56976711711393602</v>
+        <v>0.93083131697531196</v>
       </c>
       <c r="T41">
-        <v>1.15967133456085</v>
+        <v>8.6097741452658294</v>
       </c>
       <c r="U41">
-        <v>0.23490772510326099</v>
+        <v>5.2526454844059302E-2</v>
       </c>
       <c r="V41">
-        <v>0.33341741627559601</v>
+        <v>0.102718400583938</v>
       </c>
       <c r="W41" t="s">
         <v>99</v>
@@ -4810,19 +4820,19 @@
         <v>0.40712027061407502</v>
       </c>
       <c r="R42">
-        <v>0.30890330936870097</v>
+        <v>3.6236498667263501</v>
       </c>
       <c r="S42">
-        <v>0.15187019953721101</v>
+        <v>0.439634364836479</v>
       </c>
       <c r="T42">
-        <v>0.58805274250363304</v>
-      </c>
-      <c r="U42" s="1">
-        <v>9.3626794783530101E-5</v>
+        <v>166.679156548321</v>
+      </c>
+      <c r="U42">
+        <v>0.20194709385645501</v>
       </c>
       <c r="V42">
-        <v>5.4927719606337705E-4</v>
+        <v>0.30187010930285901</v>
       </c>
       <c r="W42" t="s">
         <v>97</v>
@@ -4881,22 +4891,22 @@
         <v>0.59449332418291101</v>
       </c>
       <c r="R43">
-        <v>0.61701455896978996</v>
+        <v>0.120788328890878</v>
       </c>
       <c r="S43">
-        <v>0.32817327778399402</v>
+        <v>2.5537973546603601E-3</v>
       </c>
       <c r="T43">
-        <v>1.1327389866912301</v>
+        <v>1.0794470242949199</v>
       </c>
       <c r="U43">
-        <v>9.6327762514130402E-2</v>
+        <v>2.0924285809798999E-2</v>
       </c>
       <c r="V43">
-        <v>0.16621260982830299</v>
+        <v>4.8456240822692398E-2</v>
       </c>
       <c r="W43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4952,19 +4962,19 @@
         <v>0.15608484272579001</v>
       </c>
       <c r="R44">
-        <v>0.974233514162826</v>
+        <v>1.44945994669054</v>
       </c>
       <c r="S44">
-        <v>0.22421250627168199</v>
+        <v>0.47532979158780803</v>
       </c>
       <c r="T44">
-        <v>4.2331757309200801</v>
+        <v>5.2518651369600997</v>
       </c>
       <c r="U44">
-        <v>0.96707619059757799</v>
+        <v>0.483082059174476</v>
       </c>
       <c r="V44">
-        <v>0.96707619059757799</v>
+        <v>0.55788276070454301</v>
       </c>
       <c r="W44" t="s">
         <v>99</v>
@@ -5023,19 +5033,19 @@
         <v>0.29656120117900298</v>
       </c>
       <c r="R45">
-        <v>0.41752864892692598</v>
+        <v>7.2472997334527003</v>
       </c>
       <c r="S45">
-        <v>0.16835490115334201</v>
+        <v>1.07228911751417</v>
       </c>
       <c r="T45">
-        <v>0.95097332478267105</v>
+        <v>309.8055971128</v>
       </c>
       <c r="U45">
-        <v>2.3662646890871299E-2</v>
+        <v>2.5775633115687601E-2</v>
       </c>
       <c r="V45">
-        <v>4.9578879199920801E-2</v>
+        <v>5.8160402927705399E-2</v>
       </c>
       <c r="W45" t="s">
         <v>96</v>
@@ -5093,20 +5103,20 @@
       <c r="Q46">
         <v>0.28095271690663898</v>
       </c>
-      <c r="R46" t="s">
-        <v>94</v>
+      <c r="R46">
+        <v>0.96630663112702697</v>
       </c>
       <c r="S46">
-        <v>1.6629879554611999</v>
-      </c>
-      <c r="T46" t="s">
-        <v>95</v>
+        <v>0.27872698350421299</v>
+      </c>
+      <c r="T46">
+        <v>3.7541513388948902</v>
       </c>
       <c r="U46">
-        <v>5.2424119956481201E-3</v>
+        <v>0.95205732014469802</v>
       </c>
       <c r="V46">
-        <v>1.35685957534422E-2</v>
+        <v>0.96300050773256796</v>
       </c>
       <c r="W46" t="s">
         <v>96</v>
@@ -5165,22 +5175,22 @@
         <v>0.20291029468081501</v>
       </c>
       <c r="R47">
-        <v>1.16908021699539</v>
+        <v>0.12640639069975601</v>
       </c>
       <c r="S47">
-        <v>0.297269192140172</v>
+        <v>7.15510179658225E-2</v>
       </c>
       <c r="T47">
-        <v>4.8424994280142997</v>
+        <v>0.21183578245006299</v>
       </c>
       <c r="U47">
-        <v>0.79621662496408496</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0.86502546909678402</v>
+        <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -5236,19 +5246,19 @@
         <v>0.23412729680819699</v>
       </c>
       <c r="R48">
-        <v>1.7049086497849499</v>
+        <v>3.01970822227196</v>
       </c>
       <c r="S48">
-        <v>0.433424557339949</v>
+        <v>0.337900333871892</v>
       </c>
       <c r="T48">
-        <v>7.9421385139403302</v>
+        <v>142.82476612354</v>
       </c>
       <c r="U48">
-        <v>0.38906176999457898</v>
+        <v>0.28869032235183401</v>
       </c>
       <c r="V48">
-        <v>0.46266805080436402</v>
+        <v>0.37874262951260901</v>
       </c>
       <c r="W48" t="s">
         <v>99</v>
@@ -5307,22 +5317,22 @@
         <v>0.156290383441065</v>
       </c>
       <c r="R49">
-        <v>2.4355837854070699</v>
+        <v>8.9472836215465507E-2</v>
       </c>
       <c r="S49">
-        <v>0.39874021684919297</v>
+        <v>4.4403333087612497E-2</v>
       </c>
       <c r="T49">
-        <v>25.577016934975401</v>
+        <v>0.16496835162147</v>
       </c>
       <c r="U49">
-        <v>0.27156933082407297</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0.36209244109876398</v>
+        <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5378,19 +5388,19 @@
         <v>0.56344061799031198</v>
       </c>
       <c r="R50">
-        <v>0.389693405665131</v>
-      </c>
-      <c r="S50">
-        <v>0.212306698983315</v>
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>95</v>
       </c>
       <c r="T50">
-        <v>0.68675332012814605</v>
-      </c>
-      <c r="U50">
-        <v>4.5565917337841999E-4</v>
-      </c>
-      <c r="V50">
-        <v>2.0049003628650501E-3</v>
+        <v>6.5167004429692005E-2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1.15463194561016E-14</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1.4515373030527699E-13</v>
       </c>
       <c r="W50" t="s">
         <v>97</v>
@@ -5449,22 +5459,22 @@
         <v>0.187095610343014</v>
       </c>
       <c r="R51">
-        <v>1.94846702832565</v>
+        <v>1.9801365391947299E-2</v>
       </c>
       <c r="S51">
-        <v>0.41612846743148801</v>
+        <v>7.1730346628613197E-3</v>
       </c>
       <c r="T51">
-        <v>12.040772981568001</v>
+        <v>4.3935114582486799E-2</v>
       </c>
       <c r="U51">
-        <v>0.33658887105069801</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>0.42927276307915102</v>
+        <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5520,22 +5530,22 @@
         <v>1.1562620455063799</v>
       </c>
       <c r="R52">
-        <v>0.750971667167179</v>
+        <v>0.12941606666879801</v>
       </c>
       <c r="S52">
-        <v>0.475523519869129</v>
+        <v>6.3139212625327706E-2</v>
       </c>
       <c r="T52">
-        <v>1.1774681865696901</v>
-      </c>
-      <c r="U52">
-        <v>0.18899822935968</v>
-      </c>
-      <c r="V52">
-        <v>0.28189566412969203</v>
+        <v>0.24425864488823301</v>
+      </c>
+      <c r="U52" s="1">
+        <v>2.7977620220553901E-14</v>
+      </c>
+      <c r="V52" s="1">
+        <v>3.0775382242609299E-13</v>
       </c>
       <c r="W52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5591,19 +5601,19 @@
         <v>0.109289753907265</v>
       </c>
       <c r="R53">
-        <v>0.194846702832565</v>
+        <v>0.362364986672635</v>
       </c>
       <c r="S53">
-        <v>3.6156905139994103E-2</v>
+        <v>5.6272287479725201E-2</v>
       </c>
       <c r="T53">
-        <v>0.68878472063044105</v>
+        <v>1.86250330965547</v>
       </c>
       <c r="U53">
-        <v>3.9260771330410496E-3</v>
+        <v>0.14693697734225</v>
       </c>
       <c r="V53">
-        <v>1.0469539021442801E-2</v>
+        <v>0.245002451389914</v>
       </c>
       <c r="W53" t="s">
         <v>97</v>
@@ -5662,22 +5672,22 @@
         <v>7.7903234193081594E-2</v>
       </c>
       <c r="R54">
-        <v>0.26570004931713498</v>
+        <v>0.172554755558398</v>
       </c>
       <c r="S54">
-        <v>4.7596095565947301E-2</v>
+        <v>4.1358615022623398E-2</v>
       </c>
       <c r="T54">
-        <v>1.0058180172709199</v>
+        <v>0.54943924358103302</v>
       </c>
       <c r="U54">
-        <v>2.87346714799325E-2</v>
+        <v>4.4236859000934499E-4</v>
       </c>
       <c r="V54">
-        <v>5.8805839307768802E-2</v>
+        <v>2.0488650484643302E-3</v>
       </c>
       <c r="W54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5733,19 +5743,19 @@
         <v>0.18730181127104301</v>
       </c>
       <c r="R55">
-        <v>0.584540108497696</v>
+        <v>1.12160591112959</v>
       </c>
       <c r="S55">
-        <v>0.17460464559314601</v>
+        <v>0.56457557613389797</v>
       </c>
       <c r="T55">
-        <v>1.77515057621831</v>
+        <v>2.3237990566832201</v>
       </c>
       <c r="U55">
-        <v>0.292664759168834</v>
+        <v>0.72905826522787098</v>
       </c>
       <c r="V55">
-        <v>0.38439550457996102</v>
+        <v>0.79206330049447704</v>
       </c>
       <c r="W55" t="s">
         <v>99</v>
@@ -5804,19 +5814,19 @@
         <v>0.171693342261654</v>
       </c>
       <c r="R56">
-        <v>0.34794054077243802</v>
+        <v>0.54124084120157001</v>
       </c>
       <c r="S56">
-        <v>9.8079996962140897E-2</v>
+        <v>0.14249248394094399</v>
       </c>
       <c r="T56">
-        <v>1.0222666951650501</v>
+        <v>1.7983580034815101</v>
       </c>
       <c r="U56">
-        <v>3.3853799417329397E-2</v>
+        <v>0.263578627247186</v>
       </c>
       <c r="V56">
-        <v>6.6202985527221897E-2</v>
+        <v>0.36171912954355301</v>
       </c>
       <c r="W56" t="s">
         <v>99</v>
@@ -5875,19 +5885,19 @@
         <v>0.18711836027100401</v>
       </c>
       <c r="R57">
-        <v>0.53140009863426896</v>
+        <v>0.64948900944188404</v>
       </c>
       <c r="S57">
-        <v>0.161365805087094</v>
+        <v>0.13480629289233201</v>
       </c>
       <c r="T57">
-        <v>1.56757456972564</v>
+        <v>2.73885687342423</v>
       </c>
       <c r="U57">
-        <v>0.20529959143425999</v>
+        <v>0.50044833403927402</v>
       </c>
       <c r="V57">
-        <v>0.296921418986418</v>
+        <v>0.56460837686482201</v>
       </c>
       <c r="W57" t="s">
         <v>99</v>
@@ -5946,19 +5956,19 @@
         <v>4.68254528399785E-2</v>
       </c>
       <c r="R58">
-        <v>8.1186126180235504E-2</v>
+        <v>0.584540108497696</v>
       </c>
       <c r="S58">
-        <v>1.8991916095429499E-3</v>
+        <v>0.17460464559314601</v>
       </c>
       <c r="T58">
-        <v>0.54871413037380201</v>
+        <v>1.77515057621831</v>
       </c>
       <c r="U58">
-        <v>1.9472025445862501E-3</v>
+        <v>0.292664759168834</v>
       </c>
       <c r="V58">
-        <v>5.9087525490893102E-3</v>
+        <v>0.37874262951260901</v>
       </c>
       <c r="W58" t="s">
         <v>96</v>
@@ -6017,19 +6027,19 @@
         <v>6.2498174831446901E-2</v>
       </c>
       <c r="R59">
-        <v>0.139176216308975</v>
+        <v>0.64948900944188404</v>
       </c>
       <c r="S59">
-        <v>1.53520382008272E-2</v>
+        <v>0.33693998325069202</v>
       </c>
       <c r="T59">
-        <v>0.60597080624166</v>
+        <v>1.2233839433221201</v>
       </c>
       <c r="U59">
-        <v>2.2697277104575301E-3</v>
+        <v>0.15291550403760801</v>
       </c>
       <c r="V59">
-        <v>6.6578679506754199E-3</v>
+        <v>0.249195636209435</v>
       </c>
       <c r="W59" t="s">
         <v>96</v>
@@ -6088,19 +6098,19 @@
         <v>4.6774745307597301E-2</v>
       </c>
       <c r="R60">
-        <v>3.0444797317588299E-2</v>
+        <v>0.36185816240333601</v>
       </c>
       <c r="S60">
-        <v>7.4772488517123705E-4</v>
+        <v>0.17568700578920299</v>
       </c>
       <c r="T60">
-        <v>0.18225573460352501</v>
-      </c>
-      <c r="U60" s="1">
-        <v>4.4540378496549198E-8</v>
-      </c>
-      <c r="V60" s="1">
-        <v>3.9195533076963301E-7</v>
+        <v>0.701020853825012</v>
+      </c>
+      <c r="U60">
+        <v>1.0903404416153801E-3</v>
+      </c>
+      <c r="V60">
+        <v>3.9979149525897302E-3</v>
       </c>
       <c r="W60" t="s">
         <v>96</v>
@@ -6159,19 +6169,19 @@
         <v>0.15625100273949299</v>
       </c>
       <c r="R61">
-        <v>0.54124084120157001</v>
+        <v>0.81408553923195104</v>
       </c>
       <c r="S61">
-        <v>0.14249248394094399</v>
+        <v>0.56976711711393602</v>
       </c>
       <c r="T61">
-        <v>1.7983580034815101</v>
+        <v>1.15967133456085</v>
       </c>
       <c r="U61">
-        <v>0.263578627247186</v>
+        <v>0.23490772510326099</v>
       </c>
       <c r="V61">
-        <v>0.35684491073465202</v>
+        <v>0.33888327555880299</v>
       </c>
       <c r="W61" t="s">
         <v>99</v>
@@ -6230,19 +6240,19 @@
         <v>0.218923187986825</v>
       </c>
       <c r="R62">
-        <v>0.52458727685690698</v>
+        <v>0.61701455896978996</v>
       </c>
       <c r="S62">
-        <v>0.17721916641471799</v>
+        <v>0.32817327778399402</v>
       </c>
       <c r="T62">
-        <v>1.41469763824307</v>
+        <v>1.1327389866912301</v>
       </c>
       <c r="U62">
-        <v>0.161475774577232</v>
+        <v>9.6327762514130402E-2</v>
       </c>
       <c r="V62">
-        <v>0.24929593268063899</v>
+        <v>0.16953686202487001</v>
       </c>
       <c r="W62" t="s">
         <v>99</v>
@@ -6301,22 +6311,22 @@
         <v>0.10925939146578301</v>
       </c>
       <c r="R63">
-        <v>0.487116757081413</v>
+        <v>8.7681016274654393</v>
       </c>
       <c r="S63">
-        <v>7.8826412687206998E-2</v>
+        <v>1.2149759928292601</v>
       </c>
       <c r="T63">
-        <v>2.2808603938501699</v>
+        <v>384.31477255472402</v>
       </c>
       <c r="U63">
-        <v>0.29869223401671602</v>
+        <v>1.2818944413031301E-2</v>
       </c>
       <c r="V63">
-        <v>0.38654289108045597</v>
+        <v>3.0488300225587999E-2</v>
       </c>
       <c r="W63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6372,22 +6382,22 @@
         <v>6.2598663978756394E-2</v>
       </c>
       <c r="R64">
-        <v>0.21649633648062799</v>
+        <v>0.39855007397570202</v>
       </c>
       <c r="S64">
-        <v>2.2762616360265199E-2</v>
+        <v>0.21675231831389599</v>
       </c>
       <c r="T64">
-        <v>1.0459745462788901</v>
+        <v>0.70400433086288405</v>
       </c>
       <c r="U64">
-        <v>3.12364448763994E-2</v>
+        <v>6.6153595813367395E-4</v>
       </c>
       <c r="V64">
-        <v>6.2472889752798799E-2</v>
+        <v>2.5655900387150199E-3</v>
       </c>
       <c r="W64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6443,22 +6453,22 @@
         <v>3.4544756294858301</v>
       </c>
       <c r="R65">
-        <v>0.70459858519679097</v>
+        <v>0.39239960987113798</v>
       </c>
       <c r="S65">
-        <v>0.44065462213075202</v>
+        <v>0.24577732016397399</v>
       </c>
       <c r="T65">
-        <v>1.13188475903014</v>
-      </c>
-      <c r="U65">
-        <v>0.12128785014341301</v>
-      </c>
-      <c r="V65">
-        <v>0.20138360023811999</v>
+        <v>0.61166387229947305</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1.0329200590963901E-5</v>
+      </c>
+      <c r="V65" s="1">
+        <v>7.5747471000401894E-5</v>
       </c>
       <c r="W65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6514,22 +6524,22 @@
         <v>2.1703597018172101</v>
       </c>
       <c r="R66">
-        <v>0.81532122001342899</v>
+        <v>0.40439881719966397</v>
       </c>
       <c r="S66">
-        <v>0.44055111453877899</v>
+        <v>0.23420698929211101</v>
       </c>
       <c r="T66">
-        <v>1.5333071601502199</v>
+        <v>0.67640360752165396</v>
       </c>
       <c r="U66">
-        <v>0.48814741561647501</v>
+        <v>2.2171785719982099E-4</v>
       </c>
       <c r="V66">
-        <v>0.55073041761858699</v>
+        <v>1.0839539685324601E-3</v>
       </c>
       <c r="W66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6585,19 +6595,19 @@
         <v>6.3844262677071297</v>
       </c>
       <c r="R67">
-        <v>2.2949782489266899</v>
+        <v>0.750971667167179</v>
       </c>
       <c r="S67">
-        <v>1.3876185508449499</v>
+        <v>0.475523519869129</v>
       </c>
       <c r="T67">
-        <v>3.9663379101299299</v>
+        <v>1.1774681865696901</v>
       </c>
       <c r="U67">
-        <v>6.7055194193688095E-4</v>
+        <v>0.18899822935968</v>
       </c>
       <c r="V67">
-        <v>2.45869045376856E-3</v>
+        <v>0.29178674006406702</v>
       </c>
       <c r="W67" t="s">
         <v>97</v>
@@ -6655,23 +6665,23 @@
       <c r="Q68">
         <v>0.46338488995313798</v>
       </c>
-      <c r="R68" t="s">
-        <v>94</v>
+      <c r="R68">
+        <v>0.31662589210291903</v>
       </c>
       <c r="S68">
-        <v>0.55342546337251297</v>
-      </c>
-      <c r="T68" t="s">
-        <v>95</v>
+        <v>0.15537961364998101</v>
+      </c>
+      <c r="T68">
+        <v>0.60430251639841104</v>
       </c>
       <c r="U68">
-        <v>8.2258499294885795E-2</v>
+        <v>1.4234447986483101E-4</v>
       </c>
       <c r="V68">
-        <v>0.14477495875899901</v>
+        <v>7.8289463925657098E-4</v>
       </c>
       <c r="W68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6727,19 +6737,19 @@
         <v>0.71012642181641705</v>
       </c>
       <c r="R69">
-        <v>6.9021902223359105E-2</v>
+        <v>6.0889594635176701E-2</v>
       </c>
       <c r="S69">
-        <v>2.8677213687525901E-2</v>
+        <v>7.0702123320272202E-3</v>
       </c>
       <c r="T69">
-        <v>0.14362881081132001</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
+        <v>0.23866616185139899</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1.7748928082816901E-7</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1.5619056712878899E-6</v>
       </c>
       <c r="W69" t="s">
         <v>97</v>
@@ -6798,19 +6808,19 @@
         <v>2.7129493418046002E-2</v>
       </c>
       <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70" t="s">
-        <v>95</v>
+        <v>0.33723467797944001</v>
+      </c>
+      <c r="S70">
+        <v>0.209230882343168</v>
       </c>
       <c r="T70">
-        <v>6.5167004429692005E-2</v>
+        <v>0.52841123997627804</v>
       </c>
       <c r="U70" s="1">
-        <v>1.15463194561016E-14</v>
+        <v>3.20085556726468E-7</v>
       </c>
       <c r="V70" s="1">
-        <v>1.4515373030527699E-13</v>
+        <v>2.5606844538117402E-6</v>
       </c>
       <c r="W70" t="s">
         <v>96</v>
@@ -6869,19 +6879,19 @@
         <v>1.0490103853302599</v>
       </c>
       <c r="R71">
-        <v>1.57024827558142</v>
+        <v>1.16908021699539</v>
       </c>
       <c r="S71">
-        <v>0.52533925449660202</v>
+        <v>0.297269192140172</v>
       </c>
       <c r="T71">
-        <v>5.6255225123088302</v>
+        <v>4.8424994280142997</v>
       </c>
       <c r="U71">
-        <v>0.38716738865195199</v>
+        <v>0.79621662496408496</v>
       </c>
       <c r="V71">
-        <v>0.46266805080436402</v>
+        <v>0.85447637801023801</v>
       </c>
       <c r="W71" t="s">
         <v>99</v>
@@ -6940,19 +6950,19 @@
         <v>4.1949037499559701E-2</v>
       </c>
       <c r="R72">
-        <v>0.120788328890878</v>
+        <v>0.40439881719966397</v>
       </c>
       <c r="S72">
-        <v>2.5537973546603601E-3</v>
+        <v>0.23420698929211101</v>
       </c>
       <c r="T72">
-        <v>1.0794470242949199</v>
+        <v>0.67640360752165396</v>
       </c>
       <c r="U72">
-        <v>2.0924285809798999E-2</v>
+        <v>2.2171785719982099E-4</v>
       </c>
       <c r="V72">
-        <v>4.49106622259101E-2</v>
+        <v>1.0839539685324601E-3</v>
       </c>
       <c r="W72" t="s">
         <v>97</v>
@@ -7011,19 +7021,19 @@
         <v>0.25001559796211098</v>
       </c>
       <c r="R73">
-        <v>0.181182493336318</v>
+        <v>0.53140009863426896</v>
       </c>
       <c r="S73">
-        <v>3.2041514258235503E-2</v>
+        <v>0.161365805087094</v>
       </c>
       <c r="T73">
-        <v>0.70366364960015304</v>
+        <v>1.56757456972564</v>
       </c>
       <c r="U73">
-        <v>3.4752326556691799E-3</v>
+        <v>0.20529959143425999</v>
       </c>
       <c r="V73">
-        <v>9.5568898030902408E-3</v>
+        <v>0.30187010930285901</v>
       </c>
       <c r="W73" t="s">
         <v>97</v>
@@ -7082,19 +7092,19 @@
         <v>0.99474734725913405</v>
       </c>
       <c r="R74">
-        <v>1.44945994669054</v>
+        <v>1.5154743553643999</v>
       </c>
       <c r="S74">
-        <v>0.47532979158780803</v>
+        <v>0.610965908884185</v>
       </c>
       <c r="T74">
-        <v>5.2518651369600997</v>
+        <v>3.96919652451091</v>
       </c>
       <c r="U74">
-        <v>0.483082059174476</v>
+        <v>0.32705575270451998</v>
       </c>
       <c r="V74">
-        <v>0.55073041761858699</v>
+        <v>0.41711458315938799</v>
       </c>
       <c r="W74" t="s">
         <v>99</v>
@@ -7153,19 +7163,19 @@
         <v>1.67297808063811</v>
       </c>
       <c r="R75">
-        <v>2.4157665778175699</v>
+        <v>1.94846702832565</v>
       </c>
       <c r="S75">
-        <v>0.87980799762006101</v>
+        <v>0.41612846743148801</v>
       </c>
       <c r="T75">
-        <v>8.2370582255531009</v>
+        <v>12.040772981568001</v>
       </c>
       <c r="U75">
-        <v>6.8490924423822097E-2</v>
+        <v>0.33658887105069801</v>
       </c>
       <c r="V75">
-        <v>0.12300410916931299</v>
+        <v>0.42314029503516298</v>
       </c>
       <c r="W75" t="s">
         <v>99</v>
@@ -7224,19 +7234,19 @@
         <v>1.06855170447465</v>
       </c>
       <c r="R76">
-        <v>0.13176908606277599</v>
+        <v>0.46392072102991699</v>
       </c>
       <c r="S76">
-        <v>6.4223646603978002E-2</v>
+        <v>0.19506695800790599</v>
       </c>
       <c r="T76">
-        <v>0.24903921625968001</v>
-      </c>
-      <c r="U76" s="1">
-        <v>6.0618177144533497E-14</v>
-      </c>
-      <c r="V76" s="1">
-        <v>6.6679994858986801E-13</v>
+        <v>1.02924844597244</v>
+      </c>
+      <c r="U76">
+        <v>4.0511543220738702E-2</v>
+      </c>
+      <c r="V76">
+        <v>8.4881328652976304E-2</v>
       </c>
       <c r="W76" t="s">
         <v>97</v>
@@ -7295,19 +7305,19 @@
         <v>0.61455628149498798</v>
       </c>
       <c r="R77">
-        <v>1.50985411113598E-2</v>
+        <v>0.16237225236047101</v>
       </c>
       <c r="S77">
-        <v>5.4862001778194702E-3</v>
+        <v>1.7650088118315699E-2</v>
       </c>
       <c r="T77">
-        <v>3.3348515503648701E-2</v>
+        <v>0.72935661068526103</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>6.4951988542485397E-3</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>1.7861796849183501E-2</v>
       </c>
       <c r="W77" t="s">
         <v>97</v>
@@ -7366,19 +7376,19 @@
         <v>2.1432299142261599</v>
       </c>
       <c r="R78">
-        <v>1.04683218372095</v>
+        <v>0.974233514162826</v>
       </c>
       <c r="S78">
-        <v>0.53420200186283195</v>
+        <v>0.22421250627168199</v>
       </c>
       <c r="T78">
-        <v>2.1260112594329401</v>
+        <v>4.2331757309200801</v>
       </c>
       <c r="U78">
-        <v>0.88773580716855005</v>
+        <v>0.96707619059757799</v>
       </c>
       <c r="V78">
-        <v>0.95269208574185904</v>
+        <v>0.96707619059757799</v>
       </c>
       <c r="W78" t="s">
         <v>99</v>
@@ -7437,19 +7447,19 @@
         <v>0.73369348552811997</v>
       </c>
       <c r="R79">
-        <v>8.05255525939189E-2</v>
+        <v>0.30890330936870097</v>
       </c>
       <c r="S79">
-        <v>3.3251103673822502E-2</v>
+        <v>0.15187019953721101</v>
       </c>
       <c r="T79">
-        <v>0.169071112981587</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
+        <v>0.58805274250363304</v>
+      </c>
+      <c r="U79" s="1">
+        <v>9.3626794783530101E-5</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>5.4927719606337705E-4</v>
       </c>
       <c r="W79" t="s">
         <v>97</v>
@@ -7508,19 +7518,19 @@
         <v>0.64206919239286198</v>
       </c>
       <c r="R80">
-        <v>0.96630663112702697</v>
+        <v>0.60309693733889302</v>
       </c>
       <c r="S80">
-        <v>0.27872698350421299</v>
+        <v>0.27745637890644398</v>
       </c>
       <c r="T80">
-        <v>3.7541513388948902</v>
+        <v>1.2620950110797799</v>
       </c>
       <c r="U80">
-        <v>0.95205732014469802</v>
+        <v>0.14755829458710701</v>
       </c>
       <c r="V80">
-        <v>0.96300050773256796</v>
+        <v>0.245002451389914</v>
       </c>
       <c r="W80" t="s">
         <v>99</v>
@@ -7579,19 +7589,19 @@
         <v>1.50116570211333</v>
       </c>
       <c r="R81">
-        <v>0.12640639069975601</v>
+        <v>0.52458727685690698</v>
       </c>
       <c r="S81">
-        <v>7.15510179658225E-2</v>
+        <v>0.17721916641471799</v>
       </c>
       <c r="T81">
-        <v>0.21183578245006299</v>
+        <v>1.41469763824307</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>0.161475774577232</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>0.25836123932357102</v>
       </c>
       <c r="W81" t="s">
         <v>97</v>
@@ -7650,19 +7660,19 @@
         <v>1.01283442953279</v>
       </c>
       <c r="R82">
-        <v>1.44945994669054</v>
+        <v>2.4355837854070699</v>
       </c>
       <c r="S82">
-        <v>0.47532979158780803</v>
+        <v>0.39874021684919297</v>
       </c>
       <c r="T82">
-        <v>5.2518651369600997</v>
+        <v>25.577016934975401</v>
       </c>
       <c r="U82">
-        <v>0.483082059174476</v>
+        <v>0.27156933082407297</v>
       </c>
       <c r="V82">
-        <v>0.55073041761858699</v>
+        <v>0.36209244109876398</v>
       </c>
       <c r="W82" t="s">
         <v>99</v>
@@ -7720,20 +7730,20 @@
       <c r="Q83">
         <v>0.44503911181477501</v>
       </c>
-      <c r="R83" t="s">
-        <v>94</v>
+      <c r="R83">
+        <v>0.21649633648062799</v>
       </c>
       <c r="S83">
-        <v>0.39867638579617798</v>
-      </c>
-      <c r="T83" t="s">
-        <v>95</v>
+        <v>2.2762616360265199E-2</v>
+      </c>
+      <c r="T83">
+        <v>1.0459745462788901</v>
       </c>
       <c r="U83">
-        <v>0.120119383299407</v>
+        <v>3.12364448763994E-2</v>
       </c>
       <c r="V83">
-        <v>0.20138360023811999</v>
+        <v>6.7044076807881603E-2</v>
       </c>
       <c r="W83" t="s">
         <v>99</v>
@@ -7792,19 +7802,19 @@
         <v>0.56067720004499699</v>
       </c>
       <c r="R84">
-        <v>0.20131388148479701</v>
+        <v>0.139176216308975</v>
       </c>
       <c r="S84">
-        <v>7.2295113829205601E-2</v>
+        <v>1.53520382008272E-2</v>
       </c>
       <c r="T84">
-        <v>0.491575445819603</v>
-      </c>
-      <c r="U84" s="1">
-        <v>4.5301282172505202E-5</v>
+        <v>0.60597080624166</v>
+      </c>
+      <c r="U84">
+        <v>2.2697277104575301E-3</v>
       </c>
       <c r="V84">
-        <v>2.8475091651289E-4</v>
+        <v>7.6821553277024099E-3</v>
       </c>
       <c r="W84" t="s">
         <v>97</v>
@@ -7862,20 +7872,20 @@
       <c r="Q85">
         <v>0.92276721633598802</v>
       </c>
-      <c r="R85" t="s">
-        <v>94</v>
+      <c r="R85">
+        <v>0.389693405665131</v>
       </c>
       <c r="S85">
-        <v>1.5157903459317901</v>
-      </c>
-      <c r="T85" t="s">
-        <v>95</v>
+        <v>3.7108742686100898E-2</v>
+      </c>
+      <c r="T85">
+        <v>2.3803240807210102</v>
       </c>
       <c r="U85">
-        <v>9.9527409044819493E-3</v>
+        <v>0.242595860820561</v>
       </c>
       <c r="V85">
-        <v>2.3904774732858399E-2</v>
+        <v>0.34432960890660302</v>
       </c>
       <c r="W85" t="s">
         <v>97</v>
@@ -7934,19 +7944,19 @@
         <v>0.61455084659828896</v>
       </c>
       <c r="R86">
-        <v>1.9801365391947299E-2</v>
+        <v>1.94846702832565</v>
       </c>
       <c r="S86">
-        <v>7.1730346628613197E-3</v>
+        <v>0.52199880971204504</v>
       </c>
       <c r="T86">
-        <v>4.3935114582486799E-2</v>
+        <v>8.8421078941296898</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>0.26717890250376097</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>0.36171912954355301</v>
       </c>
       <c r="W86" t="s">
         <v>97</v>
@@ -8005,19 +8015,19 @@
         <v>1.1444712878316301</v>
       </c>
       <c r="R87">
-        <v>8.9472836215465507E-2</v>
+        <v>0.139176216308975</v>
       </c>
       <c r="S87">
-        <v>4.4403333087612497E-2</v>
+        <v>1.53520382008272E-2</v>
       </c>
       <c r="T87">
-        <v>0.16496835162147</v>
+        <v>0.60597080624166</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>2.2697277104575301E-3</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>7.6821553277024099E-3</v>
       </c>
       <c r="W87" t="s">
         <v>97</v>
@@ -8076,19 +8086,19 @@
         <v>0.33459639076072301</v>
       </c>
       <c r="R88">
-        <v>0.161051105187838</v>
+        <v>0.25979560377675398</v>
       </c>
       <c r="S88">
-        <v>3.8908188985439802E-2</v>
+        <v>6.2763781953206393E-2</v>
       </c>
       <c r="T88">
-        <v>0.50553766802702804</v>
+        <v>0.81549557541870199</v>
       </c>
       <c r="U88">
-        <v>2.0326793961722401E-4</v>
+        <v>9.86063309520613E-3</v>
       </c>
       <c r="V88">
-        <v>9.9375437146198391E-4</v>
+        <v>2.4568796253215602E-2</v>
       </c>
       <c r="W88" t="s">
         <v>97</v>
@@ -8147,22 +8157,22 @@
         <v>0.82293270666982998</v>
       </c>
       <c r="R89">
-        <v>0.60394164445439202</v>
+        <v>0.16237225236047101</v>
       </c>
       <c r="S89">
-        <v>0.22560049687636799</v>
+        <v>1.7650088118315699E-2</v>
       </c>
       <c r="T89">
-        <v>1.6167761815975099</v>
+        <v>0.72935661068526103</v>
       </c>
       <c r="U89">
-        <v>0.25446199421759302</v>
+        <v>6.4951988542485397E-3</v>
       </c>
       <c r="V89">
-        <v>0.34988524204919003</v>
+        <v>1.7861796849183501E-2</v>
       </c>
       <c r="W89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -8218,29 +8228,29 @@
         <v>0.26225133434388098</v>
       </c>
       <c r="R90">
-        <v>0.362364986672635</v>
+        <v>0.41752864892692598</v>
       </c>
       <c r="S90">
-        <v>5.6272287479725201E-2</v>
+        <v>0.13150754243850599</v>
       </c>
       <c r="T90">
-        <v>1.86250330965547</v>
+        <v>1.1565855224758701</v>
       </c>
       <c r="U90">
-        <v>0.14693697734225</v>
+        <v>6.4692613827998804E-2</v>
       </c>
       <c r="V90">
-        <v>0.236093271339371</v>
+        <v>0.118603125351331</v>
       </c>
       <c r="W90" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W90" xr:uid="{FFCC4BE3-BBDE-BB48-960C-B6F1BF2B39DB}"/>
-  <sortState ref="A8:Q95">
-    <sortCondition ref="A8:A95"/>
-    <sortCondition ref="B8:B95"/>
+  <autoFilter ref="A2:W90" xr:uid="{822EDD87-03AD-584D-96F2-2C70B8D3891A}"/>
+  <sortState ref="A9:Q96">
+    <sortCondition ref="A9:A96"/>
+    <sortCondition ref="B9:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8411,7 +8421,7 @@
         <v>3.3342249846294303E-2</v>
       </c>
       <c r="V3">
-        <v>6.3405513001338801E-2</v>
+        <v>6.6047409376394597E-2</v>
       </c>
       <c r="W3" t="s">
         <v>99</v>
@@ -8553,7 +8563,7 @@
         <v>0.45376795597610697</v>
       </c>
       <c r="V5">
-        <v>0.53317734827192598</v>
+        <v>0.52659491187350704</v>
       </c>
       <c r="W5" t="s">
         <v>99</v>
@@ -8624,7 +8634,7 @@
         <v>7.8563805552156495E-4</v>
       </c>
       <c r="V6">
-        <v>2.5465509385871402E-3</v>
+        <v>2.6374991863938298E-3</v>
       </c>
       <c r="W6" t="s">
         <v>96</v>
@@ -8695,7 +8705,7 @@
         <v>1.9535706385909199E-11</v>
       </c>
       <c r="V7" s="1">
-        <v>1.41258184636574E-10</v>
+        <v>1.3116831430539001E-10</v>
       </c>
       <c r="W7" t="s">
         <v>96</v>
@@ -8766,7 +8776,7 @@
         <v>5.1139181156316098E-2</v>
       </c>
       <c r="V8">
-        <v>8.9020056086920596E-2</v>
+        <v>9.1503164262082298E-2</v>
       </c>
       <c r="W8" t="s">
         <v>100</v>
@@ -8837,7 +8847,7 @@
         <v>0.12591775530646299</v>
       </c>
       <c r="V9">
-        <v>0.190907564496895</v>
+        <v>0.194037196701763</v>
       </c>
       <c r="W9" t="s">
         <v>99</v>
@@ -9109,19 +9119,19 @@
         <v>9.9433230585673202E-2</v>
       </c>
       <c r="R13">
-        <v>4.90758233623899E-2</v>
-      </c>
-      <c r="S13">
-        <v>1.1778825419280299E-3</v>
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
       </c>
       <c r="T13">
-        <v>0.31082433450300301</v>
+        <v>0.200920136571968</v>
       </c>
       <c r="U13" s="1">
-        <v>2.9410562025766798E-5</v>
-      </c>
-      <c r="V13">
-        <v>1.15191367934253E-4</v>
+        <v>6.3616291579027296E-6</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2.5999701775776399E-5</v>
       </c>
       <c r="W13" t="s">
         <v>96</v>
@@ -9251,19 +9261,19 @@
         <v>0.19886646117132301</v>
       </c>
       <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>95</v>
+        <v>0.14722747008716999</v>
+      </c>
+      <c r="S15">
+        <v>3.2007649511062398E-3</v>
       </c>
       <c r="T15">
-        <v>0.96399757089009996</v>
+        <v>1.21351023721329</v>
       </c>
       <c r="U15">
-        <v>1.7354720176697501E-2</v>
+        <v>3.9627330692486799E-2</v>
       </c>
       <c r="V15">
-        <v>3.8841516585942003E-2</v>
+        <v>7.6019777246811401E-2</v>
       </c>
       <c r="W15" t="s">
         <v>96</v>
@@ -9322,19 +9332,19 @@
         <v>0.10122626321084401</v>
       </c>
       <c r="R16">
-        <v>0.12619497436043101</v>
-      </c>
-      <c r="S16">
-        <v>2.8000359495650102E-3</v>
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>95</v>
       </c>
       <c r="T16">
-        <v>0.98228008537367395</v>
+        <v>0.51750441761154098</v>
       </c>
       <c r="U16">
-        <v>2.1397951700234199E-2</v>
+        <v>2.6180632925713E-3</v>
       </c>
       <c r="V16">
-        <v>4.6776917670279403E-2</v>
+        <v>7.2381749853441804E-3</v>
       </c>
       <c r="W16" t="s">
         <v>97</v>
@@ -9405,7 +9415,7 @@
         <v>0.193521058012979</v>
       </c>
       <c r="V17">
-        <v>0.27986122235723099</v>
+        <v>0.28423405395656298</v>
       </c>
       <c r="W17" t="s">
         <v>99</v>
@@ -9476,7 +9486,7 @@
         <v>0.13240611753051801</v>
       </c>
       <c r="V18">
-        <v>0.19755833409315399</v>
+        <v>0.20074475883659201</v>
       </c>
       <c r="W18" t="s">
         <v>99</v>
@@ -9535,19 +9545,19 @@
         <v>0.10082725888474001</v>
       </c>
       <c r="R19">
-        <v>0.29445494017433999</v>
-      </c>
-      <c r="S19">
-        <v>5.6089472823651499E-3</v>
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>95</v>
       </c>
       <c r="T19">
-        <v>3.6672367362138001</v>
+        <v>2.1377003699464598</v>
       </c>
       <c r="U19">
-        <v>0.26015828423328502</v>
+        <v>6.5351030839671406E-2</v>
       </c>
       <c r="V19">
-        <v>0.34443491152012401</v>
+        <v>0.113759201832021</v>
       </c>
       <c r="W19" t="s">
         <v>99</v>
@@ -9606,19 +9616,19 @@
         <v>0.91575807430235401</v>
       </c>
       <c r="R20">
-        <v>0.73613735043584905</v>
+        <v>0.58890988034867897</v>
       </c>
       <c r="S20">
-        <v>0.17771888797906399</v>
+        <v>0.122232642374799</v>
       </c>
       <c r="T20">
-        <v>2.8950312919751</v>
+        <v>2.4833982564330701</v>
       </c>
       <c r="U20">
-        <v>0.61153824288953096</v>
+        <v>0.40660601399399998</v>
       </c>
       <c r="V20">
-        <v>0.67628935096018705</v>
+        <v>0.48380968753716402</v>
       </c>
       <c r="W20" t="s">
         <v>99</v>
@@ -9747,20 +9757,20 @@
       <c r="Q22">
         <v>0.696032615088642</v>
       </c>
-      <c r="R22" t="s">
-        <v>94</v>
+      <c r="R22">
+        <v>3.53345928209208</v>
       </c>
       <c r="S22">
-        <v>0.16590396143487701</v>
-      </c>
-      <c r="T22" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="T22">
+        <v>174.01392379806401</v>
       </c>
       <c r="U22">
-        <v>0.18378773903349199</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="V22">
-        <v>0.26993824170544101</v>
+        <v>0.31520468872243301</v>
       </c>
       <c r="W22" t="s">
         <v>99</v>
@@ -9890,19 +9900,19 @@
         <v>0.19886646117132301</v>
       </c>
       <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>95</v>
+        <v>8.8336482052301907E-2</v>
+      </c>
+      <c r="S24">
+        <v>2.0355107597209402E-3</v>
       </c>
       <c r="T24">
-        <v>0.44753928712119201</v>
+        <v>0.62095161224030404</v>
       </c>
       <c r="U24">
-        <v>1.4134172415188901E-3</v>
+        <v>3.4490738003689599E-3</v>
       </c>
       <c r="V24">
-        <v>4.1519131469617398E-3</v>
+        <v>9.0059149231856202E-3</v>
       </c>
       <c r="W24" t="s">
         <v>96</v>
@@ -9973,7 +9983,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V25">
-        <v>0.34443491152012401</v>
+        <v>0.339651093304567</v>
       </c>
       <c r="W25" t="s">
         <v>99</v>
@@ -10032,19 +10042,19 @@
         <v>9.9897744456634893E-2</v>
       </c>
       <c r="R26">
-        <v>3.6806867521792401E-2</v>
-      </c>
-      <c r="S26">
-        <v>8.9504757259902402E-4</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>95</v>
       </c>
       <c r="T26">
-        <v>0.225716886250312</v>
+        <v>0.14676651791381701</v>
       </c>
       <c r="U26" s="1">
-        <v>8.6980873870157204E-7</v>
+        <v>1.8651435595984399E-7</v>
       </c>
       <c r="V26" s="1">
-        <v>3.8934295922832297E-6</v>
+        <v>9.2275523474870196E-7</v>
       </c>
       <c r="W26" t="s">
         <v>96</v>
@@ -10115,7 +10125,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V27">
-        <v>0.34443491152012401</v>
+        <v>0.339651093304567</v>
       </c>
       <c r="W27" t="s">
         <v>99</v>
@@ -10186,7 +10196,7 @@
         <v>1.08632450099844E-5</v>
       </c>
       <c r="V28" s="1">
-        <v>4.4397610040805803E-5</v>
+        <v>4.2547709622438899E-5</v>
       </c>
       <c r="W28" t="s">
         <v>97</v>
@@ -10245,19 +10255,19 @@
         <v>0.198866461171324</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>95</v>
+        <v>9.8151646724779898E-2</v>
+      </c>
+      <c r="S29">
+        <v>2.2393196276716001E-3</v>
       </c>
       <c r="T29">
-        <v>0.51750441761154098</v>
+        <v>0.70832972706062203</v>
       </c>
       <c r="U29">
-        <v>2.6180632925713E-3</v>
+        <v>6.3164477322668099E-3</v>
       </c>
       <c r="V29">
-        <v>6.4762618289921602E-3</v>
+        <v>1.4843652170827001E-2</v>
       </c>
       <c r="W29" t="s">
         <v>96</v>
@@ -10316,22 +10326,22 @@
         <v>0.101077421034068</v>
       </c>
       <c r="R30">
-        <v>0.14722747008716999</v>
-      </c>
-      <c r="S30">
-        <v>3.2007649511062398E-3</v>
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>95</v>
       </c>
       <c r="T30">
-        <v>1.21351023721329</v>
+        <v>0.75025163071864598</v>
       </c>
       <c r="U30">
-        <v>3.9627330692486799E-2</v>
+        <v>9.1558957157216198E-3</v>
       </c>
       <c r="V30">
-        <v>7.3038609511642302E-2</v>
+        <v>2.04917666018531E-2</v>
       </c>
       <c r="W30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -10387,19 +10397,19 @@
         <v>0.198866461171324</v>
       </c>
       <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>95</v>
+        <v>8.0305892774819906E-2</v>
+      </c>
+      <c r="S31">
+        <v>1.8657058660536299E-3</v>
       </c>
       <c r="T31">
-        <v>0.39409161604600401</v>
+        <v>0.55252483178995504</v>
       </c>
       <c r="U31">
-        <v>7.6667799382779101E-4</v>
+        <v>1.8885417400363899E-3</v>
       </c>
       <c r="V31">
-        <v>2.5465509385871402E-3</v>
+        <v>5.3794825322248697E-3</v>
       </c>
       <c r="W31" t="s">
         <v>96</v>
@@ -10470,7 +10480,7 @@
         <v>0.228020413118356</v>
       </c>
       <c r="V32">
-        <v>0.31990923631530499</v>
+        <v>0.31520468872243301</v>
       </c>
       <c r="W32" t="s">
         <v>100</v>
@@ -10528,20 +10538,20 @@
       <c r="Q33">
         <v>0.74574922939246702</v>
       </c>
-      <c r="R33" t="s">
-        <v>94</v>
+      <c r="R33">
+        <v>3.53345928209208</v>
       </c>
       <c r="S33">
-        <v>0.36503404177135002</v>
-      </c>
-      <c r="T33" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="T33">
+        <v>174.01392379806401</v>
       </c>
       <c r="U33">
-        <v>0.103544226183458</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="V33">
-        <v>0.162219287687418</v>
+        <v>0.31520468872243301</v>
       </c>
       <c r="W33" t="s">
         <v>100</v>
@@ -10600,19 +10610,19 @@
         <v>0.198889192168236</v>
       </c>
       <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>95</v>
+        <v>0.17667296410460401</v>
+      </c>
+      <c r="S34">
+        <v>3.7353521860373599E-3</v>
       </c>
       <c r="T34">
-        <v>1.3381800913399999</v>
+        <v>1.57887030251381</v>
       </c>
       <c r="U34">
-        <v>3.3342249846294303E-2</v>
+        <v>7.3757615908962099E-2</v>
       </c>
       <c r="V34">
-        <v>6.3405513001338801E-2</v>
+        <v>0.121635366586709</v>
       </c>
       <c r="W34" t="s">
         <v>100</v>
@@ -10683,7 +10693,7 @@
         <v>0.63764847644752698</v>
       </c>
       <c r="V35">
-        <v>0.696964613791483</v>
+        <v>0.68895352627663797</v>
       </c>
       <c r="W35" t="s">
         <v>99</v>
@@ -10754,7 +10764,7 @@
         <v>0.26015828423328502</v>
       </c>
       <c r="V36">
-        <v>0.34443491152012401</v>
+        <v>0.339651093304567</v>
       </c>
       <c r="W36" t="s">
         <v>99</v>
@@ -10813,19 +10823,19 @@
         <v>0.13487297957300001</v>
       </c>
       <c r="R37">
-        <v>0.13319811698675199</v>
+        <v>0.106558493589402</v>
       </c>
       <c r="S37">
-        <v>4.0734494360926202E-2</v>
+        <v>2.75107656846913E-2</v>
       </c>
       <c r="T37">
-        <v>0.341422947983615</v>
+        <v>0.298015380840296</v>
       </c>
       <c r="U37" s="1">
-        <v>6.7739465592353596E-7</v>
+        <v>2.1527355920092401E-7</v>
       </c>
       <c r="V37" s="1">
-        <v>3.18375488284062E-6</v>
+        <v>1.0117857282443401E-6</v>
       </c>
       <c r="W37" t="s">
         <v>96</v>
@@ -10884,19 +10894,19 @@
         <v>0.13437543461860599</v>
       </c>
       <c r="R38">
-        <v>8.7961020651628696E-2</v>
+        <v>7.0368816521302904E-2</v>
       </c>
       <c r="S38">
-        <v>2.7437583923201801E-2</v>
+        <v>1.8495052428452199E-2</v>
       </c>
       <c r="T38">
-        <v>0.21846074112755201</v>
+        <v>0.19102469086035101</v>
       </c>
       <c r="U38" s="1">
-        <v>4.92537122198655E-11</v>
+        <v>1.3944734256199401E-11</v>
       </c>
       <c r="V38" s="1">
-        <v>3.0865659657782399E-10</v>
+        <v>1.0083115539098E-10</v>
       </c>
       <c r="W38" t="s">
         <v>96</v>
@@ -11038,7 +11048,7 @@
         <v>4.3070640708030598E-3</v>
       </c>
       <c r="V40">
-        <v>1.0381128786038101E-2</v>
+        <v>1.09422708825807E-2</v>
       </c>
       <c r="W40" t="s">
         <v>96</v>
@@ -11109,7 +11119,7 @@
         <v>0.41991697237103898</v>
       </c>
       <c r="V41">
-        <v>0.49964804307440103</v>
+        <v>0.49340244253597099</v>
       </c>
       <c r="W41" t="s">
         <v>99</v>
@@ -11310,19 +11320,19 @@
         <v>0.16431848088460699</v>
       </c>
       <c r="R44">
-        <v>6.4749084646337801E-2</v>
+        <v>7.76989015756053E-2</v>
       </c>
       <c r="S44">
-        <v>2.0407587403492699E-2</v>
+        <v>2.7602105551703501E-2</v>
       </c>
       <c r="T44">
-        <v>0.158209105117809</v>
+        <v>0.177526619361456</v>
       </c>
       <c r="U44" s="1">
-        <v>1.8873791418627701E-15</v>
+        <v>6.8833827526759698E-15</v>
       </c>
       <c r="V44" s="1">
-        <v>2.2176704916887499E-14</v>
+        <v>8.0879747343942603E-14</v>
       </c>
       <c r="W44" t="s">
         <v>96</v>
@@ -11381,19 +11391,19 @@
         <v>0.196027050184441</v>
       </c>
       <c r="R45">
-        <v>0.46619340945363202</v>
+        <v>0.39959435096025597</v>
       </c>
       <c r="S45">
-        <v>0.15924372606954501</v>
+        <v>0.125858839153072</v>
       </c>
       <c r="T45">
-        <v>1.23431942688056</v>
+        <v>1.1069061784659899</v>
       </c>
       <c r="U45">
-        <v>9.12388947929373E-2</v>
+        <v>5.15922096371315E-2</v>
       </c>
       <c r="V45">
-        <v>0.145363662890442</v>
+        <v>9.1503164262082298E-2</v>
       </c>
       <c r="W45" t="s">
         <v>99</v>
@@ -11452,19 +11462,19 @@
         <v>0.22337938382271699</v>
       </c>
       <c r="R46">
-        <v>0.12314542891228</v>
+        <v>0.140737633042606</v>
       </c>
       <c r="S46">
-        <v>4.7232174879596599E-2</v>
+        <v>5.7787047726009601E-2</v>
       </c>
       <c r="T46">
-        <v>0.271805703893296</v>
+        <v>0.29793251705949603</v>
       </c>
       <c r="U46" s="1">
-        <v>5.1858206617794198E-10</v>
+        <v>1.5545360554369801E-9</v>
       </c>
       <c r="V46" s="1">
-        <v>2.7081507900403598E-9</v>
+        <v>8.1181327339486698E-9</v>
       </c>
       <c r="W46" t="s">
         <v>96</v>
@@ -11523,19 +11533,19 @@
         <v>0.34357500548600001</v>
       </c>
       <c r="R47">
-        <v>0.129826012759239</v>
+        <v>0.143444125985733</v>
       </c>
       <c r="S47">
-        <v>6.2287086085779202E-2</v>
+        <v>7.1081917166921096E-2</v>
       </c>
       <c r="T47">
-        <v>0.24512826631043899</v>
+        <v>0.26501725292246098</v>
       </c>
       <c r="U47" s="1">
-        <v>6.1728400169158704E-14</v>
+        <v>3.0231372960543002E-13</v>
       </c>
       <c r="V47" s="1">
-        <v>6.4471884621121305E-13</v>
+        <v>2.84174905829104E-12</v>
       </c>
       <c r="W47" t="s">
         <v>96</v>
@@ -11736,19 +11746,19 @@
         <v>2.9876087433564999E-2</v>
       </c>
       <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50" t="s">
-        <v>95</v>
+        <v>2.21996861644587E-2</v>
+      </c>
+      <c r="S50">
+        <v>5.4913816868313496E-4</v>
       </c>
       <c r="T50">
-        <v>8.7778978899228796E-2</v>
+        <v>0.130635301498917</v>
       </c>
       <c r="U50" s="1">
-        <v>3.32959215754158E-11</v>
+        <v>8.8244078710886204E-11</v>
       </c>
       <c r="V50" s="1">
-        <v>2.23558330577792E-10</v>
+        <v>5.5299622658821996E-10</v>
       </c>
       <c r="W50" t="s">
         <v>96</v>
@@ -11878,19 +11888,19 @@
         <v>0.19684075072284199</v>
       </c>
       <c r="R52">
-        <v>1.3053415464701701</v>
+        <v>1.11886418268872</v>
       </c>
       <c r="S52">
-        <v>0.35663259649842299</v>
+        <v>0.28450045331984197</v>
       </c>
       <c r="T52">
-        <v>5.2158038149203598</v>
+        <v>4.6344973475136202</v>
       </c>
       <c r="U52">
-        <v>0.64808635918226698</v>
+        <v>0.85277579116473001</v>
       </c>
       <c r="V52">
-        <v>0.700231238656702</v>
+        <v>0.87131439532048505</v>
       </c>
       <c r="W52" t="s">
         <v>99</v>
@@ -12019,20 +12029,20 @@
       <c r="Q54">
         <v>0.35851304920281402</v>
       </c>
-      <c r="R54" t="s">
-        <v>94</v>
+      <c r="R54">
+        <v>11.188641826887199</v>
       </c>
       <c r="S54">
-        <v>2.3401316199191302</v>
-      </c>
-      <c r="T54" t="s">
-        <v>95</v>
+        <v>1.6554384821916599</v>
+      </c>
+      <c r="T54">
+        <v>478.28901653673398</v>
       </c>
       <c r="U54">
-        <v>1.36223131283419E-3</v>
+        <v>3.42817207654933E-3</v>
       </c>
       <c r="V54">
-        <v>4.13063688407787E-3</v>
+        <v>9.0059149231856202E-3</v>
       </c>
       <c r="W54" t="s">
         <v>96</v>
@@ -12091,19 +12101,19 @@
         <v>0.28478049774437503</v>
       </c>
       <c r="R55">
-        <v>1.67829627403308</v>
+        <v>1.8647736378145301</v>
       </c>
       <c r="S55">
-        <v>0.50510659467391295</v>
+        <v>0.58074603850579298</v>
       </c>
       <c r="T55">
-        <v>6.3748098287036399</v>
+        <v>6.9530844119745598</v>
       </c>
       <c r="U55">
-        <v>0.34788470946389699</v>
+        <v>0.247604481115416</v>
       </c>
       <c r="V55">
-        <v>0.44796113273433302</v>
+        <v>0.337316249635494</v>
       </c>
       <c r="W55" t="s">
         <v>99</v>
@@ -12174,7 +12184,7 @@
         <v>0.30107737883042501</v>
       </c>
       <c r="V56">
-        <v>0.39307324458416598</v>
+        <v>0.38768867958986197</v>
       </c>
       <c r="W56" t="s">
         <v>99</v>
@@ -12316,7 +12326,7 @@
         <v>4.5960826164191698E-2</v>
       </c>
       <c r="V58">
-        <v>8.3083031912192698E-2</v>
+        <v>8.6406353188680396E-2</v>
       </c>
       <c r="W58" t="s">
         <v>99</v>
@@ -12458,7 +12468,7 @@
         <v>7.2121690971277894E-2</v>
       </c>
       <c r="V60">
-        <v>0.118937525461406</v>
+        <v>0.121061409844645</v>
       </c>
       <c r="W60" t="s">
         <v>99</v>
@@ -12517,19 +12527,19 @@
         <v>7.4546207465981507E-2</v>
       </c>
       <c r="R61">
-        <v>6.2159121260484299E-2</v>
+        <v>4.2381219041239301E-2</v>
       </c>
       <c r="S61">
-        <v>1.2356529153586799E-2</v>
+        <v>4.9769166777663097E-3</v>
       </c>
       <c r="T61">
-        <v>0.193629727366226</v>
+        <v>0.162460927162732</v>
       </c>
       <c r="U61" s="1">
-        <v>2.8188051892641402E-10</v>
+        <v>1.2446288444323301E-10</v>
       </c>
       <c r="V61" s="1">
-        <v>1.5586334575931099E-9</v>
+        <v>7.3121944610399401E-10</v>
       </c>
       <c r="W61" t="s">
         <v>96</v>
@@ -12588,19 +12598,19 @@
         <v>2.9878812741217699E-2</v>
       </c>
       <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" t="s">
-        <v>95</v>
+        <v>1.9028302426678901E-2</v>
+      </c>
+      <c r="S62">
+        <v>4.7223935952777003E-4</v>
       </c>
       <c r="T62">
-        <v>7.4480802426013196E-2</v>
+        <v>0.111099516037754</v>
       </c>
       <c r="U62" s="1">
-        <v>7.2319927824082697E-13</v>
+        <v>1.9234613901630801E-12</v>
       </c>
       <c r="V62" s="1">
-        <v>6.1800665595125201E-12</v>
+        <v>1.6436851879575401E-11</v>
       </c>
       <c r="W62" t="s">
         <v>96</v>
@@ -12659,19 +12669,19 @@
         <v>0.195588012795333</v>
       </c>
       <c r="R63">
-        <v>0.43511384882338999</v>
+        <v>0.37295472756290599</v>
       </c>
       <c r="S63">
-        <v>0.150080300850816</v>
+        <v>0.118556262578271</v>
       </c>
       <c r="T63">
-        <v>1.1337272716347899</v>
+        <v>1.0171981241664401</v>
       </c>
       <c r="U63">
-        <v>6.1364049708431803E-2</v>
+        <v>3.3536507189597997E-2</v>
       </c>
       <c r="V63">
-        <v>0.103003940582011</v>
+        <v>6.6047409376394597E-2</v>
       </c>
       <c r="W63" t="s">
         <v>99</v>
@@ -12742,7 +12752,7 @@
         <v>0.20616701603660101</v>
       </c>
       <c r="V64">
-        <v>0.29363181071879502</v>
+        <v>0.29814922319139198</v>
       </c>
       <c r="W64" t="s">
         <v>99</v>
@@ -12801,19 +12811,19 @@
         <v>3.01677555970087E-2</v>
       </c>
       <c r="R65">
-        <v>8.4762438082478603E-2</v>
+        <v>7.76989015756053E-2</v>
       </c>
       <c r="S65">
-        <v>1.96924251119307E-3</v>
+        <v>1.8176147685073001E-3</v>
       </c>
       <c r="T65">
-        <v>0.58318698946477099</v>
+        <v>0.52514496275395794</v>
       </c>
       <c r="U65">
-        <v>2.6142114082859901E-3</v>
+        <v>1.4780931486099199E-3</v>
       </c>
       <c r="V65">
-        <v>6.4762618289921602E-3</v>
+        <v>4.6313585323110801E-3</v>
       </c>
       <c r="W65" t="s">
         <v>96</v>
@@ -12884,7 +12894,7 @@
         <v>8.2643997531147304E-2</v>
       </c>
       <c r="V66">
-        <v>0.13394027186082499</v>
+        <v>0.131670097761489</v>
       </c>
       <c r="W66" t="s">
         <v>100</v>
@@ -12955,7 +12965,7 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V67">
-        <v>4.64106199545012E-3</v>
+        <v>4.9311283701657599E-3</v>
       </c>
       <c r="W67" t="s">
         <v>97</v>
@@ -13026,7 +13036,7 @@
         <v>0.86956156976103305</v>
       </c>
       <c r="V68">
-        <v>0.88846508214714304</v>
+        <v>0.87891169416706605</v>
       </c>
       <c r="W68" t="s">
         <v>99</v>
@@ -13097,7 +13107,7 @@
         <v>3.2252573018526E-2</v>
       </c>
       <c r="V69">
-        <v>6.3405513001338801E-2</v>
+        <v>6.6047409376394597E-2</v>
       </c>
       <c r="W69" t="s">
         <v>100</v>
@@ -13168,7 +13178,7 @@
         <v>1.6786819983543001E-3</v>
       </c>
       <c r="V70">
-        <v>4.64106199545012E-3</v>
+        <v>4.9311283701657599E-3</v>
       </c>
       <c r="W70" t="s">
         <v>96</v>
@@ -13310,7 +13320,7 @@
         <v>3.1874782602248102E-7</v>
       </c>
       <c r="V72" s="1">
-        <v>1.5769629287427999E-6</v>
+        <v>1.4267759831482501E-6</v>
       </c>
       <c r="W72" t="s">
         <v>96</v>
@@ -13369,19 +13379,19 @@
         <v>2.9888427438324001E-2</v>
       </c>
       <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73" t="s">
-        <v>95</v>
+        <v>9.3238681890726399E-2</v>
+      </c>
+      <c r="S73">
+        <v>2.1484706635521498E-3</v>
       </c>
       <c r="T73">
-        <v>0.47237531149122702</v>
+        <v>0.65541108835337403</v>
       </c>
       <c r="U73">
-        <v>1.8908050454650199E-3</v>
+        <v>4.6347594293218997E-3</v>
       </c>
       <c r="V73">
-        <v>4.9371020631586602E-3</v>
+        <v>1.11709586245194E-2</v>
       </c>
       <c r="W73" t="s">
         <v>96</v>
@@ -13452,7 +13462,7 @@
         <v>8.3749778648123396E-4</v>
       </c>
       <c r="V74">
-        <v>2.6241597309745301E-3</v>
+        <v>2.71464799755986E-3</v>
       </c>
       <c r="W74" t="s">
         <v>96</v>
@@ -13511,19 +13521,19 @@
         <v>7.4690201083064706E-2</v>
       </c>
       <c r="R75">
-        <v>0.93238681890726405</v>
+        <v>0.62159121260484296</v>
       </c>
       <c r="S75">
-        <v>0.12488164177314499</v>
+        <v>5.1917059362184E-2</v>
       </c>
       <c r="T75">
-        <v>6.9613529076693599</v>
+        <v>5.4262643234718597</v>
       </c>
       <c r="U75">
-        <v>0.93165815251334005</v>
+        <v>0.599045135197248</v>
       </c>
       <c r="V75">
-        <v>0.93165815251334005</v>
+        <v>0.66247344362989802</v>
       </c>
       <c r="W75" t="s">
         <v>99</v>
@@ -13736,7 +13746,7 @@
         <v>4.7299416074530101E-2</v>
       </c>
       <c r="V78">
-        <v>8.3889530396336398E-2</v>
+        <v>8.7179315902075102E-2</v>
       </c>
       <c r="W78" t="s">
         <v>99</v>
@@ -13794,20 +13804,20 @@
       <c r="Q79">
         <v>0.16431848088464199</v>
       </c>
-      <c r="R79" t="s">
-        <v>94</v>
+      <c r="R79">
+        <v>5.5943209134435801</v>
       </c>
       <c r="S79">
-        <v>0.85439812278940097</v>
-      </c>
-      <c r="T79" t="s">
-        <v>95</v>
+        <v>0.67872333473959601</v>
+      </c>
+      <c r="T79">
+        <v>257.32527302804903</v>
       </c>
       <c r="U79">
-        <v>3.08384955255224E-2</v>
+        <v>7.2121690971277894E-2</v>
       </c>
       <c r="V79">
-        <v>6.3017795204328403E-2</v>
+        <v>0.121061409844645</v>
       </c>
       <c r="W79" t="s">
         <v>100</v>
@@ -13866,19 +13876,19 @@
         <v>2.9893635130538099E-2</v>
       </c>
       <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80" t="s">
-        <v>95</v>
+        <v>9.3238681890726399E-2</v>
+      </c>
+      <c r="S80">
+        <v>2.1484706635521498E-3</v>
       </c>
       <c r="T80">
-        <v>0.47237531149122702</v>
+        <v>0.65541108835337403</v>
       </c>
       <c r="U80">
-        <v>1.8908050454650199E-3</v>
+        <v>4.6347594293218997E-3</v>
       </c>
       <c r="V80">
-        <v>4.9371020631586602E-3</v>
+        <v>1.11709586245194E-2</v>
       </c>
       <c r="W80" t="s">
         <v>96</v>
@@ -13949,7 +13959,7 @@
         <v>2.71542566210314E-10</v>
       </c>
       <c r="V81" s="1">
-        <v>1.5586334575931099E-9</v>
+        <v>1.5014706602217401E-9</v>
       </c>
       <c r="W81" t="s">
         <v>96</v>
@@ -14020,7 +14030,7 @@
         <v>0.12442200504890299</v>
       </c>
       <c r="V82">
-        <v>0.190907564496895</v>
+        <v>0.194037196701763</v>
       </c>
       <c r="W82" t="s">
         <v>99</v>
@@ -14091,7 +14101,7 @@
         <v>3.3726336702839803E-2</v>
       </c>
       <c r="V83">
-        <v>6.3405513001338801E-2</v>
+        <v>6.6047409376394597E-2</v>
       </c>
       <c r="W83" t="s">
         <v>99</v>
@@ -14233,7 +14243,7 @@
         <v>2.1227464230833001E-13</v>
       </c>
       <c r="V85" s="1">
-        <v>1.9953816376983001E-12</v>
+        <v>2.2170907085536701E-12</v>
       </c>
       <c r="W85" t="s">
         <v>96</v>
@@ -14292,13 +14302,13 @@
         <v>0.15954090509150801</v>
       </c>
       <c r="R86">
-        <v>2.1524910825698899E-2</v>
+        <v>2.11405374180971E-2</v>
       </c>
       <c r="S86">
-        <v>2.5431151250346101E-3</v>
+        <v>2.4987901618401102E-3</v>
       </c>
       <c r="T86">
-        <v>8.1537804911073694E-2</v>
+        <v>8.0013870192418707E-2</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -14434,19 +14444,19 @@
         <v>1.59540905091508</v>
       </c>
       <c r="R88">
-        <v>0.78924673027562597</v>
+        <v>0.84562149672388398</v>
       </c>
       <c r="S88">
-        <v>0.38409998681352803</v>
+        <v>0.40621762875999201</v>
       </c>
       <c r="T88">
-        <v>1.6568255949192101</v>
+        <v>1.8097092975808799</v>
       </c>
       <c r="U88">
-        <v>0.487350419572256</v>
+        <v>0.62997347170512796</v>
       </c>
       <c r="V88">
-        <v>0.56556715357767995</v>
+        <v>0.68857565511955798</v>
       </c>
       <c r="W88" t="s">
         <v>99</v>
@@ -14505,13 +14515,13 @@
         <v>7.97704525457541E-2</v>
       </c>
       <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89" t="s">
-        <v>95</v>
+        <v>9.5473394791406301E-3</v>
+      </c>
+      <c r="S89">
+        <v>2.3792872368484701E-4</v>
       </c>
       <c r="T89">
-        <v>3.7534978044931298E-2</v>
+        <v>5.51976417586919E-2</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -14717,20 +14727,20 @@
       <c r="Q92">
         <v>0.71793407291178901</v>
       </c>
-      <c r="R92" t="s">
-        <v>94</v>
+      <c r="R92">
+        <v>5.3274154293604701</v>
       </c>
       <c r="S92">
-        <v>1.01041571701372</v>
-      </c>
-      <c r="T92" t="s">
-        <v>95</v>
+        <v>0.73820789556383903</v>
+      </c>
+      <c r="T92">
+        <v>233.50601259294899</v>
       </c>
       <c r="U92">
-        <v>2.9546788793777101E-2</v>
+        <v>7.5296958622275506E-2</v>
       </c>
       <c r="V92">
-        <v>6.1719958813667701E-2</v>
+        <v>0.122033001905067</v>
       </c>
       <c r="W92" t="s">
         <v>99</v>
@@ -14789,13 +14799,13 @@
         <v>7.9770452545754406E-2</v>
       </c>
       <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93" t="s">
-        <v>95</v>
+        <v>3.2170383027539098E-3</v>
+      </c>
+      <c r="S93" s="1">
+        <v>8.1013639986581096E-5</v>
       </c>
       <c r="T93">
-        <v>1.2053189775337E-2</v>
+        <v>1.8148455417030199E-2</v>
       </c>
       <c r="U93">
         <v>0</v>
@@ -14860,13 +14870,13 @@
         <v>7.97704525494842E-2</v>
       </c>
       <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94" t="s">
-        <v>95</v>
+        <v>7.2187200939843798E-3</v>
+      </c>
+      <c r="S94">
+        <v>1.80587756673006E-4</v>
       </c>
       <c r="T94">
-        <v>2.7581017833770399E-2</v>
+        <v>4.1359432480041501E-2</v>
       </c>
       <c r="U94">
         <v>0</v>
@@ -14930,20 +14940,20 @@
       <c r="Q95">
         <v>1.1167863356405701</v>
       </c>
-      <c r="R95" t="s">
-        <v>94</v>
+      <c r="R95">
+        <v>8.2870906678940699</v>
       </c>
       <c r="S95">
-        <v>1.8040525138816399</v>
-      </c>
-      <c r="T95" t="s">
-        <v>95</v>
+        <v>1.26084630585403</v>
+      </c>
+      <c r="T95">
+        <v>350.406898578469</v>
       </c>
       <c r="U95">
-        <v>5.5370145872070103E-3</v>
+        <v>1.44645206307137E-2</v>
       </c>
       <c r="V95">
-        <v>1.30119842799365E-2</v>
+        <v>3.1620114867141599E-2</v>
       </c>
       <c r="W95" t="s">
         <v>96</v>
@@ -15001,27 +15011,27 @@
       <c r="Q96">
         <v>0.55839316782027903</v>
       </c>
-      <c r="R96" t="s">
-        <v>94</v>
+      <c r="R96">
+        <v>4.1435453339470296</v>
       </c>
       <c r="S96">
-        <v>0.69695896119261203</v>
-      </c>
-      <c r="T96" t="s">
-        <v>95</v>
+        <v>0.53232739313839805</v>
+      </c>
+      <c r="T96">
+        <v>186.74567276893799</v>
       </c>
       <c r="U96">
-        <v>5.9487920077744498E-2</v>
+        <v>0.14858012469964099</v>
       </c>
       <c r="V96">
-        <v>0.10167026340559999</v>
+        <v>0.221690979710575</v>
       </c>
       <c r="W96" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W96" xr:uid="{CCA65FDB-1D36-244F-87BF-DCDEA8529E14}"/>
+  <autoFilter ref="A2:W96" xr:uid="{0E4F46F9-8CDB-FF4E-A0BE-C2DA3F5DD4B5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22310,7 +22320,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -22475,7 +22485,7 @@
         <v>0.36466447280367498</v>
       </c>
       <c r="AA2">
-        <v>0.47982167474167797</v>
+        <v>0.50647843444954899</v>
       </c>
       <c r="AB2" t="s">
         <v>99</v>
@@ -22549,19 +22559,19 @@
         <v>0.39324507021719801</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>95</v>
+        <v>0.15572850932547999</v>
+      </c>
+      <c r="X3">
+        <v>3.3855798394273702E-3</v>
       </c>
       <c r="Y3">
-        <v>1.0196596098487301</v>
+        <v>1.28357934956395</v>
       </c>
       <c r="Z3">
-        <v>2.07084650053092E-2</v>
+        <v>4.7622763207034097E-2</v>
       </c>
       <c r="AA3">
-        <v>7.3958803590390004E-2</v>
+        <v>0.17008129716797901</v>
       </c>
       <c r="AB3" t="s">
         <v>99</v>
@@ -22647,7 +22657,7 @@
         <v>0.20582052907013099</v>
       </c>
       <c r="AA4">
-        <v>0.34303421511688498</v>
+        <v>0.42879276889610601</v>
       </c>
       <c r="AB4" t="s">
         <v>99</v>
@@ -22819,7 +22829,7 @@
         <v>0.18716741282034599</v>
       </c>
       <c r="AA6">
-        <v>0.34303421511688498</v>
+        <v>0.42879276889610601</v>
       </c>
       <c r="AB6" t="s">
         <v>99</v>
@@ -23064,20 +23074,20 @@
       <c r="V9">
         <v>0.58983289375710402</v>
       </c>
-      <c r="W9" t="s">
-        <v>94</v>
+      <c r="W9">
+        <v>2.4157665778175699</v>
       </c>
       <c r="X9">
-        <v>0.24956762409747499</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>95</v>
+        <v>0.23906020405717601</v>
+      </c>
+      <c r="Y9">
+        <v>118.970387834032</v>
       </c>
       <c r="Z9">
-        <v>0.17828966648296299</v>
+        <v>0.41523223878603399</v>
       </c>
       <c r="AA9">
-        <v>0.34303421511688498</v>
+        <v>0.51904029848254296</v>
       </c>
       <c r="AB9" t="s">
         <v>99</v>
@@ -23166,7 +23176,7 @@
         <v>1.0114899048147601E-2</v>
       </c>
       <c r="AA10">
-        <v>5.0574495240738003E-2</v>
+        <v>7.9196620633866996E-2</v>
       </c>
       <c r="AB10" t="s">
         <v>99</v>
@@ -23325,20 +23335,20 @@
       <c r="V12">
         <v>0.31691394144073098</v>
       </c>
-      <c r="W12" t="s">
-        <v>94</v>
+      <c r="W12">
+        <v>7.2472997334527003</v>
       </c>
       <c r="X12">
-        <v>1.5157903459317901</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>95</v>
+        <v>1.07228911751417</v>
+      </c>
+      <c r="Y12">
+        <v>309.8055971128</v>
       </c>
       <c r="Z12">
-        <v>9.9527409044819493E-3</v>
+        <v>2.5775633115687601E-2</v>
       </c>
       <c r="AA12">
-        <v>5.0574495240738003E-2</v>
+        <v>0.10739847131536499</v>
       </c>
       <c r="AB12" t="s">
         <v>99</v>
@@ -23411,20 +23421,20 @@
       <c r="V13">
         <v>0.57332958555936797</v>
       </c>
-      <c r="W13" t="s">
-        <v>94</v>
+      <c r="W13">
+        <v>3.01970822227196</v>
       </c>
       <c r="X13">
-        <v>0.39867638579617798</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>95</v>
+        <v>0.337900333871892</v>
+      </c>
+      <c r="Y13">
+        <v>142.82476612354</v>
       </c>
       <c r="Z13">
-        <v>0.120119383299407</v>
+        <v>0.28869032235183401</v>
       </c>
       <c r="AA13">
-        <v>0.30029845824851698</v>
+        <v>0.45107862867474102</v>
       </c>
       <c r="AB13" t="s">
         <v>99</v>
@@ -23497,20 +23507,20 @@
       <c r="V14">
         <v>0.57332958555936797</v>
       </c>
-      <c r="W14" t="s">
-        <v>94</v>
+      <c r="W14">
+        <v>3.01970822227196</v>
       </c>
       <c r="X14">
-        <v>0.39867638579617798</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>95</v>
+        <v>0.337900333871892</v>
+      </c>
+      <c r="Y14">
+        <v>142.82476612354</v>
       </c>
       <c r="Z14">
-        <v>0.120119383299407</v>
+        <v>0.28869032235183401</v>
       </c>
       <c r="AA14">
-        <v>0.30029845824851698</v>
+        <v>0.45107862867474102</v>
       </c>
       <c r="AB14" t="s">
         <v>99</v>
@@ -23596,7 +23606,7 @@
         <v>0.14693697734225</v>
       </c>
       <c r="AA15">
-        <v>0.33394767577784101</v>
+        <v>0.40815827039513902</v>
       </c>
       <c r="AB15" t="s">
         <v>99</v>
@@ -23854,7 +23864,7 @@
         <v>0.196106509066408</v>
       </c>
       <c r="AA18">
-        <v>0.34303421511688498</v>
+        <v>0.42879276889610601</v>
       </c>
       <c r="AB18" t="s">
         <v>99</v>
@@ -23927,20 +23937,20 @@
       <c r="V19">
         <v>2.18579884189608E-4</v>
       </c>
-      <c r="W19" t="s">
-        <v>94</v>
+      <c r="W19">
+        <v>8.7681016274654393</v>
       </c>
       <c r="X19">
-        <v>1.6629879554611999</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>95</v>
+        <v>1.2149759928292601</v>
+      </c>
+      <c r="Y19">
+        <v>384.31477255472402</v>
       </c>
       <c r="Z19">
-        <v>5.2424119956481201E-3</v>
+        <v>1.2818944413031301E-2</v>
       </c>
       <c r="AA19">
-        <v>4.3686766630400997E-2</v>
+        <v>7.9196620633866996E-2</v>
       </c>
       <c r="AB19" t="s">
         <v>96</v>
@@ -24112,7 +24122,7 @@
         <v>0.40925023363667601</v>
       </c>
       <c r="AA21">
-        <v>0.51156279204584498</v>
+        <v>0.51904029848254296</v>
       </c>
       <c r="AB21" t="s">
         <v>99</v>
@@ -24198,7 +24208,7 @@
         <v>0.33658887105069801</v>
       </c>
       <c r="AA22">
-        <v>0.46748454312596899</v>
+        <v>0.49498363389808497</v>
       </c>
       <c r="AB22" t="s">
         <v>99</v>
@@ -24284,7 +24294,7 @@
         <v>0.27156933082407297</v>
       </c>
       <c r="AA23">
-        <v>0.39936666297657802</v>
+        <v>0.45107862867474102</v>
       </c>
       <c r="AB23" t="s">
         <v>99</v>
@@ -24456,7 +24466,7 @@
         <v>0.26717890250376097</v>
       </c>
       <c r="AA25">
-        <v>0.39936666297657802</v>
+        <v>0.45107862867474102</v>
       </c>
       <c r="AB25" t="s">
         <v>99</v>
@@ -24542,7 +24552,7 @@
         <v>1.5839324126773399E-2</v>
       </c>
       <c r="AA26">
-        <v>6.59971838615558E-2</v>
+        <v>7.9196620633866996E-2</v>
       </c>
       <c r="AB26" t="s">
         <v>99</v>
@@ -24716,22 +24726,22 @@
         <v>5.3825470918450798E-18</v>
       </c>
       <c r="W2">
-        <v>3.1198568161479598</v>
+        <v>3.4665075734977302</v>
       </c>
       <c r="X2">
-        <v>0.83014765511696498</v>
+        <v>1.62283389830489</v>
       </c>
       <c r="Y2">
-        <v>26.299131107016802</v>
+        <v>8.2369351059597893</v>
       </c>
       <c r="Z2">
-        <v>9.4501526619716003E-2</v>
+        <v>4.2710586057637101E-4</v>
       </c>
       <c r="AA2">
-        <v>0.79223209676408202</v>
+        <v>1.07648294605885E-2</v>
       </c>
       <c r="AB2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -24802,19 +24812,19 @@
         <v>0.98667855019293305</v>
       </c>
       <c r="W3">
-        <v>0.56724669384508297</v>
+        <v>0.94541115640847195</v>
       </c>
       <c r="X3">
-        <v>6.8820429436100394E-2</v>
+        <v>0.12662609012567</v>
       </c>
       <c r="Y3">
-        <v>26.0919801753193</v>
+        <v>7.0585947475323003</v>
       </c>
       <c r="Z3">
-        <v>0.59475383788277403</v>
+        <v>0.945180411002427</v>
       </c>
       <c r="AA3">
-        <v>0.87285059692981404</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB3" t="s">
         <v>99</v>
@@ -24888,19 +24898,19 @@
         <v>0.63059373982172995</v>
       </c>
       <c r="W4">
-        <v>0.37816446256338898</v>
+        <v>0.63027410427231401</v>
       </c>
       <c r="X4">
-        <v>3.7422520212713702E-2</v>
+        <v>5.26422790773187E-2</v>
       </c>
       <c r="Y4">
-        <v>18.623642362359199</v>
+        <v>5.5020627973311198</v>
       </c>
       <c r="Z4">
-        <v>0.36576406569119302</v>
+        <v>0.609940827200387</v>
       </c>
       <c r="AA4">
-        <v>0.84580173580181395</v>
+        <v>0.81960798655052003</v>
       </c>
       <c r="AB4" t="s">
         <v>99</v>
@@ -24974,19 +24984,19 @@
         <v>0.93998853337520405</v>
       </c>
       <c r="W5">
-        <v>1.3235756189718599</v>
+        <v>1.1029796824765501</v>
       </c>
       <c r="X5">
-        <v>0.20137651397546699</v>
+        <v>0.31740251000129199</v>
       </c>
       <c r="Y5">
-        <v>55.965361821709898</v>
+        <v>3.9726513077085399</v>
       </c>
       <c r="Z5">
-        <v>0.78583932041165006</v>
+        <v>0.86010112538882799</v>
       </c>
       <c r="AA5">
-        <v>0.87285059692981404</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB5" t="s">
         <v>99</v>
@@ -25060,19 +25070,19 @@
         <v>0.93998853337520405</v>
       </c>
       <c r="W6">
-        <v>1.1344933876901699</v>
+        <v>0.94541115640847195</v>
       </c>
       <c r="X6">
-        <v>0.28166269800389698</v>
+        <v>0.38848682108517202</v>
       </c>
       <c r="Y6">
-        <v>9.9041057519213709</v>
+        <v>2.3007273507114601</v>
       </c>
       <c r="Z6">
-        <v>0.86377934585748795</v>
+        <v>0.89062029611306903</v>
       </c>
       <c r="AA6">
-        <v>0.90591492370419502</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB6" t="s">
         <v>99</v>
@@ -25146,19 +25156,19 @@
         <v>0.43783457787582503</v>
       </c>
       <c r="W7">
-        <v>0.75632892512677696</v>
+        <v>0.63027410427231401</v>
       </c>
       <c r="X7">
-        <v>0.10140043568215901</v>
+        <v>0.13081809586893101</v>
       </c>
       <c r="Y7">
-        <v>33.5603230540383</v>
+        <v>2.6578287508065799</v>
       </c>
       <c r="Z7">
-        <v>0.79165519256424999</v>
+        <v>0.47062015345346297</v>
       </c>
       <c r="AA7">
-        <v>0.87285059692981404</v>
+        <v>0.69781608960341102</v>
       </c>
       <c r="AB7" t="s">
         <v>99</v>
@@ -25232,19 +25242,19 @@
         <v>0.72097329249386699</v>
       </c>
       <c r="W8">
-        <v>0.75632892512677696</v>
+        <v>1.26054820854463</v>
       </c>
       <c r="X8">
-        <v>0.10140043568215901</v>
+        <v>0.21325416962704499</v>
       </c>
       <c r="Y8">
-        <v>33.5603230540383</v>
+        <v>8.6053272874120594</v>
       </c>
       <c r="Z8">
-        <v>0.79165519256424999</v>
+        <v>0.76124793939552304</v>
       </c>
       <c r="AA8">
-        <v>0.87285059692981404</v>
+        <v>0.935247468400214</v>
       </c>
       <c r="AB8" t="s">
         <v>99</v>
@@ -25317,20 +25327,20 @@
       <c r="V9">
         <v>0.50711129848101</v>
       </c>
-      <c r="W9" t="s">
-        <v>94</v>
+      <c r="W9">
+        <v>3.78164462563389</v>
       </c>
       <c r="X9">
-        <v>8.6633305074628603E-2</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>95</v>
+        <v>0.374225202127137</v>
+      </c>
+      <c r="Y9">
+        <v>186.236423623592</v>
       </c>
       <c r="Z9">
-        <v>0.49174519523361299</v>
+        <v>0.20075741501851099</v>
       </c>
       <c r="AA9">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB9" t="s">
         <v>99</v>
@@ -25403,20 +25413,20 @@
       <c r="V10">
         <v>0.419934459963693</v>
       </c>
-      <c r="W10" t="s">
-        <v>94</v>
+      <c r="W10">
+        <v>5.6724669384508299</v>
       </c>
       <c r="X10">
-        <v>0.186607741607068</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>95</v>
+        <v>0.68820429436100505</v>
+      </c>
+      <c r="Y10">
+        <v>260.91980175319298</v>
       </c>
       <c r="Z10">
-        <v>0.35630650982689599</v>
+        <v>6.9325789525749706E-2</v>
       </c>
       <c r="AA10">
-        <v>0.84580173580181395</v>
+        <v>0.37262611870090501</v>
       </c>
       <c r="AB10" t="s">
         <v>99</v>
@@ -25489,20 +25499,20 @@
       <c r="V11">
         <v>0.47597408823194998</v>
       </c>
-      <c r="W11" t="s">
-        <v>94</v>
+      <c r="W11">
+        <v>3.78164462563389</v>
       </c>
       <c r="X11">
-        <v>0.11131504715308201</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>95</v>
+        <v>0.374225202127137</v>
+      </c>
+      <c r="Y11">
+        <v>186.236423623592</v>
       </c>
       <c r="Z11">
-        <v>0.45135520246920402</v>
+        <v>0.20075741501851099</v>
       </c>
       <c r="AA11">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB11" t="s">
         <v>99</v>
@@ -25575,20 +25585,20 @@
       <c r="V12">
         <v>0.52234066031891502</v>
       </c>
-      <c r="W12" t="s">
-        <v>94</v>
+      <c r="W12">
+        <v>2.8362334692254101</v>
       </c>
       <c r="X12">
-        <v>6.2408861251623399E-2</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>95</v>
+        <v>0.22773085474799901</v>
+      </c>
+      <c r="Y12">
+        <v>148.89477730107399</v>
       </c>
       <c r="Z12">
-        <v>0.53858729535445105</v>
+        <v>0.34504226091941398</v>
       </c>
       <c r="AA12">
-        <v>0.85775013704597802</v>
+        <v>0.675930754131298</v>
       </c>
       <c r="AB12" t="s">
         <v>99</v>
@@ -25661,20 +25671,20 @@
       <c r="V13">
         <v>0.47597408823194998</v>
       </c>
-      <c r="W13" t="s">
-        <v>94</v>
+      <c r="W13">
+        <v>3.78164462563389</v>
       </c>
       <c r="X13">
-        <v>0.11131504715308201</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>95</v>
+        <v>0.374225202127137</v>
+      </c>
+      <c r="Y13">
+        <v>186.236423623592</v>
       </c>
       <c r="Z13">
-        <v>0.45135520246920402</v>
+        <v>0.20075741501851099</v>
       </c>
       <c r="AA13">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB13" t="s">
         <v>99</v>
@@ -25748,19 +25758,19 @@
         <v>0.257074297246697</v>
       </c>
       <c r="W14">
-        <v>0.51888726511571504</v>
+        <v>0.51585242516660401</v>
       </c>
       <c r="X14">
-        <v>0.15841789098748599</v>
+        <v>0.21425046158675901</v>
       </c>
       <c r="Y14">
-        <v>1.3336728894915</v>
+        <v>1.1659979749849201</v>
       </c>
       <c r="Z14">
-        <v>0.16318420950343901</v>
+        <v>8.4455069993646603E-2</v>
       </c>
       <c r="AA14">
-        <v>0.84580173580181395</v>
+        <v>0.40350755663631199</v>
       </c>
       <c r="AB14" t="s">
         <v>99</v>
@@ -25834,19 +25844,19 @@
         <v>0.98100035774888095</v>
       </c>
       <c r="W15">
-        <v>0.58807223379781004</v>
+        <v>0.65341307187769804</v>
       </c>
       <c r="X15">
-        <v>1.27848491422445E-2</v>
+        <v>5.4574911216235499E-2</v>
       </c>
       <c r="Y15">
-        <v>4.8471367164837398</v>
+        <v>5.7040575357588104</v>
       </c>
       <c r="Z15">
-        <v>0.61896663192117896</v>
+        <v>0.63857872398079396</v>
       </c>
       <c r="AA15">
-        <v>0.87285059692981404</v>
+        <v>0.83208742821739801</v>
       </c>
       <c r="AB15" t="s">
         <v>99</v>
@@ -25920,19 +25930,19 @@
         <v>0.52234066031891502</v>
       </c>
       <c r="W16">
-        <v>0.58807223379781004</v>
+        <v>0.560068347323741</v>
       </c>
       <c r="X16">
-        <v>6.3924264125025707E-2</v>
+        <v>0.120227740695657</v>
       </c>
       <c r="Y16">
-        <v>2.6415496801059302</v>
+        <v>2.2030716849162602</v>
       </c>
       <c r="Z16">
-        <v>0.48186284234089399</v>
+        <v>0.34830705209715601</v>
       </c>
       <c r="AA16">
-        <v>0.84580173580181395</v>
+        <v>0.675930754131298</v>
       </c>
       <c r="AB16" t="s">
         <v>99</v>
@@ -26006,19 +26016,19 @@
         <v>0.70503643208464395</v>
       </c>
       <c r="W17">
-        <v>1.4113733611147501</v>
+        <v>1.3068261437554001</v>
       </c>
       <c r="X17">
-        <v>0.13439870967852699</v>
+        <v>0.221083273328537</v>
       </c>
       <c r="Y17">
-        <v>8.6209464915515408</v>
+        <v>8.9212507689376803</v>
       </c>
       <c r="Z17">
-        <v>0.67896820465338803</v>
+        <v>0.72527451076008198</v>
       </c>
       <c r="AA17">
-        <v>0.87285059692981404</v>
+        <v>0.91725894007892705</v>
       </c>
       <c r="AB17" t="s">
         <v>99</v>
@@ -26092,19 +26102,19 @@
         <v>0.47597408823194998</v>
       </c>
       <c r="W18">
-        <v>0.73509029224726297</v>
+        <v>0.72601452430855296</v>
       </c>
       <c r="X18">
-        <v>0.331591566983026</v>
+        <v>0.38605118601854499</v>
       </c>
       <c r="Y18">
-        <v>1.4714651824225</v>
+        <v>1.34362399315781</v>
       </c>
       <c r="Z18">
-        <v>0.374081571488593</v>
+        <v>0.27574386297319697</v>
       </c>
       <c r="AA18">
-        <v>0.84580173580181395</v>
+        <v>0.65872145043597097</v>
       </c>
       <c r="AB18" t="s">
         <v>99</v>
@@ -26178,19 +26188,19 @@
         <v>0.98667855019293305</v>
       </c>
       <c r="W19">
-        <v>1.11424212719585</v>
+        <v>0.98011960781654694</v>
       </c>
       <c r="X19">
-        <v>0.364213306909273</v>
+        <v>0.38534984584204401</v>
       </c>
       <c r="Y19">
-        <v>2.9019590751526598</v>
+        <v>2.4928891395488701</v>
       </c>
       <c r="Z19">
-        <v>0.81723011289651304</v>
+        <v>0.96243837423594902</v>
       </c>
       <c r="AA19">
-        <v>0.878522371363751</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB19" t="s">
         <v>99</v>
@@ -26264,19 +26274,19 @@
         <v>0.63059373982172995</v>
       </c>
       <c r="W20">
-        <v>0.70568668055737305</v>
+        <v>0.71281426023021599</v>
       </c>
       <c r="X20">
-        <v>0.17538944411145099</v>
+        <v>0.24890353552596001</v>
       </c>
       <c r="Y20">
-        <v>2.1066168373780698</v>
+        <v>1.94562939426423</v>
       </c>
       <c r="Z20">
-        <v>0.52240073180711299</v>
+        <v>0.464141337845004</v>
       </c>
       <c r="AA20">
-        <v>0.85775013704597802</v>
+        <v>0.69781608960341102</v>
       </c>
       <c r="AB20" t="s">
         <v>99</v>
@@ -26350,19 +26360,19 @@
         <v>0.72709535328090202</v>
       </c>
       <c r="W21">
-        <v>5.2926501041802902</v>
+        <v>6.3707774508075596</v>
       </c>
       <c r="X21">
-        <v>1.2550922637986699</v>
+        <v>1.4423051956872901</v>
       </c>
       <c r="Y21">
-        <v>25.4996855097265</v>
+        <v>58.149026508887097</v>
       </c>
       <c r="Z21">
-        <v>3.8446797695522702E-3</v>
+        <v>5.0875745756833197E-3</v>
       </c>
       <c r="AA21">
-        <v>0.15376997847221699</v>
+        <v>7.2921902251460904E-2</v>
       </c>
       <c r="AB21" t="s">
         <v>99</v>
@@ -26436,19 +26446,19 @@
         <v>0.93998853337520405</v>
       </c>
       <c r="W22">
-        <v>0.441054175348358</v>
+        <v>0.49005980390827403</v>
       </c>
       <c r="X22">
-        <v>9.9397741144140392E-3</v>
+        <v>4.4329841649883198E-2</v>
       </c>
       <c r="Y22">
-        <v>3.2897494780941301</v>
+        <v>3.4194135042756799</v>
       </c>
       <c r="Z22">
-        <v>0.42748645043646</v>
+        <v>0.40027465182198202</v>
       </c>
       <c r="AA22">
-        <v>0.84580173580181395</v>
+        <v>0.68847240113380903</v>
       </c>
       <c r="AB22" t="s">
         <v>99</v>
@@ -26522,19 +26532,19 @@
         <v>0.93998853337520405</v>
       </c>
       <c r="W23">
-        <v>0.441054175348358</v>
+        <v>0.49005980390827403</v>
       </c>
       <c r="X23">
-        <v>9.9397741144140392E-3</v>
+        <v>4.4329841649883198E-2</v>
       </c>
       <c r="Y23">
-        <v>3.2897494780941301</v>
+        <v>3.4194135042756799</v>
       </c>
       <c r="Z23">
-        <v>0.42748645043646</v>
+        <v>0.40027465182198202</v>
       </c>
       <c r="AA23">
-        <v>0.84580173580181395</v>
+        <v>0.68847240113380903</v>
       </c>
       <c r="AB23" t="s">
         <v>99</v>
@@ -26608,19 +26618,19 @@
         <v>0.98667855019293305</v>
       </c>
       <c r="W24">
-        <v>0.882108350696716</v>
+        <v>0.98011960781654694</v>
       </c>
       <c r="X24">
-        <v>1.7911750229810501E-2</v>
+        <v>7.1043924277347001E-2</v>
       </c>
       <c r="Y24">
-        <v>8.9139381438712295</v>
+        <v>13.521697392112801</v>
       </c>
       <c r="Z24">
-        <v>0.91060871486894301</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AA24">
-        <v>0.93228987474677505</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB24" t="s">
         <v>99</v>
@@ -26694,19 +26704,19 @@
         <v>0.63059373982172995</v>
       </c>
       <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>95</v>
+        <v>0.24502990195413701</v>
+      </c>
+      <c r="X25">
+        <v>4.9754822059795102E-3</v>
       </c>
       <c r="Y25">
-        <v>2.9967379873194799</v>
+        <v>2.4760919536617898</v>
       </c>
       <c r="Z25">
-        <v>0.192226476261914</v>
+        <v>0.172517760302518</v>
       </c>
       <c r="AA25">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB25" t="s">
         <v>99</v>
@@ -26780,19 +26790,19 @@
         <v>0.47597408823194998</v>
       </c>
       <c r="W26">
-        <v>0.75073051123124701</v>
+        <v>0.75393815985888202</v>
       </c>
       <c r="X26">
-        <v>0.33822948775671302</v>
+        <v>0.399054868284965</v>
       </c>
       <c r="Y26">
-        <v>1.50540918125871</v>
+        <v>1.4041856291994299</v>
       </c>
       <c r="Z26">
-        <v>0.40874493989302002</v>
+        <v>0.34069877772380702</v>
       </c>
       <c r="AA26">
-        <v>0.84580173580181395</v>
+        <v>0.675930754131298</v>
       </c>
       <c r="AB26" t="s">
         <v>99</v>
@@ -26865,20 +26875,20 @@
       <c r="V27">
         <v>1.0585419429761701E-3</v>
       </c>
-      <c r="W27">
-        <v>10.5853002083606</v>
+      <c r="W27" t="s">
+        <v>94</v>
       </c>
       <c r="X27">
-        <v>0.84992984194367704</v>
-      </c>
-      <c r="Y27">
-        <v>555.7003449435</v>
+        <v>1.15401706041029</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>95</v>
       </c>
       <c r="Z27">
-        <v>1.07281380329454E-2</v>
+        <v>1.53077023948894E-2</v>
       </c>
       <c r="AA27">
-        <v>0.15376997847221699</v>
+        <v>0.13164624059604901</v>
       </c>
       <c r="AB27" t="s">
         <v>100</v>
@@ -26951,20 +26961,20 @@
       <c r="V28">
         <v>4.8031047071304303E-2</v>
       </c>
-      <c r="W28">
-        <v>10.5853002083606</v>
+      <c r="W28" t="s">
+        <v>94</v>
       </c>
       <c r="X28">
-        <v>0.84992984194367704</v>
-      </c>
-      <c r="Y28">
-        <v>555.7003449435</v>
+        <v>1.15401706041029</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>95</v>
       </c>
       <c r="Z28">
-        <v>1.07281380329454E-2</v>
+        <v>1.53077023948894E-2</v>
       </c>
       <c r="AA28">
-        <v>0.15376997847221699</v>
+        <v>0.13164624059604901</v>
       </c>
       <c r="AB28" t="s">
         <v>100</v>
@@ -27038,22 +27048,22 @@
         <v>3.85489057306002E-2</v>
       </c>
       <c r="W29">
-        <v>6.8907329740633703</v>
+        <v>8.61341890642748</v>
       </c>
       <c r="X29">
-        <v>1.0879727123465099</v>
+        <v>2.0621923686106598</v>
       </c>
       <c r="Y29">
-        <v>287.09857072757001</v>
+        <v>76.545843634396604</v>
       </c>
       <c r="Z29">
-        <v>2.8946361858728498E-2</v>
+        <v>5.0068974235295495E-4</v>
       </c>
       <c r="AA29">
-        <v>0.31117338998133098</v>
+        <v>1.07648294605885E-2</v>
       </c>
       <c r="AB29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -27124,19 +27134,19 @@
         <v>3.5257815550710697E-2</v>
       </c>
       <c r="W30">
-        <v>1.91409249279538</v>
+        <v>1.8609238378084101</v>
       </c>
       <c r="X30">
-        <v>0.837744696430193</v>
+        <v>1.02577385040174</v>
       </c>
       <c r="Y30">
-        <v>5.1063535065875199</v>
+        <v>3.4902032471122002</v>
       </c>
       <c r="Z30">
-        <v>0.11054401350196499</v>
+        <v>2.95656964170572E-2</v>
       </c>
       <c r="AA30">
-        <v>0.79223209676408202</v>
+        <v>0.21188749098890999</v>
       </c>
       <c r="AB30" t="s">
         <v>100</v>
@@ -27210,19 +27220,19 @@
         <v>0.419934459963693</v>
       </c>
       <c r="W31">
-        <v>2.10550174207492</v>
+        <v>1.7545853327907801</v>
       </c>
       <c r="X31">
-        <v>0.45952007015171997</v>
+        <v>0.59479583103370604</v>
       </c>
       <c r="Y31">
-        <v>19.5487187769934</v>
+        <v>5.7780941780324904</v>
       </c>
       <c r="Z31">
-        <v>0.32163299337934198</v>
+        <v>0.26166999329738599</v>
       </c>
       <c r="AA31">
-        <v>0.84580173580181395</v>
+        <v>0.65872145043597097</v>
       </c>
       <c r="AB31" t="s">
         <v>99</v>
@@ -27295,20 +27305,20 @@
       <c r="V32">
         <v>0.11541497751829299</v>
       </c>
-      <c r="W32" t="s">
-        <v>94</v>
+      <c r="W32">
+        <v>5.7422792709516601</v>
       </c>
       <c r="X32">
-        <v>0.45073996566806201</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>95</v>
+        <v>0.69667418013517302</v>
+      </c>
+      <c r="Y32">
+        <v>264.13100071718702</v>
       </c>
       <c r="Z32">
-        <v>0.12963167151899699</v>
+        <v>6.6922588880014303E-2</v>
       </c>
       <c r="AA32">
-        <v>0.79630883933098195</v>
+        <v>0.37262611870090501</v>
       </c>
       <c r="AB32" t="s">
         <v>99</v>
@@ -27382,19 +27392,19 @@
         <v>0.63059373982172995</v>
       </c>
       <c r="W33">
-        <v>1.4036678280499499</v>
+        <v>1.3159389995930899</v>
       </c>
       <c r="X33">
-        <v>0.37079730600738298</v>
+        <v>0.48211652602923599</v>
       </c>
       <c r="Y33">
-        <v>7.8358236469416704</v>
+        <v>3.7686089212067602</v>
       </c>
       <c r="Z33">
-        <v>0.60090497415855304</v>
+        <v>0.55336883997265296</v>
       </c>
       <c r="AA33">
-        <v>0.87285059692981404</v>
+        <v>0.79316200396080305</v>
       </c>
       <c r="AB33" t="s">
         <v>99</v>
@@ -27468,19 +27478,19 @@
         <v>0.63059373982172995</v>
       </c>
       <c r="W34">
-        <v>1.5312739942363001</v>
+        <v>1.91409309031722</v>
       </c>
       <c r="X34">
-        <v>0.15153230319971001</v>
+        <v>0.274321921969988</v>
       </c>
       <c r="Y34">
-        <v>75.411367409115002</v>
+        <v>21.160014328756599</v>
       </c>
       <c r="Z34">
-        <v>0.70097472574960396</v>
+        <v>0.44551208177404999</v>
       </c>
       <c r="AA34">
-        <v>0.87285059692981404</v>
+        <v>0.69781608960341102</v>
       </c>
       <c r="AB34" t="s">
         <v>99</v>
@@ -27554,19 +27564,19 @@
         <v>0.47597408823194998</v>
       </c>
       <c r="W35">
-        <v>1.7226832435158399</v>
+        <v>1.7226837812855</v>
       </c>
       <c r="X35">
-        <v>0.35656184222125697</v>
+        <v>0.51846563203890506</v>
       </c>
       <c r="Y35">
-        <v>16.384522993093999</v>
+        <v>6.54341052327851</v>
       </c>
       <c r="Z35">
-        <v>0.48121861746111699</v>
+        <v>0.32356447858345</v>
       </c>
       <c r="AA35">
-        <v>0.84580173580181395</v>
+        <v>0.675930754131298</v>
       </c>
       <c r="AB35" t="s">
         <v>99</v>
@@ -27640,19 +27650,19 @@
         <v>0.72709970493380705</v>
       </c>
       <c r="W36">
-        <v>0.76563699711815203</v>
+        <v>0.95704654515860899</v>
       </c>
       <c r="X36">
-        <v>0.10972873453400001</v>
+        <v>0.17825718383330899</v>
       </c>
       <c r="Y36">
-        <v>8.4640030892966092</v>
+        <v>5.1382955228134604</v>
       </c>
       <c r="Z36">
-        <v>0.75711135299968402</v>
+        <v>0.95048835469493698</v>
       </c>
       <c r="AA36">
-        <v>0.87285059692981404</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB36" t="s">
         <v>99</v>
@@ -27726,19 +27736,19 @@
         <v>0.419934459963693</v>
       </c>
       <c r="W37">
-        <v>1.5312739942363001</v>
+        <v>1.91409309031722</v>
       </c>
       <c r="X37">
-        <v>0.15153230319971001</v>
+        <v>0.274321921969988</v>
       </c>
       <c r="Y37">
-        <v>75.411367409115002</v>
+        <v>21.160014328756599</v>
       </c>
       <c r="Z37">
-        <v>0.70097472574960396</v>
+        <v>0.44551208177404999</v>
       </c>
       <c r="AA37">
-        <v>0.87285059692981404</v>
+        <v>0.69781608960341102</v>
       </c>
       <c r="AB37" t="s">
         <v>99</v>
@@ -27812,19 +27822,19 @@
         <v>0.91318858360369903</v>
       </c>
       <c r="W38">
-        <v>1.27606166186359</v>
+        <v>1.59507757526435</v>
       </c>
       <c r="X38">
-        <v>0.32856611774490002</v>
+        <v>0.52524379137096899</v>
       </c>
       <c r="Y38">
-        <v>7.2156400500923699</v>
+        <v>5.3399886110697103</v>
       </c>
       <c r="Z38">
-        <v>0.71045629504669205</v>
+        <v>0.36154435686092701</v>
       </c>
       <c r="AA38">
-        <v>0.87285059692981404</v>
+        <v>0.675930754131298</v>
       </c>
       <c r="AB38" t="s">
         <v>99</v>
@@ -27898,19 +27908,19 @@
         <v>0.257074297246697</v>
       </c>
       <c r="W39">
-        <v>0.38281849855907601</v>
+        <v>0.31901551505287001</v>
       </c>
       <c r="X39">
-        <v>2.7748581098368599E-2</v>
+        <v>3.1488831848172603E-2</v>
       </c>
       <c r="Y39">
-        <v>5.2813512272755903</v>
+        <v>1.7840745441892401</v>
       </c>
       <c r="Z39">
-        <v>0.31851824398851902</v>
+        <v>0.13977029912113101</v>
       </c>
       <c r="AA39">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB39" t="s">
         <v>99</v>
@@ -27984,19 +27994,19 @@
         <v>0.72709970493380705</v>
       </c>
       <c r="W40">
-        <v>0.76563699711815203</v>
+        <v>0.95704654515860899</v>
       </c>
       <c r="X40">
-        <v>0.10972873453400001</v>
+        <v>0.17825718383330899</v>
       </c>
       <c r="Y40">
-        <v>8.4640030892966092</v>
+        <v>5.1382955228134604</v>
       </c>
       <c r="Z40">
-        <v>0.75711135299968402</v>
+        <v>0.95048835469493698</v>
       </c>
       <c r="AA40">
-        <v>0.87285059692981404</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB40" t="s">
         <v>99</v>
@@ -28070,19 +28080,19 @@
         <v>0.47597408823194998</v>
       </c>
       <c r="W41">
-        <v>2.2969109913544599</v>
+        <v>1.4355698177379099</v>
       </c>
       <c r="X41">
-        <v>0.27866958506184503</v>
+        <v>0.34042918706502501</v>
       </c>
       <c r="Y41">
-        <v>105.652367305398</v>
+        <v>6.9164932801167502</v>
       </c>
       <c r="Z41">
-        <v>0.42821256404494401</v>
+        <v>0.57330906467017195</v>
       </c>
       <c r="AA41">
-        <v>0.84580173580181395</v>
+        <v>0.79523515421991597</v>
       </c>
       <c r="AB41" t="s">
         <v>99</v>
@@ -28156,19 +28166,19 @@
         <v>0.38622736602479601</v>
       </c>
       <c r="W42">
-        <v>2.2969109913544599</v>
+        <v>2.8711396354758301</v>
       </c>
       <c r="X42">
-        <v>0.27866958506184503</v>
+        <v>0.51339675944777896</v>
       </c>
       <c r="Y42">
-        <v>105.652367305398</v>
+        <v>29.087712558418801</v>
       </c>
       <c r="Z42">
-        <v>0.42821256404494401</v>
+        <v>0.176228224889247</v>
       </c>
       <c r="AA42">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB42" t="s">
         <v>99</v>
@@ -28242,19 +28252,19 @@
         <v>0.47597408823194998</v>
       </c>
       <c r="W43">
-        <v>2.2969109913544599</v>
+        <v>2.8711396354758301</v>
       </c>
       <c r="X43">
-        <v>0.27866958506184503</v>
+        <v>0.51339675944777896</v>
       </c>
       <c r="Y43">
-        <v>105.652367305398</v>
+        <v>29.087712558418801</v>
       </c>
       <c r="Z43">
-        <v>0.42821256404494401</v>
+        <v>0.176228224889247</v>
       </c>
       <c r="AA43">
-        <v>0.84580173580181395</v>
+        <v>0.53953555286224797</v>
       </c>
       <c r="AB43" t="s">
         <v>99</v>
@@ -28328,19 +28338,19 @@
         <v>0.98667855019293305</v>
       </c>
       <c r="W44">
-        <v>1.02084932949087</v>
+        <v>0.95704654515860899</v>
       </c>
       <c r="X44">
-        <v>0.245017778487954</v>
+        <v>0.31310526411366402</v>
       </c>
       <c r="Y44">
-        <v>5.97442000961638</v>
+        <v>2.92533596390613</v>
       </c>
       <c r="Z44">
-        <v>0.97568395970718902</v>
+        <v>0.93002494820029002</v>
       </c>
       <c r="AA44">
-        <v>0.97568395970718902</v>
+        <v>0.98397876712496901</v>
       </c>
       <c r="AB44" t="s">
         <v>99</v>
@@ -28698,7 +28708,7 @@
         <v>0.193521058012979</v>
       </c>
       <c r="AA4">
-        <v>0.41759807255432302</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB4" t="s">
         <v>99</v>
@@ -28956,7 +28966,7 @@
         <v>4.6115893428084797E-3</v>
       </c>
       <c r="AA7">
-        <v>4.5403519615097497E-2</v>
+        <v>4.72687907637869E-2</v>
       </c>
       <c r="AB7" t="s">
         <v>97</v>
@@ -29201,20 +29211,20 @@
       <c r="V10">
         <v>0.108008236778456</v>
       </c>
-      <c r="W10" t="s">
-        <v>94</v>
+      <c r="W10">
+        <v>3.53345928209208</v>
       </c>
       <c r="X10">
-        <v>0.16590396143487701</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="Y10">
+        <v>174.01392379806401</v>
       </c>
       <c r="Z10">
-        <v>0.18378773903349199</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="AA10">
-        <v>0.41759807255432302</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB10" t="s">
         <v>99</v>
@@ -29287,20 +29297,20 @@
       <c r="V11">
         <v>8.3528260174254895E-2</v>
       </c>
-      <c r="W11" t="s">
-        <v>94</v>
+      <c r="W11">
+        <v>3.53345928209208</v>
       </c>
       <c r="X11">
-        <v>0.36503404177135002</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="Y11">
+        <v>174.01392379806401</v>
       </c>
       <c r="Z11">
-        <v>0.103544226183458</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="AA11">
-        <v>0.24972431020716301</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB11" t="s">
         <v>99</v>
@@ -29459,20 +29469,20 @@
       <c r="V13">
         <v>8.3528260174254895E-2</v>
       </c>
-      <c r="W13" t="s">
-        <v>94</v>
+      <c r="W13">
+        <v>3.53345928209208</v>
       </c>
       <c r="X13">
-        <v>0.36503404177135002</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="Y13">
+        <v>174.01392379806401</v>
       </c>
       <c r="Z13">
-        <v>0.103544226183458</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="AA13">
-        <v>0.24972431020716301</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB13" t="s">
         <v>99</v>
@@ -29545,20 +29555,20 @@
       <c r="V14">
         <v>8.3528260174254895E-2</v>
       </c>
-      <c r="W14" t="s">
-        <v>94</v>
+      <c r="W14">
+        <v>3.53345928209208</v>
       </c>
       <c r="X14">
-        <v>0.36503404177135002</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>95</v>
+        <v>0.34966519727571399</v>
+      </c>
+      <c r="Y14">
+        <v>174.01392379806401</v>
       </c>
       <c r="Z14">
-        <v>0.103544226183458</v>
+        <v>0.228020413118356</v>
       </c>
       <c r="AA14">
-        <v>0.24972431020716301</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB14" t="s">
         <v>99</v>
@@ -29644,7 +29654,7 @@
         <v>7.5449170024469006E-2</v>
       </c>
       <c r="AA15">
-        <v>0.220958283643088</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB15" t="s">
         <v>99</v>
@@ -29717,20 +29727,20 @@
       <c r="V16">
         <v>0.208361056326238</v>
       </c>
-      <c r="W16" t="s">
-        <v>94</v>
+      <c r="W16">
+        <v>4.1435453339470296</v>
       </c>
       <c r="X16">
-        <v>0.69695896119261203</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>95</v>
+        <v>0.53232739313839805</v>
+      </c>
+      <c r="Y16">
+        <v>186.74567276893799</v>
       </c>
       <c r="Z16">
-        <v>5.9487920077744498E-2</v>
+        <v>0.14858012469964099</v>
       </c>
       <c r="AA16">
-        <v>0.20325039359895999</v>
+        <v>0.43512750804894901</v>
       </c>
       <c r="AB16" t="s">
         <v>99</v>
@@ -29803,20 +29813,20 @@
       <c r="V17">
         <v>3.5191719943889303E-2</v>
       </c>
-      <c r="W17" t="s">
-        <v>94</v>
+      <c r="W17">
+        <v>8.2870906678940699</v>
       </c>
       <c r="X17">
-        <v>1.8040525138816399</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>95</v>
+        <v>1.26084630585403</v>
+      </c>
+      <c r="Y17">
+        <v>350.406898578469</v>
       </c>
       <c r="Z17">
-        <v>5.5370145872070103E-3</v>
+        <v>1.44645206307137E-2</v>
       </c>
       <c r="AA17">
-        <v>4.5403519615097497E-2</v>
+        <v>0.118609069171852</v>
       </c>
       <c r="AB17" t="s">
         <v>96</v>
@@ -30061,20 +30071,20 @@
       <c r="V20">
         <v>0.208361056326238</v>
       </c>
-      <c r="W20" t="s">
-        <v>94</v>
+      <c r="W20">
+        <v>4.1435453339470296</v>
       </c>
       <c r="X20">
-        <v>0.69695896119261203</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>95</v>
+        <v>0.53232739313839805</v>
+      </c>
+      <c r="Y20">
+        <v>186.74567276893799</v>
       </c>
       <c r="Z20">
-        <v>5.9487920077744498E-2</v>
+        <v>0.14858012469964099</v>
       </c>
       <c r="AA20">
-        <v>0.20325039359895999</v>
+        <v>0.43512750804894901</v>
       </c>
       <c r="AB20" t="s">
         <v>99</v>
@@ -30233,20 +30243,20 @@
       <c r="V22">
         <v>0.108008236778456</v>
       </c>
-      <c r="W22" t="s">
-        <v>94</v>
+      <c r="W22">
+        <v>5.3274154293604701</v>
       </c>
       <c r="X22">
-        <v>1.01041571701372</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>95</v>
+        <v>0.73820789556383903</v>
+      </c>
+      <c r="Y22">
+        <v>233.50601259294899</v>
       </c>
       <c r="Z22">
-        <v>2.9546788793777101E-2</v>
+        <v>7.5296958622275506E-2</v>
       </c>
       <c r="AA22">
-        <v>0.201903056757477</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB22" t="s">
         <v>99</v>
@@ -30663,20 +30673,20 @@
       <c r="V27" s="1">
         <v>1.8649635154938299E-5</v>
       </c>
-      <c r="W27" t="s">
-        <v>94</v>
+      <c r="W27">
+        <v>11.188641826887199</v>
       </c>
       <c r="X27">
-        <v>2.3401316199191302</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>95</v>
+        <v>1.6554384821916599</v>
+      </c>
+      <c r="Y27">
+        <v>478.28901653673398</v>
       </c>
       <c r="Z27">
-        <v>1.36223131283419E-3</v>
+        <v>3.42817207654933E-3</v>
       </c>
       <c r="AA27">
-        <v>1.8617161275400598E-2</v>
+        <v>4.68516850461742E-2</v>
       </c>
       <c r="AB27" t="s">
         <v>96</v>
@@ -30848,7 +30858,7 @@
         <v>4.5960826164191698E-2</v>
       </c>
       <c r="AA29">
-        <v>0.20325039359895999</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB29" t="s">
         <v>99</v>
@@ -31093,20 +31103,20 @@
       <c r="V32">
         <v>1.99943882940831E-2</v>
       </c>
-      <c r="W32" t="s">
-        <v>94</v>
+      <c r="W32">
+        <v>5.5943209134435801</v>
       </c>
       <c r="X32">
-        <v>0.61549093449543502</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>95</v>
+        <v>0.67872333473959601</v>
+      </c>
+      <c r="Y32">
+        <v>257.32527302804903</v>
       </c>
       <c r="Z32">
-        <v>5.3457950029002797E-2</v>
+        <v>7.2121690971277894E-2</v>
       </c>
       <c r="AA32">
-        <v>0.20325039359895999</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB32" t="s">
         <v>100</v>
@@ -31364,7 +31374,7 @@
         <v>0.20616701603660101</v>
       </c>
       <c r="AA35">
-        <v>0.42264238287503197</v>
+        <v>0.44518271132631398</v>
       </c>
       <c r="AB35" t="s">
         <v>99</v>
@@ -31450,7 +31460,7 @@
         <v>5.15922096371315E-2</v>
       </c>
       <c r="AA36">
-        <v>0.20325039359895999</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB36" t="s">
         <v>99</v>
@@ -31794,7 +31804,7 @@
         <v>7.2121690971277894E-2</v>
       </c>
       <c r="AA40">
-        <v>0.220958283643088</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB40" t="s">
         <v>99</v>
@@ -31966,7 +31976,7 @@
         <v>4.7299416074530101E-2</v>
       </c>
       <c r="AA42">
-        <v>0.20325039359895999</v>
+        <v>0.25778466425026902</v>
       </c>
       <c r="AB42" t="s">
         <v>99</v>
